--- a/大秦东出pop需求表.xlsx
+++ b/大秦东出pop需求表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czxdc\Documents\Paradox Interactive\Victoria 3\mod\BreakOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41238C2-5189-484C-AB2E-38902A40886A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D53843-C491-4615-95D7-81D512BEBAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大秦东出pop需求" sheetId="4" r:id="rId1"/>
@@ -7569,7 +7569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41FBF3E-2BE0-4861-8DB7-6730FE45AA44}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -23746,8 +23746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDDD610-E2E9-4695-8E9E-49B0B0E299D5}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -23781,28 +23781,28 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <f>_xlfn.CEILING.MATH(30+($A2)*($A2)*0.35)</f>
-        <v>31</v>
+        <f>_xlfn.CEILING.MATH(25+($A2)*($A2)*0.35)</f>
+        <v>26</v>
       </c>
       <c r="D2">
         <f>B2-C2</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <f>_xlfn.CEILING.MATH(5+($A2-1)*($A2-1)*0.5)</f>
-        <v>5</v>
+        <f>_xlfn.CEILING.MATH(1+($A2-1)*($A2-1)*0.5)</f>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>D2-E2</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <f>_xlfn.CEILING.MATH(10+10*LOG(A2))</f>
-        <v>10</v>
+        <f>_xlfn.CEILING.MATH(12+15*LOG(A2+1))</f>
+        <v>17</v>
       </c>
       <c r="H2">
         <f>F2-G2</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -23814,28 +23814,28 @@
         <v>54</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">_xlfn.CEILING.MATH(30+($A3)*($A3)*0.35)</f>
-        <v>32</v>
+        <f t="shared" ref="C3:C66" si="1">_xlfn.CEILING.MATH(25+($A3)*($A3)*0.35)</f>
+        <v>27</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="2">B3-C3</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="3">_xlfn.CEILING.MATH(5+($A3-1)*($A3-1)*0.5)</f>
-        <v>6</v>
+        <f t="shared" ref="E3:E66" si="3">_xlfn.CEILING.MATH(1+($A3-1)*($A3-1)*0.5)</f>
+        <v>2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="4">D3-E3</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="5">_xlfn.CEILING.MATH(10+10*LOG(A3))</f>
-        <v>14</v>
+        <f t="shared" ref="G3:G66" si="5">_xlfn.CEILING.MATH(12+15*LOG(A3+1))</f>
+        <v>20</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="6">F3-G3</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -23848,27 +23848,27 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -23881,27 +23881,27 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -23920,27 +23920,27 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I6">
         <f>_xlfn.CEILING.MATH(13+($A6-5)*($A6-5)*0.75)</f>
@@ -23948,7 +23948,7 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J10" si="7">H6-I6</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -23961,27 +23961,27 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I70" si="8">_xlfn.CEILING.MATH(13+($A7-5)*($A7-5)*0.75)</f>
@@ -23989,7 +23989,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -24002,27 +24002,27 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I8">
         <f t="shared" si="8"/>
@@ -24030,7 +24030,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -24043,27 +24043,27 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9">
         <f t="shared" si="8"/>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -24084,27 +24084,27 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <f t="shared" si="8"/>
@@ -24112,7 +24112,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -24131,27 +24131,27 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <f t="shared" si="8"/>
@@ -24159,7 +24159,7 @@
       </c>
       <c r="J11">
         <f>H11-I11</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11">
         <f>_xlfn.CEILING.MATH(($A11-10)*($A11-10)*1.3+15)</f>
@@ -24167,7 +24167,7 @@
       </c>
       <c r="L11">
         <f>J11-K11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -24180,27 +24180,27 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12">
         <f t="shared" si="8"/>
@@ -24208,7 +24208,7 @@
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J75" si="9">H12-I12</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:K75" si="10">_xlfn.CEILING.MATH(($A12-10)*($A12-10)*1.3+15)</f>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="L12">
         <f t="shared" ref="L12:L17" si="11">J12-K12</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -24229,27 +24229,27 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <f t="shared" si="8"/>
@@ -24257,7 +24257,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <f t="shared" si="10"/>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -24278,27 +24278,27 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14">
         <f t="shared" si="8"/>
@@ -24306,7 +24306,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <f t="shared" si="10"/>
@@ -24314,7 +24314,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14" t="s">
         <v>17</v>
@@ -24333,27 +24333,27 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I15">
         <f t="shared" si="8"/>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <f t="shared" si="10"/>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <f>_xlfn.CEILING.MATH(($A15-14)*($A15-14)*1.5+5)</f>
@@ -24377,7 +24377,7 @@
       </c>
       <c r="N15">
         <f>L15-M15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -24390,23 +24390,23 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
@@ -24447,27 +24447,27 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I17">
         <f t="shared" si="8"/>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="9"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17">
         <f t="shared" si="10"/>
@@ -24483,7 +24483,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M17">
         <f t="shared" si="12"/>
@@ -24491,7 +24491,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
@@ -24504,27 +24504,27 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I18">
         <f t="shared" si="8"/>
@@ -24532,7 +24532,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="9"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18">
         <f t="shared" si="10"/>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="L18">
         <f t="shared" ref="L18:L75" si="14">J18-K18</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M18">
         <f t="shared" si="12"/>
@@ -24548,7 +24548,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O18" t="s">
         <v>23</v>
@@ -24567,23 +24567,23 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
@@ -24632,23 +24632,23 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
@@ -24703,27 +24703,27 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I21">
         <f t="shared" si="8"/>
@@ -24731,7 +24731,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="9"/>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K21">
         <f t="shared" si="10"/>
@@ -24739,7 +24739,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="14"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21">
         <f t="shared" si="12"/>
@@ -24747,7 +24747,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="13"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O21">
         <f t="shared" si="15"/>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21">
         <f>_xlfn.CEILING.MATH(($A21-20)*($A21-18)*3+5)</f>
@@ -24763,7 +24763,7 @@
       </c>
       <c r="R21">
         <f>P21-Q21</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
@@ -24776,23 +24776,23 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
@@ -24849,23 +24849,23 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
@@ -24922,23 +24922,23 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
@@ -24995,23 +24995,23 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
@@ -25068,27 +25068,27 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>1159</v>
+        <v>1168</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I26">
         <f t="shared" si="8"/>
@@ -25096,7 +25096,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="9"/>
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K26">
         <f t="shared" si="10"/>
@@ -25104,7 +25104,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="14"/>
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M26">
         <f t="shared" si="12"/>
@@ -25112,7 +25112,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="13"/>
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O26">
         <f t="shared" si="15"/>
@@ -25120,7 +25120,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="16"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <f t="shared" si="17"/>
@@ -25128,7 +25128,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="18"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
@@ -25141,23 +25141,23 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>1392</v>
+        <v>1401</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
@@ -25214,23 +25214,23 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>1667</v>
+        <v>1676</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
@@ -25287,23 +25287,23 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>2363</v>
+        <v>2368</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <f t="shared" si="6"/>
@@ -25360,27 +25360,27 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>2775</v>
+        <v>2780</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>2378</v>
+        <v>2387</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
@@ -25388,7 +25388,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="K30">
         <f t="shared" si="10"/>
@@ -25396,7 +25396,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="14"/>
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="M30">
         <f t="shared" si="12"/>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="13"/>
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O30">
         <f t="shared" si="15"/>
@@ -25412,7 +25412,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="16"/>
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q30">
         <f t="shared" si="17"/>
@@ -25420,7 +25420,7 @@
       </c>
       <c r="R30">
         <f t="shared" si="18"/>
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S30" t="s">
         <v>22</v>
@@ -25439,27 +25439,27 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>3256</v>
+        <v>3261</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>2830</v>
+        <v>2839</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <f t="shared" si="6"/>
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="I31">
         <f t="shared" si="8"/>
@@ -25467,7 +25467,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="9"/>
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="K31">
         <f t="shared" si="10"/>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="14"/>
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="M31">
         <f t="shared" si="12"/>
@@ -25483,7 +25483,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="13"/>
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="O31">
         <f t="shared" si="15"/>
@@ -25491,7 +25491,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="16"/>
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Q31">
         <f t="shared" si="17"/>
@@ -25499,7 +25499,7 @@
       </c>
       <c r="R31">
         <f t="shared" si="18"/>
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S31">
         <f>_xlfn.CEILING.MATH(($A31-25)*($A31-25)*23)</f>
@@ -25507,7 +25507,7 @@
       </c>
       <c r="T31">
         <f>R31-S31</f>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
@@ -25520,27 +25520,27 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>3817</v>
+        <v>3822</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>3362</v>
+        <v>3371</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <f t="shared" si="6"/>
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="I32">
         <f t="shared" si="8"/>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="9"/>
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="K32">
         <f t="shared" si="10"/>
@@ -25556,7 +25556,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="14"/>
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="M32">
         <f t="shared" si="12"/>
@@ -25564,7 +25564,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="13"/>
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="O32">
         <f t="shared" si="15"/>
@@ -25572,7 +25572,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="16"/>
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="Q32">
         <f t="shared" si="17"/>
@@ -25580,7 +25580,7 @@
       </c>
       <c r="R32">
         <f t="shared" si="18"/>
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="S32">
         <f t="shared" ref="S32:S95" si="19">_xlfn.CEILING.MATH(($A32-25)*($A32-25)*23)</f>
@@ -25588,7 +25588,7 @@
       </c>
       <c r="T32">
         <f t="shared" ref="T32:T95" si="20">R32-S32</f>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
@@ -25601,23 +25601,23 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>4472</v>
+        <v>4477</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>3986</v>
+        <v>3995</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <f t="shared" si="6"/>
@@ -25682,23 +25682,23 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>4718</v>
+        <v>4727</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <f t="shared" si="6"/>
@@ -25763,27 +25763,27 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>6126</v>
+        <v>6131</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>5576</v>
+        <v>5585</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <f t="shared" si="6"/>
-        <v>5550</v>
+        <v>5549</v>
       </c>
       <c r="I35">
         <f t="shared" si="8"/>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>4906</v>
+        <v>4905</v>
       </c>
       <c r="K35">
         <f t="shared" si="10"/>
@@ -25799,7 +25799,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="14"/>
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="M35">
         <f t="shared" si="12"/>
@@ -25807,7 +25807,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="13"/>
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="O35">
         <f t="shared" si="15"/>
@@ -25815,7 +25815,7 @@
       </c>
       <c r="P35">
         <f t="shared" si="16"/>
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="Q35">
         <f t="shared" si="17"/>
@@ -25823,7 +25823,7 @@
       </c>
       <c r="R35">
         <f t="shared" si="18"/>
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="S35">
         <f t="shared" si="19"/>
@@ -25831,7 +25831,7 @@
       </c>
       <c r="T35">
         <f t="shared" si="20"/>
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U35" t="s">
         <v>28</v>
@@ -25850,27 +25850,27 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>7164</v>
+        <v>7169</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>6581</v>
+        <v>6590</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
-        <v>6555</v>
+        <v>6554</v>
       </c>
       <c r="I36">
         <f t="shared" si="8"/>
@@ -25878,7 +25878,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="9"/>
-        <v>5867</v>
+        <v>5866</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
@@ -25886,7 +25886,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="14"/>
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="M36">
         <f t="shared" si="12"/>
@@ -25894,7 +25894,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="13"/>
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="O36">
         <f t="shared" si="15"/>
@@ -25902,7 +25902,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="16"/>
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="Q36">
         <f t="shared" si="17"/>
@@ -25910,7 +25910,7 @@
       </c>
       <c r="R36">
         <f t="shared" si="18"/>
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="S36">
         <f t="shared" si="19"/>
@@ -25918,7 +25918,7 @@
       </c>
       <c r="T36">
         <f t="shared" si="20"/>
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U36">
         <f>_xlfn.CEILING.MATH(($A36-32)*($A36-32)*45)</f>
@@ -25926,7 +25926,7 @@
       </c>
       <c r="V36">
         <f>T36-U36</f>
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
@@ -25939,27 +25939,27 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>8373</v>
+        <v>8378</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>7755</v>
+        <v>7764</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <f t="shared" si="6"/>
-        <v>7729</v>
+        <v>7728</v>
       </c>
       <c r="I37">
         <f t="shared" si="8"/>
@@ -25967,7 +25967,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="9"/>
-        <v>6995</v>
+        <v>6994</v>
       </c>
       <c r="K37">
         <f t="shared" si="10"/>
@@ -25975,7 +25975,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="14"/>
-        <v>6101</v>
+        <v>6100</v>
       </c>
       <c r="M37">
         <f t="shared" si="12"/>
@@ -25983,7 +25983,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="13"/>
-        <v>5370</v>
+        <v>5369</v>
       </c>
       <c r="O37">
         <f t="shared" si="15"/>
@@ -25991,7 +25991,7 @@
       </c>
       <c r="P37">
         <f t="shared" si="16"/>
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="Q37">
         <f t="shared" si="17"/>
@@ -25999,7 +25999,7 @@
       </c>
       <c r="R37">
         <f t="shared" si="18"/>
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="S37">
         <f t="shared" si="19"/>
@@ -26007,7 +26007,7 @@
       </c>
       <c r="T37">
         <f t="shared" si="20"/>
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U37">
         <f t="shared" ref="U37:U100" si="21">_xlfn.CEILING.MATH(($A37-32)*($A37-32)*45)</f>
@@ -26015,7 +26015,7 @@
       </c>
       <c r="V37">
         <f t="shared" ref="V37:V100" si="22">T37-U37</f>
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
@@ -26028,27 +26028,27 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>9780</v>
+        <v>9785</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>9127</v>
+        <v>9136</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <f t="shared" si="6"/>
-        <v>9101</v>
+        <v>9100</v>
       </c>
       <c r="I38">
         <f t="shared" si="8"/>
@@ -26056,7 +26056,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="9"/>
-        <v>8320</v>
+        <v>8319</v>
       </c>
       <c r="K38">
         <f t="shared" si="10"/>
@@ -26064,7 +26064,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="14"/>
-        <v>7357</v>
+        <v>7356</v>
       </c>
       <c r="M38">
         <f t="shared" si="12"/>
@@ -26072,7 +26072,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="13"/>
-        <v>6558</v>
+        <v>6557</v>
       </c>
       <c r="O38">
         <f t="shared" si="15"/>
@@ -26080,7 +26080,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="16"/>
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="Q38">
         <f t="shared" si="17"/>
@@ -26088,7 +26088,7 @@
       </c>
       <c r="R38">
         <f t="shared" si="18"/>
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="S38">
         <f t="shared" si="19"/>
@@ -26096,7 +26096,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="20"/>
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="U38">
         <f t="shared" si="21"/>
@@ -26104,7 +26104,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="22"/>
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
@@ -26117,27 +26117,27 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>11419</v>
+        <v>11424</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>10729</v>
+        <v>10738</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <f t="shared" si="6"/>
-        <v>10703</v>
+        <v>10702</v>
       </c>
       <c r="I39">
         <f t="shared" si="8"/>
@@ -26145,7 +26145,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="9"/>
-        <v>9873</v>
+        <v>9872</v>
       </c>
       <c r="K39">
         <f t="shared" si="10"/>
@@ -26153,7 +26153,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="14"/>
-        <v>8838</v>
+        <v>8837</v>
       </c>
       <c r="M39">
         <f t="shared" si="12"/>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="13"/>
-        <v>7969</v>
+        <v>7968</v>
       </c>
       <c r="O39">
         <f t="shared" si="15"/>
@@ -26169,7 +26169,7 @@
       </c>
       <c r="P39">
         <f t="shared" si="16"/>
-        <v>6916</v>
+        <v>6915</v>
       </c>
       <c r="Q39">
         <f t="shared" si="17"/>
@@ -26177,7 +26177,7 @@
       </c>
       <c r="R39">
         <f t="shared" si="18"/>
-        <v>5831</v>
+        <v>5830</v>
       </c>
       <c r="S39">
         <f t="shared" si="19"/>
@@ -26185,7 +26185,7 @@
       </c>
       <c r="T39">
         <f t="shared" si="20"/>
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="U39">
         <f t="shared" si="21"/>
@@ -26193,7 +26193,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="22"/>
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
@@ -26206,27 +26206,27 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>13327</v>
+        <v>13332</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>12600</v>
+        <v>12609</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <f t="shared" si="6"/>
-        <v>12574</v>
+        <v>12572</v>
       </c>
       <c r="I40">
         <f t="shared" si="8"/>
@@ -26234,7 +26234,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="9"/>
-        <v>11694</v>
+        <v>11692</v>
       </c>
       <c r="K40">
         <f t="shared" si="10"/>
@@ -26242,7 +26242,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="14"/>
-        <v>10585</v>
+        <v>10583</v>
       </c>
       <c r="M40">
         <f t="shared" si="12"/>
@@ -26250,7 +26250,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="13"/>
-        <v>9642</v>
+        <v>9640</v>
       </c>
       <c r="O40">
         <f t="shared" si="15"/>
@@ -26258,7 +26258,7 @@
       </c>
       <c r="P40">
         <f t="shared" si="16"/>
-        <v>8484</v>
+        <v>8482</v>
       </c>
       <c r="Q40">
         <f t="shared" si="17"/>
@@ -26266,7 +26266,7 @@
       </c>
       <c r="R40">
         <f t="shared" si="18"/>
-        <v>7282</v>
+        <v>7280</v>
       </c>
       <c r="S40">
         <f t="shared" si="19"/>
@@ -26274,7 +26274,7 @@
       </c>
       <c r="T40">
         <f t="shared" si="20"/>
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="U40">
         <f t="shared" si="21"/>
@@ -26282,7 +26282,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="22"/>
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
@@ -26295,27 +26295,27 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>15548</v>
+        <v>15553</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>14782</v>
+        <v>14791</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <f t="shared" si="6"/>
-        <v>14755</v>
+        <v>14754</v>
       </c>
       <c r="I41">
         <f t="shared" si="8"/>
@@ -26323,7 +26323,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="9"/>
-        <v>13823</v>
+        <v>13822</v>
       </c>
       <c r="K41">
         <f t="shared" si="10"/>
@@ -26331,7 +26331,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="14"/>
-        <v>12638</v>
+        <v>12637</v>
       </c>
       <c r="M41">
         <f t="shared" si="12"/>
@@ -26339,7 +26339,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="13"/>
-        <v>11619</v>
+        <v>11618</v>
       </c>
       <c r="O41">
         <f t="shared" si="15"/>
@@ -26347,7 +26347,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="16"/>
-        <v>10351</v>
+        <v>10350</v>
       </c>
       <c r="Q41">
         <f t="shared" si="17"/>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="R41">
         <f t="shared" si="18"/>
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="S41">
         <f t="shared" si="19"/>
@@ -26363,7 +26363,7 @@
       </c>
       <c r="T41">
         <f t="shared" si="20"/>
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="U41">
         <f t="shared" si="21"/>
@@ -26371,7 +26371,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="22"/>
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
@@ -26384,27 +26384,27 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>18130</v>
+        <v>18135</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>17325</v>
+        <v>17334</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <f t="shared" si="6"/>
-        <v>17298</v>
+        <v>17297</v>
       </c>
       <c r="I42">
         <f t="shared" si="8"/>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="9"/>
-        <v>16313</v>
+        <v>16312</v>
       </c>
       <c r="K42">
         <f t="shared" si="10"/>
@@ -26420,7 +26420,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="14"/>
-        <v>15048</v>
+        <v>15047</v>
       </c>
       <c r="M42">
         <f t="shared" si="12"/>
@@ -26428,7 +26428,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="13"/>
-        <v>13949</v>
+        <v>13948</v>
       </c>
       <c r="O42">
         <f t="shared" si="15"/>
@@ -26436,7 +26436,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="16"/>
-        <v>12566</v>
+        <v>12565</v>
       </c>
       <c r="Q42">
         <f t="shared" si="17"/>
@@ -26444,7 +26444,7 @@
       </c>
       <c r="R42">
         <f t="shared" si="18"/>
-        <v>11112</v>
+        <v>11111</v>
       </c>
       <c r="S42">
         <f t="shared" si="19"/>
@@ -26452,7 +26452,7 @@
       </c>
       <c r="T42">
         <f t="shared" si="20"/>
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="U42">
         <f t="shared" si="21"/>
@@ -26460,7 +26460,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="22"/>
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
@@ -26473,27 +26473,27 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>21135</v>
+        <v>21140</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>20289</v>
+        <v>20298</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <f t="shared" si="6"/>
-        <v>20262</v>
+        <v>20261</v>
       </c>
       <c r="I43">
         <f t="shared" si="8"/>
@@ -26501,7 +26501,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="9"/>
-        <v>19222</v>
+        <v>19221</v>
       </c>
       <c r="K43">
         <f t="shared" si="10"/>
@@ -26509,7 +26509,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="14"/>
-        <v>17875</v>
+        <v>17874</v>
       </c>
       <c r="M43">
         <f t="shared" si="12"/>
@@ -26517,7 +26517,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="13"/>
-        <v>16694</v>
+        <v>16693</v>
       </c>
       <c r="O43">
         <f t="shared" si="15"/>
@@ -26525,7 +26525,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="16"/>
-        <v>15191</v>
+        <v>15190</v>
       </c>
       <c r="Q43">
         <f t="shared" si="17"/>
@@ -26533,7 +26533,7 @@
       </c>
       <c r="R43">
         <f t="shared" si="18"/>
-        <v>13602</v>
+        <v>13601</v>
       </c>
       <c r="S43">
         <f t="shared" si="19"/>
@@ -26541,7 +26541,7 @@
       </c>
       <c r="T43">
         <f t="shared" si="20"/>
-        <v>6955</v>
+        <v>6954</v>
       </c>
       <c r="U43">
         <f t="shared" si="21"/>
@@ -26549,7 +26549,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="22"/>
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
@@ -26562,27 +26562,27 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>24631</v>
+        <v>24636</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>23744</v>
+        <v>23753</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <f t="shared" si="6"/>
-        <v>23717</v>
+        <v>23716</v>
       </c>
       <c r="I44">
         <f t="shared" si="8"/>
@@ -26590,7 +26590,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="9"/>
-        <v>22621</v>
+        <v>22620</v>
       </c>
       <c r="K44">
         <f t="shared" si="10"/>
@@ -26598,7 +26598,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="14"/>
-        <v>21190</v>
+        <v>21189</v>
       </c>
       <c r="M44">
         <f t="shared" si="12"/>
@@ -26606,7 +26606,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="13"/>
-        <v>19923</v>
+        <v>19922</v>
       </c>
       <c r="O44">
         <f t="shared" si="15"/>
@@ -26614,7 +26614,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="16"/>
-        <v>18295</v>
+        <v>18294</v>
       </c>
       <c r="Q44">
         <f t="shared" si="17"/>
@@ -26622,7 +26622,7 @@
       </c>
       <c r="R44">
         <f t="shared" si="18"/>
-        <v>16565</v>
+        <v>16564</v>
       </c>
       <c r="S44">
         <f t="shared" si="19"/>
@@ -26630,7 +26630,7 @@
       </c>
       <c r="T44">
         <f t="shared" si="20"/>
-        <v>9113</v>
+        <v>9112</v>
       </c>
       <c r="U44">
         <f t="shared" si="21"/>
@@ -26638,7 +26638,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="22"/>
-        <v>3668</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
@@ -26651,27 +26651,27 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>28696</v>
+        <v>28701</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>27766</v>
+        <v>27775</v>
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <f t="shared" si="6"/>
-        <v>27739</v>
+        <v>27738</v>
       </c>
       <c r="I45">
         <f t="shared" si="8"/>
@@ -26679,7 +26679,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="9"/>
-        <v>26585</v>
+        <v>26584</v>
       </c>
       <c r="K45">
         <f t="shared" si="10"/>
@@ -26687,7 +26687,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="14"/>
-        <v>25067</v>
+        <v>25066</v>
       </c>
       <c r="M45">
         <f t="shared" si="12"/>
@@ -26695,7 +26695,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="13"/>
-        <v>23712</v>
+        <v>23711</v>
       </c>
       <c r="O45">
         <f t="shared" si="15"/>
@@ -26703,7 +26703,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="16"/>
-        <v>21954</v>
+        <v>21953</v>
       </c>
       <c r="Q45">
         <f t="shared" si="17"/>
@@ -26711,7 +26711,7 @@
       </c>
       <c r="R45">
         <f t="shared" si="18"/>
-        <v>20077</v>
+        <v>20076</v>
       </c>
       <c r="S45">
         <f t="shared" si="19"/>
@@ -26719,7 +26719,7 @@
       </c>
       <c r="T45">
         <f t="shared" si="20"/>
-        <v>11774</v>
+        <v>11773</v>
       </c>
       <c r="U45">
         <f t="shared" si="21"/>
@@ -26727,7 +26727,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="22"/>
-        <v>5294</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.35">
@@ -26740,27 +26740,27 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>33424</v>
+        <v>33429</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>32451</v>
+        <v>32460</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <f t="shared" si="6"/>
-        <v>32424</v>
+        <v>32423</v>
       </c>
       <c r="I46">
         <f t="shared" si="8"/>
@@ -26768,7 +26768,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="9"/>
-        <v>31211</v>
+        <v>31210</v>
       </c>
       <c r="K46">
         <f t="shared" si="10"/>
@@ -26776,7 +26776,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="14"/>
-        <v>29603</v>
+        <v>29602</v>
       </c>
       <c r="M46">
         <f t="shared" si="12"/>
@@ -26784,7 +26784,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="13"/>
-        <v>28156</v>
+        <v>28155</v>
       </c>
       <c r="O46">
         <f t="shared" si="15"/>
@@ -26792,7 +26792,7 @@
       </c>
       <c r="P46">
         <f t="shared" si="16"/>
-        <v>26263</v>
+        <v>26262</v>
       </c>
       <c r="Q46">
         <f t="shared" si="17"/>
@@ -26800,7 +26800,7 @@
       </c>
       <c r="R46">
         <f t="shared" si="18"/>
-        <v>24233</v>
+        <v>24232</v>
       </c>
       <c r="S46">
         <f t="shared" si="19"/>
@@ -26808,7 +26808,7 @@
       </c>
       <c r="T46">
         <f t="shared" si="20"/>
-        <v>15033</v>
+        <v>15032</v>
       </c>
       <c r="U46">
         <f t="shared" si="21"/>
@@ -26816,7 +26816,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="22"/>
-        <v>7428</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
@@ -26829,27 +26829,27 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>38920</v>
+        <v>38925</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>37902</v>
+        <v>37911</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <f t="shared" si="6"/>
-        <v>37875</v>
+        <v>37873</v>
       </c>
       <c r="I47">
         <f t="shared" si="8"/>
@@ -26857,7 +26857,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="9"/>
-        <v>36601</v>
+        <v>36599</v>
       </c>
       <c r="K47">
         <f t="shared" si="10"/>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="14"/>
-        <v>34901</v>
+        <v>34899</v>
       </c>
       <c r="M47">
         <f t="shared" si="12"/>
@@ -26873,7 +26873,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="13"/>
-        <v>33360</v>
+        <v>33358</v>
       </c>
       <c r="O47">
         <f t="shared" si="15"/>
@@ -26881,7 +26881,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="16"/>
-        <v>31327</v>
+        <v>31325</v>
       </c>
       <c r="Q47">
         <f t="shared" si="17"/>
@@ -26889,7 +26889,7 @@
       </c>
       <c r="R47">
         <f t="shared" si="18"/>
-        <v>29138</v>
+        <v>29136</v>
       </c>
       <c r="S47">
         <f t="shared" si="19"/>
@@ -26897,7 +26897,7 @@
       </c>
       <c r="T47">
         <f t="shared" si="20"/>
-        <v>18995</v>
+        <v>18993</v>
       </c>
       <c r="U47">
         <f t="shared" si="21"/>
@@ -26905,7 +26905,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="22"/>
-        <v>10175</v>
+        <v>10173</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
@@ -26918,27 +26918,27 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>45311</v>
+        <v>45316</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>44248</v>
+        <v>44257</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <f t="shared" si="6"/>
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="I48">
         <f t="shared" si="8"/>
@@ -26946,7 +26946,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="9"/>
-        <v>42885</v>
+        <v>42883</v>
       </c>
       <c r="K48">
         <f t="shared" si="10"/>
@@ -26954,7 +26954,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="14"/>
-        <v>41090</v>
+        <v>41088</v>
       </c>
       <c r="M48">
         <f t="shared" si="12"/>
@@ -26962,7 +26962,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="13"/>
-        <v>39451</v>
+        <v>39449</v>
       </c>
       <c r="O48">
         <f t="shared" si="15"/>
@@ -26970,7 +26970,7 @@
       </c>
       <c r="P48">
         <f t="shared" si="16"/>
-        <v>37273</v>
+        <v>37271</v>
       </c>
       <c r="Q48">
         <f t="shared" si="17"/>
@@ -26978,7 +26978,7 @@
       </c>
       <c r="R48">
         <f t="shared" si="18"/>
-        <v>34919</v>
+        <v>34917</v>
       </c>
       <c r="S48">
         <f t="shared" si="19"/>
@@ -26986,7 +26986,7 @@
       </c>
       <c r="T48">
         <f t="shared" si="20"/>
-        <v>23787</v>
+        <v>23785</v>
       </c>
       <c r="U48">
         <f t="shared" si="21"/>
@@ -26994,7 +26994,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="22"/>
-        <v>13662</v>
+        <v>13660</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
@@ -27007,27 +27007,27 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>52741</v>
+        <v>52746</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>51631</v>
+        <v>51640</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <f t="shared" si="6"/>
-        <v>51604</v>
+        <v>51602</v>
       </c>
       <c r="I49">
         <f t="shared" si="8"/>
@@ -27035,7 +27035,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="9"/>
-        <v>50204</v>
+        <v>50202</v>
       </c>
       <c r="K49">
         <f t="shared" si="10"/>
@@ -27043,7 +27043,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="14"/>
-        <v>48311</v>
+        <v>48309</v>
       </c>
       <c r="M49">
         <f t="shared" si="12"/>
@@ -27051,7 +27051,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="13"/>
-        <v>46572</v>
+        <v>46570</v>
       </c>
       <c r="O49">
         <f t="shared" si="15"/>
@@ -27059,7 +27059,7 @@
       </c>
       <c r="P49">
         <f t="shared" si="16"/>
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c r="Q49">
         <f t="shared" si="17"/>
@@ -27067,7 +27067,7 @@
       </c>
       <c r="R49">
         <f t="shared" si="18"/>
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="S49">
         <f t="shared" si="19"/>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="T49">
         <f t="shared" si="20"/>
-        <v>29552</v>
+        <v>29550</v>
       </c>
       <c r="U49">
         <f t="shared" si="21"/>
@@ -27083,7 +27083,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="22"/>
-        <v>18032</v>
+        <v>18030</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
@@ -27096,27 +27096,27 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>61377</v>
+        <v>61382</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>60220</v>
+        <v>60229</v>
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <f t="shared" si="6"/>
-        <v>60193</v>
+        <v>60191</v>
       </c>
       <c r="I50">
         <f t="shared" si="8"/>
@@ -27124,7 +27124,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="9"/>
-        <v>58728</v>
+        <v>58726</v>
       </c>
       <c r="K50">
         <f t="shared" si="10"/>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="L50">
         <f t="shared" si="14"/>
-        <v>56735</v>
+        <v>56733</v>
       </c>
       <c r="M50">
         <f t="shared" si="12"/>
@@ -27140,7 +27140,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="13"/>
-        <v>54892</v>
+        <v>54890</v>
       </c>
       <c r="O50">
         <f t="shared" si="15"/>
@@ -27148,7 +27148,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="16"/>
-        <v>52409</v>
+        <v>52407</v>
       </c>
       <c r="Q50">
         <f t="shared" si="17"/>
@@ -27156,7 +27156,7 @@
       </c>
       <c r="R50">
         <f t="shared" si="18"/>
-        <v>49707</v>
+        <v>49705</v>
       </c>
       <c r="S50">
         <f t="shared" si="19"/>
@@ -27164,7 +27164,7 @@
       </c>
       <c r="T50">
         <f t="shared" si="20"/>
-        <v>36459</v>
+        <v>36457</v>
       </c>
       <c r="U50">
         <f t="shared" si="21"/>
@@ -27172,7 +27172,7 @@
       </c>
       <c r="V50">
         <f t="shared" si="22"/>
-        <v>23454</v>
+        <v>23452</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
@@ -27185,27 +27185,27 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>71417</v>
+        <v>71422</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>70211</v>
+        <v>70220</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <f t="shared" si="6"/>
-        <v>70184</v>
+        <v>70182</v>
       </c>
       <c r="I51">
         <f t="shared" si="8"/>
@@ -27213,7 +27213,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="9"/>
-        <v>68652</v>
+        <v>68650</v>
       </c>
       <c r="K51">
         <f t="shared" si="10"/>
@@ -27221,7 +27221,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="14"/>
-        <v>66557</v>
+        <v>66555</v>
       </c>
       <c r="M51">
         <f t="shared" si="12"/>
@@ -27229,7 +27229,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="13"/>
-        <v>64608</v>
+        <v>64606</v>
       </c>
       <c r="O51">
         <f t="shared" si="15"/>
@@ -27237,7 +27237,7 @@
       </c>
       <c r="P51">
         <f t="shared" si="16"/>
-        <v>61965</v>
+        <v>61963</v>
       </c>
       <c r="Q51">
         <f t="shared" si="17"/>
@@ -27245,7 +27245,7 @@
       </c>
       <c r="R51">
         <f t="shared" si="18"/>
-        <v>59080</v>
+        <v>59078</v>
       </c>
       <c r="S51">
         <f t="shared" si="19"/>
@@ -27253,7 +27253,7 @@
       </c>
       <c r="T51">
         <f t="shared" si="20"/>
-        <v>44705</v>
+        <v>44703</v>
       </c>
       <c r="U51">
         <f t="shared" si="21"/>
@@ -27261,7 +27261,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="22"/>
-        <v>30125</v>
+        <v>30123</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
@@ -27274,27 +27274,27 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>83085</v>
+        <v>83090</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>81830</v>
+        <v>81839</v>
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <f t="shared" si="6"/>
-        <v>81802</v>
+        <v>81801</v>
       </c>
       <c r="I52">
         <f t="shared" si="8"/>
@@ -27302,7 +27302,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="9"/>
-        <v>80202</v>
+        <v>80201</v>
       </c>
       <c r="K52">
         <f t="shared" si="10"/>
@@ -27310,7 +27310,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="14"/>
-        <v>78001</v>
+        <v>78000</v>
       </c>
       <c r="M52">
         <f t="shared" si="12"/>
@@ -27318,7 +27318,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="13"/>
-        <v>75942</v>
+        <v>75941</v>
       </c>
       <c r="O52">
         <f t="shared" si="15"/>
@@ -27326,7 +27326,7 @@
       </c>
       <c r="P52">
         <f t="shared" si="16"/>
-        <v>73134</v>
+        <v>73133</v>
       </c>
       <c r="Q52">
         <f t="shared" si="17"/>
@@ -27334,7 +27334,7 @@
       </c>
       <c r="R52">
         <f t="shared" si="18"/>
-        <v>70060</v>
+        <v>70059</v>
       </c>
       <c r="S52">
         <f t="shared" si="19"/>
@@ -27342,7 +27342,7 @@
       </c>
       <c r="T52">
         <f t="shared" si="20"/>
-        <v>54512</v>
+        <v>54511</v>
       </c>
       <c r="U52">
         <f t="shared" si="21"/>
@@ -27350,7 +27350,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="22"/>
-        <v>38267</v>
+        <v>38266</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
@@ -27363,27 +27363,27 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>96648</v>
+        <v>96653</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>95342</v>
+        <v>95351</v>
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <f t="shared" si="6"/>
-        <v>95314</v>
+        <v>95313</v>
       </c>
       <c r="I53">
         <f t="shared" si="8"/>
@@ -27391,7 +27391,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="9"/>
-        <v>93644</v>
+        <v>93643</v>
       </c>
       <c r="K53">
         <f t="shared" si="10"/>
@@ -27399,7 +27399,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="14"/>
-        <v>91335</v>
+        <v>91334</v>
       </c>
       <c r="M53">
         <f t="shared" si="12"/>
@@ -27407,7 +27407,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="13"/>
-        <v>89164</v>
+        <v>89163</v>
       </c>
       <c r="O53">
         <f t="shared" si="15"/>
@@ -27415,7 +27415,7 @@
       </c>
       <c r="P53">
         <f t="shared" si="16"/>
-        <v>86186</v>
+        <v>86185</v>
       </c>
       <c r="Q53">
         <f t="shared" si="17"/>
@@ -27423,7 +27423,7 @@
       </c>
       <c r="R53">
         <f t="shared" si="18"/>
-        <v>82917</v>
+        <v>82916</v>
       </c>
       <c r="S53">
         <f t="shared" si="19"/>
@@ -27431,7 +27431,7 @@
       </c>
       <c r="T53">
         <f t="shared" si="20"/>
-        <v>66150</v>
+        <v>66149</v>
       </c>
       <c r="U53">
         <f t="shared" si="21"/>
@@ -27439,7 +27439,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="22"/>
-        <v>48150</v>
+        <v>48149</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
@@ -27452,27 +27452,27 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>112409</v>
+        <v>112414</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>111052</v>
+        <v>111061</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <f t="shared" si="6"/>
-        <v>111024</v>
+        <v>111023</v>
       </c>
       <c r="I54">
         <f t="shared" si="8"/>
@@ -27480,7 +27480,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="9"/>
-        <v>109283</v>
+        <v>109282</v>
       </c>
       <c r="K54">
         <f t="shared" si="10"/>
@@ -27488,7 +27488,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="14"/>
-        <v>106864</v>
+        <v>106863</v>
       </c>
       <c r="M54">
         <f t="shared" si="12"/>
@@ -27496,7 +27496,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="13"/>
-        <v>104577</v>
+        <v>104576</v>
       </c>
       <c r="O54">
         <f t="shared" si="15"/>
@@ -27504,7 +27504,7 @@
       </c>
       <c r="P54">
         <f t="shared" si="16"/>
-        <v>101424</v>
+        <v>101423</v>
       </c>
       <c r="Q54">
         <f t="shared" si="17"/>
@@ -27512,7 +27512,7 @@
       </c>
       <c r="R54">
         <f t="shared" si="18"/>
-        <v>97954</v>
+        <v>97953</v>
       </c>
       <c r="S54">
         <f t="shared" si="19"/>
@@ -27520,7 +27520,7 @@
       </c>
       <c r="T54">
         <f t="shared" si="20"/>
-        <v>79922</v>
+        <v>79921</v>
       </c>
       <c r="U54">
         <f t="shared" si="21"/>
@@ -27528,7 +27528,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="22"/>
-        <v>60077</v>
+        <v>60076</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
@@ -27541,27 +27541,27 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>130728</v>
+        <v>130733</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>129318</v>
+        <v>129327</v>
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <f t="shared" si="6"/>
-        <v>129290</v>
+        <v>129288</v>
       </c>
       <c r="I55">
         <f t="shared" si="8"/>
@@ -27569,7 +27569,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="9"/>
-        <v>127476</v>
+        <v>127474</v>
       </c>
       <c r="K55">
         <f t="shared" si="10"/>
@@ -27577,7 +27577,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="14"/>
-        <v>124944</v>
+        <v>124942</v>
       </c>
       <c r="M55">
         <f t="shared" si="12"/>
@@ -27585,7 +27585,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="13"/>
-        <v>122539</v>
+        <v>122537</v>
       </c>
       <c r="O55">
         <f t="shared" si="15"/>
@@ -27593,7 +27593,7 @@
       </c>
       <c r="P55">
         <f t="shared" si="16"/>
-        <v>119206</v>
+        <v>119204</v>
       </c>
       <c r="Q55">
         <f t="shared" si="17"/>
@@ -27601,7 +27601,7 @@
       </c>
       <c r="R55">
         <f t="shared" si="18"/>
-        <v>115529</v>
+        <v>115527</v>
       </c>
       <c r="S55">
         <f t="shared" si="19"/>
@@ -27609,7 +27609,7 @@
       </c>
       <c r="T55">
         <f t="shared" si="20"/>
-        <v>96186</v>
+        <v>96184</v>
       </c>
       <c r="U55">
         <f t="shared" si="21"/>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="22"/>
-        <v>74406</v>
+        <v>74404</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
@@ -27630,27 +27630,27 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>152017</v>
+        <v>152022</v>
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>150554</v>
+        <v>150563</v>
       </c>
       <c r="G56">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <f t="shared" si="6"/>
-        <v>150526</v>
+        <v>150524</v>
       </c>
       <c r="I56">
         <f t="shared" si="8"/>
@@ -27658,7 +27658,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="9"/>
-        <v>148638</v>
+        <v>148636</v>
       </c>
       <c r="K56">
         <f t="shared" si="10"/>
@@ -27666,7 +27666,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="14"/>
-        <v>145990</v>
+        <v>145988</v>
       </c>
       <c r="M56">
         <f t="shared" si="12"/>
@@ -27674,7 +27674,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="13"/>
-        <v>143463</v>
+        <v>143461</v>
       </c>
       <c r="O56">
         <f t="shared" si="15"/>
@@ -27682,7 +27682,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="16"/>
-        <v>139945</v>
+        <v>139943</v>
       </c>
       <c r="Q56">
         <f t="shared" si="17"/>
@@ -27690,7 +27690,7 @@
       </c>
       <c r="R56">
         <f t="shared" si="18"/>
-        <v>136055</v>
+        <v>136053</v>
       </c>
       <c r="S56">
         <f t="shared" si="19"/>
@@ -27698,7 +27698,7 @@
       </c>
       <c r="T56">
         <f t="shared" si="20"/>
-        <v>115355</v>
+        <v>115353</v>
       </c>
       <c r="U56">
         <f t="shared" si="21"/>
@@ -27706,7 +27706,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="22"/>
-        <v>91550</v>
+        <v>91548</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
@@ -27719,27 +27719,27 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>176755</v>
+        <v>176760</v>
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>175237</v>
+        <v>175246</v>
       </c>
       <c r="G57">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <f t="shared" si="6"/>
-        <v>175209</v>
+        <v>175207</v>
       </c>
       <c r="I57">
         <f t="shared" si="8"/>
@@ -27747,7 +27747,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="9"/>
-        <v>173245</v>
+        <v>173243</v>
       </c>
       <c r="K57">
         <f t="shared" si="10"/>
@@ -27755,7 +27755,7 @@
       </c>
       <c r="L57">
         <f t="shared" si="14"/>
-        <v>170479</v>
+        <v>170477</v>
       </c>
       <c r="M57">
         <f t="shared" si="12"/>
@@ -27763,7 +27763,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="13"/>
-        <v>167828</v>
+        <v>167826</v>
       </c>
       <c r="O57">
         <f t="shared" si="15"/>
@@ -27771,7 +27771,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="16"/>
-        <v>164120</v>
+        <v>164118</v>
       </c>
       <c r="Q57">
         <f t="shared" si="17"/>
@@ -27779,7 +27779,7 @@
       </c>
       <c r="R57">
         <f t="shared" si="18"/>
-        <v>160011</v>
+        <v>160009</v>
       </c>
       <c r="S57">
         <f t="shared" si="19"/>
@@ -27787,7 +27787,7 @@
       </c>
       <c r="T57">
         <f t="shared" si="20"/>
-        <v>137908</v>
+        <v>137906</v>
       </c>
       <c r="U57">
         <f t="shared" si="21"/>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="V57">
         <f t="shared" si="22"/>
-        <v>111988</v>
+        <v>111986</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
@@ -27808,27 +27808,27 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>205503</v>
+        <v>205508</v>
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>203930</v>
+        <v>203939</v>
       </c>
       <c r="G58">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H58">
         <f t="shared" si="6"/>
-        <v>203902</v>
+        <v>203900</v>
       </c>
       <c r="I58">
         <f t="shared" si="8"/>
@@ -27836,7 +27836,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="9"/>
-        <v>201861</v>
+        <v>201859</v>
       </c>
       <c r="K58">
         <f t="shared" si="10"/>
@@ -27844,7 +27844,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="14"/>
-        <v>198974</v>
+        <v>198972</v>
       </c>
       <c r="M58">
         <f t="shared" si="12"/>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="13"/>
-        <v>196195</v>
+        <v>196193</v>
       </c>
       <c r="O58">
         <f t="shared" si="15"/>
@@ -27860,7 +27860,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="16"/>
-        <v>192292</v>
+        <v>192290</v>
       </c>
       <c r="Q58">
         <f t="shared" si="17"/>
@@ -27868,7 +27868,7 @@
       </c>
       <c r="R58">
         <f t="shared" si="18"/>
-        <v>187958</v>
+        <v>187956</v>
       </c>
       <c r="S58">
         <f t="shared" si="19"/>
@@ -27876,7 +27876,7 @@
       </c>
       <c r="T58">
         <f t="shared" si="20"/>
-        <v>164406</v>
+        <v>164404</v>
       </c>
       <c r="U58">
         <f t="shared" si="21"/>
@@ -27884,7 +27884,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="22"/>
-        <v>136281</v>
+        <v>136279</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
@@ -27897,27 +27897,27 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>238909</v>
+        <v>238914</v>
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>237279</v>
+        <v>237288</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <f t="shared" si="6"/>
-        <v>237251</v>
+        <v>237249</v>
       </c>
       <c r="I59">
         <f t="shared" si="8"/>
@@ -27925,7 +27925,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="9"/>
-        <v>235131</v>
+        <v>235129</v>
       </c>
       <c r="K59">
         <f t="shared" si="10"/>
@@ -27933,7 +27933,7 @@
       </c>
       <c r="L59">
         <f t="shared" si="14"/>
-        <v>232120</v>
+        <v>232118</v>
       </c>
       <c r="M59">
         <f t="shared" si="12"/>
@@ -27941,7 +27941,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="13"/>
-        <v>229211</v>
+        <v>229209</v>
       </c>
       <c r="O59">
         <f t="shared" si="15"/>
@@ -27949,7 +27949,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="16"/>
-        <v>225108</v>
+        <v>225106</v>
       </c>
       <c r="Q59">
         <f t="shared" si="17"/>
@@ -27957,7 +27957,7 @@
       </c>
       <c r="R59">
         <f t="shared" si="18"/>
-        <v>220543</v>
+        <v>220541</v>
       </c>
       <c r="S59">
         <f t="shared" si="19"/>
@@ -27965,7 +27965,7 @@
       </c>
       <c r="T59">
         <f t="shared" si="20"/>
-        <v>195496</v>
+        <v>195494</v>
       </c>
       <c r="U59">
         <f t="shared" si="21"/>
@@ -27973,7 +27973,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="22"/>
-        <v>165076</v>
+        <v>165074</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
@@ -27986,27 +27986,27 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>277727</v>
+        <v>277732</v>
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>276040</v>
+        <v>276049</v>
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H60">
         <f t="shared" si="6"/>
-        <v>276012</v>
+        <v>276010</v>
       </c>
       <c r="I60">
         <f t="shared" si="8"/>
@@ -28014,7 +28014,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="9"/>
-        <v>273812</v>
+        <v>273810</v>
       </c>
       <c r="K60">
         <f t="shared" si="10"/>
@@ -28022,7 +28022,7 @@
       </c>
       <c r="L60">
         <f t="shared" si="14"/>
-        <v>270675</v>
+        <v>270673</v>
       </c>
       <c r="M60">
         <f t="shared" si="12"/>
@@ -28030,7 +28030,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="13"/>
-        <v>267632</v>
+        <v>267630</v>
       </c>
       <c r="O60">
         <f t="shared" si="15"/>
@@ -28038,7 +28038,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="16"/>
-        <v>263324</v>
+        <v>263322</v>
       </c>
       <c r="Q60">
         <f t="shared" si="17"/>
@@ -28046,7 +28046,7 @@
       </c>
       <c r="R60">
         <f t="shared" si="18"/>
-        <v>258522</v>
+        <v>258520</v>
       </c>
       <c r="S60">
         <f t="shared" si="19"/>
@@ -28054,7 +28054,7 @@
       </c>
       <c r="T60">
         <f t="shared" si="20"/>
-        <v>231934</v>
+        <v>231932</v>
       </c>
       <c r="U60">
         <f t="shared" si="21"/>
@@ -28062,7 +28062,7 @@
       </c>
       <c r="V60">
         <f t="shared" si="22"/>
-        <v>199129</v>
+        <v>199127</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
@@ -28075,27 +28075,27 @@
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>322834</v>
+        <v>322839</v>
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>321088</v>
+        <v>321097</v>
       </c>
       <c r="G61">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <f t="shared" si="6"/>
-        <v>321060</v>
+        <v>321058</v>
       </c>
       <c r="I61">
         <f t="shared" si="8"/>
@@ -28103,7 +28103,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="9"/>
-        <v>318778</v>
+        <v>318776</v>
       </c>
       <c r="K61">
         <f t="shared" si="10"/>
@@ -28111,7 +28111,7 @@
       </c>
       <c r="L61">
         <f t="shared" si="14"/>
-        <v>315513</v>
+        <v>315511</v>
       </c>
       <c r="M61">
         <f t="shared" si="12"/>
@@ -28119,7 +28119,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="13"/>
-        <v>312334</v>
+        <v>312332</v>
       </c>
       <c r="O61">
         <f t="shared" si="15"/>
@@ -28127,7 +28127,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="16"/>
-        <v>307816</v>
+        <v>307814</v>
       </c>
       <c r="Q61">
         <f t="shared" si="17"/>
@@ -28135,7 +28135,7 @@
       </c>
       <c r="R61">
         <f t="shared" si="18"/>
-        <v>302771</v>
+        <v>302769</v>
       </c>
       <c r="S61">
         <f t="shared" si="19"/>
@@ -28143,7 +28143,7 @@
       </c>
       <c r="T61">
         <f t="shared" si="20"/>
-        <v>274596</v>
+        <v>274594</v>
       </c>
       <c r="U61">
         <f t="shared" si="21"/>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="22"/>
-        <v>239316</v>
+        <v>239314</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
@@ -28164,27 +28164,27 @@
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>375245</v>
+        <v>375250</v>
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>373440</v>
+        <v>373449</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <f t="shared" si="6"/>
-        <v>373412</v>
+        <v>373410</v>
       </c>
       <c r="I62">
         <f t="shared" si="8"/>
@@ -28192,7 +28192,7 @@
       </c>
       <c r="J62">
         <f t="shared" si="9"/>
-        <v>371047</v>
+        <v>371045</v>
       </c>
       <c r="K62">
         <f t="shared" si="10"/>
@@ -28200,7 +28200,7 @@
       </c>
       <c r="L62">
         <f t="shared" si="14"/>
-        <v>367650</v>
+        <v>367648</v>
       </c>
       <c r="M62">
         <f t="shared" si="12"/>
@@ -28208,7 +28208,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="13"/>
-        <v>364331</v>
+        <v>364329</v>
       </c>
       <c r="O62">
         <f t="shared" si="15"/>
@@ -28216,7 +28216,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="16"/>
-        <v>359598</v>
+        <v>359596</v>
       </c>
       <c r="Q62">
         <f t="shared" si="17"/>
@@ -28224,7 +28224,7 @@
       </c>
       <c r="R62">
         <f t="shared" si="18"/>
-        <v>354304</v>
+        <v>354302</v>
       </c>
       <c r="S62">
         <f t="shared" si="19"/>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="T62">
         <f t="shared" si="20"/>
-        <v>324496</v>
+        <v>324494</v>
       </c>
       <c r="U62">
         <f t="shared" si="21"/>
@@ -28240,7 +28240,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="22"/>
-        <v>286651</v>
+        <v>286649</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
@@ -28253,27 +28253,27 @@
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>436145</v>
+        <v>436150</v>
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>434279</v>
+        <v>434288</v>
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <f t="shared" si="6"/>
-        <v>434251</v>
+        <v>434249</v>
       </c>
       <c r="I63">
         <f t="shared" si="8"/>
@@ -28281,7 +28281,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="9"/>
-        <v>431801</v>
+        <v>431799</v>
       </c>
       <c r="K63">
         <f t="shared" si="10"/>
@@ -28289,7 +28289,7 @@
       </c>
       <c r="L63">
         <f t="shared" si="14"/>
-        <v>428270</v>
+        <v>428268</v>
       </c>
       <c r="M63">
         <f t="shared" si="12"/>
@@ -28297,7 +28297,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="13"/>
-        <v>424809</v>
+        <v>424807</v>
       </c>
       <c r="O63">
         <f t="shared" si="15"/>
@@ -28305,7 +28305,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="16"/>
-        <v>419856</v>
+        <v>419854</v>
       </c>
       <c r="Q63">
         <f t="shared" si="17"/>
@@ -28313,7 +28313,7 @@
       </c>
       <c r="R63">
         <f t="shared" si="18"/>
-        <v>414307</v>
+        <v>414305</v>
       </c>
       <c r="S63">
         <f t="shared" si="19"/>
@@ -28321,7 +28321,7 @@
       </c>
       <c r="T63">
         <f t="shared" si="20"/>
-        <v>382820</v>
+        <v>382818</v>
       </c>
       <c r="U63">
         <f t="shared" si="21"/>
@@ -28329,7 +28329,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="22"/>
-        <v>342320</v>
+        <v>342318</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
@@ -28342,27 +28342,27 @@
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>506907</v>
+        <v>506912</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>504980</v>
+        <v>504989</v>
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <f t="shared" si="6"/>
-        <v>504952</v>
+        <v>504949</v>
       </c>
       <c r="I64">
         <f t="shared" si="8"/>
@@ -28370,7 +28370,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="9"/>
-        <v>502416</v>
+        <v>502413</v>
       </c>
       <c r="K64">
         <f t="shared" si="10"/>
@@ -28378,7 +28378,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="14"/>
-        <v>498749</v>
+        <v>498746</v>
       </c>
       <c r="M64">
         <f t="shared" si="12"/>
@@ -28386,7 +28386,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="13"/>
-        <v>495142</v>
+        <v>495139</v>
       </c>
       <c r="O64">
         <f t="shared" si="15"/>
@@ -28394,7 +28394,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="16"/>
-        <v>489964</v>
+        <v>489961</v>
       </c>
       <c r="Q64">
         <f t="shared" si="17"/>
@@ -28402,7 +28402,7 @@
       </c>
       <c r="R64">
         <f t="shared" si="18"/>
-        <v>484154</v>
+        <v>484151</v>
       </c>
       <c r="S64">
         <f t="shared" si="19"/>
@@ -28410,7 +28410,7 @@
       </c>
       <c r="T64">
         <f t="shared" si="20"/>
-        <v>450942</v>
+        <v>450939</v>
       </c>
       <c r="U64">
         <f t="shared" si="21"/>
@@ -28418,7 +28418,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="22"/>
-        <v>407697</v>
+        <v>407694</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
@@ -28431,27 +28431,27 @@
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>589128</v>
+        <v>589133</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>587138</v>
+        <v>587147</v>
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <f t="shared" si="6"/>
-        <v>587109</v>
+        <v>587107</v>
       </c>
       <c r="I65">
         <f t="shared" si="8"/>
@@ -28459,7 +28459,7 @@
       </c>
       <c r="J65">
         <f t="shared" si="9"/>
-        <v>584485</v>
+        <v>584483</v>
       </c>
       <c r="K65">
         <f t="shared" si="10"/>
@@ -28467,7 +28467,7 @@
       </c>
       <c r="L65">
         <f t="shared" si="14"/>
-        <v>580679</v>
+        <v>580677</v>
       </c>
       <c r="M65">
         <f t="shared" si="12"/>
@@ -28475,7 +28475,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="13"/>
-        <v>576924</v>
+        <v>576922</v>
       </c>
       <c r="O65">
         <f t="shared" si="15"/>
@@ -28483,7 +28483,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="16"/>
-        <v>571516</v>
+        <v>571514</v>
       </c>
       <c r="Q65">
         <f t="shared" si="17"/>
@@ -28491,7 +28491,7 @@
       </c>
       <c r="R65">
         <f t="shared" si="18"/>
-        <v>565439</v>
+        <v>565437</v>
       </c>
       <c r="S65">
         <f t="shared" si="19"/>
@@ -28499,7 +28499,7 @@
       </c>
       <c r="T65">
         <f t="shared" si="20"/>
-        <v>530456</v>
+        <v>530454</v>
       </c>
       <c r="U65">
         <f t="shared" si="21"/>
@@ -28507,7 +28507,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="22"/>
-        <v>484376</v>
+        <v>484374</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.35">
@@ -28520,27 +28520,27 @@
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>684661</v>
+        <v>684666</v>
       </c>
       <c r="E66">
         <f t="shared" si="3"/>
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
-        <v>682608</v>
+        <v>682617</v>
       </c>
       <c r="G66">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <f t="shared" si="6"/>
-        <v>682579</v>
+        <v>682577</v>
       </c>
       <c r="I66">
         <f t="shared" si="8"/>
@@ -28548,7 +28548,7 @@
       </c>
       <c r="J66">
         <f t="shared" si="9"/>
-        <v>679866</v>
+        <v>679864</v>
       </c>
       <c r="K66">
         <f t="shared" si="10"/>
@@ -28556,7 +28556,7 @@
       </c>
       <c r="L66">
         <f t="shared" si="14"/>
-        <v>675918</v>
+        <v>675916</v>
       </c>
       <c r="M66">
         <f t="shared" si="12"/>
@@ -28564,7 +28564,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="13"/>
-        <v>672011</v>
+        <v>672009</v>
       </c>
       <c r="O66">
         <f t="shared" si="15"/>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="16"/>
-        <v>666368</v>
+        <v>666366</v>
       </c>
       <c r="Q66">
         <f t="shared" si="17"/>
@@ -28580,7 +28580,7 @@
       </c>
       <c r="R66">
         <f t="shared" si="18"/>
-        <v>660018</v>
+        <v>660016</v>
       </c>
       <c r="S66">
         <f t="shared" si="19"/>
@@ -28588,7 +28588,7 @@
       </c>
       <c r="T66">
         <f t="shared" si="20"/>
-        <v>623218</v>
+        <v>623216</v>
       </c>
       <c r="U66">
         <f t="shared" si="21"/>
@@ -28596,7 +28596,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="22"/>
-        <v>574213</v>
+        <v>574211</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.35">
@@ -28608,28 +28608,28 @@
         <v>797215</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C100" si="24">_xlfn.CEILING.MATH(30+($A67)*($A67)*0.35)</f>
-        <v>1555</v>
+        <f t="shared" ref="C67:C100" si="24">_xlfn.CEILING.MATH(25+($A67)*($A67)*0.35)</f>
+        <v>1550</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D100" si="25">B67-C67</f>
-        <v>795660</v>
+        <v>795665</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E100" si="26">_xlfn.CEILING.MATH(5+($A67-1)*($A67-1)*0.5)</f>
-        <v>2118</v>
+        <f t="shared" ref="E67:E100" si="26">_xlfn.CEILING.MATH(1+($A67-1)*($A67-1)*0.5)</f>
+        <v>2114</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F100" si="27">D67-E67</f>
-        <v>793542</v>
+        <v>793551</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G100" si="28">_xlfn.CEILING.MATH(10+10*LOG(A67))</f>
-        <v>29</v>
+        <f t="shared" ref="G67:G100" si="28">_xlfn.CEILING.MATH(12+15*LOG(A67+1))</f>
+        <v>40</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H100" si="29">F67-G67</f>
-        <v>793513</v>
+        <v>793511</v>
       </c>
       <c r="I67">
         <f t="shared" si="8"/>
@@ -28637,7 +28637,7 @@
       </c>
       <c r="J67">
         <f t="shared" si="9"/>
-        <v>790709</v>
+        <v>790707</v>
       </c>
       <c r="K67">
         <f t="shared" si="10"/>
@@ -28645,7 +28645,7 @@
       </c>
       <c r="L67">
         <f t="shared" si="14"/>
-        <v>786617</v>
+        <v>786615</v>
       </c>
       <c r="M67">
         <f t="shared" si="12"/>
@@ -28653,7 +28653,7 @@
       </c>
       <c r="N67">
         <f t="shared" si="13"/>
-        <v>782556</v>
+        <v>782554</v>
       </c>
       <c r="O67">
         <f t="shared" si="15"/>
@@ -28661,7 +28661,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="16"/>
-        <v>776673</v>
+        <v>776671</v>
       </c>
       <c r="Q67">
         <f t="shared" si="17"/>
@@ -28669,7 +28669,7 @@
       </c>
       <c r="R67">
         <f t="shared" si="18"/>
-        <v>770044</v>
+        <v>770042</v>
       </c>
       <c r="S67">
         <f t="shared" si="19"/>
@@ -28677,7 +28677,7 @@
       </c>
       <c r="T67">
         <f t="shared" si="20"/>
-        <v>731381</v>
+        <v>731379</v>
       </c>
       <c r="U67">
         <f t="shared" si="21"/>
@@ -28685,7 +28685,7 @@
       </c>
       <c r="V67">
         <f t="shared" si="22"/>
-        <v>679361</v>
+        <v>679359</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
@@ -28698,27 +28698,27 @@
       </c>
       <c r="C68">
         <f t="shared" si="24"/>
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="D68">
         <f t="shared" si="25"/>
-        <v>924630</v>
+        <v>924635</v>
       </c>
       <c r="E68">
         <f t="shared" si="26"/>
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="F68">
         <f t="shared" si="27"/>
-        <v>922447</v>
+        <v>922456</v>
       </c>
       <c r="G68">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <f t="shared" si="29"/>
-        <v>922418</v>
+        <v>922416</v>
       </c>
       <c r="I68">
         <f t="shared" si="8"/>
@@ -28726,7 +28726,7 @@
       </c>
       <c r="J68">
         <f t="shared" si="9"/>
-        <v>919522</v>
+        <v>919520</v>
       </c>
       <c r="K68">
         <f t="shared" si="10"/>
@@ -28734,7 +28734,7 @@
       </c>
       <c r="L68">
         <f t="shared" si="14"/>
-        <v>915283</v>
+        <v>915281</v>
       </c>
       <c r="M68">
         <f t="shared" si="12"/>
@@ -28742,7 +28742,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="13"/>
-        <v>911064</v>
+        <v>911062</v>
       </c>
       <c r="O68">
         <f t="shared" si="15"/>
@@ -28750,7 +28750,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="16"/>
-        <v>904936</v>
+        <v>904934</v>
       </c>
       <c r="Q68">
         <f t="shared" si="17"/>
@@ -28758,7 +28758,7 @@
       </c>
       <c r="R68">
         <f t="shared" si="18"/>
-        <v>898022</v>
+        <v>898020</v>
       </c>
       <c r="S68">
         <f t="shared" si="19"/>
@@ -28766,7 +28766,7 @@
       </c>
       <c r="T68">
         <f t="shared" si="20"/>
-        <v>857450</v>
+        <v>857448</v>
       </c>
       <c r="U68">
         <f t="shared" si="21"/>
@@ -28774,7 +28774,7 @@
       </c>
       <c r="V68">
         <f t="shared" si="22"/>
-        <v>802325</v>
+        <v>802323</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
@@ -28787,27 +28787,27 @@
       </c>
       <c r="C69">
         <f t="shared" si="24"/>
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="D69">
         <f t="shared" si="25"/>
-        <v>1074479</v>
+        <v>1074484</v>
       </c>
       <c r="E69">
         <f t="shared" si="26"/>
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="F69">
         <f t="shared" si="27"/>
-        <v>1072229</v>
+        <v>1072238</v>
       </c>
       <c r="G69">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <f t="shared" si="29"/>
-        <v>1072200</v>
+        <v>1072198</v>
       </c>
       <c r="I69">
         <f t="shared" si="8"/>
@@ -28815,7 +28815,7 @@
       </c>
       <c r="J69">
         <f t="shared" si="9"/>
-        <v>1069210</v>
+        <v>1069208</v>
       </c>
       <c r="K69">
         <f t="shared" si="10"/>
@@ -28823,7 +28823,7 @@
       </c>
       <c r="L69">
         <f t="shared" si="14"/>
-        <v>1064821</v>
+        <v>1064819</v>
       </c>
       <c r="M69">
         <f t="shared" si="12"/>
@@ -28831,7 +28831,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="13"/>
-        <v>1060442</v>
+        <v>1060440</v>
       </c>
       <c r="O69">
         <f t="shared" si="15"/>
@@ -28839,7 +28839,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="16"/>
-        <v>1054064</v>
+        <v>1054062</v>
       </c>
       <c r="Q69">
         <f t="shared" si="17"/>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="R69">
         <f t="shared" si="18"/>
-        <v>1046859</v>
+        <v>1046857</v>
       </c>
       <c r="S69">
         <f t="shared" si="19"/>
@@ -28855,7 +28855,7 @@
       </c>
       <c r="T69">
         <f t="shared" si="20"/>
-        <v>1004332</v>
+        <v>1004330</v>
       </c>
       <c r="U69">
         <f t="shared" si="21"/>
@@ -28863,7 +28863,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="22"/>
-        <v>946012</v>
+        <v>946010</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.35">
@@ -28876,27 +28876,27 @@
       </c>
       <c r="C70">
         <f t="shared" si="24"/>
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="D70">
         <f t="shared" si="25"/>
-        <v>1248585</v>
+        <v>1248590</v>
       </c>
       <c r="E70">
         <f t="shared" si="26"/>
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="F70">
         <f t="shared" si="27"/>
-        <v>1246268</v>
+        <v>1246277</v>
       </c>
       <c r="G70">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <f t="shared" si="29"/>
-        <v>1246239</v>
+        <v>1246237</v>
       </c>
       <c r="I70">
         <f t="shared" si="8"/>
@@ -28904,7 +28904,7 @@
       </c>
       <c r="J70">
         <f t="shared" si="9"/>
-        <v>1243154</v>
+        <v>1243152</v>
       </c>
       <c r="K70">
         <f t="shared" si="10"/>
@@ -28912,7 +28912,7 @@
       </c>
       <c r="L70">
         <f t="shared" si="14"/>
-        <v>1238613</v>
+        <v>1238611</v>
       </c>
       <c r="M70">
         <f t="shared" si="12"/>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="13"/>
-        <v>1234070</v>
+        <v>1234068</v>
       </c>
       <c r="O70">
         <f t="shared" si="15"/>
@@ -28928,7 +28928,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="16"/>
-        <v>1227437</v>
+        <v>1227435</v>
       </c>
       <c r="Q70">
         <f t="shared" si="17"/>
@@ -28936,7 +28936,7 @@
       </c>
       <c r="R70">
         <f t="shared" si="18"/>
-        <v>1219935</v>
+        <v>1219933</v>
       </c>
       <c r="S70">
         <f t="shared" si="19"/>
@@ -28944,7 +28944,7 @@
       </c>
       <c r="T70">
         <f t="shared" si="20"/>
-        <v>1175407</v>
+        <v>1175405</v>
       </c>
       <c r="U70">
         <f t="shared" si="21"/>
@@ -28952,7 +28952,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="22"/>
-        <v>1113802</v>
+        <v>1113800</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
@@ -28965,27 +28965,27 @@
       </c>
       <c r="C71">
         <f t="shared" si="24"/>
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="D71">
         <f t="shared" si="25"/>
-        <v>1450876</v>
+        <v>1450881</v>
       </c>
       <c r="E71">
         <f t="shared" si="26"/>
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="F71">
         <f t="shared" si="27"/>
-        <v>1448490</v>
+        <v>1448499</v>
       </c>
       <c r="G71">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <f t="shared" si="29"/>
-        <v>1448461</v>
+        <v>1448459</v>
       </c>
       <c r="I71">
         <f t="shared" ref="I71:I100" si="30">_xlfn.CEILING.MATH(13+($A71-5)*($A71-5)*0.75)</f>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="J71">
         <f t="shared" si="9"/>
-        <v>1445279</v>
+        <v>1445277</v>
       </c>
       <c r="K71">
         <f t="shared" si="10"/>
@@ -29001,7 +29001,7 @@
       </c>
       <c r="L71">
         <f t="shared" si="14"/>
-        <v>1440584</v>
+        <v>1440582</v>
       </c>
       <c r="M71">
         <f t="shared" si="12"/>
@@ -29009,7 +29009,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="13"/>
-        <v>1435875</v>
+        <v>1435873</v>
       </c>
       <c r="O71">
         <f t="shared" si="15"/>
@@ -29017,7 +29017,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="16"/>
-        <v>1428982</v>
+        <v>1428980</v>
       </c>
       <c r="Q71">
         <f t="shared" si="17"/>
@@ -29025,7 +29025,7 @@
       </c>
       <c r="R71">
         <f t="shared" si="18"/>
-        <v>1421177</v>
+        <v>1421175</v>
       </c>
       <c r="S71">
         <f t="shared" si="19"/>
@@ -29033,7 +29033,7 @@
       </c>
       <c r="T71">
         <f t="shared" si="20"/>
-        <v>1374602</v>
+        <v>1374600</v>
       </c>
       <c r="U71">
         <f t="shared" si="21"/>
@@ -29041,7 +29041,7 @@
       </c>
       <c r="V71">
         <f t="shared" si="22"/>
-        <v>1309622</v>
+        <v>1309620</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
@@ -29054,27 +29054,27 @@
       </c>
       <c r="C72">
         <f t="shared" si="24"/>
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="D72">
         <f t="shared" si="25"/>
-        <v>1685909</v>
+        <v>1685914</v>
       </c>
       <c r="E72">
         <f t="shared" si="26"/>
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="F72">
         <f t="shared" si="27"/>
-        <v>1683454</v>
+        <v>1683463</v>
       </c>
       <c r="G72">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <f t="shared" si="29"/>
-        <v>1683425</v>
+        <v>1683423</v>
       </c>
       <c r="I72">
         <f t="shared" si="30"/>
@@ -29082,7 +29082,7 @@
       </c>
       <c r="J72">
         <f t="shared" si="9"/>
-        <v>1680145</v>
+        <v>1680143</v>
       </c>
       <c r="K72">
         <f t="shared" si="10"/>
@@ -29090,7 +29090,7 @@
       </c>
       <c r="L72">
         <f t="shared" si="14"/>
-        <v>1675292</v>
+        <v>1675290</v>
       </c>
       <c r="M72">
         <f t="shared" si="12"/>
@@ -29098,7 +29098,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="13"/>
-        <v>1670413</v>
+        <v>1670411</v>
       </c>
       <c r="O72">
         <f t="shared" si="15"/>
@@ -29106,7 +29106,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="16"/>
-        <v>1663255</v>
+        <v>1663253</v>
       </c>
       <c r="Q72">
         <f t="shared" si="17"/>
@@ -29114,7 +29114,7 @@
       </c>
       <c r="R72">
         <f t="shared" si="18"/>
-        <v>1655141</v>
+        <v>1655139</v>
       </c>
       <c r="S72">
         <f t="shared" si="19"/>
@@ -29122,7 +29122,7 @@
       </c>
       <c r="T72">
         <f t="shared" si="20"/>
-        <v>1606473</v>
+        <v>1606471</v>
       </c>
       <c r="U72">
         <f t="shared" si="21"/>
@@ -29130,7 +29130,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="22"/>
-        <v>1538028</v>
+        <v>1538026</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
@@ -29143,27 +29143,27 @@
       </c>
       <c r="C73">
         <f t="shared" si="24"/>
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="D73">
         <f t="shared" si="25"/>
-        <v>1958988</v>
+        <v>1958993</v>
       </c>
       <c r="E73">
         <f t="shared" si="26"/>
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="F73">
         <f t="shared" si="27"/>
-        <v>1956462</v>
+        <v>1956471</v>
       </c>
       <c r="G73">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H73">
         <f t="shared" si="29"/>
-        <v>1956433</v>
+        <v>1956431</v>
       </c>
       <c r="I73">
         <f t="shared" si="30"/>
@@ -29171,7 +29171,7 @@
       </c>
       <c r="J73">
         <f t="shared" si="9"/>
-        <v>1953053</v>
+        <v>1953051</v>
       </c>
       <c r="K73">
         <f t="shared" si="10"/>
@@ -29179,7 +29179,7 @@
       </c>
       <c r="L73">
         <f t="shared" si="14"/>
-        <v>1948040</v>
+        <v>1948038</v>
       </c>
       <c r="M73">
         <f t="shared" si="12"/>
@@ -29187,7 +29187,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="13"/>
-        <v>1942989</v>
+        <v>1942987</v>
       </c>
       <c r="O73">
         <f t="shared" si="15"/>
@@ -29195,7 +29195,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="16"/>
-        <v>1935561</v>
+        <v>1935559</v>
       </c>
       <c r="Q73">
         <f t="shared" si="17"/>
@@ -29203,7 +29203,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="18"/>
-        <v>1927132</v>
+        <v>1927130</v>
       </c>
       <c r="S73">
         <f t="shared" si="19"/>
@@ -29211,7 +29211,7 @@
       </c>
       <c r="T73">
         <f t="shared" si="20"/>
-        <v>1876325</v>
+        <v>1876323</v>
       </c>
       <c r="U73">
         <f t="shared" si="21"/>
@@ -29219,7 +29219,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="22"/>
-        <v>1804325</v>
+        <v>1804323</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.35">
@@ -29232,27 +29232,27 @@
       </c>
       <c r="C74">
         <f t="shared" si="24"/>
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="D74">
         <f t="shared" si="25"/>
-        <v>2276266</v>
+        <v>2276271</v>
       </c>
       <c r="E74">
         <f t="shared" si="26"/>
-        <v>2597</v>
+        <v>2593</v>
       </c>
       <c r="F74">
         <f t="shared" si="27"/>
-        <v>2273669</v>
+        <v>2273678</v>
       </c>
       <c r="G74">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H74">
         <f t="shared" si="29"/>
-        <v>2273640</v>
+        <v>2273637</v>
       </c>
       <c r="I74">
         <f t="shared" si="30"/>
@@ -29260,7 +29260,7 @@
       </c>
       <c r="J74">
         <f t="shared" si="9"/>
-        <v>2270159</v>
+        <v>2270156</v>
       </c>
       <c r="K74">
         <f t="shared" si="10"/>
@@ -29268,7 +29268,7 @@
       </c>
       <c r="L74">
         <f t="shared" si="14"/>
-        <v>2264984</v>
+        <v>2264981</v>
       </c>
       <c r="M74">
         <f t="shared" si="12"/>
@@ -29276,7 +29276,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="13"/>
-        <v>2259757</v>
+        <v>2259754</v>
       </c>
       <c r="O74">
         <f t="shared" si="15"/>
@@ -29284,7 +29284,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="16"/>
-        <v>2252054</v>
+        <v>2252051</v>
       </c>
       <c r="Q74">
         <f t="shared" si="17"/>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="R74">
         <f t="shared" si="18"/>
-        <v>2243304</v>
+        <v>2243301</v>
       </c>
       <c r="S74">
         <f t="shared" si="19"/>
@@ -29300,7 +29300,7 @@
       </c>
       <c r="T74">
         <f t="shared" si="20"/>
-        <v>2190312</v>
+        <v>2190309</v>
       </c>
       <c r="U74">
         <f t="shared" si="21"/>
@@ -29308,7 +29308,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="22"/>
-        <v>2114667</v>
+        <v>2114664</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.35">
@@ -29321,27 +29321,27 @@
       </c>
       <c r="C75">
         <f t="shared" si="24"/>
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="D75">
         <f t="shared" si="25"/>
-        <v>2644900</v>
+        <v>2644905</v>
       </c>
       <c r="E75">
         <f t="shared" si="26"/>
-        <v>2670</v>
+        <v>2666</v>
       </c>
       <c r="F75">
         <f t="shared" si="27"/>
-        <v>2642230</v>
+        <v>2642239</v>
       </c>
       <c r="G75">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <f t="shared" si="29"/>
-        <v>2642201</v>
+        <v>2642198</v>
       </c>
       <c r="I75">
         <f t="shared" si="30"/>
@@ -29349,7 +29349,7 @@
       </c>
       <c r="J75">
         <f t="shared" si="9"/>
-        <v>2638617</v>
+        <v>2638614</v>
       </c>
       <c r="K75">
         <f t="shared" si="10"/>
@@ -29357,7 +29357,7 @@
       </c>
       <c r="L75">
         <f t="shared" si="14"/>
-        <v>2633277</v>
+        <v>2633274</v>
       </c>
       <c r="M75">
         <f t="shared" si="12"/>
@@ -29365,7 +29365,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="13"/>
-        <v>2627872</v>
+        <v>2627869</v>
       </c>
       <c r="O75">
         <f t="shared" si="15"/>
@@ -29373,7 +29373,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="16"/>
-        <v>2619889</v>
+        <v>2619886</v>
       </c>
       <c r="Q75">
         <f t="shared" si="17"/>
@@ -29381,7 +29381,7 @@
       </c>
       <c r="R75">
         <f t="shared" si="18"/>
-        <v>2610812</v>
+        <v>2610809</v>
       </c>
       <c r="S75">
         <f t="shared" si="19"/>
@@ -29389,7 +29389,7 @@
       </c>
       <c r="T75">
         <f t="shared" si="20"/>
-        <v>2555589</v>
+        <v>2555586</v>
       </c>
       <c r="U75">
         <f t="shared" si="21"/>
@@ -29397,7 +29397,7 @@
       </c>
       <c r="V75">
         <f t="shared" si="22"/>
-        <v>2476209</v>
+        <v>2476206</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.35">
@@ -29410,27 +29410,27 @@
       </c>
       <c r="C76">
         <f t="shared" si="24"/>
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="D76">
         <f t="shared" si="25"/>
-        <v>3073198</v>
+        <v>3073203</v>
       </c>
       <c r="E76">
         <f t="shared" si="26"/>
-        <v>2743</v>
+        <v>2739</v>
       </c>
       <c r="F76">
         <f t="shared" si="27"/>
-        <v>3070455</v>
+        <v>3070464</v>
       </c>
       <c r="G76">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H76">
         <f t="shared" si="29"/>
-        <v>3070426</v>
+        <v>3070423</v>
       </c>
       <c r="I76">
         <f t="shared" si="30"/>
@@ -29438,7 +29438,7 @@
       </c>
       <c r="J76">
         <f t="shared" ref="J76:J100" si="31">H76-I76</f>
-        <v>3066738</v>
+        <v>3066735</v>
       </c>
       <c r="K76">
         <f t="shared" ref="K76:K100" si="32">_xlfn.CEILING.MATH(($A76-10)*($A76-10)*1.3+15)</f>
@@ -29446,7 +29446,7 @@
       </c>
       <c r="L76">
         <f t="shared" ref="L76:L100" si="33">J76-K76</f>
-        <v>3061230</v>
+        <v>3061227</v>
       </c>
       <c r="M76">
         <f t="shared" si="12"/>
@@ -29454,7 +29454,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="13"/>
-        <v>3055643</v>
+        <v>3055640</v>
       </c>
       <c r="O76">
         <f t="shared" si="15"/>
@@ -29462,7 +29462,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="16"/>
-        <v>3047375</v>
+        <v>3047372</v>
       </c>
       <c r="Q76">
         <f t="shared" si="17"/>
@@ -29470,7 +29470,7 @@
       </c>
       <c r="R76">
         <f t="shared" si="18"/>
-        <v>3037965</v>
+        <v>3037962</v>
       </c>
       <c r="S76">
         <f t="shared" si="19"/>
@@ -29478,7 +29478,7 @@
       </c>
       <c r="T76">
         <f t="shared" si="20"/>
-        <v>2980465</v>
+        <v>2980462</v>
       </c>
       <c r="U76">
         <f t="shared" si="21"/>
@@ -29486,7 +29486,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="22"/>
-        <v>2897260</v>
+        <v>2897257</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.35">
@@ -29499,27 +29499,27 @@
       </c>
       <c r="C77">
         <f t="shared" si="24"/>
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="D77">
         <f t="shared" si="25"/>
-        <v>3570817</v>
+        <v>3570822</v>
       </c>
       <c r="E77">
         <f t="shared" si="26"/>
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="F77">
         <f t="shared" si="27"/>
-        <v>3567999</v>
+        <v>3568008</v>
       </c>
       <c r="G77">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <f t="shared" si="29"/>
-        <v>3567970</v>
+        <v>3567967</v>
       </c>
       <c r="I77">
         <f t="shared" si="30"/>
@@ -29527,7 +29527,7 @@
       </c>
       <c r="J77">
         <f t="shared" si="31"/>
-        <v>3564176</v>
+        <v>3564173</v>
       </c>
       <c r="K77">
         <f t="shared" si="32"/>
@@ -29535,7 +29535,7 @@
       </c>
       <c r="L77">
         <f t="shared" si="33"/>
-        <v>3558498</v>
+        <v>3558495</v>
       </c>
       <c r="M77">
         <f t="shared" si="12"/>
@@ -29543,7 +29543,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="13"/>
-        <v>3552727</v>
+        <v>3552724</v>
       </c>
       <c r="O77">
         <f t="shared" si="15"/>
@@ -29551,7 +29551,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="16"/>
-        <v>3544169</v>
+        <v>3544166</v>
       </c>
       <c r="Q77">
         <f t="shared" si="17"/>
@@ -29559,7 +29559,7 @@
       </c>
       <c r="R77">
         <f t="shared" si="18"/>
-        <v>3534420</v>
+        <v>3534417</v>
       </c>
       <c r="S77">
         <f t="shared" si="19"/>
@@ -29567,7 +29567,7 @@
       </c>
       <c r="T77">
         <f t="shared" si="20"/>
-        <v>3474597</v>
+        <v>3474594</v>
       </c>
       <c r="U77">
         <f t="shared" si="21"/>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="22"/>
-        <v>3387477</v>
+        <v>3387474</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.35">
@@ -29588,27 +29588,27 @@
       </c>
       <c r="C78">
         <f t="shared" si="24"/>
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="D78">
         <f t="shared" si="25"/>
-        <v>4148976</v>
+        <v>4148981</v>
       </c>
       <c r="E78">
         <f t="shared" si="26"/>
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="F78">
         <f t="shared" si="27"/>
-        <v>4146083</v>
+        <v>4146092</v>
       </c>
       <c r="G78">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <f t="shared" si="29"/>
-        <v>4146054</v>
+        <v>4146051</v>
       </c>
       <c r="I78">
         <f t="shared" si="30"/>
@@ -29616,7 +29616,7 @@
       </c>
       <c r="J78">
         <f t="shared" si="31"/>
-        <v>4142153</v>
+        <v>4142150</v>
       </c>
       <c r="K78">
         <f t="shared" si="32"/>
@@ -29624,7 +29624,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="33"/>
-        <v>4136302</v>
+        <v>4136299</v>
       </c>
       <c r="M78">
         <f t="shared" si="12"/>
@@ -29632,7 +29632,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="13"/>
-        <v>4130343</v>
+        <v>4130340</v>
       </c>
       <c r="O78">
         <f t="shared" si="15"/>
@@ -29640,7 +29640,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="16"/>
-        <v>4121490</v>
+        <v>4121487</v>
       </c>
       <c r="Q78">
         <f t="shared" si="17"/>
@@ -29648,7 +29648,7 @@
       </c>
       <c r="R78">
         <f t="shared" si="18"/>
-        <v>4111396</v>
+        <v>4111393</v>
       </c>
       <c r="S78">
         <f t="shared" si="19"/>
@@ -29656,7 +29656,7 @@
       </c>
       <c r="T78">
         <f t="shared" si="20"/>
-        <v>4049204</v>
+        <v>4049201</v>
       </c>
       <c r="U78">
         <f t="shared" si="21"/>
@@ -29664,7 +29664,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="22"/>
-        <v>3958079</v>
+        <v>3958076</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.35">
@@ -29677,27 +29677,27 @@
       </c>
       <c r="C79">
         <f t="shared" si="24"/>
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="D79">
         <f t="shared" si="25"/>
-        <v>4820709</v>
+        <v>4820714</v>
       </c>
       <c r="E79">
         <f t="shared" si="26"/>
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="F79">
         <f t="shared" si="27"/>
-        <v>4817739</v>
+        <v>4817748</v>
       </c>
       <c r="G79">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H79">
         <f t="shared" si="29"/>
-        <v>4817710</v>
+        <v>4817707</v>
       </c>
       <c r="I79">
         <f t="shared" si="30"/>
@@ -29705,7 +29705,7 @@
       </c>
       <c r="J79">
         <f t="shared" si="31"/>
-        <v>4813700</v>
+        <v>4813697</v>
       </c>
       <c r="K79">
         <f t="shared" si="32"/>
@@ -29713,7 +29713,7 @@
       </c>
       <c r="L79">
         <f t="shared" si="33"/>
-        <v>4807673</v>
+        <v>4807670</v>
       </c>
       <c r="M79">
         <f t="shared" si="12"/>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="13"/>
-        <v>4801524</v>
+        <v>4801521</v>
       </c>
       <c r="O79">
         <f t="shared" si="15"/>
@@ -29729,7 +29729,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="16"/>
-        <v>4792371</v>
+        <v>4792368</v>
       </c>
       <c r="Q79">
         <f t="shared" si="17"/>
@@ -29737,7 +29737,7 @@
       </c>
       <c r="R79">
         <f t="shared" si="18"/>
-        <v>4781926</v>
+        <v>4781923</v>
       </c>
       <c r="S79">
         <f t="shared" si="19"/>
@@ -29745,7 +29745,7 @@
       </c>
       <c r="T79">
         <f t="shared" si="20"/>
-        <v>4717319</v>
+        <v>4717316</v>
       </c>
       <c r="U79">
         <f t="shared" si="21"/>
@@ -29753,7 +29753,7 @@
       </c>
       <c r="V79">
         <f t="shared" si="22"/>
-        <v>4622099</v>
+        <v>4622096</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.35">
@@ -29766,27 +29766,27 @@
       </c>
       <c r="C80">
         <f t="shared" si="24"/>
-        <v>2215</v>
+        <v>2210</v>
       </c>
       <c r="D80">
         <f t="shared" si="25"/>
-        <v>5601159</v>
+        <v>5601164</v>
       </c>
       <c r="E80">
         <f t="shared" si="26"/>
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="F80">
         <f t="shared" si="27"/>
-        <v>5598112</v>
+        <v>5598121</v>
       </c>
       <c r="G80">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <f t="shared" si="29"/>
-        <v>5598083</v>
+        <v>5598080</v>
       </c>
       <c r="I80">
         <f t="shared" si="30"/>
@@ -29794,7 +29794,7 @@
       </c>
       <c r="J80">
         <f t="shared" si="31"/>
-        <v>5593963</v>
+        <v>5593960</v>
       </c>
       <c r="K80">
         <f t="shared" si="32"/>
@@ -29802,7 +29802,7 @@
       </c>
       <c r="L80">
         <f t="shared" si="33"/>
-        <v>5587758</v>
+        <v>5587755</v>
       </c>
       <c r="M80">
         <f t="shared" ref="M80:M100" si="34">_xlfn.CEILING.MATH(($A80-14)*($A80-14)*1.5+5)</f>
@@ -29810,7 +29810,7 @@
       </c>
       <c r="N80">
         <f t="shared" ref="N80:N100" si="35">L80-M80</f>
-        <v>5581415</v>
+        <v>5581412</v>
       </c>
       <c r="O80">
         <f t="shared" si="15"/>
@@ -29818,7 +29818,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="16"/>
-        <v>5571957</v>
+        <v>5571954</v>
       </c>
       <c r="Q80">
         <f t="shared" si="17"/>
@@ -29826,7 +29826,7 @@
       </c>
       <c r="R80">
         <f t="shared" si="18"/>
-        <v>5561155</v>
+        <v>5561152</v>
       </c>
       <c r="S80">
         <f t="shared" si="19"/>
@@ -29834,7 +29834,7 @@
       </c>
       <c r="T80">
         <f t="shared" si="20"/>
-        <v>5494087</v>
+        <v>5494084</v>
       </c>
       <c r="U80">
         <f t="shared" si="21"/>
@@ -29842,7 +29842,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="22"/>
-        <v>5394682</v>
+        <v>5394679</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
@@ -29855,27 +29855,27 @@
       </c>
       <c r="C81">
         <f t="shared" si="24"/>
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="D81">
         <f t="shared" si="25"/>
-        <v>6507922</v>
+        <v>6507927</v>
       </c>
       <c r="E81">
         <f t="shared" si="26"/>
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="F81">
         <f t="shared" si="27"/>
-        <v>6504796</v>
+        <v>6504805</v>
       </c>
       <c r="G81">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H81">
         <f t="shared" si="29"/>
-        <v>6504766</v>
+        <v>6504764</v>
       </c>
       <c r="I81">
         <f t="shared" si="30"/>
@@ -29883,7 +29883,7 @@
       </c>
       <c r="J81">
         <f t="shared" si="31"/>
-        <v>6500534</v>
+        <v>6500532</v>
       </c>
       <c r="K81">
         <f t="shared" si="32"/>
@@ -29891,7 +29891,7 @@
       </c>
       <c r="L81">
         <f t="shared" si="33"/>
-        <v>6494149</v>
+        <v>6494147</v>
       </c>
       <c r="M81">
         <f t="shared" si="34"/>
@@ -29899,7 +29899,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="35"/>
-        <v>6487610</v>
+        <v>6487608</v>
       </c>
       <c r="O81">
         <f t="shared" si="15"/>
@@ -29907,7 +29907,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="16"/>
-        <v>6477842</v>
+        <v>6477840</v>
       </c>
       <c r="Q81">
         <f t="shared" si="17"/>
@@ -29915,7 +29915,7 @@
       </c>
       <c r="R81">
         <f t="shared" si="18"/>
-        <v>6466677</v>
+        <v>6466675</v>
       </c>
       <c r="S81">
         <f t="shared" si="19"/>
@@ -29923,7 +29923,7 @@
       </c>
       <c r="T81">
         <f t="shared" si="20"/>
-        <v>6397102</v>
+        <v>6397100</v>
       </c>
       <c r="U81">
         <f t="shared" si="21"/>
@@ -29931,7 +29931,7 @@
       </c>
       <c r="V81">
         <f t="shared" si="22"/>
-        <v>6293422</v>
+        <v>6293420</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
@@ -29944,27 +29944,27 @@
       </c>
       <c r="C82">
         <f t="shared" si="24"/>
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="D82">
         <f t="shared" si="25"/>
-        <v>7561437</v>
+        <v>7561442</v>
       </c>
       <c r="E82">
         <f t="shared" si="26"/>
-        <v>3205</v>
+        <v>3201</v>
       </c>
       <c r="F82">
         <f t="shared" si="27"/>
-        <v>7558232</v>
+        <v>7558241</v>
       </c>
       <c r="G82">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <f t="shared" si="29"/>
-        <v>7558202</v>
+        <v>7558200</v>
       </c>
       <c r="I82">
         <f t="shared" si="30"/>
@@ -29972,7 +29972,7 @@
       </c>
       <c r="J82">
         <f t="shared" si="31"/>
-        <v>7553857</v>
+        <v>7553855</v>
       </c>
       <c r="K82">
         <f t="shared" si="32"/>
@@ -29980,7 +29980,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="33"/>
-        <v>7547288</v>
+        <v>7547286</v>
       </c>
       <c r="M82">
         <f t="shared" si="34"/>
@@ -29988,7 +29988,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="35"/>
-        <v>7540549</v>
+        <v>7540547</v>
       </c>
       <c r="O82">
         <f t="shared" si="15"/>
@@ -29996,7 +29996,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="16"/>
-        <v>7530466</v>
+        <v>7530464</v>
       </c>
       <c r="Q82">
         <f t="shared" si="17"/>
@@ -30004,7 +30004,7 @@
       </c>
       <c r="R82">
         <f t="shared" si="18"/>
-        <v>7518932</v>
+        <v>7518930</v>
       </c>
       <c r="S82">
         <f t="shared" si="19"/>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="T82">
         <f t="shared" si="20"/>
-        <v>7446804</v>
+        <v>7446802</v>
       </c>
       <c r="U82">
         <f t="shared" si="21"/>
@@ -30020,7 +30020,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="22"/>
-        <v>7338759</v>
+        <v>7338757</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.35">
@@ -30033,27 +30033,27 @@
       </c>
       <c r="C83">
         <f t="shared" si="24"/>
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="D83">
         <f t="shared" si="25"/>
-        <v>8785456</v>
+        <v>8785461</v>
       </c>
       <c r="E83">
         <f t="shared" si="26"/>
-        <v>3286</v>
+        <v>3282</v>
       </c>
       <c r="F83">
         <f t="shared" si="27"/>
-        <v>8782170</v>
+        <v>8782179</v>
       </c>
       <c r="G83">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <f t="shared" si="29"/>
-        <v>8782140</v>
+        <v>8782138</v>
       </c>
       <c r="I83">
         <f t="shared" si="30"/>
@@ -30061,7 +30061,7 @@
       </c>
       <c r="J83">
         <f t="shared" si="31"/>
-        <v>8777680</v>
+        <v>8777678</v>
       </c>
       <c r="K83">
         <f t="shared" si="32"/>
@@ -30069,7 +30069,7 @@
       </c>
       <c r="L83">
         <f t="shared" si="33"/>
-        <v>8770925</v>
+        <v>8770923</v>
       </c>
       <c r="M83">
         <f t="shared" si="34"/>
@@ -30077,7 +30077,7 @@
       </c>
       <c r="N83">
         <f t="shared" si="35"/>
-        <v>8763984</v>
+        <v>8763982</v>
       </c>
       <c r="O83">
         <f t="shared" si="15"/>
@@ -30085,7 +30085,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="16"/>
-        <v>8753581</v>
+        <v>8753579</v>
       </c>
       <c r="Q83">
         <f t="shared" si="17"/>
@@ -30093,7 +30093,7 @@
       </c>
       <c r="R83">
         <f t="shared" si="18"/>
-        <v>8741672</v>
+        <v>8741670</v>
       </c>
       <c r="S83">
         <f t="shared" si="19"/>
@@ -30101,7 +30101,7 @@
       </c>
       <c r="T83">
         <f t="shared" si="20"/>
-        <v>8666945</v>
+        <v>8666943</v>
       </c>
       <c r="U83">
         <f t="shared" si="21"/>
@@ -30109,7 +30109,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="22"/>
-        <v>8554445</v>
+        <v>8554443</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.35">
@@ -30122,27 +30122,27 @@
       </c>
       <c r="C84">
         <f t="shared" si="24"/>
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="D84">
         <f t="shared" si="25"/>
-        <v>10207571</v>
+        <v>10207576</v>
       </c>
       <c r="E84">
         <f t="shared" si="26"/>
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="F84">
         <f t="shared" si="27"/>
-        <v>10204204</v>
+        <v>10204213</v>
       </c>
       <c r="G84">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <f t="shared" si="29"/>
-        <v>10204174</v>
+        <v>10204172</v>
       </c>
       <c r="I84">
         <f t="shared" si="30"/>
@@ -30150,7 +30150,7 @@
       </c>
       <c r="J84">
         <f t="shared" si="31"/>
-        <v>10199598</v>
+        <v>10199596</v>
       </c>
       <c r="K84">
         <f t="shared" si="32"/>
@@ -30158,7 +30158,7 @@
       </c>
       <c r="L84">
         <f t="shared" si="33"/>
-        <v>10192655</v>
+        <v>10192653</v>
       </c>
       <c r="M84">
         <f t="shared" si="34"/>
@@ -30166,7 +30166,7 @@
       </c>
       <c r="N84">
         <f t="shared" si="35"/>
-        <v>10185508</v>
+        <v>10185506</v>
       </c>
       <c r="O84">
         <f t="shared" ref="O84:O100" si="36">_xlfn.CEILING.MATH(($A84-17)*($A84-18)*2.5+3)</f>
@@ -30174,7 +30174,7 @@
       </c>
       <c r="P84">
         <f t="shared" ref="P84:P100" si="37">N84-O84</f>
-        <v>10174780</v>
+        <v>10174778</v>
       </c>
       <c r="Q84">
         <f t="shared" si="17"/>
@@ -30182,7 +30182,7 @@
       </c>
       <c r="R84">
         <f t="shared" si="18"/>
-        <v>10162490</v>
+        <v>10162488</v>
       </c>
       <c r="S84">
         <f t="shared" si="19"/>
@@ -30190,7 +30190,7 @@
       </c>
       <c r="T84">
         <f t="shared" si="20"/>
-        <v>10085118</v>
+        <v>10085116</v>
       </c>
       <c r="U84">
         <f t="shared" si="21"/>
@@ -30198,7 +30198,7 @@
       </c>
       <c r="V84">
         <f t="shared" si="22"/>
-        <v>9968073</v>
+        <v>9968071</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.35">
@@ -30211,27 +30211,27 @@
       </c>
       <c r="C85">
         <f t="shared" si="24"/>
-        <v>2500</v>
+        <v>2495</v>
       </c>
       <c r="D85">
         <f t="shared" si="25"/>
-        <v>11859843</v>
+        <v>11859848</v>
       </c>
       <c r="E85">
         <f t="shared" si="26"/>
-        <v>3450</v>
+        <v>3446</v>
       </c>
       <c r="F85">
         <f t="shared" si="27"/>
-        <v>11856393</v>
+        <v>11856402</v>
       </c>
       <c r="G85">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H85">
         <f t="shared" si="29"/>
-        <v>11856363</v>
+        <v>11856361</v>
       </c>
       <c r="I85">
         <f t="shared" si="30"/>
@@ -30239,7 +30239,7 @@
       </c>
       <c r="J85">
         <f t="shared" si="31"/>
-        <v>11851669</v>
+        <v>11851667</v>
       </c>
       <c r="K85">
         <f t="shared" si="32"/>
@@ -30247,7 +30247,7 @@
       </c>
       <c r="L85">
         <f t="shared" si="33"/>
-        <v>11844535</v>
+        <v>11844533</v>
       </c>
       <c r="M85">
         <f t="shared" si="34"/>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="35"/>
-        <v>11837180</v>
+        <v>11837178</v>
       </c>
       <c r="O85">
         <f t="shared" si="36"/>
@@ -30263,7 +30263,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="37"/>
-        <v>11826122</v>
+        <v>11826120</v>
       </c>
       <c r="Q85">
         <f t="shared" si="17"/>
@@ -30271,7 +30271,7 @@
       </c>
       <c r="R85">
         <f t="shared" si="18"/>
-        <v>11813445</v>
+        <v>11813443</v>
       </c>
       <c r="S85">
         <f t="shared" si="19"/>
@@ -30279,7 +30279,7 @@
       </c>
       <c r="T85">
         <f t="shared" si="20"/>
-        <v>11733382</v>
+        <v>11733380</v>
       </c>
       <c r="U85">
         <f t="shared" si="21"/>
@@ -30287,7 +30287,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="22"/>
-        <v>11611702</v>
+        <v>11611700</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.35">
@@ -30300,27 +30300,27 @@
       </c>
       <c r="C86">
         <f t="shared" si="24"/>
-        <v>2559</v>
+        <v>2554</v>
       </c>
       <c r="D86">
         <f t="shared" si="25"/>
-        <v>13779517</v>
+        <v>13779522</v>
       </c>
       <c r="E86">
         <f t="shared" si="26"/>
-        <v>3533</v>
+        <v>3529</v>
       </c>
       <c r="F86">
         <f t="shared" si="27"/>
-        <v>13775984</v>
+        <v>13775993</v>
       </c>
       <c r="G86">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <f t="shared" si="29"/>
-        <v>13775954</v>
+        <v>13775951</v>
       </c>
       <c r="I86">
         <f t="shared" si="30"/>
@@ -30328,7 +30328,7 @@
       </c>
       <c r="J86">
         <f t="shared" si="31"/>
-        <v>13771141</v>
+        <v>13771138</v>
       </c>
       <c r="K86">
         <f t="shared" si="32"/>
@@ -30336,7 +30336,7 @@
       </c>
       <c r="L86">
         <f t="shared" si="33"/>
-        <v>13763813</v>
+        <v>13763810</v>
       </c>
       <c r="M86">
         <f t="shared" si="34"/>
@@ -30344,7 +30344,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="35"/>
-        <v>13756246</v>
+        <v>13756243</v>
       </c>
       <c r="O86">
         <f t="shared" si="36"/>
@@ -30352,7 +30352,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="37"/>
-        <v>13744853</v>
+        <v>13744850</v>
       </c>
       <c r="Q86">
         <f t="shared" ref="Q86:Q100" si="38">_xlfn.CEILING.MATH(($A86-20)*($A86-18)*3+5)</f>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="R86">
         <f t="shared" ref="R86:R100" si="39">P86-Q86</f>
-        <v>13731783</v>
+        <v>13731780</v>
       </c>
       <c r="S86">
         <f t="shared" si="19"/>
@@ -30368,7 +30368,7 @@
       </c>
       <c r="T86">
         <f t="shared" si="20"/>
-        <v>13648983</v>
+        <v>13648980</v>
       </c>
       <c r="U86">
         <f t="shared" si="21"/>
@@ -30376,7 +30376,7 @@
       </c>
       <c r="V86">
         <f t="shared" si="22"/>
-        <v>13522578</v>
+        <v>13522575</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
@@ -30389,27 +30389,27 @@
       </c>
       <c r="C87">
         <f t="shared" si="24"/>
-        <v>2619</v>
+        <v>2614</v>
       </c>
       <c r="D87">
         <f t="shared" si="25"/>
-        <v>16009869</v>
+        <v>16009874</v>
       </c>
       <c r="E87">
         <f t="shared" si="26"/>
-        <v>3618</v>
+        <v>3614</v>
       </c>
       <c r="F87">
         <f t="shared" si="27"/>
-        <v>16006251</v>
+        <v>16006260</v>
       </c>
       <c r="G87">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H87">
         <f t="shared" si="29"/>
-        <v>16006221</v>
+        <v>16006218</v>
       </c>
       <c r="I87">
         <f t="shared" si="30"/>
@@ -30417,7 +30417,7 @@
       </c>
       <c r="J87">
         <f t="shared" si="31"/>
-        <v>16001287</v>
+        <v>16001284</v>
       </c>
       <c r="K87">
         <f t="shared" si="32"/>
@@ -30425,7 +30425,7 @@
       </c>
       <c r="L87">
         <f t="shared" si="33"/>
-        <v>15993763</v>
+        <v>15993760</v>
       </c>
       <c r="M87">
         <f t="shared" si="34"/>
@@ -30433,7 +30433,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="35"/>
-        <v>15985982</v>
+        <v>15985979</v>
       </c>
       <c r="O87">
         <f t="shared" si="36"/>
@@ -30441,7 +30441,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="37"/>
-        <v>15974249</v>
+        <v>15974246</v>
       </c>
       <c r="Q87">
         <f t="shared" si="38"/>
@@ -30449,7 +30449,7 @@
       </c>
       <c r="R87">
         <f t="shared" si="39"/>
-        <v>15960780</v>
+        <v>15960777</v>
       </c>
       <c r="S87">
         <f t="shared" si="19"/>
@@ -30457,7 +30457,7 @@
       </c>
       <c r="T87">
         <f t="shared" si="20"/>
-        <v>15875197</v>
+        <v>15875194</v>
       </c>
       <c r="U87">
         <f t="shared" si="21"/>
@@ -30465,7 +30465,7 @@
       </c>
       <c r="V87">
         <f t="shared" si="22"/>
-        <v>15743977</v>
+        <v>15743974</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.35">
@@ -30478,27 +30478,27 @@
       </c>
       <c r="C88">
         <f t="shared" si="24"/>
-        <v>2680</v>
+        <v>2675</v>
       </c>
       <c r="D88">
         <f t="shared" si="25"/>
-        <v>18601177</v>
+        <v>18601182</v>
       </c>
       <c r="E88">
         <f t="shared" si="26"/>
-        <v>3703</v>
+        <v>3699</v>
       </c>
       <c r="F88">
         <f t="shared" si="27"/>
-        <v>18597474</v>
+        <v>18597483</v>
       </c>
       <c r="G88">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H88">
         <f t="shared" si="29"/>
-        <v>18597444</v>
+        <v>18597441</v>
       </c>
       <c r="I88">
         <f t="shared" si="30"/>
@@ -30506,7 +30506,7 @@
       </c>
       <c r="J88">
         <f t="shared" si="31"/>
-        <v>18592388</v>
+        <v>18592385</v>
       </c>
       <c r="K88">
         <f t="shared" si="32"/>
@@ -30514,7 +30514,7 @@
       </c>
       <c r="L88">
         <f t="shared" si="33"/>
-        <v>18584665</v>
+        <v>18584662</v>
       </c>
       <c r="M88">
         <f t="shared" si="34"/>
@@ -30522,7 +30522,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="35"/>
-        <v>18576666</v>
+        <v>18576663</v>
       </c>
       <c r="O88">
         <f t="shared" si="36"/>
@@ -30530,7 +30530,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="37"/>
-        <v>18564588</v>
+        <v>18564585</v>
       </c>
       <c r="Q88">
         <f t="shared" si="38"/>
@@ -30538,7 +30538,7 @@
       </c>
       <c r="R88">
         <f t="shared" si="39"/>
-        <v>18550714</v>
+        <v>18550711</v>
       </c>
       <c r="S88">
         <f t="shared" si="19"/>
@@ -30546,7 +30546,7 @@
       </c>
       <c r="T88">
         <f t="shared" si="20"/>
-        <v>18462302</v>
+        <v>18462299</v>
       </c>
       <c r="U88">
         <f t="shared" si="21"/>
@@ -30554,7 +30554,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="22"/>
-        <v>18326177</v>
+        <v>18326174</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.35">
@@ -30567,27 +30567,27 @@
       </c>
       <c r="C89">
         <f t="shared" si="24"/>
-        <v>2741</v>
+        <v>2736</v>
       </c>
       <c r="D89">
         <f t="shared" si="25"/>
-        <v>21611857</v>
+        <v>21611862</v>
       </c>
       <c r="E89">
         <f t="shared" si="26"/>
-        <v>3790</v>
+        <v>3786</v>
       </c>
       <c r="F89">
         <f t="shared" si="27"/>
-        <v>21608067</v>
+        <v>21608076</v>
       </c>
       <c r="G89">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H89">
         <f t="shared" si="29"/>
-        <v>21608037</v>
+        <v>21608034</v>
       </c>
       <c r="I89">
         <f t="shared" si="30"/>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="J89">
         <f t="shared" si="31"/>
-        <v>21602857</v>
+        <v>21602854</v>
       </c>
       <c r="K89">
         <f t="shared" si="32"/>
@@ -30603,7 +30603,7 @@
       </c>
       <c r="L89">
         <f t="shared" si="33"/>
-        <v>21594932</v>
+        <v>21594929</v>
       </c>
       <c r="M89">
         <f t="shared" si="34"/>
@@ -30611,7 +30611,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="35"/>
-        <v>21586713</v>
+        <v>21586710</v>
       </c>
       <c r="O89">
         <f t="shared" si="36"/>
@@ -30619,7 +30619,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="37"/>
-        <v>21574285</v>
+        <v>21574282</v>
       </c>
       <c r="Q89">
         <f t="shared" si="38"/>
@@ -30627,7 +30627,7 @@
       </c>
       <c r="R89">
         <f t="shared" si="39"/>
-        <v>21560000</v>
+        <v>21559997</v>
       </c>
       <c r="S89">
         <f t="shared" si="19"/>
@@ -30635,7 +30635,7 @@
       </c>
       <c r="T89">
         <f t="shared" si="20"/>
-        <v>21468713</v>
+        <v>21468710</v>
       </c>
       <c r="U89">
         <f t="shared" si="21"/>
@@ -30643,7 +30643,7 @@
       </c>
       <c r="V89">
         <f t="shared" si="22"/>
-        <v>21327593</v>
+        <v>21327590</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.35">
@@ -30656,27 +30656,27 @@
       </c>
       <c r="C90">
         <f t="shared" si="24"/>
-        <v>2803</v>
+        <v>2798</v>
       </c>
       <c r="D90">
         <f t="shared" si="25"/>
-        <v>25109777</v>
+        <v>25109782</v>
       </c>
       <c r="E90">
         <f t="shared" si="26"/>
-        <v>3877</v>
+        <v>3873</v>
       </c>
       <c r="F90">
         <f t="shared" si="27"/>
-        <v>25105900</v>
+        <v>25105909</v>
       </c>
       <c r="G90">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <f t="shared" si="29"/>
-        <v>25105870</v>
+        <v>25105867</v>
       </c>
       <c r="I90">
         <f t="shared" si="30"/>
@@ -30684,7 +30684,7 @@
       </c>
       <c r="J90">
         <f t="shared" si="31"/>
-        <v>25100565</v>
+        <v>25100562</v>
       </c>
       <c r="K90">
         <f t="shared" si="32"/>
@@ -30692,7 +30692,7 @@
       </c>
       <c r="L90">
         <f t="shared" si="33"/>
-        <v>25092436</v>
+        <v>25092433</v>
       </c>
       <c r="M90">
         <f t="shared" si="34"/>
@@ -30700,7 +30700,7 @@
       </c>
       <c r="N90">
         <f t="shared" si="35"/>
-        <v>25083993</v>
+        <v>25083990</v>
       </c>
       <c r="O90">
         <f t="shared" si="36"/>
@@ -30708,7 +30708,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="37"/>
-        <v>25071210</v>
+        <v>25071207</v>
       </c>
       <c r="Q90">
         <f t="shared" si="38"/>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="R90">
         <f t="shared" si="39"/>
-        <v>25056508</v>
+        <v>25056505</v>
       </c>
       <c r="S90">
         <f t="shared" si="19"/>
@@ -30724,7 +30724,7 @@
       </c>
       <c r="T90">
         <f t="shared" si="20"/>
-        <v>24962300</v>
+        <v>24962297</v>
       </c>
       <c r="U90">
         <f t="shared" si="21"/>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="22"/>
-        <v>24816095</v>
+        <v>24816092</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
@@ -30745,27 +30745,27 @@
       </c>
       <c r="C91">
         <f t="shared" si="24"/>
-        <v>2865</v>
+        <v>2860</v>
       </c>
       <c r="D91">
         <f t="shared" si="25"/>
-        <v>29173790</v>
+        <v>29173795</v>
       </c>
       <c r="E91">
         <f t="shared" si="26"/>
-        <v>3966</v>
+        <v>3962</v>
       </c>
       <c r="F91">
         <f t="shared" si="27"/>
-        <v>29169824</v>
+        <v>29169833</v>
       </c>
       <c r="G91">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <f t="shared" si="29"/>
-        <v>29169794</v>
+        <v>29169791</v>
       </c>
       <c r="I91">
         <f t="shared" si="30"/>
@@ -30773,7 +30773,7 @@
       </c>
       <c r="J91">
         <f t="shared" si="31"/>
-        <v>29164362</v>
+        <v>29164359</v>
       </c>
       <c r="K91">
         <f t="shared" si="32"/>
@@ -30781,7 +30781,7 @@
       </c>
       <c r="L91">
         <f t="shared" si="33"/>
-        <v>29156027</v>
+        <v>29156024</v>
       </c>
       <c r="M91">
         <f t="shared" si="34"/>
@@ -30789,7 +30789,7 @@
       </c>
       <c r="N91">
         <f t="shared" si="35"/>
-        <v>29147358</v>
+        <v>29147355</v>
       </c>
       <c r="O91">
         <f t="shared" si="36"/>
@@ -30797,7 +30797,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="37"/>
-        <v>29134215</v>
+        <v>29134212</v>
       </c>
       <c r="Q91">
         <f t="shared" si="38"/>
@@ -30805,7 +30805,7 @@
       </c>
       <c r="R91">
         <f t="shared" si="39"/>
-        <v>29119090</v>
+        <v>29119087</v>
       </c>
       <c r="S91">
         <f t="shared" si="19"/>
@@ -30813,7 +30813,7 @@
       </c>
       <c r="T91">
         <f t="shared" si="20"/>
-        <v>29021915</v>
+        <v>29021912</v>
       </c>
       <c r="U91">
         <f t="shared" si="21"/>
@@ -30821,7 +30821,7 @@
       </c>
       <c r="V91">
         <f t="shared" si="22"/>
-        <v>28870535</v>
+        <v>28870532</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
@@ -30834,27 +30834,27 @@
       </c>
       <c r="C92">
         <f t="shared" si="24"/>
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="D92">
         <f t="shared" si="25"/>
-        <v>33895508</v>
+        <v>33895513</v>
       </c>
       <c r="E92">
         <f t="shared" si="26"/>
-        <v>4055</v>
+        <v>4051</v>
       </c>
       <c r="F92">
         <f t="shared" si="27"/>
-        <v>33891453</v>
+        <v>33891462</v>
       </c>
       <c r="G92">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <f t="shared" si="29"/>
-        <v>33891423</v>
+        <v>33891420</v>
       </c>
       <c r="I92">
         <f t="shared" si="30"/>
@@ -30862,7 +30862,7 @@
       </c>
       <c r="J92">
         <f t="shared" si="31"/>
-        <v>33885863</v>
+        <v>33885860</v>
       </c>
       <c r="K92">
         <f t="shared" si="32"/>
@@ -30870,7 +30870,7 @@
       </c>
       <c r="L92">
         <f t="shared" si="33"/>
-        <v>33877318</v>
+        <v>33877315</v>
       </c>
       <c r="M92">
         <f t="shared" si="34"/>
@@ -30878,7 +30878,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="35"/>
-        <v>33868419</v>
+        <v>33868416</v>
       </c>
       <c r="O92">
         <f t="shared" si="36"/>
@@ -30886,7 +30886,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="37"/>
-        <v>33854911</v>
+        <v>33854908</v>
       </c>
       <c r="Q92">
         <f t="shared" si="38"/>
@@ -30894,7 +30894,7 @@
       </c>
       <c r="R92">
         <f t="shared" si="39"/>
-        <v>33839357</v>
+        <v>33839354</v>
       </c>
       <c r="S92">
         <f t="shared" si="19"/>
@@ -30902,7 +30902,7 @@
       </c>
       <c r="T92">
         <f t="shared" si="20"/>
-        <v>33739169</v>
+        <v>33739166</v>
       </c>
       <c r="U92">
         <f t="shared" si="21"/>
@@ -30910,7 +30910,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="22"/>
-        <v>33582524</v>
+        <v>33582521</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.35">
@@ -30923,27 +30923,27 @@
       </c>
       <c r="C93">
         <f t="shared" si="24"/>
-        <v>2993</v>
+        <v>2988</v>
       </c>
       <c r="D93">
         <f t="shared" si="25"/>
-        <v>39381372</v>
+        <v>39381377</v>
       </c>
       <c r="E93">
         <f t="shared" si="26"/>
-        <v>4146</v>
+        <v>4142</v>
       </c>
       <c r="F93">
         <f t="shared" si="27"/>
-        <v>39377226</v>
+        <v>39377235</v>
       </c>
       <c r="G93">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H93">
         <f t="shared" si="29"/>
-        <v>39377196</v>
+        <v>39377193</v>
       </c>
       <c r="I93">
         <f t="shared" si="30"/>
@@ -30951,7 +30951,7 @@
       </c>
       <c r="J93">
         <f t="shared" si="31"/>
-        <v>39371506</v>
+        <v>39371503</v>
       </c>
       <c r="K93">
         <f t="shared" si="32"/>
@@ -30959,7 +30959,7 @@
       </c>
       <c r="L93">
         <f t="shared" si="33"/>
-        <v>39362749</v>
+        <v>39362746</v>
       </c>
       <c r="M93">
         <f t="shared" si="34"/>
@@ -30967,7 +30967,7 @@
       </c>
       <c r="N93">
         <f t="shared" si="35"/>
-        <v>39353618</v>
+        <v>39353615</v>
       </c>
       <c r="O93">
         <f t="shared" si="36"/>
@@ -30975,7 +30975,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="37"/>
-        <v>39339740</v>
+        <v>39339737</v>
       </c>
       <c r="Q93">
         <f t="shared" si="38"/>
@@ -30983,7 +30983,7 @@
       </c>
       <c r="R93">
         <f t="shared" si="39"/>
-        <v>39323751</v>
+        <v>39323748</v>
       </c>
       <c r="S93">
         <f t="shared" si="19"/>
@@ -30991,7 +30991,7 @@
       </c>
       <c r="T93">
         <f t="shared" si="20"/>
-        <v>39220504</v>
+        <v>39220501</v>
       </c>
       <c r="U93">
         <f t="shared" si="21"/>
@@ -30999,7 +30999,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="22"/>
-        <v>39058504</v>
+        <v>39058501</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.35">
@@ -31012,27 +31012,27 @@
       </c>
       <c r="C94">
         <f t="shared" si="24"/>
-        <v>3058</v>
+        <v>3053</v>
       </c>
       <c r="D94">
         <f t="shared" si="25"/>
-        <v>45755046</v>
+        <v>45755051</v>
       </c>
       <c r="E94">
         <f t="shared" si="26"/>
-        <v>4237</v>
+        <v>4233</v>
       </c>
       <c r="F94">
         <f t="shared" si="27"/>
-        <v>45750809</v>
+        <v>45750818</v>
       </c>
       <c r="G94">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <f t="shared" si="29"/>
-        <v>45750779</v>
+        <v>45750776</v>
       </c>
       <c r="I94">
         <f t="shared" si="30"/>
@@ -31040,7 +31040,7 @@
       </c>
       <c r="J94">
         <f t="shared" si="31"/>
-        <v>45744958</v>
+        <v>45744955</v>
       </c>
       <c r="K94">
         <f t="shared" si="32"/>
@@ -31048,7 +31048,7 @@
       </c>
       <c r="L94">
         <f t="shared" si="33"/>
-        <v>45735987</v>
+        <v>45735984</v>
       </c>
       <c r="M94">
         <f t="shared" si="34"/>
@@ -31056,7 +31056,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="35"/>
-        <v>45726620</v>
+        <v>45726617</v>
       </c>
       <c r="O94">
         <f t="shared" si="36"/>
@@ -31064,7 +31064,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="37"/>
-        <v>45712367</v>
+        <v>45712364</v>
       </c>
       <c r="Q94">
         <f t="shared" si="38"/>
@@ -31072,7 +31072,7 @@
       </c>
       <c r="R94">
         <f t="shared" si="39"/>
-        <v>45695937</v>
+        <v>45695934</v>
       </c>
       <c r="S94">
         <f t="shared" si="19"/>
@@ -31080,7 +31080,7 @@
       </c>
       <c r="T94">
         <f t="shared" si="20"/>
-        <v>45589585</v>
+        <v>45589582</v>
       </c>
       <c r="U94">
         <f t="shared" si="21"/>
@@ -31088,7 +31088,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="22"/>
-        <v>45422140</v>
+        <v>45422137</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.35">
@@ -31101,27 +31101,27 @@
       </c>
       <c r="C95">
         <f t="shared" si="24"/>
-        <v>3123</v>
+        <v>3118</v>
       </c>
       <c r="D95">
         <f t="shared" si="25"/>
-        <v>53160209</v>
+        <v>53160214</v>
       </c>
       <c r="E95">
         <f t="shared" si="26"/>
-        <v>4330</v>
+        <v>4326</v>
       </c>
       <c r="F95">
         <f t="shared" si="27"/>
-        <v>53155879</v>
+        <v>53155888</v>
       </c>
       <c r="G95">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H95">
         <f t="shared" si="29"/>
-        <v>53155849</v>
+        <v>53155846</v>
       </c>
       <c r="I95">
         <f t="shared" si="30"/>
@@ -31129,7 +31129,7 @@
       </c>
       <c r="J95">
         <f t="shared" si="31"/>
-        <v>53149895</v>
+        <v>53149892</v>
       </c>
       <c r="K95">
         <f t="shared" si="32"/>
@@ -31137,7 +31137,7 @@
       </c>
       <c r="L95">
         <f t="shared" si="33"/>
-        <v>53140707</v>
+        <v>53140704</v>
       </c>
       <c r="M95">
         <f t="shared" si="34"/>
@@ -31145,7 +31145,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="35"/>
-        <v>53131102</v>
+        <v>53131099</v>
       </c>
       <c r="O95">
         <f t="shared" si="36"/>
@@ -31153,7 +31153,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="37"/>
-        <v>53116469</v>
+        <v>53116466</v>
       </c>
       <c r="Q95">
         <f t="shared" si="38"/>
@@ -31161,7 +31161,7 @@
       </c>
       <c r="R95">
         <f t="shared" si="39"/>
-        <v>53099592</v>
+        <v>53099589</v>
       </c>
       <c r="S95">
         <f t="shared" si="19"/>
@@ -31169,7 +31169,7 @@
       </c>
       <c r="T95">
         <f t="shared" si="20"/>
-        <v>52990089</v>
+        <v>52990086</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
@@ -31177,7 +31177,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="22"/>
-        <v>52817109</v>
+        <v>52817106</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.35">
@@ -31190,27 +31190,27 @@
       </c>
       <c r="C96">
         <f t="shared" si="24"/>
-        <v>3189</v>
+        <v>3184</v>
       </c>
       <c r="D96">
         <f t="shared" si="25"/>
-        <v>61763790</v>
+        <v>61763795</v>
       </c>
       <c r="E96">
         <f t="shared" si="26"/>
-        <v>4423</v>
+        <v>4419</v>
       </c>
       <c r="F96">
         <f t="shared" si="27"/>
-        <v>61759367</v>
+        <v>61759376</v>
       </c>
       <c r="G96">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <f t="shared" si="29"/>
-        <v>61759337</v>
+        <v>61759334</v>
       </c>
       <c r="I96">
         <f t="shared" si="30"/>
@@ -31218,7 +31218,7 @@
       </c>
       <c r="J96">
         <f t="shared" si="31"/>
-        <v>61753249</v>
+        <v>61753246</v>
       </c>
       <c r="K96">
         <f t="shared" si="32"/>
@@ -31226,7 +31226,7 @@
       </c>
       <c r="L96">
         <f t="shared" si="33"/>
-        <v>61743841</v>
+        <v>61743838</v>
       </c>
       <c r="M96">
         <f t="shared" si="34"/>
@@ -31234,7 +31234,7 @@
       </c>
       <c r="N96">
         <f t="shared" si="35"/>
-        <v>61733994</v>
+        <v>61733991</v>
       </c>
       <c r="O96">
         <f t="shared" si="36"/>
@@ -31242,7 +31242,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="37"/>
-        <v>61718976</v>
+        <v>61718973</v>
       </c>
       <c r="Q96">
         <f t="shared" si="38"/>
@@ -31250,7 +31250,7 @@
       </c>
       <c r="R96">
         <f t="shared" si="39"/>
-        <v>61701646</v>
+        <v>61701643</v>
       </c>
       <c r="S96">
         <f t="shared" ref="S96:S100" si="40">_xlfn.CEILING.MATH(($A96-25)*($A96-25)*23)</f>
@@ -31258,7 +31258,7 @@
       </c>
       <c r="T96">
         <f t="shared" ref="T96:T100" si="41">R96-S96</f>
-        <v>61588946</v>
+        <v>61588943</v>
       </c>
       <c r="U96">
         <f t="shared" si="21"/>
@@ -31266,7 +31266,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="22"/>
-        <v>61410341</v>
+        <v>61410338</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.35">
@@ -31279,27 +31279,27 @@
       </c>
       <c r="C97">
         <f t="shared" si="24"/>
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="D97">
         <f t="shared" si="25"/>
-        <v>71759735</v>
+        <v>71759740</v>
       </c>
       <c r="E97">
         <f t="shared" si="26"/>
-        <v>4518</v>
+        <v>4514</v>
       </c>
       <c r="F97">
         <f t="shared" si="27"/>
-        <v>71755217</v>
+        <v>71755226</v>
       </c>
       <c r="G97">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <f t="shared" si="29"/>
-        <v>71755187</v>
+        <v>71755184</v>
       </c>
       <c r="I97">
         <f t="shared" si="30"/>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="J97">
         <f t="shared" si="31"/>
-        <v>71748963</v>
+        <v>71748960</v>
       </c>
       <c r="K97">
         <f t="shared" si="32"/>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="L97">
         <f t="shared" si="33"/>
-        <v>71739333</v>
+        <v>71739330</v>
       </c>
       <c r="M97">
         <f t="shared" si="34"/>
@@ -31323,7 +31323,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="35"/>
-        <v>71729242</v>
+        <v>71729239</v>
       </c>
       <c r="O97">
         <f t="shared" si="36"/>
@@ -31331,7 +31331,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="37"/>
-        <v>71713834</v>
+        <v>71713831</v>
       </c>
       <c r="Q97">
         <f t="shared" si="38"/>
@@ -31339,7 +31339,7 @@
       </c>
       <c r="R97">
         <f t="shared" si="39"/>
-        <v>71696045</v>
+        <v>71696042</v>
       </c>
       <c r="S97">
         <f t="shared" si="40"/>
@@ -31347,7 +31347,7 @@
       </c>
       <c r="T97">
         <f t="shared" si="41"/>
-        <v>71580102</v>
+        <v>71580099</v>
       </c>
       <c r="U97">
         <f t="shared" si="21"/>
@@ -31355,7 +31355,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="22"/>
-        <v>71395782</v>
+        <v>71395779</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
@@ -31368,27 +31368,27 @@
       </c>
       <c r="C98">
         <f t="shared" si="24"/>
-        <v>3324</v>
+        <v>3319</v>
       </c>
       <c r="D98">
         <f t="shared" si="25"/>
-        <v>83373377</v>
+        <v>83373382</v>
       </c>
       <c r="E98">
         <f t="shared" si="26"/>
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="F98">
         <f t="shared" si="27"/>
-        <v>83368764</v>
+        <v>83368773</v>
       </c>
       <c r="G98">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <f t="shared" si="29"/>
-        <v>83368734</v>
+        <v>83368731</v>
       </c>
       <c r="I98">
         <f t="shared" si="30"/>
@@ -31396,7 +31396,7 @@
       </c>
       <c r="J98">
         <f t="shared" si="31"/>
-        <v>83362373</v>
+        <v>83362370</v>
       </c>
       <c r="K98">
         <f t="shared" si="32"/>
@@ -31404,7 +31404,7 @@
       </c>
       <c r="L98">
         <f t="shared" si="33"/>
-        <v>83352518</v>
+        <v>83352515</v>
       </c>
       <c r="M98">
         <f t="shared" si="34"/>
@@ -31412,7 +31412,7 @@
       </c>
       <c r="N98">
         <f t="shared" si="35"/>
-        <v>83342179</v>
+        <v>83342176</v>
       </c>
       <c r="O98">
         <f t="shared" si="36"/>
@@ -31420,7 +31420,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="37"/>
-        <v>83326376</v>
+        <v>83326373</v>
       </c>
       <c r="Q98">
         <f t="shared" si="38"/>
@@ -31428,7 +31428,7 @@
       </c>
       <c r="R98">
         <f t="shared" si="39"/>
-        <v>83308122</v>
+        <v>83308119</v>
       </c>
       <c r="S98">
         <f t="shared" si="40"/>
@@ -31436,7 +31436,7 @@
       </c>
       <c r="T98">
         <f t="shared" si="41"/>
-        <v>83188890</v>
+        <v>83188887</v>
       </c>
       <c r="U98">
         <f t="shared" si="21"/>
@@ -31444,7 +31444,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="22"/>
-        <v>82998765</v>
+        <v>82998762</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.35">
@@ -31457,27 +31457,27 @@
       </c>
       <c r="C99">
         <f t="shared" si="24"/>
-        <v>3392</v>
+        <v>3387</v>
       </c>
       <c r="D99">
         <f t="shared" si="25"/>
-        <v>96866514</v>
+        <v>96866519</v>
       </c>
       <c r="E99">
         <f t="shared" si="26"/>
-        <v>4710</v>
+        <v>4706</v>
       </c>
       <c r="F99">
         <f t="shared" si="27"/>
-        <v>96861804</v>
+        <v>96861813</v>
       </c>
       <c r="G99">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <f t="shared" si="29"/>
-        <v>96861774</v>
+        <v>96861771</v>
       </c>
       <c r="I99">
         <f t="shared" si="30"/>
@@ -31485,7 +31485,7 @@
       </c>
       <c r="J99">
         <f t="shared" si="31"/>
-        <v>96855274</v>
+        <v>96855271</v>
       </c>
       <c r="K99">
         <f t="shared" si="32"/>
@@ -31493,7 +31493,7 @@
       </c>
       <c r="L99">
         <f t="shared" si="33"/>
-        <v>96845191</v>
+        <v>96845188</v>
       </c>
       <c r="M99">
         <f t="shared" si="34"/>
@@ -31501,7 +31501,7 @@
       </c>
       <c r="N99">
         <f t="shared" si="35"/>
-        <v>96834602</v>
+        <v>96834599</v>
       </c>
       <c r="O99">
         <f t="shared" si="36"/>
@@ -31509,7 +31509,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="37"/>
-        <v>96818399</v>
+        <v>96818396</v>
       </c>
       <c r="Q99">
         <f t="shared" si="38"/>
@@ -31517,7 +31517,7 @@
       </c>
       <c r="R99">
         <f t="shared" si="39"/>
-        <v>96799674</v>
+        <v>96799671</v>
       </c>
       <c r="S99">
         <f t="shared" si="40"/>
@@ -31525,7 +31525,7 @@
       </c>
       <c r="T99">
         <f t="shared" si="41"/>
-        <v>96677107</v>
+        <v>96677104</v>
       </c>
       <c r="U99">
         <f t="shared" si="21"/>
@@ -31533,7 +31533,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="22"/>
-        <v>96481087</v>
+        <v>96481084</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.35">
@@ -31546,27 +31546,27 @@
       </c>
       <c r="C100">
         <f t="shared" si="24"/>
-        <v>3461</v>
+        <v>3456</v>
       </c>
       <c r="D100">
         <f t="shared" si="25"/>
-        <v>112543313</v>
+        <v>112543318</v>
       </c>
       <c r="E100">
         <f t="shared" si="26"/>
-        <v>4807</v>
+        <v>4803</v>
       </c>
       <c r="F100">
         <f t="shared" si="27"/>
-        <v>112538506</v>
+        <v>112538515</v>
       </c>
       <c r="G100">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <f t="shared" si="29"/>
-        <v>112538476</v>
+        <v>112538473</v>
       </c>
       <c r="I100">
         <f t="shared" si="30"/>
@@ -31574,7 +31574,7 @@
       </c>
       <c r="J100">
         <f t="shared" si="31"/>
-        <v>112531836</v>
+        <v>112531833</v>
       </c>
       <c r="K100">
         <f t="shared" si="32"/>
@@ -31582,7 +31582,7 @@
       </c>
       <c r="L100">
         <f t="shared" si="33"/>
-        <v>112521523</v>
+        <v>112521520</v>
       </c>
       <c r="M100">
         <f t="shared" si="34"/>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="N100">
         <f t="shared" si="35"/>
-        <v>112510680</v>
+        <v>112510677</v>
       </c>
       <c r="O100">
         <f t="shared" si="36"/>
@@ -31598,7 +31598,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="37"/>
-        <v>112494072</v>
+        <v>112494069</v>
       </c>
       <c r="Q100">
         <f t="shared" si="38"/>
@@ -31606,7 +31606,7 @@
       </c>
       <c r="R100">
         <f t="shared" si="39"/>
-        <v>112474870</v>
+        <v>112474867</v>
       </c>
       <c r="S100">
         <f t="shared" si="40"/>
@@ -31614,7 +31614,7 @@
       </c>
       <c r="T100">
         <f t="shared" si="41"/>
-        <v>112348922</v>
+        <v>112348919</v>
       </c>
       <c r="U100">
         <f t="shared" si="21"/>
@@ -31622,7 +31622,7 @@
       </c>
       <c r="V100">
         <f t="shared" si="22"/>
-        <v>112146917</v>
+        <v>112146914</v>
       </c>
     </row>
   </sheetData>

--- a/大秦东出pop需求表.xlsx
+++ b/大秦东出pop需求表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czxdc\Documents\Paradox Interactive\Victoria 3\mod\BreakOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D53843-C491-4615-95D7-81D512BEBAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98B521C-DDE9-4AC1-81BE-CF144E56E381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大秦东出pop需求" sheetId="4" r:id="rId1"/>
@@ -13391,8 +13391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9393F496-21DF-4D75-944B-D0E992A731B3}">
   <dimension ref="A1:AH100"/>
   <sheetViews>
-    <sheetView topLeftCell="T77" workbookViewId="0">
-      <selection activeCell="T102" sqref="T102"/>
+    <sheetView tabSelected="1" topLeftCell="P77" workbookViewId="0">
+      <selection activeCell="AA100" sqref="AA100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -14240,8 +14240,8 @@
         <v>popneed_simple_clothing = 38  popneed_standard_clothing = 8 popneed_crude_items = 12  popneed_household_items = 3</v>
       </c>
       <c r="AA11" t="str">
-        <f t="shared" ref="AA11:AA42" si="7">CONCATENATE("popneed_luxury_drinks = ",L11)</f>
-        <v>popneed_luxury_drinks = 2</v>
+        <f>CONCATENATE("popneed_health = ",L11)</f>
+        <v>popneed_health = 2</v>
       </c>
       <c r="AG11" t="s">
         <v>36</v>
@@ -14325,12 +14325,12 @@
         <v>popneed_basic_food = 73</v>
       </c>
       <c r="Z12" t="str">
-        <f t="shared" ref="Z12:Z15" si="8">CONCATENATE("popneed_simple_clothing = ",H12-I12,"  popneed_standard_clothing = ",I12," popneed_crude_items = ",J12-K12,"  popneed_household_items = ",K12)</f>
+        <f t="shared" ref="Z12:Z15" si="7">CONCATENATE("popneed_simple_clothing = ",H12-I12,"  popneed_standard_clothing = ",I12," popneed_crude_items = ",J12-K12,"  popneed_household_items = ",K12)</f>
         <v>popneed_simple_clothing = 36  popneed_standard_clothing = 19 popneed_crude_items = 11  popneed_household_items = 6</v>
       </c>
       <c r="AA12" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 3</v>
+        <f t="shared" ref="AA12:AA75" si="8">CONCATENATE("popneed_health = ",L12)</f>
+        <v>popneed_health = 3</v>
       </c>
       <c r="AG12" t="s">
         <v>36</v>
@@ -14414,12 +14414,12 @@
         <v>popneed_basic_food = 81</v>
       </c>
       <c r="Z13" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_simple_clothing = 33  popneed_standard_clothing = 33 popneed_crude_items = 10  popneed_household_items = 11</v>
+      </c>
+      <c r="AA13" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_simple_clothing = 33  popneed_standard_clothing = 33 popneed_crude_items = 10  popneed_household_items = 11</v>
-      </c>
-      <c r="AA13" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 3</v>
+        <v>popneed_health = 3</v>
       </c>
       <c r="AG13" t="s">
         <v>36</v>
@@ -14503,12 +14503,12 @@
         <v>popneed_basic_food = 90</v>
       </c>
       <c r="Z14" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_simple_clothing = 25  popneed_standard_clothing = 52 popneed_crude_items = 9  popneed_household_items = 18</v>
+      </c>
+      <c r="AA14" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_simple_clothing = 25  popneed_standard_clothing = 52 popneed_crude_items = 9  popneed_household_items = 18</v>
-      </c>
-      <c r="AA14" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 5</v>
+        <v>popneed_health = 5</v>
       </c>
       <c r="AG14" t="s">
         <v>36</v>
@@ -14592,12 +14592,12 @@
         <v>popneed_basic_food = 99</v>
       </c>
       <c r="Z15" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_simple_clothing = 15  popneed_standard_clothing = 75 popneed_crude_items = 6  popneed_household_items = 30</v>
+      </c>
+      <c r="AA15" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_simple_clothing = 15  popneed_standard_clothing = 75 popneed_crude_items = 6  popneed_household_items = 30</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 5</v>
+        <v>popneed_health = 5</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" ref="AD15:AD30" si="9">CONCATENATE("popneed_services = ",O15)</f>
@@ -14690,8 +14690,8 @@
         <v>popneed_standard_clothing = 103 popneed_household_items = 48</v>
       </c>
       <c r="AA16" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 7</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 7</v>
       </c>
       <c r="AD16" t="str">
         <f t="shared" si="9"/>
@@ -14776,8 +14776,8 @@
         <v>popneed_standard_clothing = 118 popneed_household_items = 62</v>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 11</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 11</v>
       </c>
       <c r="AD17" t="str">
         <f t="shared" si="9"/>
@@ -14862,8 +14862,8 @@
         <v>popneed_standard_clothing = 133 popneed_household_items = 79</v>
       </c>
       <c r="AA18" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 19</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 19</v>
       </c>
       <c r="AD18" t="str">
         <f t="shared" si="9"/>
@@ -14948,8 +14948,8 @@
         <v>popneed_standard_clothing = 150 popneed_household_items = 99</v>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 29</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 29</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" ref="AB19:AB50" si="13">CONCATENATE("popneed_free_movement = ",M19)</f>
@@ -15038,8 +15038,8 @@
         <v>popneed_standard_clothing = 167 popneed_household_items = 121</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 43</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 43</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="13"/>
@@ -15128,8 +15128,8 @@
         <v>popneed_standard_clothing = 186 popneed_household_items = 145</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 59</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 59</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" si="13"/>
@@ -15222,8 +15222,8 @@
         <v>popneed_standard_clothing = 205 popneed_household_items = 173</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 79</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 79</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" si="13"/>
@@ -15316,8 +15316,8 @@
         <v>popneed_standard_clothing = 226 popneed_household_items = 203</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 101</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 101</v>
       </c>
       <c r="AB23" t="str">
         <f t="shared" si="13"/>
@@ -15410,8 +15410,8 @@
         <v>popneed_standard_clothing = 247 popneed_household_items = 235</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 127</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 127</v>
       </c>
       <c r="AB24" t="str">
         <f t="shared" si="13"/>
@@ -15510,8 +15510,8 @@
         <v>popneed_standard_clothing = 270 popneed_household_items = 270</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 155</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 155</v>
       </c>
       <c r="AB25" t="str">
         <f t="shared" si="13"/>
@@ -15612,8 +15612,8 @@
         <v>popneed_standard_clothing = 266 popneed_household_items = 280  popneed_luxury_items = 55</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 187</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 187</v>
       </c>
       <c r="AB26" t="str">
         <f t="shared" si="13"/>
@@ -15710,8 +15710,8 @@
         <v>popneed_standard_clothing = 260 popneed_household_items = 284  popneed_luxury_items = 122</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 221</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 221</v>
       </c>
       <c r="AB27" t="str">
         <f t="shared" si="13"/>
@@ -15808,8 +15808,8 @@
         <v>popneed_standard_clothing = 249 popneed_household_items = 284  popneed_luxury_items = 201</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 259</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 259</v>
       </c>
       <c r="AB28" t="str">
         <f t="shared" si="13"/>
@@ -15906,8 +15906,8 @@
         <v>popneed_standard_clothing = 235 popneed_household_items = 278  popneed_luxury_items = 294</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 299</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 299</v>
       </c>
       <c r="AB29" t="str">
         <f t="shared" si="13"/>
@@ -16004,8 +16004,8 @@
         <v>popneed_standard_clothing = 216 popneed_household_items = 264  popneed_luxury_items = 402</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 343</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 343</v>
       </c>
       <c r="AB30" t="str">
         <f t="shared" si="13"/>
@@ -16102,8 +16102,8 @@
         <v>popneed_standard_clothing = 193 popneed_household_items = 243  popneed_luxury_items = 525</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 389</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 389</v>
       </c>
       <c r="AB31" t="str">
         <f t="shared" si="13"/>
@@ -16204,8 +16204,8 @@
         <v>popneed_standard_clothing = 165 popneed_household_items = 214  popneed_luxury_items = 665</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 439</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 439</v>
       </c>
       <c r="AB32" t="str">
         <f t="shared" si="13"/>
@@ -16306,8 +16306,8 @@
         <v>popneed_standard_clothing = 132 popneed_household_items = 175  popneed_luxury_items = 824</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 491</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 491</v>
       </c>
       <c r="AB33" t="str">
         <f t="shared" si="13"/>
@@ -16408,8 +16408,8 @@
         <v>popneed_standard_clothing = 94 popneed_household_items = 127  popneed_luxury_items = 999</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 547</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 547</v>
       </c>
       <c r="AB34" t="str">
         <f t="shared" si="13"/>
@@ -16510,8 +16510,8 @@
         <v>popneed_standard_clothing = 50 popneed_household_items = 69  popneed_luxury_items = 1195</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 605</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 605</v>
       </c>
       <c r="AB35" t="str">
         <f t="shared" si="13"/>
@@ -16611,8 +16611,8 @@
         <v>popneed_luxury_items = 1411</v>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 667</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 667</v>
       </c>
       <c r="AB36" t="str">
         <f t="shared" si="13"/>
@@ -16708,8 +16708,8 @@
         <v>popneed_luxury_items = 1512</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 731</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 731</v>
       </c>
       <c r="AB37" t="str">
         <f t="shared" si="13"/>
@@ -16805,8 +16805,8 @@
         <v>popneed_luxury_items = 1616</v>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 799</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 799</v>
       </c>
       <c r="AB38" t="str">
         <f t="shared" si="13"/>
@@ -16902,8 +16902,8 @@
         <v>popneed_luxury_items = 1725</v>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 869</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 869</v>
       </c>
       <c r="AB39" t="str">
         <f t="shared" si="13"/>
@@ -16999,8 +16999,8 @@
         <v>popneed_luxury_items = 1836</v>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 943</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 943</v>
       </c>
       <c r="AB40" t="str">
         <f t="shared" si="13"/>
@@ -17096,8 +17096,8 @@
         <v>popneed_luxury_items = 1951</v>
       </c>
       <c r="AA41" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 1019</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1019</v>
       </c>
       <c r="AB41" t="str">
         <f t="shared" si="13"/>
@@ -17193,8 +17193,8 @@
         <v>popneed_luxury_items = 2070</v>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" si="7"/>
-        <v>popneed_luxury_drinks = 1099</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1099</v>
       </c>
       <c r="AB42" t="str">
         <f t="shared" si="13"/>
@@ -17290,8 +17290,8 @@
         <v>popneed_luxury_items = 2193</v>
       </c>
       <c r="AA43" t="str">
-        <f t="shared" ref="AA43:AA75" si="25">CONCATENATE("popneed_luxury_drinks = ",L43)</f>
-        <v>popneed_luxury_drinks = 1181</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1181</v>
       </c>
       <c r="AB43" t="str">
         <f t="shared" si="13"/>
@@ -17387,8 +17387,8 @@
         <v>popneed_luxury_items = 2318</v>
       </c>
       <c r="AA44" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 1267</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1267</v>
       </c>
       <c r="AB44" t="str">
         <f t="shared" si="13"/>
@@ -17484,8 +17484,8 @@
         <v>popneed_luxury_items = 2448</v>
       </c>
       <c r="AA45" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 1355</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1355</v>
       </c>
       <c r="AB45" t="str">
         <f t="shared" si="13"/>
@@ -17581,8 +17581,8 @@
         <v>popneed_luxury_items = 2581</v>
       </c>
       <c r="AA46" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 1447</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1447</v>
       </c>
       <c r="AB46" t="str">
         <f t="shared" si="13"/>
@@ -17678,8 +17678,8 @@
         <v>popneed_luxury_items = 2718</v>
       </c>
       <c r="AA47" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 1541</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1541</v>
       </c>
       <c r="AB47" t="str">
         <f t="shared" si="13"/>
@@ -17775,8 +17775,8 @@
         <v>popneed_luxury_items = 2858</v>
       </c>
       <c r="AA48" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 1639</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1639</v>
       </c>
       <c r="AB48" t="str">
         <f t="shared" si="13"/>
@@ -17872,8 +17872,8 @@
         <v>popneed_luxury_items = 3003</v>
       </c>
       <c r="AA49" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 1739</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1739</v>
       </c>
       <c r="AB49" t="str">
         <f t="shared" si="13"/>
@@ -17969,8 +17969,8 @@
         <v>popneed_luxury_items = 3150</v>
       </c>
       <c r="AA50" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 1843</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1843</v>
       </c>
       <c r="AB50" t="str">
         <f t="shared" si="13"/>
@@ -18066,11 +18066,11 @@
         <v>popneed_luxury_items = 3301</v>
       </c>
       <c r="AA51" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 1949</v>
+        <f t="shared" si="8"/>
+        <v>popneed_health = 1949</v>
       </c>
       <c r="AB51" t="str">
-        <f t="shared" ref="AB51:AB83" si="26">CONCATENATE("popneed_free_movement = ",M51)</f>
+        <f t="shared" ref="AB51:AB83" si="25">CONCATENATE("popneed_free_movement = ",M51)</f>
         <v>popneed_free_movement = 2643</v>
       </c>
       <c r="AC51" t="str">
@@ -18163,11 +18163,11 @@
         <v>popneed_luxury_items = 3456</v>
       </c>
       <c r="AA52" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 2059</v>
+      </c>
+      <c r="AB52" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 2059</v>
-      </c>
-      <c r="AB52" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 2808</v>
       </c>
       <c r="AC52" t="str">
@@ -18260,11 +18260,11 @@
         <v>popneed_luxury_items = 3615</v>
       </c>
       <c r="AA53" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 2171</v>
+      </c>
+      <c r="AB53" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 2171</v>
-      </c>
-      <c r="AB53" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 2978</v>
       </c>
       <c r="AC53" t="str">
@@ -18357,11 +18357,11 @@
         <v>popneed_luxury_items = 3776</v>
       </c>
       <c r="AA54" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 2287</v>
+      </c>
+      <c r="AB54" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 2287</v>
-      </c>
-      <c r="AB54" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 3153</v>
       </c>
       <c r="AC54" t="str">
@@ -18454,11 +18454,11 @@
         <v>popneed_luxury_items = 3942</v>
       </c>
       <c r="AA55" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 2405</v>
+      </c>
+      <c r="AB55" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 2405</v>
-      </c>
-      <c r="AB55" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 3333</v>
       </c>
       <c r="AC55" t="str">
@@ -18551,11 +18551,11 @@
         <v>popneed_luxury_items = 4111</v>
       </c>
       <c r="AA56" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 2527</v>
+      </c>
+      <c r="AB56" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 2527</v>
-      </c>
-      <c r="AB56" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 3518</v>
       </c>
       <c r="AC56" t="str">
@@ -18648,11 +18648,11 @@
         <v>popneed_luxury_items = 4284</v>
       </c>
       <c r="AA57" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 2651</v>
+      </c>
+      <c r="AB57" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 2651</v>
-      </c>
-      <c r="AB57" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 3708</v>
       </c>
       <c r="AC57" t="str">
@@ -18737,7 +18737,7 @@
         <v>popneed_heating = 28</v>
       </c>
       <c r="Y58" t="str">
-        <f t="shared" ref="Y58:Y90" si="27">CONCATENATE("popneed_luxury_food = ",F58)</f>
+        <f t="shared" ref="Y58:Y90" si="26">CONCATENATE("popneed_luxury_food = ",F58)</f>
         <v>popneed_luxury_food = 1168</v>
       </c>
       <c r="Z58" t="str">
@@ -18745,11 +18745,11 @@
         <v>popneed_luxury_items = 4460</v>
       </c>
       <c r="AA58" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 2779</v>
+      </c>
+      <c r="AB58" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 2779</v>
-      </c>
-      <c r="AB58" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 3903</v>
       </c>
       <c r="AC58" t="str">
@@ -18834,7 +18834,7 @@
         <v>popneed_heating = 28</v>
       </c>
       <c r="Y59" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1208</v>
       </c>
       <c r="Z59" t="str">
@@ -18842,11 +18842,11 @@
         <v>popneed_luxury_items = 4641</v>
       </c>
       <c r="AA59" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 2909</v>
+      </c>
+      <c r="AB59" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 2909</v>
-      </c>
-      <c r="AB59" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 4103</v>
       </c>
       <c r="AC59" t="str">
@@ -18931,7 +18931,7 @@
         <v>popneed_heating = 28</v>
       </c>
       <c r="Y60" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1249</v>
       </c>
       <c r="Z60" t="str">
@@ -18939,11 +18939,11 @@
         <v>popneed_luxury_items = 4824</v>
       </c>
       <c r="AA60" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 3043</v>
+      </c>
+      <c r="AB60" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 3043</v>
-      </c>
-      <c r="AB60" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 4308</v>
       </c>
       <c r="AC60" t="str">
@@ -19028,7 +19028,7 @@
         <v>popneed_heating = 28</v>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1290</v>
       </c>
       <c r="Z61" t="str">
@@ -19036,11 +19036,11 @@
         <v>popneed_luxury_items = 5011</v>
       </c>
       <c r="AA61" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 3179</v>
+      </c>
+      <c r="AB61" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 3179</v>
-      </c>
-      <c r="AB61" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 4518</v>
       </c>
       <c r="AC61" t="str">
@@ -19125,7 +19125,7 @@
         <v>popneed_heating = 28</v>
       </c>
       <c r="Y62" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1333</v>
       </c>
       <c r="Z62" t="str">
@@ -19133,11 +19133,11 @@
         <v>popneed_luxury_items = 5202</v>
       </c>
       <c r="AA62" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 3319</v>
+      </c>
+      <c r="AB62" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 3319</v>
-      </c>
-      <c r="AB62" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 4733</v>
       </c>
       <c r="AC62" t="str">
@@ -19222,7 +19222,7 @@
         <v>popneed_heating = 28</v>
       </c>
       <c r="Y63" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1376</v>
       </c>
       <c r="Z63" t="str">
@@ -19230,11 +19230,11 @@
         <v>popneed_luxury_items = 5397</v>
       </c>
       <c r="AA63" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 3461</v>
+      </c>
+      <c r="AB63" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 3461</v>
-      </c>
-      <c r="AB63" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 4953</v>
       </c>
       <c r="AC63" t="str">
@@ -19319,7 +19319,7 @@
         <v>popneed_heating = 28</v>
       </c>
       <c r="Y64" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1420</v>
       </c>
       <c r="Z64" t="str">
@@ -19327,11 +19327,11 @@
         <v>popneed_luxury_items = 5594</v>
       </c>
       <c r="AA64" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 3607</v>
+      </c>
+      <c r="AB64" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 3607</v>
-      </c>
-      <c r="AB64" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 5178</v>
       </c>
       <c r="AC64" t="str">
@@ -19416,7 +19416,7 @@
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y65" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1464</v>
       </c>
       <c r="Z65" t="str">
@@ -19424,11 +19424,11 @@
         <v>popneed_luxury_items = 5796</v>
       </c>
       <c r="AA65" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 3755</v>
+      </c>
+      <c r="AB65" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 3755</v>
-      </c>
-      <c r="AB65" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 5408</v>
       </c>
       <c r="AC65" t="str">
@@ -19513,7 +19513,7 @@
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y66" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1509</v>
       </c>
       <c r="Z66" t="str">
@@ -19521,11 +19521,11 @@
         <v>popneed_luxury_items = 6001</v>
       </c>
       <c r="AA66" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 3907</v>
+      </c>
+      <c r="AB66" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 3907</v>
-      </c>
-      <c r="AB66" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 5643</v>
       </c>
       <c r="AC66" t="str">
@@ -19595,22 +19595,22 @@
         <v>136</v>
       </c>
       <c r="U67" s="5">
-        <f t="shared" ref="U67:U100" si="28">0.001*C67*(C67-0.5)*(C67-0.3)</f>
+        <f t="shared" ref="U67:U100" si="27">0.001*C67*(C67-0.5)*(C67-0.3)</f>
         <v>284.02110000000005</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" ref="W67:W100" si="29">CONCATENATE("popneed_intoxicants = ",D67)</f>
+        <f t="shared" ref="W67:W100" si="28">CONCATENATE("popneed_intoxicants = ",D67)</f>
         <v>popneed_intoxicants = 2804</v>
       </c>
       <c r="X67" t="str">
-        <f t="shared" ref="X67:X100" si="30">CONCATENATE("popneed_heating = ",E67)</f>
+        <f t="shared" ref="X67:X100" si="29">CONCATENATE("popneed_heating = ",E67)</f>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y67" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1555</v>
       </c>
       <c r="Z67" t="str">
@@ -19618,11 +19618,11 @@
         <v>popneed_luxury_items = 6210</v>
       </c>
       <c r="AA67" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 4061</v>
+      </c>
+      <c r="AB67" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 4061</v>
-      </c>
-      <c r="AB67" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 5883</v>
       </c>
       <c r="AC67" t="str">
@@ -19692,22 +19692,22 @@
         <v>136</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>297.18185000000005</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W68" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 2896</v>
+      </c>
+      <c r="X68" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 2896</v>
-      </c>
-      <c r="X68" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y68" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1602</v>
       </c>
       <c r="Z68" t="str">
@@ -19715,11 +19715,11 @@
         <v>popneed_luxury_items = 6422</v>
       </c>
       <c r="AA68" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 4219</v>
+      </c>
+      <c r="AB68" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 4219</v>
-      </c>
-      <c r="AB68" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 6128</v>
       </c>
       <c r="AC68" t="str">
@@ -19731,7 +19731,7 @@
         <v>popneed_services = 40572</v>
       </c>
       <c r="AE68" t="str">
-        <f t="shared" ref="AE68:AE95" si="31">CONCATENATE("popneed_finance = ",P68)</f>
+        <f t="shared" ref="AE68:AE95" si="30">CONCATENATE("popneed_finance = ",P68)</f>
         <v>popneed_finance = 55125</v>
       </c>
       <c r="AF68" t="str">
@@ -19789,22 +19789,22 @@
         <v>136</v>
       </c>
       <c r="U69" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>310.74300000000005</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W69" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 2990</v>
+      </c>
+      <c r="X69" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 2990</v>
-      </c>
-      <c r="X69" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1649</v>
       </c>
       <c r="Z69" t="str">
@@ -19812,11 +19812,11 @@
         <v>popneed_luxury_items = 6639</v>
       </c>
       <c r="AA69" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 4379</v>
+      </c>
+      <c r="AB69" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 4379</v>
-      </c>
-      <c r="AB69" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 6378</v>
       </c>
       <c r="AC69" t="str">
@@ -19824,11 +19824,11 @@
         <v>popneed_communication = 7205</v>
       </c>
       <c r="AD69" t="str">
-        <f t="shared" ref="AD69:AD85" si="32">CONCATENATE("popneed_services = ",O69)</f>
+        <f t="shared" ref="AD69:AD85" si="31">CONCATENATE("popneed_services = ",O69)</f>
         <v>popneed_services = 42527</v>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 58320</v>
       </c>
       <c r="AF69" t="str">
@@ -19886,22 +19886,22 @@
         <v>136</v>
       </c>
       <c r="U70" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>324.71055000000007</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W70" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 3085</v>
+      </c>
+      <c r="X70" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 3085</v>
-      </c>
-      <c r="X70" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y70" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1697</v>
       </c>
       <c r="Z70" t="str">
@@ -19909,11 +19909,11 @@
         <v>popneed_luxury_items = 6858</v>
       </c>
       <c r="AA70" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 4543</v>
+      </c>
+      <c r="AB70" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 4543</v>
-      </c>
-      <c r="AB70" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 6633</v>
       </c>
       <c r="AC70" t="str">
@@ -19921,11 +19921,11 @@
         <v>popneed_communication = 7502</v>
       </c>
       <c r="AD70" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 44528</v>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 61605</v>
       </c>
       <c r="AF70" t="str">
@@ -19983,22 +19983,22 @@
         <v>136</v>
       </c>
       <c r="U71" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>339.09050000000002</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W71" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 3182</v>
+      </c>
+      <c r="X71" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 3182</v>
-      </c>
-      <c r="X71" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y71" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1745</v>
       </c>
       <c r="Z71" t="str">
@@ -20006,11 +20006,11 @@
         <v>popneed_luxury_items = 7081</v>
       </c>
       <c r="AA71" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 4709</v>
+      </c>
+      <c r="AB71" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 4709</v>
-      </c>
-      <c r="AB71" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 6893</v>
       </c>
       <c r="AC71" t="str">
@@ -20018,11 +20018,11 @@
         <v>popneed_communication = 7805</v>
       </c>
       <c r="AD71" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 46575</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 64980</v>
       </c>
       <c r="AF71" t="str">
@@ -20080,22 +20080,22 @@
         <v>136</v>
       </c>
       <c r="U72" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>353.88885000000005</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W72" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 3280</v>
+      </c>
+      <c r="X72" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 3280</v>
-      </c>
-      <c r="X72" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y72" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1795</v>
       </c>
       <c r="Z72" t="str">
@@ -20103,11 +20103,11 @@
         <v>popneed_luxury_items = 7308</v>
       </c>
       <c r="AA72" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 4879</v>
+      </c>
+      <c r="AB72" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 4879</v>
-      </c>
-      <c r="AB72" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 7158</v>
       </c>
       <c r="AC72" t="str">
@@ -20115,11 +20115,11 @@
         <v>popneed_communication = 8114</v>
       </c>
       <c r="AD72" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 48668</v>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 68445</v>
       </c>
       <c r="AF72" t="str">
@@ -20177,22 +20177,22 @@
         <v>136</v>
       </c>
       <c r="U73" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>369.11160000000007</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W73" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 3380</v>
+      </c>
+      <c r="X73" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 3380</v>
-      </c>
-      <c r="X73" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y73" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1845</v>
       </c>
       <c r="Z73" t="str">
@@ -20200,11 +20200,11 @@
         <v>popneed_luxury_items = 7539</v>
       </c>
       <c r="AA73" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 5051</v>
+      </c>
+      <c r="AB73" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 5051</v>
-      </c>
-      <c r="AB73" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 7428</v>
       </c>
       <c r="AC73" t="str">
@@ -20212,11 +20212,11 @@
         <v>popneed_communication = 8429</v>
       </c>
       <c r="AD73" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 50807</v>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 72000</v>
       </c>
       <c r="AF73" t="str">
@@ -20274,22 +20274,22 @@
         <v>136</v>
       </c>
       <c r="U74" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>384.76474999999999</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W74" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 3481</v>
+      </c>
+      <c r="X74" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 3481</v>
-      </c>
-      <c r="X74" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1896</v>
       </c>
       <c r="Z74" t="str">
@@ -20297,11 +20297,11 @@
         <v>popneed_luxury_items = 7772</v>
       </c>
       <c r="AA74" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 5227</v>
+      </c>
+      <c r="AB74" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 5227</v>
-      </c>
-      <c r="AB74" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 7703</v>
       </c>
       <c r="AC74" t="str">
@@ -20309,11 +20309,11 @@
         <v>popneed_communication = 8750</v>
       </c>
       <c r="AD74" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 52992</v>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 75645</v>
       </c>
       <c r="AF74" t="str">
@@ -20371,22 +20371,22 @@
         <v>136</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>400.85430000000002</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W75" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 3584</v>
+      </c>
+      <c r="X75" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 3584</v>
-      </c>
-      <c r="X75" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y75" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1947</v>
       </c>
       <c r="Z75" t="str">
@@ -20394,11 +20394,11 @@
         <v>popneed_luxury_items = 8010</v>
       </c>
       <c r="AA75" t="str">
+        <f t="shared" si="8"/>
+        <v>popneed_health = 5405</v>
+      </c>
+      <c r="AB75" t="str">
         <f t="shared" si="25"/>
-        <v>popneed_luxury_drinks = 5405</v>
-      </c>
-      <c r="AB75" t="str">
-        <f t="shared" si="26"/>
         <v>popneed_free_movement = 7983</v>
       </c>
       <c r="AC75" t="str">
@@ -20406,11 +20406,11 @@
         <v>popneed_communication = 9077</v>
       </c>
       <c r="AD75" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 55223</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 79380</v>
       </c>
       <c r="AF75" t="str">
@@ -20468,22 +20468,22 @@
         <v>136</v>
       </c>
       <c r="U76" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>417.38624999999996</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W76" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 3688</v>
+      </c>
+      <c r="X76" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 3688</v>
-      </c>
-      <c r="X76" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 1999</v>
       </c>
       <c r="Z76" t="str">
@@ -20491,11 +20491,11 @@
         <v>popneed_luxury_items = 8251</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" ref="AA76:AA100" si="33">CONCATENATE("popneed_luxury_drinks = ",L76)</f>
-        <v>popneed_luxury_drinks = 5587</v>
+        <f t="shared" ref="AA76:AA100" si="32">CONCATENATE("popneed_health = ",L76)</f>
+        <v>popneed_health = 5587</v>
       </c>
       <c r="AB76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_free_movement = 8268</v>
       </c>
       <c r="AC76" t="str">
@@ -20503,11 +20503,11 @@
         <v>popneed_communication = 9410</v>
       </c>
       <c r="AD76" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 57500</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 83205</v>
       </c>
       <c r="AF76" t="str">
@@ -20565,22 +20565,22 @@
         <v>136</v>
       </c>
       <c r="U77" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>434.36660000000001</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W77" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 3794</v>
+      </c>
+      <c r="X77" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 3794</v>
-      </c>
-      <c r="X77" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y77" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2052</v>
       </c>
       <c r="Z77" t="str">
@@ -20588,11 +20588,11 @@
         <v>popneed_luxury_items = 8496</v>
       </c>
       <c r="AA77" t="str">
-        <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 5771</v>
+        <f t="shared" si="32"/>
+        <v>popneed_health = 5771</v>
       </c>
       <c r="AB77" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_free_movement = 8558</v>
       </c>
       <c r="AC77" t="str">
@@ -20600,11 +20600,11 @@
         <v>popneed_communication = 9749</v>
       </c>
       <c r="AD77" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 59823</v>
       </c>
       <c r="AE77" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 87120</v>
       </c>
       <c r="AF77" t="str">
@@ -20662,22 +20662,22 @@
         <v>136</v>
       </c>
       <c r="U78" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>451.80135000000001</v>
       </c>
       <c r="V78" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W78" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 3901</v>
+      </c>
+      <c r="X78" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 3901</v>
-      </c>
-      <c r="X78" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y78" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2106</v>
       </c>
       <c r="Z78" t="str">
@@ -20685,11 +20685,11 @@
         <v>popneed_luxury_items = 8744</v>
       </c>
       <c r="AA78" t="str">
-        <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 5959</v>
+        <f t="shared" si="32"/>
+        <v>popneed_health = 5959</v>
       </c>
       <c r="AB78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_free_movement = 8853</v>
       </c>
       <c r="AC78" t="str">
@@ -20697,11 +20697,11 @@
         <v>popneed_communication = 10094</v>
       </c>
       <c r="AD78" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 62192</v>
       </c>
       <c r="AE78" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 91125</v>
       </c>
       <c r="AF78" t="str">
@@ -20759,22 +20759,22 @@
         <v>136</v>
       </c>
       <c r="U79" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>469.69650000000001</v>
       </c>
       <c r="V79" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W79" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 4010</v>
+      </c>
+      <c r="X79" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 4010</v>
-      </c>
-      <c r="X79" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y79" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2160</v>
       </c>
       <c r="Z79" t="str">
@@ -20782,11 +20782,11 @@
         <v>popneed_luxury_items = 8997</v>
       </c>
       <c r="AA79" t="str">
-        <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 6149</v>
+        <f t="shared" si="32"/>
+        <v>popneed_health = 6149</v>
       </c>
       <c r="AB79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_free_movement = 9153</v>
       </c>
       <c r="AC79" t="str">
@@ -20794,11 +20794,11 @@
         <v>popneed_communication = 10445</v>
       </c>
       <c r="AD79" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 64607</v>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 95220</v>
       </c>
       <c r="AF79" t="str">
@@ -20856,22 +20856,22 @@
         <v>136</v>
       </c>
       <c r="U80" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>488.05805000000004</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W80" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 4120</v>
+      </c>
+      <c r="X80" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 4120</v>
-      </c>
-      <c r="X80" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 29</v>
       </c>
       <c r="Y80" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2215</v>
       </c>
       <c r="Z80" t="str">
@@ -20879,11 +20879,11 @@
         <v>popneed_luxury_items = 9252</v>
       </c>
       <c r="AA80" t="str">
-        <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 6343</v>
+        <f t="shared" si="32"/>
+        <v>popneed_health = 6343</v>
       </c>
       <c r="AB80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_free_movement = 9458</v>
       </c>
       <c r="AC80" t="str">
@@ -20891,11 +20891,11 @@
         <v>popneed_communication = 10802</v>
       </c>
       <c r="AD80" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 67068</v>
       </c>
       <c r="AE80" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 99405</v>
       </c>
       <c r="AF80" t="str">
@@ -20953,22 +20953,22 @@
         <v>136</v>
       </c>
       <c r="U81" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>506.89200000000005</v>
       </c>
       <c r="V81" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W81" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 4232</v>
+      </c>
+      <c r="X81" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 4232</v>
-      </c>
-      <c r="X81" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y81" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2270</v>
       </c>
       <c r="Z81" t="str">
@@ -20976,11 +20976,11 @@
         <v>popneed_luxury_items = 9511</v>
       </c>
       <c r="AA81" t="str">
-        <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 6539</v>
+        <f t="shared" si="32"/>
+        <v>popneed_health = 6539</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_free_movement = 9768</v>
       </c>
       <c r="AC81" t="str">
@@ -20988,11 +20988,11 @@
         <v>popneed_communication = 11165</v>
       </c>
       <c r="AD81" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 69575</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 103680</v>
       </c>
       <c r="AF81" t="str">
@@ -21054,22 +21054,22 @@
         <v>136</v>
       </c>
       <c r="U82" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>526.20434999999998</v>
       </c>
       <c r="V82" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W82" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 4345</v>
+      </c>
+      <c r="X82" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 4345</v>
-      </c>
-      <c r="X82" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y82" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2327</v>
       </c>
       <c r="Z82" t="str">
@@ -21077,11 +21077,11 @@
         <v>popneed_luxury_items = 9774</v>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 6739</v>
+        <f t="shared" si="32"/>
+        <v>popneed_health = 6739</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_free_movement = 10083</v>
       </c>
       <c r="AC82" t="str">
@@ -21089,11 +21089,11 @@
         <v>popneed_communication = 11534</v>
       </c>
       <c r="AD82" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 72128</v>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 108045</v>
       </c>
       <c r="AF82" t="str">
@@ -21155,22 +21155,22 @@
         <v>136</v>
       </c>
       <c r="U83" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>546.00110000000006</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W83" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 4460</v>
+      </c>
+      <c r="X83" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 4460</v>
-      </c>
-      <c r="X83" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y83" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2384</v>
       </c>
       <c r="Z83" t="str">
@@ -21178,11 +21178,11 @@
         <v>popneed_luxury_items = 10041</v>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 6941</v>
+        <f t="shared" si="32"/>
+        <v>popneed_health = 6941</v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_free_movement = 10403</v>
       </c>
       <c r="AC83" t="str">
@@ -21190,11 +21190,11 @@
         <v>popneed_communication = 11909</v>
       </c>
       <c r="AD83" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 74727</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 112500</v>
       </c>
       <c r="AF83" t="str">
@@ -21256,22 +21256,22 @@
         <v>136</v>
       </c>
       <c r="U84" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>566.28825000000006</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W84" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 4576</v>
+      </c>
+      <c r="X84" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 4576</v>
-      </c>
-      <c r="X84" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y84" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2442</v>
       </c>
       <c r="Z84" t="str">
@@ -21279,11 +21279,11 @@
         <v>popneed_luxury_items = 10310</v>
       </c>
       <c r="AA84" t="str">
-        <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 7147</v>
+        <f t="shared" si="32"/>
+        <v>popneed_health = 7147</v>
       </c>
       <c r="AB84" t="str">
-        <f t="shared" ref="AB84:AB100" si="34">CONCATENATE("popneed_free_movement = ",M84)</f>
+        <f t="shared" ref="AB84:AB100" si="33">CONCATENATE("popneed_free_movement = ",M84)</f>
         <v>popneed_free_movement = 10728</v>
       </c>
       <c r="AC84" t="str">
@@ -21291,11 +21291,11 @@
         <v>popneed_communication = 12290</v>
       </c>
       <c r="AD84" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 77372</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 117045</v>
       </c>
       <c r="AF84" t="str">
@@ -21357,22 +21357,22 @@
         <v>136</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>587.07180000000005</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W85" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 4694</v>
+      </c>
+      <c r="X85" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 4694</v>
-      </c>
-      <c r="X85" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y85" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2500</v>
       </c>
       <c r="Z85" t="str">
@@ -21380,11 +21380,11 @@
         <v>popneed_luxury_items = 10584</v>
       </c>
       <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 7355</v>
+      </c>
+      <c r="AB85" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 7355</v>
-      </c>
-      <c r="AB85" t="str">
-        <f t="shared" si="34"/>
         <v>popneed_free_movement = 11058</v>
       </c>
       <c r="AC85" t="str">
@@ -21392,11 +21392,11 @@
         <v>popneed_communication = 12677</v>
       </c>
       <c r="AD85" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>popneed_services = 80063</v>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 121680</v>
       </c>
       <c r="AF85" t="str">
@@ -21458,22 +21458,22 @@
         <v>136</v>
       </c>
       <c r="U86" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>608.35775000000001</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W86" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 4813</v>
+      </c>
+      <c r="X86" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 4813</v>
-      </c>
-      <c r="X86" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y86" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2559</v>
       </c>
       <c r="Z86" t="str">
@@ -21481,23 +21481,23 @@
         <v>popneed_luxury_items = 10861</v>
       </c>
       <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 7567</v>
+      </c>
+      <c r="AB86" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 7567</v>
-      </c>
-      <c r="AB86" t="str">
-        <f t="shared" si="34"/>
         <v>popneed_free_movement = 11393</v>
       </c>
       <c r="AC86" t="str">
-        <f t="shared" ref="AC86:AC100" si="35">CONCATENATE("popneed_communication = ",N86)</f>
+        <f t="shared" ref="AC86:AC100" si="34">CONCATENATE("popneed_communication = ",N86)</f>
         <v>popneed_communication = 13070</v>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" ref="AD86:AD100" si="36">CONCATENATE("popneed_services = ",O86)</f>
+        <f t="shared" ref="AD86:AD100" si="35">CONCATENATE("popneed_services = ",O86)</f>
         <v>popneed_services = 82800</v>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 126405</v>
       </c>
       <c r="AF86" t="str">
@@ -21559,22 +21559,22 @@
         <v>136</v>
       </c>
       <c r="U87" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>630.15210000000013</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W87" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 4934</v>
+      </c>
+      <c r="X87" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 4934</v>
-      </c>
-      <c r="X87" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y87" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2619</v>
       </c>
       <c r="Z87" t="str">
@@ -21582,23 +21582,23 @@
         <v>popneed_luxury_items = 11142</v>
       </c>
       <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 7781</v>
+      </c>
+      <c r="AB87" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 7781</v>
-      </c>
-      <c r="AB87" t="str">
+        <v>popneed_free_movement = 11733</v>
+      </c>
+      <c r="AC87" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 11733</v>
-      </c>
-      <c r="AC87" t="str">
+        <v>popneed_communication = 13469</v>
+      </c>
+      <c r="AD87" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 13469</v>
-      </c>
-      <c r="AD87" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 85583</v>
       </c>
       <c r="AE87" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 131220</v>
       </c>
       <c r="AF87" t="str">
@@ -21660,22 +21660,22 @@
         <v>136</v>
       </c>
       <c r="U88" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>652.46085000000005</v>
       </c>
       <c r="V88" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W88" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 5056</v>
+      </c>
+      <c r="X88" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 5056</v>
-      </c>
-      <c r="X88" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y88" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2680</v>
       </c>
       <c r="Z88" t="str">
@@ -21683,23 +21683,23 @@
         <v>popneed_luxury_items = 11426</v>
       </c>
       <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 7999</v>
+      </c>
+      <c r="AB88" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 7999</v>
-      </c>
-      <c r="AB88" t="str">
+        <v>popneed_free_movement = 12078</v>
+      </c>
+      <c r="AC88" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 12078</v>
-      </c>
-      <c r="AC88" t="str">
+        <v>popneed_communication = 13874</v>
+      </c>
+      <c r="AD88" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 13874</v>
-      </c>
-      <c r="AD88" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 88412</v>
       </c>
       <c r="AE88" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 136125</v>
       </c>
       <c r="AF88" t="str">
@@ -21761,22 +21761,22 @@
         <v>136</v>
       </c>
       <c r="U89" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>675.29</v>
       </c>
       <c r="V89" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W89" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 5180</v>
+      </c>
+      <c r="X89" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 5180</v>
-      </c>
-      <c r="X89" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y89" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2741</v>
       </c>
       <c r="Z89" t="str">
@@ -21784,23 +21784,23 @@
         <v>popneed_luxury_items = 11715</v>
       </c>
       <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 8219</v>
+      </c>
+      <c r="AB89" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 8219</v>
-      </c>
-      <c r="AB89" t="str">
+        <v>popneed_free_movement = 12428</v>
+      </c>
+      <c r="AC89" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 12428</v>
-      </c>
-      <c r="AC89" t="str">
+        <v>popneed_communication = 14285</v>
+      </c>
+      <c r="AD89" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 14285</v>
-      </c>
-      <c r="AD89" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 91287</v>
       </c>
       <c r="AE89" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 141120</v>
       </c>
       <c r="AF89" t="str">
@@ -21862,22 +21862,22 @@
         <v>136</v>
       </c>
       <c r="U90" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>698.64555000000007</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W90" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 5305</v>
+      </c>
+      <c r="X90" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 5305</v>
-      </c>
-      <c r="X90" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y90" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>popneed_luxury_food = 2803</v>
       </c>
       <c r="Z90" t="str">
@@ -21885,23 +21885,23 @@
         <v>popneed_luxury_items = 12006</v>
       </c>
       <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 8443</v>
+      </c>
+      <c r="AB90" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 8443</v>
-      </c>
-      <c r="AB90" t="str">
+        <v>popneed_free_movement = 12783</v>
+      </c>
+      <c r="AC90" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 12783</v>
-      </c>
-      <c r="AC90" t="str">
+        <v>popneed_communication = 14702</v>
+      </c>
+      <c r="AD90" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 14702</v>
-      </c>
-      <c r="AD90" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 94208</v>
       </c>
       <c r="AE90" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 146205</v>
       </c>
       <c r="AF90" t="str">
@@ -21963,22 +21963,22 @@
         <v>136</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>722.5335</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W91" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 5432</v>
+      </c>
+      <c r="X91" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 5432</v>
-      </c>
-      <c r="X91" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y91" t="str">
-        <f t="shared" ref="Y91:Y100" si="37">CONCATENATE("popneed_luxury_food = ",F91)</f>
+        <f t="shared" ref="Y91:Y100" si="36">CONCATENATE("popneed_luxury_food = ",F91)</f>
         <v>popneed_luxury_food = 2865</v>
       </c>
       <c r="Z91" t="str">
@@ -21986,23 +21986,23 @@
         <v>popneed_luxury_items = 12301</v>
       </c>
       <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 8669</v>
+      </c>
+      <c r="AB91" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 8669</v>
-      </c>
-      <c r="AB91" t="str">
+        <v>popneed_free_movement = 13143</v>
+      </c>
+      <c r="AC91" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 13143</v>
-      </c>
-      <c r="AC91" t="str">
+        <v>popneed_communication = 15125</v>
+      </c>
+      <c r="AD91" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 15125</v>
-      </c>
-      <c r="AD91" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 97175</v>
       </c>
       <c r="AE91" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 151380</v>
       </c>
       <c r="AF91" t="str">
@@ -22064,22 +22064,22 @@
         <v>136</v>
       </c>
       <c r="U92" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>746.95985000000007</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W92" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 5560</v>
+      </c>
+      <c r="X92" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 5560</v>
-      </c>
-      <c r="X92" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y92" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>popneed_luxury_food = 2929</v>
       </c>
       <c r="Z92" t="str">
@@ -22087,23 +22087,23 @@
         <v>popneed_luxury_items = 12600</v>
       </c>
       <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 8899</v>
+      </c>
+      <c r="AB92" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 8899</v>
-      </c>
-      <c r="AB92" t="str">
+        <v>popneed_free_movement = 13508</v>
+      </c>
+      <c r="AC92" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 13508</v>
-      </c>
-      <c r="AC92" t="str">
+        <v>popneed_communication = 15554</v>
+      </c>
+      <c r="AD92" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 15554</v>
-      </c>
-      <c r="AD92" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 100188</v>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 156645</v>
       </c>
       <c r="AF92" t="str">
@@ -22165,22 +22165,22 @@
         <v>136</v>
       </c>
       <c r="U93" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>771.93059999999991</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W93" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 5690</v>
+      </c>
+      <c r="X93" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 5690</v>
-      </c>
-      <c r="X93" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y93" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>popneed_luxury_food = 2993</v>
       </c>
       <c r="Z93" t="str">
@@ -22188,23 +22188,23 @@
         <v>popneed_luxury_items = 12903</v>
       </c>
       <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 9131</v>
+      </c>
+      <c r="AB93" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 9131</v>
-      </c>
-      <c r="AB93" t="str">
+        <v>popneed_free_movement = 13878</v>
+      </c>
+      <c r="AC93" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 13878</v>
-      </c>
-      <c r="AC93" t="str">
+        <v>popneed_communication = 15989</v>
+      </c>
+      <c r="AD93" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 15989</v>
-      </c>
-      <c r="AD93" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 103247</v>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 162000</v>
       </c>
       <c r="AF93" t="str">
@@ -22266,22 +22266,22 @@
         <v>136</v>
       </c>
       <c r="U94" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>797.45174999999995</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W94" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 5821</v>
+      </c>
+      <c r="X94" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 5821</v>
-      </c>
-      <c r="X94" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y94" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>popneed_luxury_food = 3058</v>
       </c>
       <c r="Z94" t="str">
@@ -22289,23 +22289,23 @@
         <v>popneed_luxury_items = 13208</v>
       </c>
       <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 9367</v>
+      </c>
+      <c r="AB94" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 9367</v>
-      </c>
-      <c r="AB94" t="str">
+        <v>popneed_free_movement = 14253</v>
+      </c>
+      <c r="AC94" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 14253</v>
-      </c>
-      <c r="AC94" t="str">
+        <v>popneed_communication = 16430</v>
+      </c>
+      <c r="AD94" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 16430</v>
-      </c>
-      <c r="AD94" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 106352</v>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 167445</v>
       </c>
       <c r="AF94" t="str">
@@ -22367,22 +22367,22 @@
         <v>136</v>
       </c>
       <c r="U95" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>823.52930000000003</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W95" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 5954</v>
+      </c>
+      <c r="X95" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 5954</v>
-      </c>
-      <c r="X95" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y95" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>popneed_luxury_food = 3123</v>
       </c>
       <c r="Z95" t="str">
@@ -22390,23 +22390,23 @@
         <v>popneed_luxury_items = 13518</v>
       </c>
       <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 9605</v>
+      </c>
+      <c r="AB95" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 9605</v>
-      </c>
-      <c r="AB95" t="str">
+        <v>popneed_free_movement = 14633</v>
+      </c>
+      <c r="AC95" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 14633</v>
-      </c>
-      <c r="AC95" t="str">
+        <v>popneed_communication = 16877</v>
+      </c>
+      <c r="AD95" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 16877</v>
-      </c>
-      <c r="AD95" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 109503</v>
       </c>
       <c r="AE95" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>popneed_finance = 172980</v>
       </c>
       <c r="AF95" t="str">
@@ -22468,22 +22468,22 @@
         <v>136</v>
       </c>
       <c r="U96" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>850.16925000000015</v>
       </c>
       <c r="V96" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W96" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 6088</v>
+      </c>
+      <c r="X96" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 6088</v>
-      </c>
-      <c r="X96" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y96" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>popneed_luxury_food = 3189</v>
       </c>
       <c r="Z96" t="str">
@@ -22491,23 +22491,23 @@
         <v>popneed_luxury_items = 13831</v>
       </c>
       <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 9847</v>
+      </c>
+      <c r="AB96" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 9847</v>
-      </c>
-      <c r="AB96" t="str">
+        <v>popneed_free_movement = 15018</v>
+      </c>
+      <c r="AC96" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 15018</v>
-      </c>
-      <c r="AC96" t="str">
+        <v>popneed_communication = 17330</v>
+      </c>
+      <c r="AD96" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 17330</v>
-      </c>
-      <c r="AD96" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 112700</v>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" ref="AE96:AE100" si="38">CONCATENATE("popneed_finance = ",P96)</f>
+        <f t="shared" ref="AE96:AE100" si="37">CONCATENATE("popneed_finance = ",P96)</f>
         <v>popneed_finance = 178605</v>
       </c>
       <c r="AF96" t="str">
@@ -22569,22 +22569,22 @@
         <v>136</v>
       </c>
       <c r="U97" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>877.37760000000014</v>
       </c>
       <c r="V97" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W97" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 6224</v>
+      </c>
+      <c r="X97" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 6224</v>
-      </c>
-      <c r="X97" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y97" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>popneed_luxury_food = 3256</v>
       </c>
       <c r="Z97" t="str">
@@ -22592,23 +22592,23 @@
         <v>popneed_luxury_items = 14148</v>
       </c>
       <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 10091</v>
+      </c>
+      <c r="AB97" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 10091</v>
-      </c>
-      <c r="AB97" t="str">
+        <v>popneed_free_movement = 15408</v>
+      </c>
+      <c r="AC97" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 15408</v>
-      </c>
-      <c r="AC97" t="str">
+        <v>popneed_communication = 17789</v>
+      </c>
+      <c r="AD97" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 17789</v>
-      </c>
-      <c r="AD97" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 115943</v>
       </c>
       <c r="AE97" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>popneed_finance = 184320</v>
       </c>
       <c r="AF97" t="str">
@@ -22670,22 +22670,22 @@
         <v>136</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>905.16034999999999</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W98" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 6361</v>
+      </c>
+      <c r="X98" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 6361</v>
-      </c>
-      <c r="X98" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y98" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>popneed_luxury_food = 3324</v>
       </c>
       <c r="Z98" t="str">
@@ -22693,23 +22693,23 @@
         <v>popneed_luxury_items = 14468</v>
       </c>
       <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 10339</v>
+      </c>
+      <c r="AB98" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 10339</v>
-      </c>
-      <c r="AB98" t="str">
+        <v>popneed_free_movement = 15803</v>
+      </c>
+      <c r="AC98" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 15803</v>
-      </c>
-      <c r="AC98" t="str">
+        <v>popneed_communication = 18254</v>
+      </c>
+      <c r="AD98" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 18254</v>
-      </c>
-      <c r="AD98" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 119232</v>
       </c>
       <c r="AE98" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>popneed_finance = 190125</v>
       </c>
       <c r="AF98" t="str">
@@ -22771,22 +22771,22 @@
         <v>136</v>
       </c>
       <c r="U99" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>933.52350000000001</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W99" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 6500</v>
+      </c>
+      <c r="X99" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 6500</v>
-      </c>
-      <c r="X99" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y99" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>popneed_luxury_food = 3392</v>
       </c>
       <c r="Z99" t="str">
@@ -22794,23 +22794,23 @@
         <v>popneed_luxury_items = 14793</v>
       </c>
       <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 10589</v>
+      </c>
+      <c r="AB99" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 10589</v>
-      </c>
-      <c r="AB99" t="str">
+        <v>popneed_free_movement = 16203</v>
+      </c>
+      <c r="AC99" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 16203</v>
-      </c>
-      <c r="AC99" t="str">
+        <v>popneed_communication = 18725</v>
+      </c>
+      <c r="AD99" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 18725</v>
-      </c>
-      <c r="AD99" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 122567</v>
       </c>
       <c r="AE99" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>popneed_finance = 196020</v>
       </c>
       <c r="AF99" t="str">
@@ -22872,22 +22872,22 @@
         <v>136</v>
       </c>
       <c r="U100" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>962.47305000000006</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W100" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_intoxicants = 6640</v>
+      </c>
+      <c r="X100" t="str">
         <f t="shared" si="29"/>
-        <v>popneed_intoxicants = 6640</v>
-      </c>
-      <c r="X100" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y100" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>popneed_luxury_food = 3461</v>
       </c>
       <c r="Z100" t="str">
@@ -22895,23 +22895,23 @@
         <v>popneed_luxury_items = 15120</v>
       </c>
       <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_health = 10843</v>
+      </c>
+      <c r="AB100" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_luxury_drinks = 10843</v>
-      </c>
-      <c r="AB100" t="str">
+        <v>popneed_free_movement = 16608</v>
+      </c>
+      <c r="AC100" t="str">
         <f t="shared" si="34"/>
-        <v>popneed_free_movement = 16608</v>
-      </c>
-      <c r="AC100" t="str">
+        <v>popneed_communication = 19202</v>
+      </c>
+      <c r="AD100" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_communication = 19202</v>
-      </c>
-      <c r="AD100" t="str">
-        <f t="shared" si="36"/>
         <v>popneed_services = 125948</v>
       </c>
       <c r="AE100" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>popneed_finance = 202005</v>
       </c>
       <c r="AF100" t="str">
@@ -23746,7 +23746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDDD610-E2E9-4695-8E9E-49B0B0E299D5}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>

--- a/大秦东出pop需求表.xlsx
+++ b/大秦东出pop需求表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czxdc\Documents\Paradox Interactive\Victoria 3\mod\BreakOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119418F-D1B7-4B4F-9DF0-5A63BAC7EA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD64BA12-1AA0-455D-A131-776540C00158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大秦东出pop需求" sheetId="4" r:id="rId1"/>
@@ -137,14 +137,6 @@
   </si>
   <si>
     <t>抚育补足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融补足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -503,6 +495,14 @@
   </si>
   <si>
     <t>art</t>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响力补足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7582,7 +7582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41FBF3E-2BE0-4861-8DB7-6730FE45AA44}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B100" sqref="B100:L100"/>
     </sheetView>
   </sheetViews>
@@ -7596,46 +7596,46 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
         <v>136</v>
-      </c>
-      <c r="C1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" t="s">
-        <v>138</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -13594,8 +13594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9393F496-21DF-4D75-944B-D0E992A731B3}">
   <dimension ref="A1:AH100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R19" workbookViewId="0">
+      <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -13650,7 +13650,7 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="Q1" t="s">
         <v>3</v>
@@ -13694,17 +13694,17 @@
         <v>0</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U2" s="4">
         <f>0.001*C2*(C2-0.5)*(C2-0.3)</f>
         <v>3.5E-4</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W2" t="str">
         <f>CONCATENATE("popneed_intoxicants = ",D2)</f>
@@ -13723,10 +13723,10 @@
         <v>popneed_simple_clothing = 1</v>
       </c>
       <c r="AG2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
@@ -13767,17 +13767,17 @@
         <v>0</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" ref="U3:U66" si="1">0.001*C3*(C3-0.5)*(C3-0.3)</f>
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" ref="W3:W66" si="2">CONCATENATE("popneed_intoxicants = ",D3)</f>
@@ -13796,10 +13796,10 @@
         <v>popneed_simple_clothing = 2</v>
       </c>
       <c r="AG3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
@@ -13846,17 +13846,17 @@
         <v>0</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
         <v>2.0250000000000001E-2</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="2"/>
@@ -13875,10 +13875,10 @@
         <v>popneed_simple_clothing = 3</v>
       </c>
       <c r="AG4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
@@ -13925,17 +13925,17 @@
         <v>0</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="1"/>
         <v>5.1800000000000006E-2</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="2"/>
@@ -13954,10 +13954,10 @@
         <v>popneed_simple_clothing = 5</v>
       </c>
       <c r="AG5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
@@ -14004,17 +14004,17 @@
         <v>0</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="1"/>
         <v>0.10575</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="2"/>
@@ -14033,10 +14033,10 @@
         <v>popneed_simple_clothing = 8 popneed_crude_items = 4</v>
       </c>
       <c r="AG6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
@@ -14083,17 +14083,17 @@
         <v>0</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="1"/>
         <v>0.18810000000000002</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="2"/>
@@ -14112,10 +14112,10 @@
         <v>popneed_simple_clothing = 11 popneed_crude_items = 7</v>
       </c>
       <c r="AG7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
@@ -14162,17 +14162,17 @@
         <v>0</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="1"/>
         <v>0.30485000000000001</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="2"/>
@@ -14191,10 +14191,10 @@
         <v>popneed_simple_clothing = 16 popneed_crude_items = 11</v>
       </c>
       <c r="AG8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
@@ -14241,17 +14241,17 @@
         <v>0</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U9" s="4">
         <f t="shared" si="1"/>
         <v>0.46199999999999997</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="2"/>
@@ -14270,10 +14270,10 @@
         <v>popneed_simple_clothing = 20 popneed_crude_items = 16</v>
       </c>
       <c r="AG9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
@@ -14296,13 +14296,13 @@
         <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J10">
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -14323,17 +14323,17 @@
         <v>0</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="1"/>
         <v>0.66555000000000009</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="2"/>
@@ -14352,10 +14352,10 @@
         <v>popneed_simple_clothing = 26 popneed_crude_items = 22</v>
       </c>
       <c r="AG10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
@@ -14407,17 +14407,17 @@
         <v>0</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="1"/>
         <v>0.92149999999999999</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="2"/>
@@ -14440,10 +14440,10 @@
         <v>popneed_health = 5</v>
       </c>
       <c r="AG11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
@@ -14495,17 +14495,17 @@
         <v>0</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="1"/>
         <v>1.2358499999999999</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="2"/>
@@ -14528,10 +14528,10 @@
         <v>popneed_health = 7</v>
       </c>
       <c r="AG12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
@@ -14583,17 +14583,17 @@
         <v>0</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U13" s="4">
         <f t="shared" si="1"/>
         <v>1.6146</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="2"/>
@@ -14616,10 +14616,10 @@
         <v>popneed_health = 11</v>
       </c>
       <c r="AG13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
@@ -14671,17 +14671,17 @@
         <v>0</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U14" s="4">
         <f t="shared" si="1"/>
         <v>2.0637499999999998</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="2"/>
@@ -14704,10 +14704,10 @@
         <v>popneed_health = 16</v>
       </c>
       <c r="AG14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
@@ -14724,7 +14724,7 @@
         <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>67</v>
@@ -14759,17 +14759,17 @@
         <v>0</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U15" s="4">
         <f t="shared" si="1"/>
         <v>2.5892999999999997</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="2"/>
@@ -14796,10 +14796,10 @@
         <v>popneed_services = 4</v>
       </c>
       <c r="AG15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
@@ -14852,17 +14852,17 @@
         <v>0</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U16" s="4">
         <f t="shared" si="1"/>
         <v>3.1972499999999999</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="2"/>
@@ -14889,10 +14889,10 @@
         <v>popneed_services = 6</v>
       </c>
       <c r="AG16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:34" x14ac:dyDescent="0.35">
@@ -14937,17 +14937,17 @@
         <v>0</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" si="1"/>
         <v>3.8935999999999997</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="2"/>
@@ -14974,10 +14974,10 @@
         <v>popneed_services = 10</v>
       </c>
       <c r="AG17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:34" x14ac:dyDescent="0.35">
@@ -15022,17 +15022,17 @@
         <v>0</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="1"/>
         <v>4.6843500000000002</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="2"/>
@@ -15059,10 +15059,10 @@
         <v>popneed_services = 15</v>
       </c>
       <c r="AG18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:34" x14ac:dyDescent="0.35">
@@ -15107,17 +15107,17 @@
         <v>0</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="1"/>
         <v>5.5755000000000008</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="2"/>
@@ -15148,10 +15148,10 @@
         <v>popneed_services = 20</v>
       </c>
       <c r="AG19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.35">
@@ -15196,17 +15196,17 @@
         <v>0</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="1"/>
         <v>6.5730499999999994</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="2"/>
@@ -15237,10 +15237,10 @@
         <v>popneed_services = 27</v>
       </c>
       <c r="AG20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:34" x14ac:dyDescent="0.35">
@@ -15285,17 +15285,17 @@
         <v>0</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" si="1"/>
         <v>7.6829999999999998</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="2"/>
@@ -15330,10 +15330,10 @@
         <v>popneed_services = 30</v>
       </c>
       <c r="AG21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.35">
@@ -15378,17 +15378,17 @@
         <v>0</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U22" s="4">
         <f t="shared" si="1"/>
         <v>8.9113500000000005</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="2"/>
@@ -15423,10 +15423,10 @@
         <v>popneed_services = 32</v>
       </c>
       <c r="AG22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.35">
@@ -15471,17 +15471,17 @@
         <v>0</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" si="1"/>
         <v>10.264099999999999</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="2"/>
@@ -15516,10 +15516,10 @@
         <v>popneed_services = 35</v>
       </c>
       <c r="AG23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.35">
@@ -15564,17 +15564,17 @@
         <v>0</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="1"/>
         <v>11.747249999999999</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W24" t="str">
         <f t="shared" si="2"/>
@@ -15609,10 +15609,10 @@
         <v>popneed_services = 41</v>
       </c>
       <c r="AG24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="3:34" x14ac:dyDescent="0.35">
@@ -15636,13 +15636,13 @@
         <v>228</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J25">
         <v>415</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L25">
         <v>251</v>
@@ -15663,17 +15663,17 @@
         <v>0</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="1"/>
         <v>13.366800000000001</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="2"/>
@@ -15708,10 +15708,10 @@
         <v>popneed_services = 56</v>
       </c>
       <c r="AG25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.35">
@@ -15764,17 +15764,17 @@
         <v>0</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="1"/>
         <v>15.12875</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W26" t="str">
         <f t="shared" si="2"/>
@@ -15809,10 +15809,10 @@
         <v>popneed_services = 86</v>
       </c>
       <c r="AG26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="3:34" x14ac:dyDescent="0.35">
@@ -15861,17 +15861,17 @@
         <v>0</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="1"/>
         <v>17.039100000000001</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="2"/>
@@ -15906,10 +15906,10 @@
         <v>popneed_services = 136</v>
       </c>
       <c r="AG27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.35">
@@ -15958,17 +15958,17 @@
         <v>0</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="1"/>
         <v>19.103850000000001</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W28" t="str">
         <f t="shared" si="2"/>
@@ -16003,10 +16003,10 @@
         <v>popneed_services = 217</v>
       </c>
       <c r="AG28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="3:34" x14ac:dyDescent="0.35">
@@ -16055,17 +16055,17 @@
         <v>0</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="1"/>
         <v>21.329000000000001</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="2"/>
@@ -16100,10 +16100,10 @@
         <v>popneed_services = 335</v>
       </c>
       <c r="AG29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:34" x14ac:dyDescent="0.35">
@@ -16152,17 +16152,17 @@
         <v>0</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="1"/>
         <v>23.720549999999999</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="2"/>
@@ -16197,10 +16197,10 @@
         <v>popneed_services = 504</v>
       </c>
       <c r="AG30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="3:34" x14ac:dyDescent="0.35">
@@ -16249,17 +16249,17 @@
         <v>0</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="1"/>
         <v>26.284500000000001</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="2"/>
@@ -16294,14 +16294,14 @@
         <v>popneed_services = 606</v>
       </c>
       <c r="AE31" t="str">
-        <f>CONCATENATE("popneed_finance = ",P31)</f>
-        <v>popneed_finance = 129</v>
+        <f>CONCATENATE("popneed_influence = ",P31)</f>
+        <v>popneed_influence = 129</v>
       </c>
       <c r="AG31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:34" x14ac:dyDescent="0.35">
@@ -16350,17 +16350,17 @@
         <v>0</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="1"/>
         <v>29.02685</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="2"/>
@@ -16395,14 +16395,14 @@
         <v>popneed_services = 840</v>
       </c>
       <c r="AE32" t="str">
-        <f>CONCATENATE("popneed_finance = ",P32)</f>
-        <v>popneed_finance = 205</v>
+        <f t="shared" ref="AE32:AE95" si="20">CONCATENATE("popneed_influence = ",P32)</f>
+        <v>popneed_influence = 205</v>
       </c>
       <c r="AG32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:34" x14ac:dyDescent="0.35">
@@ -16451,17 +16451,17 @@
         <v>0</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="1"/>
         <v>31.953599999999998</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="2"/>
@@ -16496,14 +16496,14 @@
         <v>popneed_services = 1130</v>
       </c>
       <c r="AE33" t="str">
-        <f>CONCATENATE("popneed_finance = ",P33)</f>
-        <v>popneed_finance = 317</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 317</v>
       </c>
       <c r="AG33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.35">
@@ -16552,17 +16552,17 @@
         <v>0</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U34" s="4">
         <f t="shared" si="1"/>
         <v>35.070750000000004</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="2"/>
@@ -16597,14 +16597,14 @@
         <v>popneed_services = 1486</v>
       </c>
       <c r="AE34" t="str">
-        <f>CONCATENATE("popneed_finance = ",P34)</f>
-        <v>popneed_finance = 480</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 480</v>
       </c>
       <c r="AG34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="3:34" x14ac:dyDescent="0.35">
@@ -16653,17 +16653,17 @@
         <v>0</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U35" s="4">
         <f t="shared" si="1"/>
         <v>38.384300000000003</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="2"/>
@@ -16698,14 +16698,14 @@
         <v>popneed_services = 1910</v>
       </c>
       <c r="AE35" t="str">
-        <f t="shared" ref="AE35" si="20">CONCATENATE("popneed_finance = ",P35)</f>
-        <v>popneed_finance = 710</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 710</v>
       </c>
       <c r="AG35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="3:34" x14ac:dyDescent="0.35">
@@ -16754,17 +16754,17 @@
         <v>90</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U36" s="4">
         <f t="shared" si="1"/>
         <v>41.900250000000007</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="2"/>
@@ -16799,18 +16799,18 @@
         <v>popneed_services = 2408</v>
       </c>
       <c r="AE36" t="str">
-        <f t="shared" ref="AE36:AE67" si="21">CONCATENATE("popneed_finance = ",P36)</f>
-        <v>popneed_finance = 937</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 937</v>
       </c>
       <c r="AF36" t="str">
         <f>CONCATENATE("popneed_art  = ",Q36)</f>
         <v>popneed_art  = 90</v>
       </c>
       <c r="AG36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="3:34" x14ac:dyDescent="0.35">
@@ -16851,17 +16851,17 @@
         <v>240</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U37" s="4">
         <f t="shared" si="1"/>
         <v>45.624600000000015</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="2"/>
@@ -16876,7 +16876,7 @@
         <v>popneed_luxury_food = 441</v>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" ref="Z37:Z100" si="22">CONCATENATE("popneed_luxury_items = ",H37+J37)</f>
+        <f t="shared" ref="Z37:Z100" si="21">CONCATENATE("popneed_luxury_items = ",H37+J37)</f>
         <v>popneed_luxury_items = 2005</v>
       </c>
       <c r="AA37" t="str">
@@ -16892,22 +16892,22 @@
         <v>popneed_communication = 869</v>
       </c>
       <c r="AD37" t="str">
-        <f t="shared" ref="AD37:AD68" si="23">CONCATENATE("popneed_services = ",O37)</f>
+        <f t="shared" ref="AD37:AD68" si="22">CONCATENATE("popneed_services = ",O37)</f>
         <v>popneed_services = 2988</v>
       </c>
       <c r="AE37" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 1217</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 1217</v>
       </c>
       <c r="AF37" t="str">
-        <f t="shared" ref="AF37:AF100" si="24">CONCATENATE("popneed_art  = ",Q37)</f>
+        <f t="shared" ref="AF37:AF100" si="23">CONCATENATE("popneed_art  = ",Q37)</f>
         <v>popneed_art  = 240</v>
       </c>
       <c r="AG37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="3:34" x14ac:dyDescent="0.35">
@@ -16948,17 +16948,17 @@
         <v>450</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U38" s="4">
         <f t="shared" si="1"/>
         <v>49.563350000000007</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="2"/>
@@ -16973,7 +16973,7 @@
         <v>popneed_luxury_food = 467</v>
       </c>
       <c r="Z38" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 2149</v>
       </c>
       <c r="AA38" t="str">
@@ -16989,22 +16989,22 @@
         <v>popneed_communication = 974</v>
       </c>
       <c r="AD38" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 3652</v>
+      </c>
+      <c r="AE38" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 1581</v>
+      </c>
+      <c r="AF38" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 3652</v>
-      </c>
-      <c r="AE38" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 1581</v>
-      </c>
-      <c r="AF38" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 450</v>
       </c>
       <c r="AG38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="3:34" x14ac:dyDescent="0.35">
@@ -17045,17 +17045,17 @@
         <v>720</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="1"/>
         <v>53.722500000000004</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W39" t="str">
         <f t="shared" si="2"/>
@@ -17070,7 +17070,7 @@
         <v>popneed_luxury_food = 494</v>
       </c>
       <c r="Z39" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 2297</v>
       </c>
       <c r="AA39" t="str">
@@ -17086,22 +17086,22 @@
         <v>popneed_communication = 1085</v>
       </c>
       <c r="AD39" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 4404</v>
+      </c>
+      <c r="AE39" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 2067</v>
+      </c>
+      <c r="AF39" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 4404</v>
-      </c>
-      <c r="AE39" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 2067</v>
-      </c>
-      <c r="AF39" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 720</v>
       </c>
       <c r="AG39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="3:34" x14ac:dyDescent="0.35">
@@ -17142,17 +17142,17 @@
         <v>1050</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U40" s="4">
         <f t="shared" si="1"/>
         <v>58.108050000000006</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W40" t="str">
         <f t="shared" si="2"/>
@@ -17167,7 +17167,7 @@
         <v>popneed_luxury_food = 522</v>
       </c>
       <c r="Z40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 2448</v>
       </c>
       <c r="AA40" t="str">
@@ -17183,22 +17183,22 @@
         <v>popneed_communication = 1202</v>
       </c>
       <c r="AD40" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 5248</v>
+      </c>
+      <c r="AE40" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 2716</v>
+      </c>
+      <c r="AF40" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 5248</v>
-      </c>
-      <c r="AE40" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 2716</v>
-      </c>
-      <c r="AF40" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 1050</v>
       </c>
       <c r="AG40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="3:34" x14ac:dyDescent="0.35">
@@ -17239,17 +17239,17 @@
         <v>1440</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U41" s="4">
         <f t="shared" si="1"/>
         <v>62.726000000000006</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W41" t="str">
         <f t="shared" si="2"/>
@@ -17264,7 +17264,7 @@
         <v>popneed_luxury_food = 550</v>
       </c>
       <c r="Z41" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 2602</v>
       </c>
       <c r="AA41" t="str">
@@ -17280,22 +17280,22 @@
         <v>popneed_communication = 1325</v>
       </c>
       <c r="AD41" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 6186</v>
+      </c>
+      <c r="AE41" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 3584</v>
+      </c>
+      <c r="AF41" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 6186</v>
-      </c>
-      <c r="AE41" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 3584</v>
-      </c>
-      <c r="AF41" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 1440</v>
       </c>
       <c r="AG41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="3:34" x14ac:dyDescent="0.35">
@@ -17336,17 +17336,17 @@
         <v>1890</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U42" s="4">
         <f t="shared" si="1"/>
         <v>67.582350000000005</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="2"/>
@@ -17361,7 +17361,7 @@
         <v>popneed_luxury_food = 579</v>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 2761</v>
       </c>
       <c r="AA42" t="str">
@@ -17377,22 +17377,22 @@
         <v>popneed_communication = 1454</v>
       </c>
       <c r="AD42" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 7218</v>
+      </c>
+      <c r="AE42" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 4730</v>
+      </c>
+      <c r="AF42" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 7218</v>
-      </c>
-      <c r="AE42" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 4730</v>
-      </c>
-      <c r="AF42" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 1890</v>
       </c>
       <c r="AG42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="3:34" x14ac:dyDescent="0.35">
@@ -17433,17 +17433,17 @@
         <v>2400</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U43" s="4">
         <f t="shared" si="1"/>
         <v>72.68310000000001</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="2"/>
@@ -17458,7 +17458,7 @@
         <v>popneed_luxury_food = 609</v>
       </c>
       <c r="Z43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 2922</v>
       </c>
       <c r="AA43" t="str">
@@ -17474,22 +17474,22 @@
         <v>popneed_communication = 1589</v>
       </c>
       <c r="AD43" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 8348</v>
+      </c>
+      <c r="AE43" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 6229</v>
+      </c>
+      <c r="AF43" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 8348</v>
-      </c>
-      <c r="AE43" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 6229</v>
-      </c>
-      <c r="AF43" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 2400</v>
       </c>
       <c r="AG43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="3:34" x14ac:dyDescent="0.35">
@@ -17530,17 +17530,17 @@
         <v>2970</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U44" s="4">
         <f t="shared" si="1"/>
         <v>78.034250000000014</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W44" t="str">
         <f t="shared" si="2"/>
@@ -17555,7 +17555,7 @@
         <v>popneed_luxury_food = 639</v>
       </c>
       <c r="Z44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 3088</v>
       </c>
       <c r="AA44" t="str">
@@ -17571,22 +17571,22 @@
         <v>popneed_communication = 1730</v>
       </c>
       <c r="AD44" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 9573</v>
+      </c>
+      <c r="AE44" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 8166</v>
+      </c>
+      <c r="AF44" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 9573</v>
-      </c>
-      <c r="AE44" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 8166</v>
-      </c>
-      <c r="AF44" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 2970</v>
       </c>
       <c r="AG44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="3:34" x14ac:dyDescent="0.35">
@@ -17627,17 +17627,17 @@
         <v>3600</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U45" s="4">
         <f t="shared" si="1"/>
         <v>83.641800000000003</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="2"/>
@@ -17652,7 +17652,7 @@
         <v>popneed_luxury_food = 671</v>
       </c>
       <c r="Z45" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 3256</v>
       </c>
       <c r="AA45" t="str">
@@ -17668,22 +17668,22 @@
         <v>popneed_communication = 1877</v>
       </c>
       <c r="AD45" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 10894</v>
+      </c>
+      <c r="AE45" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 10638</v>
+      </c>
+      <c r="AF45" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 10894</v>
-      </c>
-      <c r="AE45" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 10638</v>
-      </c>
-      <c r="AF45" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 3600</v>
       </c>
       <c r="AG45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="3:34" x14ac:dyDescent="0.35">
@@ -17724,17 +17724,17 @@
         <v>4290</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U46" s="4">
         <f t="shared" si="1"/>
         <v>89.511750000000006</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W46" t="str">
         <f t="shared" si="2"/>
@@ -17749,7 +17749,7 @@
         <v>popneed_luxury_food = 703</v>
       </c>
       <c r="Z46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 3428</v>
       </c>
       <c r="AA46" t="str">
@@ -17765,22 +17765,22 @@
         <v>popneed_communication = 2030</v>
       </c>
       <c r="AD46" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 12310</v>
+      </c>
+      <c r="AE46" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 13766</v>
+      </c>
+      <c r="AF46" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 12310</v>
-      </c>
-      <c r="AE46" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 13766</v>
-      </c>
-      <c r="AF46" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 4290</v>
       </c>
       <c r="AG46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="3:34" x14ac:dyDescent="0.35">
@@ -17821,17 +17821,17 @@
         <v>5040</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U47" s="4">
         <f t="shared" si="1"/>
         <v>95.650100000000009</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="2"/>
@@ -17846,7 +17846,7 @@
         <v>popneed_luxury_food = 735</v>
       </c>
       <c r="Z47" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 3602</v>
       </c>
       <c r="AA47" t="str">
@@ -17862,22 +17862,22 @@
         <v>popneed_communication = 2189</v>
       </c>
       <c r="AD47" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 13818</v>
+      </c>
+      <c r="AE47" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 17687</v>
+      </c>
+      <c r="AF47" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 13818</v>
-      </c>
-      <c r="AE47" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 17687</v>
-      </c>
-      <c r="AF47" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 5040</v>
       </c>
       <c r="AG47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="3:34" x14ac:dyDescent="0.35">
@@ -17918,17 +17918,17 @@
         <v>5850</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U48" s="4">
         <f t="shared" si="1"/>
         <v>102.06285000000001</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="2"/>
@@ -17943,7 +17943,7 @@
         <v>popneed_luxury_food = 768</v>
       </c>
       <c r="Z48" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 3780</v>
       </c>
       <c r="AA48" t="str">
@@ -17959,22 +17959,22 @@
         <v>popneed_communication = 2354</v>
       </c>
       <c r="AD48" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 15416</v>
+      </c>
+      <c r="AE48" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 22555</v>
+      </c>
+      <c r="AF48" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 15416</v>
-      </c>
-      <c r="AE48" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 22555</v>
-      </c>
-      <c r="AF48" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 5850</v>
       </c>
       <c r="AG48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="3:34" x14ac:dyDescent="0.35">
@@ -18015,17 +18015,17 @@
         <v>6720</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U49" s="4">
         <f t="shared" si="1"/>
         <v>108.75600000000001</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W49" t="str">
         <f t="shared" si="2"/>
@@ -18040,7 +18040,7 @@
         <v>popneed_luxury_food = 802</v>
       </c>
       <c r="Z49" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 3961</v>
       </c>
       <c r="AA49" t="str">
@@ -18056,22 +18056,22 @@
         <v>popneed_communication = 2525</v>
       </c>
       <c r="AD49" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 17102</v>
+      </c>
+      <c r="AE49" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 28556</v>
+      </c>
+      <c r="AF49" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 17102</v>
-      </c>
-      <c r="AE49" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 28556</v>
-      </c>
-      <c r="AF49" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 6720</v>
       </c>
       <c r="AG49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="3:34" x14ac:dyDescent="0.35">
@@ -18112,17 +18112,17 @@
         <v>7650</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U50" s="4">
         <f t="shared" si="1"/>
         <v>115.73555</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="2"/>
@@ -18137,7 +18137,7 @@
         <v>popneed_luxury_food = 837</v>
       </c>
       <c r="Z50" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 4144</v>
       </c>
       <c r="AA50" t="str">
@@ -18153,22 +18153,22 @@
         <v>popneed_communication = 2702</v>
       </c>
       <c r="AD50" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 18872</v>
+      </c>
+      <c r="AE50" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 35904</v>
+      </c>
+      <c r="AF50" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 18872</v>
-      </c>
-      <c r="AE50" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 35904</v>
-      </c>
-      <c r="AF50" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 7650</v>
       </c>
       <c r="AG50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="3:34" x14ac:dyDescent="0.35">
@@ -18209,17 +18209,17 @@
         <v>8640</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U51" s="4">
         <f t="shared" si="1"/>
         <v>123.00750000000001</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="2"/>
@@ -18234,7 +18234,7 @@
         <v>popneed_luxury_food = 872</v>
       </c>
       <c r="Z51" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 4332</v>
       </c>
       <c r="AA51" t="str">
@@ -18242,7 +18242,7 @@
         <v>popneed_health = 2900</v>
       </c>
       <c r="AB51" t="str">
-        <f t="shared" ref="AB51:AB83" si="25">CONCATENATE("popneed_free_movement = ",M51)</f>
+        <f t="shared" ref="AB51:AB83" si="24">CONCATENATE("popneed_free_movement = ",M51)</f>
         <v>popneed_free_movement = 2643</v>
       </c>
       <c r="AC51" t="str">
@@ -18250,22 +18250,22 @@
         <v>popneed_communication = 2885</v>
       </c>
       <c r="AD51" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 20722</v>
+      </c>
+      <c r="AE51" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 44846</v>
+      </c>
+      <c r="AF51" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 20722</v>
-      </c>
-      <c r="AE51" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 44846</v>
-      </c>
-      <c r="AF51" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 8640</v>
       </c>
       <c r="AG51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="3:34" x14ac:dyDescent="0.35">
@@ -18306,17 +18306,17 @@
         <v>9690</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U52" s="4">
         <f t="shared" si="1"/>
         <v>130.57785000000001</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="2"/>
@@ -18331,7 +18331,7 @@
         <v>popneed_luxury_food = 908</v>
       </c>
       <c r="Z52" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 4522</v>
       </c>
       <c r="AA52" t="str">
@@ -18339,7 +18339,7 @@
         <v>popneed_health = 3043</v>
       </c>
       <c r="AB52" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 2808</v>
       </c>
       <c r="AC52" t="str">
@@ -18347,22 +18347,22 @@
         <v>popneed_communication = 3074</v>
       </c>
       <c r="AD52" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 22650</v>
+      </c>
+      <c r="AE52" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 55668</v>
+      </c>
+      <c r="AF52" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 22650</v>
-      </c>
-      <c r="AE52" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 55668</v>
-      </c>
-      <c r="AF52" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 9690</v>
       </c>
       <c r="AG52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="3:34" x14ac:dyDescent="0.35">
@@ -18403,17 +18403,17 @@
         <v>10800</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U53" s="4">
         <f t="shared" si="1"/>
         <v>138.45260000000002</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W53" t="str">
         <f t="shared" si="2"/>
@@ -18428,7 +18428,7 @@
         <v>popneed_luxury_food = 945</v>
       </c>
       <c r="Z53" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 4715</v>
       </c>
       <c r="AA53" t="str">
@@ -18436,7 +18436,7 @@
         <v>popneed_health = 3189</v>
       </c>
       <c r="AB53" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 2978</v>
       </c>
       <c r="AC53" t="str">
@@ -18444,22 +18444,22 @@
         <v>popneed_communication = 3269</v>
       </c>
       <c r="AD53" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 24650</v>
+      </c>
+      <c r="AE53" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 68708</v>
+      </c>
+      <c r="AF53" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 24650</v>
-      </c>
-      <c r="AE53" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 68708</v>
-      </c>
-      <c r="AF53" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 10800</v>
       </c>
       <c r="AG53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="3:34" x14ac:dyDescent="0.35">
@@ -18500,17 +18500,17 @@
         <v>11970</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U54" s="4">
         <f t="shared" si="1"/>
         <v>146.63774999999998</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="2"/>
@@ -18525,7 +18525,7 @@
         <v>popneed_luxury_food = 982</v>
       </c>
       <c r="Z54" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 4912</v>
       </c>
       <c r="AA54" t="str">
@@ -18533,7 +18533,7 @@
         <v>popneed_health = 3338</v>
       </c>
       <c r="AB54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 3153</v>
       </c>
       <c r="AC54" t="str">
@@ -18541,22 +18541,22 @@
         <v>popneed_communication = 3470</v>
       </c>
       <c r="AD54" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 26720</v>
+      </c>
+      <c r="AE54" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 84347</v>
+      </c>
+      <c r="AF54" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 26720</v>
-      </c>
-      <c r="AE54" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 84347</v>
-      </c>
-      <c r="AF54" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 11970</v>
       </c>
       <c r="AG54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="3:34" x14ac:dyDescent="0.35">
@@ -18597,17 +18597,17 @@
         <v>13200</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U55" s="4">
         <f t="shared" si="1"/>
         <v>155.13929999999999</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W55" t="str">
         <f t="shared" si="2"/>
@@ -18622,7 +18622,7 @@
         <v>popneed_luxury_food = 1020</v>
       </c>
       <c r="Z55" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 5112</v>
       </c>
       <c r="AA55" t="str">
@@ -18630,7 +18630,7 @@
         <v>popneed_health = 3489</v>
       </c>
       <c r="AB55" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 3333</v>
       </c>
       <c r="AC55" t="str">
@@ -18638,22 +18638,22 @@
         <v>popneed_communication = 3677</v>
       </c>
       <c r="AD55" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 28856</v>
+      </c>
+      <c r="AE55" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 103039</v>
+      </c>
+      <c r="AF55" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 28856</v>
-      </c>
-      <c r="AE55" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 103039</v>
-      </c>
-      <c r="AF55" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 13200</v>
       </c>
       <c r="AG55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.35">
@@ -18694,17 +18694,17 @@
         <v>14490</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U56" s="4">
         <f t="shared" si="1"/>
         <v>163.96325000000002</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W56" t="str">
         <f t="shared" si="2"/>
@@ -18719,7 +18719,7 @@
         <v>popneed_luxury_food = 1058</v>
       </c>
       <c r="Z56" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 5314</v>
       </c>
       <c r="AA56" t="str">
@@ -18727,7 +18727,7 @@
         <v>popneed_health = 3644</v>
       </c>
       <c r="AB56" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 3518</v>
       </c>
       <c r="AC56" t="str">
@@ -18735,22 +18735,22 @@
         <v>popneed_communication = 3890</v>
       </c>
       <c r="AD56" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 31053</v>
+      </c>
+      <c r="AE56" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 125303</v>
+      </c>
+      <c r="AF56" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 31053</v>
-      </c>
-      <c r="AE56" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 125303</v>
-      </c>
-      <c r="AF56" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 14490</v>
       </c>
       <c r="AG56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="3:34" x14ac:dyDescent="0.35">
@@ -18791,17 +18791,17 @@
         <v>15840</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U57" s="4">
         <f t="shared" si="1"/>
         <v>173.1156</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="2"/>
@@ -18816,7 +18816,7 @@
         <v>popneed_luxury_food = 1098</v>
       </c>
       <c r="Z57" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 5520</v>
       </c>
       <c r="AA57" t="str">
@@ -18824,7 +18824,7 @@
         <v>popneed_health = 3800</v>
       </c>
       <c r="AB57" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 3708</v>
       </c>
       <c r="AC57" t="str">
@@ -18832,22 +18832,22 @@
         <v>popneed_communication = 4109</v>
       </c>
       <c r="AD57" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 33308</v>
+      </c>
+      <c r="AE57" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 151744</v>
+      </c>
+      <c r="AF57" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 33308</v>
-      </c>
-      <c r="AE57" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 151744</v>
-      </c>
-      <c r="AF57" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 15840</v>
       </c>
       <c r="AG57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="3:34" x14ac:dyDescent="0.35">
@@ -18888,17 +18888,17 @@
         <v>17250</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="1"/>
         <v>182.60235</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="2"/>
@@ -18909,11 +18909,11 @@
         <v>popneed_heating = 53</v>
       </c>
       <c r="Y58" t="str">
-        <f t="shared" ref="Y58:Y90" si="26">CONCATENATE("popneed_luxury_food = ",F58)</f>
+        <f t="shared" ref="Y58:Y90" si="25">CONCATENATE("popneed_luxury_food = ",F58)</f>
         <v>popneed_luxury_food = 1138</v>
       </c>
       <c r="Z58" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 5729</v>
       </c>
       <c r="AA58" t="str">
@@ -18921,7 +18921,7 @@
         <v>popneed_health = 3960</v>
       </c>
       <c r="AB58" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 3903</v>
       </c>
       <c r="AC58" t="str">
@@ -18929,22 +18929,22 @@
         <v>popneed_communication = 4334</v>
       </c>
       <c r="AD58" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 35619</v>
+      </c>
+      <c r="AE58" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 183062</v>
+      </c>
+      <c r="AF58" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 35619</v>
-      </c>
-      <c r="AE58" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 183062</v>
-      </c>
-      <c r="AF58" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 17250</v>
       </c>
       <c r="AG58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="3:34" x14ac:dyDescent="0.35">
@@ -18985,17 +18985,17 @@
         <v>18720</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U59" s="4">
         <f t="shared" si="1"/>
         <v>192.42950000000002</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="2"/>
@@ -19006,11 +19006,11 @@
         <v>popneed_heating = 53</v>
       </c>
       <c r="Y59" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1178</v>
       </c>
       <c r="Z59" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 5941</v>
       </c>
       <c r="AA59" t="str">
@@ -19018,7 +19018,7 @@
         <v>popneed_health = 4122</v>
       </c>
       <c r="AB59" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 4103</v>
       </c>
       <c r="AC59" t="str">
@@ -19026,22 +19026,22 @@
         <v>popneed_communication = 4565</v>
       </c>
       <c r="AD59" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 37982</v>
+      </c>
+      <c r="AE59" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 220074</v>
+      </c>
+      <c r="AF59" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 37982</v>
-      </c>
-      <c r="AE59" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 220074</v>
-      </c>
-      <c r="AF59" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 18720</v>
       </c>
       <c r="AG59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="3:34" x14ac:dyDescent="0.35">
@@ -19082,17 +19082,17 @@
         <v>20250</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U60" s="4">
         <f t="shared" si="1"/>
         <v>202.60305000000002</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="2"/>
@@ -19103,11 +19103,11 @@
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y60" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1220</v>
       </c>
       <c r="Z60" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 6156</v>
       </c>
       <c r="AA60" t="str">
@@ -19115,7 +19115,7 @@
         <v>popneed_health = 4287</v>
       </c>
       <c r="AB60" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 4308</v>
       </c>
       <c r="AC60" t="str">
@@ -19123,22 +19123,22 @@
         <v>popneed_communication = 4802</v>
       </c>
       <c r="AD60" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 40393</v>
+      </c>
+      <c r="AE60" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 263722</v>
+      </c>
+      <c r="AF60" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 40393</v>
-      </c>
-      <c r="AE60" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 263722</v>
-      </c>
-      <c r="AF60" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 20250</v>
       </c>
       <c r="AG60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="3:34" x14ac:dyDescent="0.35">
@@ -19179,17 +19179,17 @@
         <v>21840</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U61" s="4">
         <f t="shared" si="1"/>
         <v>213.12899999999999</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="2"/>
@@ -19200,11 +19200,11 @@
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1262</v>
       </c>
       <c r="Z61" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 6376</v>
       </c>
       <c r="AA61" t="str">
@@ -19212,7 +19212,7 @@
         <v>popneed_health = 4455</v>
       </c>
       <c r="AB61" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 4518</v>
       </c>
       <c r="AC61" t="str">
@@ -19220,22 +19220,22 @@
         <v>popneed_communication = 5045</v>
       </c>
       <c r="AD61" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 42851</v>
+      </c>
+      <c r="AE61" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 315104</v>
+      </c>
+      <c r="AF61" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 42851</v>
-      </c>
-      <c r="AE61" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 315104</v>
-      </c>
-      <c r="AF61" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 21840</v>
       </c>
       <c r="AG61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="3:34" x14ac:dyDescent="0.35">
@@ -19276,17 +19276,17 @@
         <v>23490</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U62" s="4">
         <f t="shared" si="1"/>
         <v>224.01335000000003</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="2"/>
@@ -19297,11 +19297,11 @@
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y62" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1304</v>
       </c>
       <c r="Z62" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 6598</v>
       </c>
       <c r="AA62" t="str">
@@ -19309,7 +19309,7 @@
         <v>popneed_health = 4625</v>
       </c>
       <c r="AB62" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 4733</v>
       </c>
       <c r="AC62" t="str">
@@ -19317,22 +19317,22 @@
         <v>popneed_communication = 5294</v>
       </c>
       <c r="AD62" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 45353</v>
+      </c>
+      <c r="AE62" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 375498</v>
+      </c>
+      <c r="AF62" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 45353</v>
-      </c>
-      <c r="AE62" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 375498</v>
-      </c>
-      <c r="AF62" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 23490</v>
       </c>
       <c r="AG62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="3:34" x14ac:dyDescent="0.35">
@@ -19373,17 +19373,17 @@
         <v>25200</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U63" s="4">
         <f t="shared" si="1"/>
         <v>235.26210000000003</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="2"/>
@@ -19394,11 +19394,11 @@
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y63" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1348</v>
       </c>
       <c r="Z63" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 6823</v>
       </c>
       <c r="AA63" t="str">
@@ -19406,7 +19406,7 @@
         <v>popneed_health = 4798</v>
       </c>
       <c r="AB63" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 4953</v>
       </c>
       <c r="AC63" t="str">
@@ -19414,22 +19414,22 @@
         <v>popneed_communication = 5549</v>
       </c>
       <c r="AD63" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 47898</v>
+      </c>
+      <c r="AE63" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 446379</v>
+      </c>
+      <c r="AF63" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 47898</v>
-      </c>
-      <c r="AE63" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 446379</v>
-      </c>
-      <c r="AF63" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 25200</v>
       </c>
       <c r="AG63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="3:34" x14ac:dyDescent="0.35">
@@ -19470,17 +19470,17 @@
         <v>26970</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U64" s="4">
         <f t="shared" si="1"/>
         <v>246.88125000000002</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="2"/>
@@ -19491,11 +19491,11 @@
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y64" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1392</v>
       </c>
       <c r="Z64" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 7051</v>
       </c>
       <c r="AA64" t="str">
@@ -19503,7 +19503,7 @@
         <v>popneed_health = 4974</v>
       </c>
       <c r="AB64" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 5178</v>
       </c>
       <c r="AC64" t="str">
@@ -19511,22 +19511,22 @@
         <v>popneed_communication = 5810</v>
       </c>
       <c r="AD64" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 50483</v>
+      </c>
+      <c r="AE64" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 529471</v>
+      </c>
+      <c r="AF64" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 50483</v>
-      </c>
-      <c r="AE64" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 529471</v>
-      </c>
-      <c r="AF64" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 26970</v>
       </c>
       <c r="AG64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="3:34" x14ac:dyDescent="0.35">
@@ -19567,17 +19567,17 @@
         <v>28800</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U65" s="4">
         <f t="shared" si="1"/>
         <v>258.8768</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="2"/>
@@ -19588,11 +19588,11 @@
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y65" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1436</v>
       </c>
       <c r="Z65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 7283</v>
       </c>
       <c r="AA65" t="str">
@@ -19600,7 +19600,7 @@
         <v>popneed_health = 5153</v>
       </c>
       <c r="AB65" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 5408</v>
       </c>
       <c r="AC65" t="str">
@@ -19608,22 +19608,22 @@
         <v>popneed_communication = 6077</v>
       </c>
       <c r="AD65" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 53107</v>
+      </c>
+      <c r="AE65" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 626766</v>
+      </c>
+      <c r="AF65" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 53107</v>
-      </c>
-      <c r="AE65" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 626766</v>
-      </c>
-      <c r="AF65" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 28800</v>
       </c>
       <c r="AG65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="3:34" x14ac:dyDescent="0.35">
@@ -19664,17 +19664,17 @@
         <v>30690</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U66" s="4">
         <f t="shared" si="1"/>
         <v>271.25475</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="2"/>
@@ -19685,11 +19685,11 @@
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y66" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1482</v>
       </c>
       <c r="Z66" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 7518</v>
       </c>
       <c r="AA66" t="str">
@@ -19697,7 +19697,7 @@
         <v>popneed_health = 5334</v>
       </c>
       <c r="AB66" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 5643</v>
       </c>
       <c r="AC66" t="str">
@@ -19705,22 +19705,22 @@
         <v>popneed_communication = 6350</v>
       </c>
       <c r="AD66" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 55768</v>
+      </c>
+      <c r="AE66" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 740586</v>
+      </c>
+      <c r="AF66" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 55768</v>
-      </c>
-      <c r="AE66" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 740586</v>
-      </c>
-      <c r="AF66" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 30690</v>
       </c>
       <c r="AG66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="3:34" x14ac:dyDescent="0.35">
@@ -19761,32 +19761,32 @@
         <v>32640</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" ref="U67:U100" si="27">0.001*C67*(C67-0.5)*(C67-0.3)</f>
+        <f t="shared" ref="U67:U100" si="26">0.001*C67*(C67-0.5)*(C67-0.3)</f>
         <v>284.02110000000005</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" ref="W67:W100" si="28">CONCATENATE("popneed_intoxicants = ",D67)</f>
+        <f t="shared" ref="W67:W100" si="27">CONCATENATE("popneed_intoxicants = ",D67)</f>
         <v>popneed_intoxicants = 4367</v>
       </c>
       <c r="X67" t="str">
-        <f t="shared" ref="X67:X100" si="29">CONCATENATE("popneed_heating = ",E67)</f>
+        <f t="shared" ref="X67:X100" si="28">CONCATENATE("popneed_heating = ",E67)</f>
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y67" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1528</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 7756</v>
       </c>
       <c r="AA67" t="str">
@@ -19794,7 +19794,7 @@
         <v>popneed_health = 5518</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 5883</v>
       </c>
       <c r="AC67" t="str">
@@ -19802,22 +19802,22 @@
         <v>popneed_communication = 6629</v>
       </c>
       <c r="AD67" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 58467</v>
+      </c>
+      <c r="AE67" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 873624</v>
+      </c>
+      <c r="AF67" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 58467</v>
-      </c>
-      <c r="AE67" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_finance = 873624</v>
-      </c>
-      <c r="AF67" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 32640</v>
       </c>
       <c r="AG67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="3:34" x14ac:dyDescent="0.35">
@@ -19858,32 +19858,32 @@
         <v>34650</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U68" s="4">
+        <f t="shared" si="26"/>
+        <v>297.18185000000005</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W68" t="str">
         <f t="shared" si="27"/>
-        <v>297.18185000000005</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W68" t="str">
+        <v>popneed_intoxicants = 4502</v>
+      </c>
+      <c r="X68" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 4502</v>
-      </c>
-      <c r="X68" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y68" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1575</v>
       </c>
       <c r="Z68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 7997</v>
       </c>
       <c r="AA68" t="str">
@@ -19891,7 +19891,7 @@
         <v>popneed_health = 5705</v>
       </c>
       <c r="AB68" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 6128</v>
       </c>
       <c r="AC68" t="str">
@@ -19899,22 +19899,22 @@
         <v>popneed_communication = 6914</v>
       </c>
       <c r="AD68" t="str">
+        <f t="shared" si="22"/>
+        <v>popneed_services = 61201</v>
+      </c>
+      <c r="AE68" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 1029011</v>
+      </c>
+      <c r="AF68" t="str">
         <f t="shared" si="23"/>
-        <v>popneed_services = 61201</v>
-      </c>
-      <c r="AE68" t="str">
-        <f t="shared" ref="AE68:AE95" si="30">CONCATENATE("popneed_finance = ",P68)</f>
-        <v>popneed_finance = 1029011</v>
-      </c>
-      <c r="AF68" t="str">
-        <f t="shared" si="24"/>
         <v>popneed_art  = 34650</v>
       </c>
       <c r="AG68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="3:34" x14ac:dyDescent="0.35">
@@ -19955,32 +19955,32 @@
         <v>36720</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U69" s="4">
+        <f t="shared" si="26"/>
+        <v>310.74300000000005</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W69" t="str">
         <f t="shared" si="27"/>
-        <v>310.74300000000005</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W69" t="str">
+        <v>popneed_intoxicants = 4638</v>
+      </c>
+      <c r="X69" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 4638</v>
-      </c>
-      <c r="X69" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1622</v>
       </c>
       <c r="Z69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 8242</v>
       </c>
       <c r="AA69" t="str">
@@ -19988,7 +19988,7 @@
         <v>popneed_health = 5895</v>
       </c>
       <c r="AB69" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 6378</v>
       </c>
       <c r="AC69" t="str">
@@ -19996,22 +19996,22 @@
         <v>popneed_communication = 7205</v>
       </c>
       <c r="AD69" t="str">
-        <f t="shared" ref="AD69:AD85" si="31">CONCATENATE("popneed_services = ",O69)</f>
+        <f t="shared" ref="AD69:AD85" si="29">CONCATENATE("popneed_services = ",O69)</f>
         <v>popneed_services = 63971</v>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 1210382</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 1210382</v>
       </c>
       <c r="AF69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 36720</v>
       </c>
       <c r="AG69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="3:34" x14ac:dyDescent="0.35">
@@ -20052,32 +20052,32 @@
         <v>38850</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U70" s="4">
+        <f t="shared" si="26"/>
+        <v>324.71055000000007</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W70" t="str">
         <f t="shared" si="27"/>
-        <v>324.71055000000007</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W70" t="str">
+        <v>popneed_intoxicants = 4777</v>
+      </c>
+      <c r="X70" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 4777</v>
-      </c>
-      <c r="X70" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 56</v>
       </c>
       <c r="Y70" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1670</v>
       </c>
       <c r="Z70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 8490</v>
       </c>
       <c r="AA70" t="str">
@@ -20085,7 +20085,7 @@
         <v>popneed_health = 6088</v>
       </c>
       <c r="AB70" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 6633</v>
       </c>
       <c r="AC70" t="str">
@@ -20093,22 +20093,22 @@
         <v>popneed_communication = 7502</v>
       </c>
       <c r="AD70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 66776</v>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 1421959</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 1421959</v>
       </c>
       <c r="AF70" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 38850</v>
       </c>
       <c r="AG70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="3:34" x14ac:dyDescent="0.35">
@@ -20149,32 +20149,32 @@
         <v>41040</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U71" s="4">
+        <f t="shared" si="26"/>
+        <v>339.09050000000002</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W71" t="str">
         <f t="shared" si="27"/>
-        <v>339.09050000000002</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W71" t="str">
+        <v>popneed_intoxicants = 4917</v>
+      </c>
+      <c r="X71" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 4917</v>
-      </c>
-      <c r="X71" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 56</v>
       </c>
       <c r="Y71" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1719</v>
       </c>
       <c r="Z71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 8742</v>
       </c>
       <c r="AA71" t="str">
@@ -20182,7 +20182,7 @@
         <v>popneed_health = 6283</v>
       </c>
       <c r="AB71" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 6893</v>
       </c>
       <c r="AC71" t="str">
@@ -20190,22 +20190,22 @@
         <v>popneed_communication = 7805</v>
       </c>
       <c r="AD71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 69616</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 1668653</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 1668653</v>
       </c>
       <c r="AF71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 41040</v>
       </c>
       <c r="AG71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="3:34" x14ac:dyDescent="0.35">
@@ -20246,32 +20246,32 @@
         <v>43290</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U72" s="4">
+        <f t="shared" si="26"/>
+        <v>353.88885000000005</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W72" t="str">
         <f t="shared" si="27"/>
-        <v>353.88885000000005</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W72" t="str">
+        <v>popneed_intoxicants = 5059</v>
+      </c>
+      <c r="X72" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 5059</v>
-      </c>
-      <c r="X72" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 56</v>
       </c>
       <c r="Y72" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1768</v>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 8997</v>
       </c>
       <c r="AA72" t="str">
@@ -20279,7 +20279,7 @@
         <v>popneed_health = 6482</v>
       </c>
       <c r="AB72" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 7158</v>
       </c>
       <c r="AC72" t="str">
@@ -20287,22 +20287,22 @@
         <v>popneed_communication = 8114</v>
       </c>
       <c r="AD72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 72490</v>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 1956164</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 1956164</v>
       </c>
       <c r="AF72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 43290</v>
       </c>
       <c r="AG72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="3:34" x14ac:dyDescent="0.35">
@@ -20343,32 +20343,32 @@
         <v>45600</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U73" s="4">
+        <f t="shared" si="26"/>
+        <v>369.11160000000007</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W73" t="str">
         <f t="shared" si="27"/>
-        <v>369.11160000000007</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W73" t="str">
+        <v>popneed_intoxicants = 5203</v>
+      </c>
+      <c r="X73" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 5203</v>
-      </c>
-      <c r="X73" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 56</v>
       </c>
       <c r="Y73" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1819</v>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 9255</v>
       </c>
       <c r="AA73" t="str">
@@ -20376,7 +20376,7 @@
         <v>popneed_health = 6683</v>
       </c>
       <c r="AB73" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 7428</v>
       </c>
       <c r="AC73" t="str">
@@ -20384,22 +20384,22 @@
         <v>popneed_communication = 8429</v>
       </c>
       <c r="AD73" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 75400</v>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 2291116</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 2291116</v>
       </c>
       <c r="AF73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 45600</v>
       </c>
       <c r="AG73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="3:34" x14ac:dyDescent="0.35">
@@ -20440,32 +20440,32 @@
         <v>47970</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U74" s="4">
+        <f t="shared" si="26"/>
+        <v>384.76474999999999</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W74" t="str">
         <f t="shared" si="27"/>
-        <v>384.76474999999999</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W74" t="str">
+        <v>popneed_intoxicants = 5349</v>
+      </c>
+      <c r="X74" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 5349</v>
-      </c>
-      <c r="X74" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 56</v>
       </c>
       <c r="Y74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1869</v>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 9517</v>
       </c>
       <c r="AA74" t="str">
@@ -20473,7 +20473,7 @@
         <v>popneed_health = 6887</v>
       </c>
       <c r="AB74" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 7703</v>
       </c>
       <c r="AC74" t="str">
@@ -20481,22 +20481,22 @@
         <v>popneed_communication = 8750</v>
       </c>
       <c r="AD74" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 78344</v>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 2681206</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 2681206</v>
       </c>
       <c r="AF74" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 47970</v>
       </c>
       <c r="AG74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="3:34" x14ac:dyDescent="0.35">
@@ -20537,32 +20537,32 @@
         <v>50400</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U75" s="4">
+        <f t="shared" si="26"/>
+        <v>400.85430000000002</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W75" t="str">
         <f t="shared" si="27"/>
-        <v>400.85430000000002</v>
-      </c>
-      <c r="V75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W75" t="str">
+        <v>popneed_intoxicants = 5497</v>
+      </c>
+      <c r="X75" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 5497</v>
-      </c>
-      <c r="X75" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 57</v>
       </c>
       <c r="Y75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1921</v>
       </c>
       <c r="Z75" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 9783</v>
       </c>
       <c r="AA75" t="str">
@@ -20570,7 +20570,7 @@
         <v>popneed_health = 7094</v>
       </c>
       <c r="AB75" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 7983</v>
       </c>
       <c r="AC75" t="str">
@@ -20578,22 +20578,22 @@
         <v>popneed_communication = 9077</v>
       </c>
       <c r="AD75" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 81323</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 3135372</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 3135372</v>
       </c>
       <c r="AF75" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 50400</v>
       </c>
       <c r="AG75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="3:34" x14ac:dyDescent="0.35">
@@ -20634,40 +20634,40 @@
         <v>52890</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U76" s="4">
+        <f t="shared" si="26"/>
+        <v>417.38624999999996</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W76" t="str">
         <f t="shared" si="27"/>
-        <v>417.38624999999996</v>
-      </c>
-      <c r="V76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W76" t="str">
+        <v>popneed_intoxicants = 5647</v>
+      </c>
+      <c r="X76" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 5647</v>
-      </c>
-      <c r="X76" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 57</v>
       </c>
       <c r="Y76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 1973</v>
       </c>
       <c r="Z76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 10052</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" ref="AA76:AA100" si="32">CONCATENATE("popneed_health = ",L76)</f>
+        <f t="shared" ref="AA76:AA100" si="30">CONCATENATE("popneed_health = ",L76)</f>
         <v>popneed_health = 7304</v>
       </c>
       <c r="AB76" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 8268</v>
       </c>
       <c r="AC76" t="str">
@@ -20675,22 +20675,22 @@
         <v>popneed_communication = 9410</v>
       </c>
       <c r="AD76" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 84337</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 3664006</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 3664006</v>
       </c>
       <c r="AF76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 52890</v>
       </c>
       <c r="AG76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="3:34" x14ac:dyDescent="0.35">
@@ -20731,40 +20731,40 @@
         <v>55440</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U77" s="4">
+        <f t="shared" si="26"/>
+        <v>434.36660000000001</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W77" t="str">
         <f t="shared" si="27"/>
-        <v>434.36660000000001</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W77" t="str">
+        <v>popneed_intoxicants = 5799</v>
+      </c>
+      <c r="X77" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 5799</v>
-      </c>
-      <c r="X77" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 57</v>
       </c>
       <c r="Y77" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2026</v>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 10324</v>
       </c>
       <c r="AA77" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 7517</v>
       </c>
       <c r="AB77" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 8558</v>
       </c>
       <c r="AC77" t="str">
@@ -20772,22 +20772,22 @@
         <v>popneed_communication = 9749</v>
       </c>
       <c r="AD77" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 87387</v>
       </c>
       <c r="AE77" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 4279178</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 4279178</v>
       </c>
       <c r="AF77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 55440</v>
       </c>
       <c r="AG77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="3:34" x14ac:dyDescent="0.35">
@@ -20828,40 +20828,40 @@
         <v>58050</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U78" s="4">
+        <f t="shared" si="26"/>
+        <v>451.80135000000001</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W78" t="str">
         <f t="shared" si="27"/>
-        <v>451.80135000000001</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W78" t="str">
+        <v>popneed_intoxicants = 5953</v>
+      </c>
+      <c r="X78" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 5953</v>
-      </c>
-      <c r="X78" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 57</v>
       </c>
       <c r="Y78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2080</v>
       </c>
       <c r="Z78" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 10600</v>
       </c>
       <c r="AA78" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 7732</v>
       </c>
       <c r="AB78" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 8853</v>
       </c>
       <c r="AC78" t="str">
@@ -20869,22 +20869,22 @@
         <v>popneed_communication = 10094</v>
       </c>
       <c r="AD78" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 90473</v>
       </c>
       <c r="AE78" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 4994908</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 4994908</v>
       </c>
       <c r="AF78" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 58050</v>
       </c>
       <c r="AG78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="3:34" x14ac:dyDescent="0.35">
@@ -20925,40 +20925,40 @@
         <v>60720</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U79" s="4">
+        <f t="shared" si="26"/>
+        <v>469.69650000000001</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W79" t="str">
         <f t="shared" si="27"/>
-        <v>469.69650000000001</v>
-      </c>
-      <c r="V79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W79" t="str">
+        <v>popneed_intoxicants = 6108</v>
+      </c>
+      <c r="X79" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 6108</v>
-      </c>
-      <c r="X79" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 57</v>
       </c>
       <c r="Y79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2134</v>
       </c>
       <c r="Z79" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 10879</v>
       </c>
       <c r="AA79" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 7951</v>
       </c>
       <c r="AB79" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 9153</v>
       </c>
       <c r="AC79" t="str">
@@ -20966,22 +20966,22 @@
         <v>popneed_communication = 10445</v>
       </c>
       <c r="AD79" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 93595</v>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 5827492</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 5827492</v>
       </c>
       <c r="AF79" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 60720</v>
       </c>
       <c r="AG79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="3:34" x14ac:dyDescent="0.35">
@@ -21022,40 +21022,40 @@
         <v>63450</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U80" s="4">
+        <f t="shared" si="26"/>
+        <v>488.05805000000004</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W80" t="str">
         <f t="shared" si="27"/>
-        <v>488.05805000000004</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W80" t="str">
+        <v>popneed_intoxicants = 6266</v>
+      </c>
+      <c r="X80" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 6266</v>
-      </c>
-      <c r="X80" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 57</v>
       </c>
       <c r="Y80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2189</v>
       </c>
       <c r="Z80" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 11161</v>
       </c>
       <c r="AA80" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 8172</v>
       </c>
       <c r="AB80" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 9458</v>
       </c>
       <c r="AC80" t="str">
@@ -21063,22 +21063,22 @@
         <v>popneed_communication = 10802</v>
       </c>
       <c r="AD80" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 96754</v>
       </c>
       <c r="AE80" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 6795857</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 6795857</v>
       </c>
       <c r="AF80" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 63450</v>
       </c>
       <c r="AG80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="3:34" x14ac:dyDescent="0.35">
@@ -21119,40 +21119,40 @@
         <v>66240</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U81" s="4">
+        <f t="shared" si="26"/>
+        <v>506.89200000000005</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W81" t="str">
         <f t="shared" si="27"/>
-        <v>506.89200000000005</v>
-      </c>
-      <c r="V81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W81" t="str">
+        <v>popneed_intoxicants = 6425</v>
+      </c>
+      <c r="X81" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 6425</v>
-      </c>
-      <c r="X81" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 58</v>
       </c>
       <c r="Y81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2245</v>
       </c>
       <c r="Z81" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 11448</v>
       </c>
       <c r="AA81" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 8397</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 9768</v>
       </c>
       <c r="AC81" t="str">
@@ -21160,22 +21160,22 @@
         <v>popneed_communication = 11165</v>
       </c>
       <c r="AD81" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 99950</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 7921992</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 7921992</v>
       </c>
       <c r="AF81" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 66240</v>
       </c>
       <c r="AG81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="3:34" x14ac:dyDescent="0.35">
@@ -21216,40 +21216,40 @@
         <v>69090</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U82" s="4">
+        <f t="shared" si="26"/>
+        <v>526.20434999999998</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W82" t="str">
         <f t="shared" si="27"/>
-        <v>526.20434999999998</v>
-      </c>
-      <c r="V82" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W82" t="str">
+        <v>popneed_intoxicants = 6587</v>
+      </c>
+      <c r="X82" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 6587</v>
-      </c>
-      <c r="X82" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 58</v>
       </c>
       <c r="Y82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2301</v>
       </c>
       <c r="Z82" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 11737</v>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 8624</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 10083</v>
       </c>
       <c r="AC82" t="str">
@@ -21257,22 +21257,22 @@
         <v>popneed_communication = 11534</v>
       </c>
       <c r="AD82" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 103184</v>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 9231455</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 9231455</v>
       </c>
       <c r="AF82" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 69090</v>
       </c>
       <c r="AG82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="3:34" x14ac:dyDescent="0.35">
@@ -21313,40 +21313,40 @@
         <v>72000</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U83" s="4">
+        <f t="shared" si="26"/>
+        <v>546.00110000000006</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W83" t="str">
         <f t="shared" si="27"/>
-        <v>546.00110000000006</v>
-      </c>
-      <c r="V83" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W83" t="str">
+        <v>popneed_intoxicants = 6750</v>
+      </c>
+      <c r="X83" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 6750</v>
-      </c>
-      <c r="X83" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 58</v>
       </c>
       <c r="Y83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2358</v>
       </c>
       <c r="Z83" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 12031</v>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 8854</v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_free_movement = 10403</v>
       </c>
       <c r="AC83" t="str">
@@ -21354,22 +21354,22 @@
         <v>popneed_communication = 11909</v>
       </c>
       <c r="AD83" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 106456</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 10753929</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 10753929</v>
       </c>
       <c r="AF83" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 72000</v>
       </c>
       <c r="AG83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="3:34" x14ac:dyDescent="0.35">
@@ -21410,40 +21410,40 @@
         <v>74970</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U84" s="4">
+        <f t="shared" si="26"/>
+        <v>566.28825000000006</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W84" t="str">
         <f t="shared" si="27"/>
-        <v>566.28825000000006</v>
-      </c>
-      <c r="V84" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W84" t="str">
+        <v>popneed_intoxicants = 6916</v>
+      </c>
+      <c r="X84" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 6916</v>
-      </c>
-      <c r="X84" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 58</v>
       </c>
       <c r="Y84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2416</v>
       </c>
       <c r="Z84" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 12328</v>
       </c>
       <c r="AA84" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 9088</v>
       </c>
       <c r="AB84" t="str">
-        <f t="shared" ref="AB84:AB100" si="33">CONCATENATE("popneed_free_movement = ",M84)</f>
+        <f t="shared" ref="AB84:AB100" si="31">CONCATENATE("popneed_free_movement = ",M84)</f>
         <v>popneed_free_movement = 10728</v>
       </c>
       <c r="AC84" t="str">
@@ -21451,22 +21451,22 @@
         <v>popneed_communication = 12290</v>
       </c>
       <c r="AD84" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 109766</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 12523905</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 12523905</v>
       </c>
       <c r="AF84" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 74970</v>
       </c>
       <c r="AG84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="3:34" x14ac:dyDescent="0.35">
@@ -21507,40 +21507,40 @@
         <v>78000</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U85" s="4">
+        <f t="shared" si="26"/>
+        <v>587.07180000000005</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W85" t="str">
         <f t="shared" si="27"/>
-        <v>587.07180000000005</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W85" t="str">
+        <v>popneed_intoxicants = 7083</v>
+      </c>
+      <c r="X85" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 7083</v>
-      </c>
-      <c r="X85" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 58</v>
       </c>
       <c r="Y85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2475</v>
       </c>
       <c r="Z85" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 12628</v>
       </c>
       <c r="AA85" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 9324</v>
       </c>
       <c r="AB85" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>popneed_free_movement = 11058</v>
       </c>
       <c r="AC85" t="str">
@@ -21548,22 +21548,22 @@
         <v>popneed_communication = 12677</v>
       </c>
       <c r="AD85" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_services = 113116</v>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 14581458</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 14581458</v>
       </c>
       <c r="AF85" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 78000</v>
       </c>
       <c r="AG85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="3:34" x14ac:dyDescent="0.35">
@@ -21604,63 +21604,63 @@
         <v>81090</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U86" s="4">
+        <f t="shared" si="26"/>
+        <v>608.35775000000001</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W86" t="str">
         <f t="shared" si="27"/>
-        <v>608.35775000000001</v>
-      </c>
-      <c r="V86" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W86" t="str">
+        <v>popneed_intoxicants = 7252</v>
+      </c>
+      <c r="X86" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 7252</v>
-      </c>
-      <c r="X86" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 58</v>
       </c>
       <c r="Y86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2534</v>
       </c>
       <c r="Z86" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 12932</v>
       </c>
       <c r="AA86" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>popneed_health = 9563</v>
       </c>
       <c r="AB86" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>popneed_free_movement = 11393</v>
       </c>
       <c r="AC86" t="str">
-        <f t="shared" ref="AC86:AC100" si="34">CONCATENATE("popneed_communication = ",N86)</f>
+        <f t="shared" ref="AC86:AC100" si="32">CONCATENATE("popneed_communication = ",N86)</f>
         <v>popneed_communication = 13070</v>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" ref="AD86:AD100" si="35">CONCATENATE("popneed_services = ",O86)</f>
+        <f t="shared" ref="AD86:AD100" si="33">CONCATENATE("popneed_services = ",O86)</f>
         <v>popneed_services = 116505</v>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 16973146</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 16973146</v>
       </c>
       <c r="AF86" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 81090</v>
       </c>
       <c r="AG86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="3:34" x14ac:dyDescent="0.35">
@@ -21701,63 +21701,63 @@
         <v>84240</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U87" s="4">
+        <f t="shared" si="26"/>
+        <v>630.15210000000013</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W87" t="str">
         <f t="shared" si="27"/>
-        <v>630.15210000000013</v>
-      </c>
-      <c r="V87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W87" t="str">
+        <v>popneed_intoxicants = 7424</v>
+      </c>
+      <c r="X87" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 7424</v>
-      </c>
-      <c r="X87" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 59</v>
       </c>
       <c r="Y87" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2594</v>
       </c>
       <c r="Z87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 13239</v>
       </c>
       <c r="AA87" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 9805</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 11733</v>
+      </c>
+      <c r="AC87" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 9805</v>
-      </c>
-      <c r="AB87" t="str">
+        <v>popneed_communication = 13469</v>
+      </c>
+      <c r="AD87" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 11733</v>
-      </c>
-      <c r="AC87" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 13469</v>
-      </c>
-      <c r="AD87" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 119933</v>
       </c>
       <c r="AE87" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 19753062</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 19753062</v>
       </c>
       <c r="AF87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 84240</v>
       </c>
       <c r="AG87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="3:34" x14ac:dyDescent="0.35">
@@ -21798,63 +21798,63 @@
         <v>87450</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U88" s="4">
+        <f t="shared" si="26"/>
+        <v>652.46085000000005</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W88" t="str">
         <f t="shared" si="27"/>
-        <v>652.46085000000005</v>
-      </c>
-      <c r="V88" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W88" t="str">
+        <v>popneed_intoxicants = 7597</v>
+      </c>
+      <c r="X88" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 7597</v>
-      </c>
-      <c r="X88" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 59</v>
       </c>
       <c r="Y88" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2654</v>
       </c>
       <c r="Z88" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 13550</v>
       </c>
       <c r="AA88" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 10050</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 12078</v>
+      </c>
+      <c r="AC88" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 10050</v>
-      </c>
-      <c r="AB88" t="str">
+        <v>popneed_communication = 13874</v>
+      </c>
+      <c r="AD88" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 12078</v>
-      </c>
-      <c r="AC88" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 13874</v>
-      </c>
-      <c r="AD88" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 123402</v>
       </c>
       <c r="AE88" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 22984055</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 22984055</v>
       </c>
       <c r="AF88" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 87450</v>
       </c>
       <c r="AG88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="3:34" x14ac:dyDescent="0.35">
@@ -21895,63 +21895,63 @@
         <v>90720</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U89" s="4">
+        <f t="shared" si="26"/>
+        <v>675.29</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W89" t="str">
         <f t="shared" si="27"/>
-        <v>675.29</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W89" t="str">
+        <v>popneed_intoxicants = 7772</v>
+      </c>
+      <c r="X89" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 7772</v>
-      </c>
-      <c r="X89" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 59</v>
       </c>
       <c r="Y89" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2716</v>
       </c>
       <c r="Z89" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 13864</v>
       </c>
       <c r="AA89" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 10298</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 12428</v>
+      </c>
+      <c r="AC89" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 10298</v>
-      </c>
-      <c r="AB89" t="str">
+        <v>popneed_communication = 14285</v>
+      </c>
+      <c r="AD89" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 12428</v>
-      </c>
-      <c r="AC89" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 14285</v>
-      </c>
-      <c r="AD89" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 126912</v>
       </c>
       <c r="AE89" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 26739141</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 26739141</v>
       </c>
       <c r="AF89" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 90720</v>
       </c>
       <c r="AG89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="3:34" x14ac:dyDescent="0.35">
@@ -21992,63 +21992,63 @@
         <v>94050</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U90" s="4">
+        <f t="shared" si="26"/>
+        <v>698.64555000000007</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W90" t="str">
         <f t="shared" si="27"/>
-        <v>698.64555000000007</v>
-      </c>
-      <c r="V90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W90" t="str">
+        <v>popneed_intoxicants = 7949</v>
+      </c>
+      <c r="X90" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 7949</v>
-      </c>
-      <c r="X90" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 59</v>
       </c>
       <c r="Y90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>popneed_luxury_food = 2778</v>
       </c>
       <c r="Z90" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 14182</v>
       </c>
       <c r="AA90" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 10548</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 12783</v>
+      </c>
+      <c r="AC90" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 10548</v>
-      </c>
-      <c r="AB90" t="str">
+        <v>popneed_communication = 14702</v>
+      </c>
+      <c r="AD90" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 12783</v>
-      </c>
-      <c r="AC90" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 14702</v>
-      </c>
-      <c r="AD90" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 130463</v>
       </c>
       <c r="AE90" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 31103159</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 31103159</v>
       </c>
       <c r="AF90" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 94050</v>
       </c>
       <c r="AG90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="3:34" x14ac:dyDescent="0.35">
@@ -22089,63 +22089,63 @@
         <v>97440</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U91" s="4">
+        <f t="shared" si="26"/>
+        <v>722.5335</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W91" t="str">
         <f t="shared" si="27"/>
-        <v>722.5335</v>
-      </c>
-      <c r="V91" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W91" t="str">
+        <v>popneed_intoxicants = 8129</v>
+      </c>
+      <c r="X91" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 8129</v>
-      </c>
-      <c r="X91" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 59</v>
       </c>
       <c r="Y91" t="str">
-        <f t="shared" ref="Y91:Y100" si="36">CONCATENATE("popneed_luxury_food = ",F91)</f>
+        <f t="shared" ref="Y91:Y100" si="34">CONCATENATE("popneed_luxury_food = ",F91)</f>
         <v>popneed_luxury_food = 2840</v>
       </c>
       <c r="Z91" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 14504</v>
       </c>
       <c r="AA91" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 10802</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 13143</v>
+      </c>
+      <c r="AC91" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 10802</v>
-      </c>
-      <c r="AB91" t="str">
+        <v>popneed_communication = 15125</v>
+      </c>
+      <c r="AD91" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 13143</v>
-      </c>
-      <c r="AC91" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 15125</v>
-      </c>
-      <c r="AD91" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 134055</v>
       </c>
       <c r="AE91" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 36174670</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 36174670</v>
       </c>
       <c r="AF91" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 97440</v>
       </c>
       <c r="AG91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="3:34" x14ac:dyDescent="0.35">
@@ -22186,63 +22186,63 @@
         <v>100890</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U92" s="4">
+        <f t="shared" si="26"/>
+        <v>746.95985000000007</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W92" t="str">
         <f t="shared" si="27"/>
-        <v>746.95985000000007</v>
-      </c>
-      <c r="V92" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W92" t="str">
+        <v>popneed_intoxicants = 8310</v>
+      </c>
+      <c r="X92" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 8310</v>
-      </c>
-      <c r="X92" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 59</v>
       </c>
       <c r="Y92" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>popneed_luxury_food = 2904</v>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 14829</v>
       </c>
       <c r="AA92" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 11059</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 13508</v>
+      </c>
+      <c r="AC92" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 11059</v>
-      </c>
-      <c r="AB92" t="str">
+        <v>popneed_communication = 15554</v>
+      </c>
+      <c r="AD92" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 13508</v>
-      </c>
-      <c r="AC92" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 15554</v>
-      </c>
-      <c r="AD92" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 137689</v>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 42068192</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 42068192</v>
       </c>
       <c r="AF92" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 100890</v>
       </c>
       <c r="AG92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="3:34" x14ac:dyDescent="0.35">
@@ -22283,63 +22283,63 @@
         <v>104400</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U93" s="4">
+        <f t="shared" si="26"/>
+        <v>771.93059999999991</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W93" t="str">
         <f t="shared" si="27"/>
-        <v>771.93059999999991</v>
-      </c>
-      <c r="V93" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W93" t="str">
+        <v>popneed_intoxicants = 8493</v>
+      </c>
+      <c r="X93" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 8493</v>
-      </c>
-      <c r="X93" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 59</v>
       </c>
       <c r="Y93" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>popneed_luxury_food = 2968</v>
       </c>
       <c r="Z93" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 15158</v>
       </c>
       <c r="AA93" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 11319</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 13878</v>
+      </c>
+      <c r="AC93" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 11319</v>
-      </c>
-      <c r="AB93" t="str">
+        <v>popneed_communication = 15989</v>
+      </c>
+      <c r="AD93" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 13878</v>
-      </c>
-      <c r="AC93" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 15989</v>
-      </c>
-      <c r="AD93" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 141365</v>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 48916775</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 48916775</v>
       </c>
       <c r="AF93" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 104400</v>
       </c>
       <c r="AG93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="3:34" x14ac:dyDescent="0.35">
@@ -22380,63 +22380,63 @@
         <v>107970</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U94" s="4">
+        <f t="shared" si="26"/>
+        <v>797.45174999999995</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W94" t="str">
         <f t="shared" si="27"/>
-        <v>797.45174999999995</v>
-      </c>
-      <c r="V94" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W94" t="str">
+        <v>popneed_intoxicants = 8678</v>
+      </c>
+      <c r="X94" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 8678</v>
-      </c>
-      <c r="X94" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 60</v>
       </c>
       <c r="Y94" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>popneed_luxury_food = 3032</v>
       </c>
       <c r="Z94" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 15490</v>
       </c>
       <c r="AA94" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 11582</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 14253</v>
+      </c>
+      <c r="AC94" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 11582</v>
-      </c>
-      <c r="AB94" t="str">
+        <v>popneed_communication = 16430</v>
+      </c>
+      <c r="AD94" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 14253</v>
-      </c>
-      <c r="AC94" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 16430</v>
-      </c>
-      <c r="AD94" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 145083</v>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 56875000</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 56875000</v>
       </c>
       <c r="AF94" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 107970</v>
       </c>
       <c r="AG94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="3:34" x14ac:dyDescent="0.35">
@@ -22477,63 +22477,63 @@
         <v>111600</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U95" s="4">
+        <f t="shared" si="26"/>
+        <v>823.52930000000003</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W95" t="str">
         <f t="shared" si="27"/>
-        <v>823.52930000000003</v>
-      </c>
-      <c r="V95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W95" t="str">
+        <v>popneed_intoxicants = 8865</v>
+      </c>
+      <c r="X95" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 8865</v>
-      </c>
-      <c r="X95" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 60</v>
       </c>
       <c r="Y95" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>popneed_luxury_food = 3098</v>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 15826</v>
       </c>
       <c r="AA95" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 11847</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 14633</v>
+      </c>
+      <c r="AC95" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 11847</v>
-      </c>
-      <c r="AB95" t="str">
+        <v>popneed_communication = 16877</v>
+      </c>
+      <c r="AD95" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 14633</v>
-      </c>
-      <c r="AC95" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 16877</v>
-      </c>
-      <c r="AD95" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 148844</v>
       </c>
       <c r="AE95" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_finance = 66122463</v>
+        <f t="shared" si="20"/>
+        <v>popneed_influence = 66122463</v>
       </c>
       <c r="AF95" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 111600</v>
       </c>
       <c r="AG95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="3:34" x14ac:dyDescent="0.35">
@@ -22574,63 +22574,63 @@
         <v>115290</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U96" s="4">
+        <f t="shared" si="26"/>
+        <v>850.16925000000015</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W96" t="str">
         <f t="shared" si="27"/>
-        <v>850.16925000000015</v>
-      </c>
-      <c r="V96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W96" t="str">
+        <v>popneed_intoxicants = 9054</v>
+      </c>
+      <c r="X96" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 9054</v>
-      </c>
-      <c r="X96" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 60</v>
       </c>
       <c r="Y96" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>popneed_luxury_food = 3164</v>
       </c>
       <c r="Z96" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 16165</v>
       </c>
       <c r="AA96" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 12116</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 15018</v>
+      </c>
+      <c r="AC96" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 12116</v>
-      </c>
-      <c r="AB96" t="str">
+        <v>popneed_communication = 17330</v>
+      </c>
+      <c r="AD96" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 15018</v>
-      </c>
-      <c r="AC96" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 17330</v>
-      </c>
-      <c r="AD96" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_services = 152648</v>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" ref="AE96:AE100" si="37">CONCATENATE("popneed_finance = ",P96)</f>
-        <v>popneed_finance = 76867827</v>
+        <f t="shared" ref="AE96:AE100" si="35">CONCATENATE("popneed_influence = ",P96)</f>
+        <v>popneed_influence = 76867827</v>
       </c>
       <c r="AF96" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 115290</v>
       </c>
       <c r="AG96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="3:34" x14ac:dyDescent="0.35">
@@ -22671,63 +22671,63 @@
         <v>119040</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U97" s="4">
+        <f t="shared" si="26"/>
+        <v>877.37760000000014</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W97" t="str">
         <f t="shared" si="27"/>
-        <v>877.37760000000014</v>
-      </c>
-      <c r="V97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W97" t="str">
+        <v>popneed_intoxicants = 9246</v>
+      </c>
+      <c r="X97" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 9246</v>
-      </c>
-      <c r="X97" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 60</v>
       </c>
       <c r="Y97" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>popneed_luxury_food = 3231</v>
       </c>
       <c r="Z97" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 16509</v>
       </c>
       <c r="AA97" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 12388</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 15408</v>
+      </c>
+      <c r="AC97" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 12388</v>
-      </c>
-      <c r="AB97" t="str">
+        <v>popneed_communication = 17789</v>
+      </c>
+      <c r="AD97" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 15408</v>
-      </c>
-      <c r="AC97" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 17789</v>
-      </c>
-      <c r="AD97" t="str">
+        <v>popneed_services = 156495</v>
+      </c>
+      <c r="AE97" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_services = 156495</v>
-      </c>
-      <c r="AE97" t="str">
-        <f t="shared" si="37"/>
-        <v>popneed_finance = 89353521</v>
+        <v>popneed_influence = 89353521</v>
       </c>
       <c r="AF97" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 119040</v>
       </c>
       <c r="AG97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="3:34" x14ac:dyDescent="0.35">
@@ -22768,63 +22768,63 @@
         <v>122850</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U98" s="4">
+        <f t="shared" si="26"/>
+        <v>905.16034999999999</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W98" t="str">
         <f t="shared" si="27"/>
-        <v>905.16034999999999</v>
-      </c>
-      <c r="V98" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W98" t="str">
+        <v>popneed_intoxicants = 9439</v>
+      </c>
+      <c r="X98" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 9439</v>
-      </c>
-      <c r="X98" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 60</v>
       </c>
       <c r="Y98" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>popneed_luxury_food = 3299</v>
       </c>
       <c r="Z98" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 16855</v>
       </c>
       <c r="AA98" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 12662</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 15803</v>
+      </c>
+      <c r="AC98" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 12662</v>
-      </c>
-      <c r="AB98" t="str">
+        <v>popneed_communication = 18254</v>
+      </c>
+      <c r="AD98" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 15803</v>
-      </c>
-      <c r="AC98" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 18254</v>
-      </c>
-      <c r="AD98" t="str">
+        <v>popneed_services = 160385</v>
+      </c>
+      <c r="AE98" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_services = 160385</v>
-      </c>
-      <c r="AE98" t="str">
-        <f t="shared" si="37"/>
-        <v>popneed_finance = 103861217</v>
+        <v>popneed_influence = 103861217</v>
       </c>
       <c r="AF98" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 122850</v>
       </c>
       <c r="AG98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="3:34" x14ac:dyDescent="0.35">
@@ -22865,63 +22865,63 @@
         <v>126720</v>
       </c>
       <c r="S99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T99" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="T99" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="U99" s="4">
+        <f t="shared" si="26"/>
+        <v>933.52350000000001</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W99" t="str">
         <f t="shared" si="27"/>
-        <v>933.52350000000001</v>
-      </c>
-      <c r="V99" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W99" t="str">
+        <v>popneed_intoxicants = 9634</v>
+      </c>
+      <c r="X99" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 9634</v>
-      </c>
-      <c r="X99" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 60</v>
       </c>
       <c r="Y99" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>popneed_luxury_food = 3367</v>
       </c>
       <c r="Z99" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 17205</v>
       </c>
       <c r="AA99" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 12940</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 16203</v>
+      </c>
+      <c r="AC99" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 12940</v>
-      </c>
-      <c r="AB99" t="str">
+        <v>popneed_communication = 18725</v>
+      </c>
+      <c r="AD99" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 16203</v>
-      </c>
-      <c r="AC99" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 18725</v>
-      </c>
-      <c r="AD99" t="str">
+        <v>popneed_services = 164319</v>
+      </c>
+      <c r="AE99" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_services = 164319</v>
-      </c>
-      <c r="AE99" t="str">
-        <f t="shared" si="37"/>
-        <v>popneed_finance = 120718157</v>
+        <v>popneed_influence = 120718157</v>
       </c>
       <c r="AF99" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 126720</v>
       </c>
       <c r="AG99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="3:34" x14ac:dyDescent="0.35">
@@ -22962,63 +22962,63 @@
         <v>130650</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U100" s="4">
+        <f t="shared" si="26"/>
+        <v>962.47305000000006</v>
+      </c>
+      <c r="V100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W100" t="str">
         <f t="shared" si="27"/>
-        <v>962.47305000000006</v>
-      </c>
-      <c r="V100" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W100" t="str">
+        <v>popneed_intoxicants = 9831</v>
+      </c>
+      <c r="X100" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_intoxicants = 9831</v>
-      </c>
-      <c r="X100" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_heating = 60</v>
       </c>
       <c r="Y100" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>popneed_luxury_food = 3436</v>
       </c>
       <c r="Z100" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>popneed_luxury_items = 17559</v>
       </c>
       <c r="AA100" t="str">
+        <f t="shared" si="30"/>
+        <v>popneed_health = 13221</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="31"/>
+        <v>popneed_free_movement = 16608</v>
+      </c>
+      <c r="AC100" t="str">
         <f t="shared" si="32"/>
-        <v>popneed_health = 13221</v>
-      </c>
-      <c r="AB100" t="str">
+        <v>popneed_communication = 19202</v>
+      </c>
+      <c r="AD100" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_free_movement = 16608</v>
-      </c>
-      <c r="AC100" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_communication = 19202</v>
-      </c>
-      <c r="AD100" t="str">
+        <v>popneed_services = 168297</v>
+      </c>
+      <c r="AE100" t="str">
         <f t="shared" si="35"/>
-        <v>popneed_services = 168297</v>
-      </c>
-      <c r="AE100" t="str">
-        <f t="shared" si="37"/>
-        <v>popneed_finance = 140304551</v>
+        <v>popneed_influence = 140304551</v>
       </c>
       <c r="AF100" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_art  = 130650</v>
       </c>
       <c r="AG100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -23032,8 +23032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDDD610-E2E9-4695-8E9E-49B0B0E299D5}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36:U100"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -24712,7 +24712,7 @@
         <v>22</v>
       </c>
       <c r="U30" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -25120,10 +25120,10 @@
         <v>710</v>
       </c>
       <c r="U35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V35" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">

--- a/大秦东出pop需求表.xlsx
+++ b/大秦东出pop需求表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czxdc\Documents\Paradox Interactive\Victoria 3\mod\BreakOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD64BA12-1AA0-455D-A131-776540C00158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D16E4E-DA92-465A-BA28-6AC554D85D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,8 +509,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -565,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13594,8 +13595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9393F496-21DF-4D75-944B-D0E992A731B3}">
   <dimension ref="A1:AH100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R19" workbookViewId="0">
-      <selection activeCell="AF36" sqref="AF36"/>
+    <sheetView tabSelected="1" topLeftCell="T76" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:AH100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -13700,8 +13701,8 @@
         <v>132</v>
       </c>
       <c r="U2" s="4">
-        <f>0.001*C2*(C2-0.5)*(C2-0.3)</f>
-        <v>3.5E-4</v>
+        <f>0.001*(D2+P2)</f>
+        <v>1E-3</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>31</v>
@@ -13773,8 +13774,8 @@
         <v>132</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" ref="U3:U66" si="1">0.001*C3*(C3-0.5)*(C3-0.3)</f>
-        <v>5.1000000000000004E-3</v>
+        <f t="shared" ref="U3:U66" si="1">0.001*(D3+P3)</f>
+        <v>2E-3</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>31</v>
@@ -13853,7 +13854,7 @@
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>2.0250000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>31</v>
@@ -13932,7 +13933,7 @@
       </c>
       <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>5.1800000000000006E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>31</v>
@@ -14011,7 +14012,7 @@
       </c>
       <c r="U6" s="4">
         <f t="shared" si="1"/>
-        <v>0.10575</v>
+        <v>1.4E-2</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>31</v>
@@ -14090,7 +14091,7 @@
       </c>
       <c r="U7" s="4">
         <f t="shared" si="1"/>
-        <v>0.18810000000000002</v>
+        <v>1.9E-2</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>31</v>
@@ -14169,7 +14170,7 @@
       </c>
       <c r="U8" s="4">
         <f t="shared" si="1"/>
-        <v>0.30485000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>31</v>
@@ -14248,7 +14249,7 @@
       </c>
       <c r="U9" s="4">
         <f t="shared" si="1"/>
-        <v>0.46199999999999997</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>31</v>
@@ -14330,7 +14331,7 @@
       </c>
       <c r="U10" s="4">
         <f t="shared" si="1"/>
-        <v>0.66555000000000009</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>31</v>
@@ -14414,7 +14415,7 @@
       </c>
       <c r="U11" s="4">
         <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>31</v>
@@ -14502,7 +14503,7 @@
       </c>
       <c r="U12" s="4">
         <f t="shared" si="1"/>
-        <v>1.2358499999999999</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>31</v>
@@ -14590,7 +14591,7 @@
       </c>
       <c r="U13" s="4">
         <f t="shared" si="1"/>
-        <v>1.6146</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>31</v>
@@ -14678,7 +14679,7 @@
       </c>
       <c r="U14" s="4">
         <f t="shared" si="1"/>
-        <v>2.0637499999999998</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>31</v>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="U15" s="4">
         <f t="shared" si="1"/>
-        <v>2.5892999999999997</v>
+        <v>0.105</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>31</v>
@@ -14859,7 +14860,7 @@
       </c>
       <c r="U16" s="4">
         <f t="shared" si="1"/>
-        <v>3.1972499999999999</v>
+        <v>0.124</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>31</v>
@@ -14944,7 +14945,7 @@
       </c>
       <c r="U17" s="4">
         <f t="shared" si="1"/>
-        <v>3.8935999999999997</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>31</v>
@@ -15029,7 +15030,7 @@
       </c>
       <c r="U18" s="4">
         <f t="shared" si="1"/>
-        <v>4.6843500000000002</v>
+        <v>0.17</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>31</v>
@@ -15114,7 +15115,7 @@
       </c>
       <c r="U19" s="4">
         <f t="shared" si="1"/>
-        <v>5.5755000000000008</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>31</v>
@@ -15203,7 +15204,7 @@
       </c>
       <c r="U20" s="4">
         <f t="shared" si="1"/>
-        <v>6.5730499999999994</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>31</v>
@@ -15292,7 +15293,7 @@
       </c>
       <c r="U21" s="4">
         <f t="shared" si="1"/>
-        <v>7.6829999999999998</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>31</v>
@@ -15385,7 +15386,7 @@
       </c>
       <c r="U22" s="4">
         <f t="shared" si="1"/>
-        <v>8.9113500000000005</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>31</v>
@@ -15478,7 +15479,7 @@
       </c>
       <c r="U23" s="4">
         <f t="shared" si="1"/>
-        <v>10.264099999999999</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>31</v>
@@ -15571,7 +15572,7 @@
       </c>
       <c r="U24" s="4">
         <f t="shared" si="1"/>
-        <v>11.747249999999999</v>
+        <v>0.372</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>31</v>
@@ -15670,7 +15671,7 @@
       </c>
       <c r="U25" s="4">
         <f t="shared" si="1"/>
-        <v>13.366800000000001</v>
+        <v>0.41600000000000004</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>31</v>
@@ -15771,7 +15772,7 @@
       </c>
       <c r="U26" s="4">
         <f t="shared" si="1"/>
-        <v>15.12875</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>31</v>
@@ -15868,7 +15869,7 @@
       </c>
       <c r="U27" s="4">
         <f t="shared" si="1"/>
-        <v>17.039100000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>31</v>
@@ -15965,7 +15966,7 @@
       </c>
       <c r="U28" s="4">
         <f t="shared" si="1"/>
-        <v>19.103850000000001</v>
+        <v>0.56700000000000006</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>31</v>
@@ -16062,7 +16063,7 @@
       </c>
       <c r="U29" s="4">
         <f t="shared" si="1"/>
-        <v>21.329000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>31</v>
@@ -16159,7 +16160,7 @@
       </c>
       <c r="U30" s="4">
         <f t="shared" si="1"/>
-        <v>23.720549999999999</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>31</v>
@@ -16256,7 +16257,7 @@
       </c>
       <c r="U31" s="4">
         <f t="shared" si="1"/>
-        <v>26.284500000000001</v>
+        <v>0.874</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>31</v>
@@ -16357,7 +16358,7 @@
       </c>
       <c r="U32" s="4">
         <f t="shared" si="1"/>
-        <v>29.02685</v>
+        <v>1.014</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>31</v>
@@ -16458,7 +16459,7 @@
       </c>
       <c r="U33" s="4">
         <f t="shared" si="1"/>
-        <v>31.953599999999998</v>
+        <v>1.194</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>31</v>
@@ -16559,7 +16560,7 @@
       </c>
       <c r="U34" s="4">
         <f t="shared" si="1"/>
-        <v>35.070750000000004</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>31</v>
@@ -16660,7 +16661,7 @@
       </c>
       <c r="U35" s="4">
         <f t="shared" si="1"/>
-        <v>38.384300000000003</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>31</v>
@@ -16761,7 +16762,7 @@
       </c>
       <c r="U36" s="4">
         <f t="shared" si="1"/>
-        <v>41.900250000000007</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>31</v>
@@ -16858,7 +16859,7 @@
       </c>
       <c r="U37" s="4">
         <f t="shared" si="1"/>
-        <v>45.624600000000015</v>
+        <v>2.3879999999999999</v>
       </c>
       <c r="V37" s="2" t="s">
         <v>31</v>
@@ -16955,7 +16956,7 @@
       </c>
       <c r="U38" s="4">
         <f t="shared" si="1"/>
-        <v>49.563350000000007</v>
+        <v>2.831</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>31</v>
@@ -17052,7 +17053,7 @@
       </c>
       <c r="U39" s="4">
         <f t="shared" si="1"/>
-        <v>53.722500000000004</v>
+        <v>3.3980000000000001</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>31</v>
@@ -17149,7 +17150,7 @@
       </c>
       <c r="U40" s="4">
         <f t="shared" si="1"/>
-        <v>58.108050000000006</v>
+        <v>4.1310000000000002</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>31</v>
@@ -17246,7 +17247,7 @@
       </c>
       <c r="U41" s="4">
         <f t="shared" si="1"/>
-        <v>62.726000000000006</v>
+        <v>5.0840000000000005</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>31</v>
@@ -17343,7 +17344,7 @@
       </c>
       <c r="U42" s="4">
         <f t="shared" si="1"/>
-        <v>67.582350000000005</v>
+        <v>6.3180000000000005</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>31</v>
@@ -17440,7 +17441,7 @@
       </c>
       <c r="U43" s="4">
         <f t="shared" si="1"/>
-        <v>72.68310000000001</v>
+        <v>7.9060000000000006</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>31</v>
@@ -17537,7 +17538,7 @@
       </c>
       <c r="U44" s="4">
         <f t="shared" si="1"/>
-        <v>78.034250000000014</v>
+        <v>9.9350000000000005</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>31</v>
@@ -17634,7 +17635,7 @@
       </c>
       <c r="U45" s="4">
         <f t="shared" si="1"/>
-        <v>83.641800000000003</v>
+        <v>12.5</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>31</v>
@@ -17731,7 +17732,7 @@
       </c>
       <c r="U46" s="4">
         <f t="shared" si="1"/>
-        <v>89.511750000000006</v>
+        <v>15.723000000000001</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>31</v>
@@ -17828,7 +17829,7 @@
       </c>
       <c r="U47" s="4">
         <f t="shared" si="1"/>
-        <v>95.650100000000009</v>
+        <v>19.741</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>31</v>
@@ -17925,7 +17926,7 @@
       </c>
       <c r="U48" s="4">
         <f t="shared" si="1"/>
-        <v>102.06285000000001</v>
+        <v>24.708000000000002</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>31</v>
@@ -18022,7 +18023,7 @@
       </c>
       <c r="U49" s="4">
         <f t="shared" si="1"/>
-        <v>108.75600000000001</v>
+        <v>30.810000000000002</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>31</v>
@@ -18119,7 +18120,7 @@
       </c>
       <c r="U50" s="4">
         <f t="shared" si="1"/>
-        <v>115.73555</v>
+        <v>38.26</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>31</v>
@@ -18216,7 +18217,7 @@
       </c>
       <c r="U51" s="4">
         <f t="shared" si="1"/>
-        <v>123.00750000000001</v>
+        <v>47.306000000000004</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>31</v>
@@ -18313,7 +18314,7 @@
       </c>
       <c r="U52" s="4">
         <f t="shared" si="1"/>
-        <v>130.57785000000001</v>
+        <v>58.234000000000002</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>31</v>
@@ -18410,7 +18411,7 @@
       </c>
       <c r="U53" s="4">
         <f t="shared" si="1"/>
-        <v>138.45260000000002</v>
+        <v>71.381</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>31</v>
@@ -18507,7 +18508,7 @@
       </c>
       <c r="U54" s="4">
         <f t="shared" si="1"/>
-        <v>146.63774999999998</v>
+        <v>87.13</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>31</v>
@@ -18604,7 +18605,7 @@
       </c>
       <c r="U55" s="4">
         <f t="shared" si="1"/>
-        <v>155.13929999999999</v>
+        <v>105.93300000000001</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>31</v>
@@ -18701,7 +18702,7 @@
       </c>
       <c r="U56" s="4">
         <f t="shared" si="1"/>
-        <v>163.96325000000002</v>
+        <v>128.31</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>31</v>
@@ -18798,7 +18799,7 @@
       </c>
       <c r="U57" s="4">
         <f t="shared" si="1"/>
-        <v>173.1156</v>
+        <v>154.86600000000001</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>31</v>
@@ -18895,7 +18896,7 @@
       </c>
       <c r="U58" s="4">
         <f t="shared" si="1"/>
-        <v>182.60235</v>
+        <v>186.3</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>31</v>
@@ -18992,7 +18993,7 @@
       </c>
       <c r="U59" s="4">
         <f t="shared" si="1"/>
-        <v>192.42950000000002</v>
+        <v>223.43</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>31</v>
@@ -19089,7 +19090,7 @@
       </c>
       <c r="U60" s="4">
         <f t="shared" si="1"/>
-        <v>202.60305000000002</v>
+        <v>267.19799999999998</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>31</v>
@@ -19186,7 +19187,7 @@
       </c>
       <c r="U61" s="4">
         <f t="shared" si="1"/>
-        <v>213.12899999999999</v>
+        <v>318.702</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>31</v>
@@ -19283,7 +19284,7 @@
       </c>
       <c r="U62" s="4">
         <f t="shared" si="1"/>
-        <v>224.01335000000003</v>
+        <v>379.22</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>31</v>
@@ -19380,7 +19381,7 @@
       </c>
       <c r="U63" s="4">
         <f t="shared" si="1"/>
-        <v>235.26210000000003</v>
+        <v>450.226</v>
       </c>
       <c r="V63" s="2" t="s">
         <v>31</v>
@@ -19477,7 +19478,7 @@
       </c>
       <c r="U64" s="4">
         <f t="shared" si="1"/>
-        <v>246.88125000000002</v>
+        <v>533.44500000000005</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>31</v>
@@ -19574,7 +19575,7 @@
       </c>
       <c r="U65" s="4">
         <f t="shared" si="1"/>
-        <v>258.8768</v>
+        <v>630.86900000000003</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>31</v>
@@ -19671,7 +19672,7 @@
       </c>
       <c r="U66" s="4">
         <f t="shared" si="1"/>
-        <v>271.25475</v>
+        <v>744.82</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>31</v>
@@ -19767,8 +19768,8 @@
         <v>132</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" ref="U67:U100" si="26">0.001*C67*(C67-0.5)*(C67-0.3)</f>
-        <v>284.02110000000005</v>
+        <f t="shared" ref="U67:U100" si="26">0.001*(D67+P67)</f>
+        <v>877.99099999999999</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>31</v>
@@ -19865,7 +19866,7 @@
       </c>
       <c r="U68" s="4">
         <f t="shared" si="26"/>
-        <v>297.18185000000005</v>
+        <v>1033.5129999999999</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>31</v>
@@ -19962,7 +19963,7 @@
       </c>
       <c r="U69" s="4">
         <f t="shared" si="26"/>
-        <v>310.74300000000005</v>
+        <v>1215.02</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>31</v>
@@ -20059,7 +20060,7 @@
       </c>
       <c r="U70" s="4">
         <f t="shared" si="26"/>
-        <v>324.71055000000007</v>
+        <v>1426.7360000000001</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>31</v>
@@ -20156,7 +20157,7 @@
       </c>
       <c r="U71" s="4">
         <f t="shared" si="26"/>
-        <v>339.09050000000002</v>
+        <v>1673.57</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>31</v>
@@ -20253,7 +20254,7 @@
       </c>
       <c r="U72" s="4">
         <f t="shared" si="26"/>
-        <v>353.88885000000005</v>
+        <v>1961.223</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>31</v>
@@ -20350,7 +20351,7 @@
       </c>
       <c r="U73" s="4">
         <f t="shared" si="26"/>
-        <v>369.11160000000007</v>
+        <v>2296.319</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>31</v>
@@ -20447,7 +20448,7 @@
       </c>
       <c r="U74" s="4">
         <f t="shared" si="26"/>
-        <v>384.76474999999999</v>
+        <v>2686.5549999999998</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>31</v>
@@ -20544,7 +20545,7 @@
       </c>
       <c r="U75" s="4">
         <f t="shared" si="26"/>
-        <v>400.85430000000002</v>
+        <v>3140.8690000000001</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>31</v>
@@ -20641,7 +20642,7 @@
       </c>
       <c r="U76" s="4">
         <f t="shared" si="26"/>
-        <v>417.38624999999996</v>
+        <v>3669.6530000000002</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>31</v>
@@ -20738,7 +20739,7 @@
       </c>
       <c r="U77" s="4">
         <f t="shared" si="26"/>
-        <v>434.36660000000001</v>
+        <v>4284.9769999999999</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>31</v>
@@ -20835,7 +20836,7 @@
       </c>
       <c r="U78" s="4">
         <f t="shared" si="26"/>
-        <v>451.80135000000001</v>
+        <v>5000.8609999999999</v>
       </c>
       <c r="V78" s="2" t="s">
         <v>31</v>
@@ -20932,7 +20933,7 @@
       </c>
       <c r="U79" s="4">
         <f t="shared" si="26"/>
-        <v>469.69650000000001</v>
+        <v>5833.6</v>
       </c>
       <c r="V79" s="2" t="s">
         <v>31</v>
@@ -21029,7 +21030,7 @@
       </c>
       <c r="U80" s="4">
         <f t="shared" si="26"/>
-        <v>488.05805000000004</v>
+        <v>6802.1230000000005</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>31</v>
@@ -21126,7 +21127,7 @@
       </c>
       <c r="U81" s="4">
         <f t="shared" si="26"/>
-        <v>506.89200000000005</v>
+        <v>7928.4170000000004</v>
       </c>
       <c r="V81" s="2" t="s">
         <v>31</v>
@@ -21223,7 +21224,7 @@
       </c>
       <c r="U82" s="4">
         <f t="shared" si="26"/>
-        <v>526.20434999999998</v>
+        <v>9238.0419999999995</v>
       </c>
       <c r="V82" s="2" t="s">
         <v>31</v>
@@ -21320,7 +21321,7 @@
       </c>
       <c r="U83" s="4">
         <f t="shared" si="26"/>
-        <v>546.00110000000006</v>
+        <v>10760.679</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>31</v>
@@ -21417,7 +21418,7 @@
       </c>
       <c r="U84" s="4">
         <f t="shared" si="26"/>
-        <v>566.28825000000006</v>
+        <v>12530.821</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>31</v>
@@ -21514,7 +21515,7 @@
       </c>
       <c r="U85" s="4">
         <f t="shared" si="26"/>
-        <v>587.07180000000005</v>
+        <v>14588.541000000001</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>31</v>
@@ -21611,7 +21612,7 @@
       </c>
       <c r="U86" s="4">
         <f t="shared" si="26"/>
-        <v>608.35775000000001</v>
+        <v>16980.398000000001</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>31</v>
@@ -21708,7 +21709,7 @@
       </c>
       <c r="U87" s="4">
         <f t="shared" si="26"/>
-        <v>630.15210000000013</v>
+        <v>19760.486000000001</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>31</v>
@@ -21805,7 +21806,7 @@
       </c>
       <c r="U88" s="4">
         <f t="shared" si="26"/>
-        <v>652.46085000000005</v>
+        <v>22991.652000000002</v>
       </c>
       <c r="V88" s="2" t="s">
         <v>31</v>
@@ -21902,7 +21903,7 @@
       </c>
       <c r="U89" s="4">
         <f t="shared" si="26"/>
-        <v>675.29</v>
+        <v>26746.913</v>
       </c>
       <c r="V89" s="2" t="s">
         <v>31</v>
@@ -21999,7 +22000,7 @@
       </c>
       <c r="U90" s="4">
         <f t="shared" si="26"/>
-        <v>698.64555000000007</v>
+        <v>31111.108</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>31</v>
@@ -22096,7 +22097,7 @@
       </c>
       <c r="U91" s="4">
         <f t="shared" si="26"/>
-        <v>722.5335</v>
+        <v>36182.798999999999</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>31</v>
@@ -22193,7 +22194,7 @@
       </c>
       <c r="U92" s="4">
         <f t="shared" si="26"/>
-        <v>746.95985000000007</v>
+        <v>42076.502</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>31</v>
@@ -22290,7 +22291,7 @@
       </c>
       <c r="U93" s="4">
         <f t="shared" si="26"/>
-        <v>771.93059999999991</v>
+        <v>48925.268000000004</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>31</v>
@@ -22387,7 +22388,7 @@
       </c>
       <c r="U94" s="4">
         <f t="shared" si="26"/>
-        <v>797.45174999999995</v>
+        <v>56883.678</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>31</v>
@@ -22484,7 +22485,7 @@
       </c>
       <c r="U95" s="4">
         <f t="shared" si="26"/>
-        <v>823.52930000000003</v>
+        <v>66131.328000000009</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>31</v>
@@ -22581,7 +22582,7 @@
       </c>
       <c r="U96" s="4">
         <f t="shared" si="26"/>
-        <v>850.16925000000015</v>
+        <v>76876.881000000008</v>
       </c>
       <c r="V96" s="2" t="s">
         <v>31</v>
@@ -22678,7 +22679,7 @@
       </c>
       <c r="U97" s="4">
         <f t="shared" si="26"/>
-        <v>877.37760000000014</v>
+        <v>89362.767000000007</v>
       </c>
       <c r="V97" s="2" t="s">
         <v>31</v>
@@ -22775,7 +22776,7 @@
       </c>
       <c r="U98" s="4">
         <f t="shared" si="26"/>
-        <v>905.16034999999999</v>
+        <v>103870.656</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>31</v>
@@ -22872,7 +22873,7 @@
       </c>
       <c r="U99" s="4">
         <f t="shared" si="26"/>
-        <v>933.52350000000001</v>
+        <v>120727.791</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>31</v>
@@ -22969,7 +22970,7 @@
       </c>
       <c r="U100" s="4">
         <f t="shared" si="26"/>
-        <v>962.47305000000006</v>
+        <v>140314.38200000001</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>31</v>

--- a/大秦东出pop需求表.xlsx
+++ b/大秦东出pop需求表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czxdc\Documents\Paradox Interactive\Victoria 3\mod\BreakOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D16E4E-DA92-465A-BA28-6AC554D85D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F9F22-E3A9-4C5F-B1AA-9682A41AB716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -7169,13 +7168,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>690585</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>150089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>527299</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>45686</xdr:rowOff>
@@ -7205,13 +7204,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>41233</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>137558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>638133</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>22267</xdr:rowOff>
@@ -7243,13 +7242,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>196273</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>100611</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>95662</xdr:rowOff>
@@ -7281,13 +7280,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>569686</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>66915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>510987</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>88687</xdr:rowOff>
@@ -7581,18 +7580,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41FBF3E-2BE0-4861-8DB7-6730FE45AA44}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:L100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="13" max="13" width="11.640625" customWidth="1"/>
+    <col min="16" max="16" width="11.2109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7688,8 +7688,16 @@
         <f>N2*52</f>
         <v>3.6400000000000002E-2</v>
       </c>
+      <c r="P2">
+        <f>M2*0.0001+0.001*K2</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="Q2">
+        <f>(M2*0.1+K2)/M2</f>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7738,8 +7746,16 @@
         <f t="shared" ref="O3:O66" si="2">N3*52</f>
         <v>8.320000000000001E-2</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="3">M3*0.0001+0.001*K3</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="4">(M3*0.1+K3)/M3</f>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7788,8 +7804,16 @@
         <f t="shared" si="2"/>
         <v>0.1404</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7838,8 +7862,16 @@
         <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7888,8 +7920,16 @@
         <f t="shared" si="2"/>
         <v>0.28079999999999999</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7938,8 +7978,16 @@
         <f t="shared" si="2"/>
         <v>0.36920000000000003</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7988,8 +8036,16 @@
         <f t="shared" si="2"/>
         <v>0.47320000000000001</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8038,8 +8094,16 @@
         <f t="shared" si="2"/>
         <v>0.59799999999999998</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8088,8 +8152,16 @@
         <f t="shared" si="2"/>
         <v>0.73319999999999996</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>1.4100000000000001E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8138,8 +8210,16 @@
         <f t="shared" si="2"/>
         <v>0.89959999999999996</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8188,8 +8268,16 @@
         <f t="shared" si="2"/>
         <v>1.0868</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>2.0900000000000002E-2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8238,8 +8326,16 @@
         <f t="shared" si="2"/>
         <v>1.3052000000000001</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8288,8 +8384,16 @@
         <f t="shared" si="2"/>
         <v>1.56</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8338,8 +8442,16 @@
         <f t="shared" si="2"/>
         <v>1.8564000000000001</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8388,8 +8500,16 @@
         <f t="shared" si="2"/>
         <v>2.1995999999999998</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>4.2300000000000004E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8438,8 +8558,16 @@
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8488,8 +8616,16 @@
         <f t="shared" si="2"/>
         <v>3.0628000000000002</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8538,8 +8674,16 @@
         <f t="shared" si="2"/>
         <v>3.5983999999999998</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8588,8 +8732,16 @@
         <f t="shared" si="2"/>
         <v>4.2275999999999998</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8638,8 +8790,16 @@
         <f t="shared" si="2"/>
         <v>4.9555999999999996</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>9.530000000000001E-2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8688,12 +8848,20 @@
         <f t="shared" si="2"/>
         <v>5.798</v>
       </c>
-      <c r="Z22">
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>0.1115</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA22">
         <f>M18/M17</f>
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8742,8 +8910,16 @@
         <f t="shared" si="2"/>
         <v>6.7807999999999993</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0.13040000000000002</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8792,8 +8968,16 @@
         <f t="shared" si="2"/>
         <v>7.9248000000000003</v>
       </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8842,8 +9026,16 @@
         <f t="shared" si="2"/>
         <v>9.2456000000000014</v>
       </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8892,8 +9084,16 @@
         <f t="shared" si="2"/>
         <v>10.79</v>
       </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8942,8 +9142,16 @@
         <f t="shared" si="2"/>
         <v>12.578800000000001</v>
       </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>0.2419</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8992,8 +9200,16 @@
         <f t="shared" si="2"/>
         <v>14.653599999999999</v>
       </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9042,8 +9258,16 @@
         <f t="shared" si="2"/>
         <v>17.0716</v>
       </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>0.32830000000000004</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9092,8 +9316,16 @@
         <f t="shared" si="2"/>
         <v>19.874399999999998</v>
       </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>0.38220000000000004</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9142,8 +9374,16 @@
         <f t="shared" si="2"/>
         <v>23.134800000000002</v>
       </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>0.57390000000000008</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>0.12899527983816589</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9192,8 +9432,16 @@
         <f t="shared" si="2"/>
         <v>26.925600000000003</v>
       </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>0.72280000000000011</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>0.13959057551178061</v>
+      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9242,8 +9490,16 @@
         <f t="shared" si="2"/>
         <v>31.324800000000003</v>
       </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>0.9194</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>0.15262284196547143</v>
+      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9292,8 +9548,16 @@
         <f t="shared" si="2"/>
         <v>36.436399999999999</v>
       </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>1.1806999999999999</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>0.16850292564578279</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9342,8 +9606,16 @@
         <f t="shared" si="2"/>
         <v>42.379999999999995</v>
       </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>0.18711656441717792</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9392,8 +9664,16 @@
         <f t="shared" si="2"/>
         <v>49.2804</v>
       </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>1.8847</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>0.19887095072280259</v>
+      </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9442,8 +9722,16 @@
         <f t="shared" si="2"/>
         <v>57.298800000000007</v>
       </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>2.3189000000000002</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>0.21044559397404483</v>
+      </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9492,8 +9780,16 @@
         <f t="shared" si="2"/>
         <v>66.611999999999995</v>
       </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>0.22341920374707261</v>
+      </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9542,8 +9838,16 @@
         <f t="shared" si="2"/>
         <v>77.438400000000001</v>
       </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>3.5562000000000005</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>0.23879935535858177</v>
+      </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9592,8 +9896,16 @@
         <f t="shared" si="2"/>
         <v>90.012</v>
       </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>4.4470000000000001</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>0.25690352397458116</v>
+      </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9642,8 +9954,16 @@
         <f t="shared" si="2"/>
         <v>104.624</v>
       </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>5.5960000000000001</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>0.27813121272365804</v>
+      </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9692,8 +10012,16 @@
         <f t="shared" si="2"/>
         <v>121.5968</v>
       </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>7.0684000000000005</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>0.30227505986999659</v>
+      </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9742,8 +10070,16 @@
         <f t="shared" si="2"/>
         <v>141.32039999999998</v>
       </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>8.9466999999999999</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>0.32920116274791189</v>
+      </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9792,8 +10128,16 @@
         <f t="shared" si="2"/>
         <v>164.23679999999999</v>
       </c>
+      <c r="P44">
+        <f t="shared" si="3"/>
+        <v>11.324400000000001</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>0.35854863221884498</v>
+      </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9842,8 +10186,16 @@
         <f t="shared" si="2"/>
         <v>190.85560000000001</v>
       </c>
+      <c r="P45">
+        <f t="shared" si="3"/>
+        <v>14.308299999999999</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>0.38984006756940848</v>
+      </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9892,8 +10244,16 @@
         <f t="shared" si="2"/>
         <v>221.78520000000003</v>
       </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>18.031100000000002</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>0.42275913812102878</v>
+      </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9942,8 +10302,16 @@
         <f t="shared" si="2"/>
         <v>257.72239999999999</v>
       </c>
+      <c r="P47">
+        <f t="shared" si="3"/>
+        <v>22.6432</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>0.4568661474516767</v>
+      </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9992,8 +10360,16 @@
         <f t="shared" si="2"/>
         <v>299.47320000000002</v>
       </c>
+      <c r="P48">
+        <f t="shared" si="3"/>
+        <v>28.3141</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>0.4916410550259589</v>
+      </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10042,8 +10418,16 @@
         <f t="shared" si="2"/>
         <v>347.98400000000004</v>
       </c>
+      <c r="P49">
+        <f t="shared" si="3"/>
+        <v>35.248000000000005</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>0.52671846981470416</v>
+      </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10092,8 +10476,16 @@
         <f t="shared" si="2"/>
         <v>404.34160000000003</v>
       </c>
+      <c r="P50">
+        <f t="shared" si="3"/>
+        <v>43.6798</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>0.56174027109750768</v>
+      </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10142,8 +10534,16 @@
         <f t="shared" si="2"/>
         <v>469.8252</v>
       </c>
+      <c r="P51">
+        <f t="shared" si="3"/>
+        <v>53.881100000000004</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>0.59635311175305195</v>
+      </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10192,8 +10592,16 @@
         <f t="shared" si="2"/>
         <v>545.90120000000002</v>
       </c>
+      <c r="P52">
+        <f t="shared" si="3"/>
+        <v>66.1661</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>0.63026738171669161</v>
+      </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10242,8 +10650,16 @@
         <f t="shared" si="2"/>
         <v>634.29079999999999</v>
       </c>
+      <c r="P53">
+        <f t="shared" si="3"/>
+        <v>80.905900000000003</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>0.66327728543437803</v>
+      </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10292,8 +10708,16 @@
         <f t="shared" si="2"/>
         <v>736.98040000000003</v>
       </c>
+      <c r="P54">
+        <f t="shared" si="3"/>
+        <v>98.519700000000014</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>0.69513712983411768</v>
+      </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10342,8 +10766,16 @@
         <f t="shared" si="2"/>
         <v>856.29439999999988</v>
       </c>
+      <c r="P55">
+        <f t="shared" si="3"/>
+        <v>119.50620000000001</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>0.7257226486591527</v>
+      </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10392,8 +10824,16 @@
         <f t="shared" si="2"/>
         <v>994.91599999999994</v>
       </c>
+      <c r="P56">
+        <f t="shared" si="3"/>
+        <v>144.43600000000001</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>0.75490513772016932</v>
+      </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10442,8 +10882,16 @@
         <f t="shared" si="2"/>
         <v>1155.9703999999999</v>
       </c>
+      <c r="P57">
+        <f t="shared" si="3"/>
+        <v>173.9742</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>0.78260294554255028</v>
+      </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10492,8 +10940,16 @@
         <f t="shared" si="2"/>
         <v>1343.0872000000002</v>
       </c>
+      <c r="P58">
+        <f t="shared" si="3"/>
+        <v>208.89060000000001</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>0.80875695933964675</v>
+      </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10542,8 +10998,16 @@
         <f t="shared" si="2"/>
         <v>1560.4888000000001</v>
       </c>
+      <c r="P59">
+        <f t="shared" si="3"/>
+        <v>250.08340000000001</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="4"/>
+        <v>0.83335021693202793</v>
+      </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10592,8 +11056,16 @@
         <f t="shared" si="2"/>
         <v>1813.0735999999999</v>
       </c>
+      <c r="P60">
+        <f t="shared" si="3"/>
+        <v>298.58879999999999</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="4"/>
+        <v>0.85636995652024273</v>
+      </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10642,8 +11114,16 @@
         <f t="shared" si="2"/>
         <v>2106.5356000000002</v>
       </c>
+      <c r="P61">
+        <f t="shared" si="3"/>
+        <v>355.61429999999996</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="4"/>
+        <v>0.8778367476913278</v>
+      </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10692,8 +11172,16 @@
         <f t="shared" si="2"/>
         <v>2447.4892</v>
       </c>
+      <c r="P62">
+        <f t="shared" si="3"/>
+        <v>422.56509999999997</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="4"/>
+        <v>0.89779293816699979</v>
+      </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10742,8 +11230,16 @@
         <f t="shared" si="2"/>
         <v>2843.6147999999998</v>
       </c>
+      <c r="P63">
+        <f t="shared" si="3"/>
+        <v>501.06390000000005</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="4"/>
+        <v>0.91627469374543979</v>
+      </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10792,8 +11288,16 @@
         <f t="shared" si="2"/>
         <v>3303.8564000000001</v>
       </c>
+      <c r="P64">
+        <f t="shared" si="3"/>
+        <v>593.00670000000002</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="4"/>
+        <v>0.9333440884416162</v>
+      </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10842,8 +11346,16 @@
         <f t="shared" si="2"/>
         <v>3838.5775999999996</v>
       </c>
+      <c r="P65">
+        <f t="shared" si="3"/>
+        <v>700.58479999999997</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="4"/>
+        <v>0.94906013102353337</v>
+      </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10892,8 +11404,16 @@
         <f t="shared" si="2"/>
         <v>4459.8320000000003</v>
       </c>
+      <c r="P66">
+        <f t="shared" si="3"/>
+        <v>826.35199999999998</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="4"/>
+        <v>0.96349602406548052</v>
+      </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10931,19 +11451,27 @@
         <v>32640</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" ref="M67:M100" si="3">SUM(B67:L67)</f>
+        <f t="shared" ref="M67:M100" si="5">SUM(B67:L67)</f>
         <v>996467</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N100" si="4">M67/10000</f>
+        <f t="shared" ref="N67:N100" si="6">M67/10000</f>
         <v>99.646699999999996</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O100" si="5">N67*52</f>
+        <f t="shared" ref="O67:O100" si="7">N67*52</f>
         <v>5181.6283999999996</v>
       </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P100" si="8">M67*0.0001+0.001*K67</f>
+        <v>973.27070000000003</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q100" si="9">(M67*0.1+K67)/M67</f>
+        <v>0.97672145690725332</v>
+      </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10981,19 +11509,27 @@
         <v>34650</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1157738</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>115.77379999999999</v>
       </c>
       <c r="O68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6020.2375999999995</v>
       </c>
+      <c r="P68">
+        <f t="shared" si="8"/>
+        <v>1144.7847999999999</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="9"/>
+        <v>0.98881163095622671</v>
+      </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11031,19 +11567,27 @@
         <v>36720</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1345108</v>
       </c>
       <c r="N69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>134.51079999999999</v>
       </c>
       <c r="O69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6994.5615999999991</v>
       </c>
+      <c r="P69">
+        <f t="shared" si="8"/>
+        <v>1344.8928000000001</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="9"/>
+        <v>0.99984001284655211</v>
+      </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11081,19 +11625,27 @@
         <v>38850</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1562801</v>
       </c>
       <c r="N70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>156.2801</v>
       </c>
       <c r="O70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8126.5652</v>
       </c>
+      <c r="P70">
+        <f t="shared" si="8"/>
+        <v>1578.2391</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="9"/>
+        <v>1.0098784810094183</v>
+      </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11131,19 +11683,27 @@
         <v>41040</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1815724</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>181.57239999999999</v>
       </c>
       <c r="O71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9441.764799999999</v>
       </c>
+      <c r="P71">
+        <f t="shared" si="8"/>
+        <v>1850.2254</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="9"/>
+        <v>1.0190014561684484</v>
+      </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11181,19 +11741,27 @@
         <v>43290</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2109578</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>210.95779999999999</v>
       </c>
       <c r="O72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10969.8056</v>
       </c>
+      <c r="P72">
+        <f t="shared" si="8"/>
+        <v>2167.1217999999999</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="9"/>
+        <v>1.0272773986076835</v>
+      </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11231,19 +11799,27 @@
         <v>45600</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2450989</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>245.09889999999999</v>
       </c>
       <c r="O73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12745.1428</v>
       </c>
+      <c r="P73">
+        <f t="shared" si="8"/>
+        <v>2536.2148999999999</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="9"/>
+        <v>1.0347720450805777</v>
+      </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11281,19 +11857,27 @@
         <v>47970</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2847651</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>284.76510000000002</v>
       </c>
       <c r="O74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14807.7852</v>
       </c>
+      <c r="P74">
+        <f t="shared" si="8"/>
+        <v>2965.9711000000002</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="9"/>
+        <v>1.041550070566934</v>
+      </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11331,19 +11915,27 @@
         <v>50400</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3308507</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>330.85070000000002</v>
       </c>
       <c r="O75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17204.236400000002</v>
       </c>
+      <c r="P75">
+        <f t="shared" si="8"/>
+        <v>3466.2226999999998</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="9"/>
+        <v>1.047669749527506</v>
+      </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11381,19 +11973,27 @@
         <v>52890</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3843944</v>
       </c>
       <c r="N76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>384.39440000000002</v>
       </c>
       <c r="O76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19988.5088</v>
       </c>
+      <c r="P76">
+        <f t="shared" si="8"/>
+        <v>4048.4004</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="9"/>
+        <v>1.0531892244007717</v>
+      </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11431,19 +12031,27 @@
         <v>55440</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4466035</v>
       </c>
       <c r="N77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>446.6035</v>
       </c>
       <c r="O77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23223.382000000001</v>
       </c>
+      <c r="P77">
+        <f t="shared" si="8"/>
+        <v>4725.7815000000001</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="9"/>
+        <v>1.0581604264185123</v>
+      </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -11481,19 +12089,27 @@
         <v>58050</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5188800</v>
       </c>
       <c r="N78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>518.88</v>
       </c>
       <c r="O78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26981.759999999998</v>
       </c>
+      <c r="P78">
+        <f t="shared" si="8"/>
+        <v>5513.7880000000005</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="9"/>
+        <v>1.0626325932778291</v>
+      </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -11531,19 +12147,27 @@
         <v>60720</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6028534</v>
       </c>
       <c r="N79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>602.85339999999997</v>
       </c>
       <c r="O79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>31348.376799999998</v>
       </c>
+      <c r="P79">
+        <f t="shared" si="8"/>
+        <v>6430.3454000000002</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="9"/>
+        <v>1.0666515939032608</v>
+      </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -11581,19 +12205,27 @@
         <v>63450</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7004166</v>
       </c>
       <c r="N80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>700.41660000000002</v>
       </c>
       <c r="O80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36421.663200000003</v>
       </c>
+      <c r="P80">
+        <f t="shared" si="8"/>
+        <v>7496.2736000000004</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="9"/>
+        <v>1.0702592714107575</v>
+      </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -11631,19 +12263,27 @@
         <v>66240</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8137688</v>
       </c>
       <c r="N81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>813.76880000000006</v>
       </c>
       <c r="O81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42315.977600000006</v>
       </c>
+      <c r="P81">
+        <f t="shared" si="8"/>
+        <v>8735.7608</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="9"/>
+        <v>1.0734941914705995</v>
+      </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -11681,19 +12321,27 @@
         <v>69090</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9454653</v>
       </c>
       <c r="N82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>945.46529999999996</v>
       </c>
       <c r="O82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49164.195599999999</v>
       </c>
+      <c r="P82">
+        <f t="shared" si="8"/>
+        <v>10176.9203</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="9"/>
+        <v>1.0763927877628086</v>
+      </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -11731,19 +12379,27 @@
         <v>72000</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10984748</v>
       </c>
       <c r="N83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1098.4748</v>
       </c>
       <c r="O83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>57120.689599999998</v>
       </c>
+      <c r="P83">
+        <f t="shared" si="8"/>
+        <v>11852.4038</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="9"/>
+        <v>1.0789873195088318</v>
+      </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -11781,19 +12437,27 @@
         <v>74970</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12762465</v>
       </c>
       <c r="N84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1276.2465</v>
       </c>
       <c r="O84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>66364.817999999999</v>
       </c>
+      <c r="P84">
+        <f t="shared" si="8"/>
+        <v>13800.1515</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="9"/>
+        <v>1.081307686250266</v>
+      </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -11831,19 +12495,27 @@
         <v>78000</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14827877</v>
       </c>
       <c r="N85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1482.7877000000001</v>
       </c>
       <c r="O85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>77104.960400000011</v>
       </c>
+      <c r="P85">
+        <f t="shared" si="8"/>
+        <v>16064.245700000001</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="9"/>
+        <v>1.0833813701044324</v>
+      </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -11881,19 +12553,27 @@
         <v>81090</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17227543</v>
       </c>
       <c r="N86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1722.7543000000001</v>
       </c>
       <c r="O86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>89583.223599999998</v>
       </c>
+      <c r="P86">
+        <f t="shared" si="8"/>
+        <v>18695.900300000001</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="9"/>
+        <v>1.0852331234930019</v>
+      </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -11931,19 +12611,27 @@
         <v>84240</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20015558</v>
       </c>
       <c r="N87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2001.5558000000001</v>
       </c>
       <c r="O87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>104080.90160000001</v>
       </c>
+      <c r="P87">
+        <f t="shared" si="8"/>
+        <v>21754.6178</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="9"/>
+        <v>1.0868854018459042</v>
+      </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -11981,19 +12669,27 @@
         <v>87450</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23254769</v>
       </c>
       <c r="N88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2325.4769000000001</v>
       </c>
       <c r="O88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>120924.7988</v>
       </c>
+      <c r="P88">
+        <f t="shared" si="8"/>
+        <v>25309.531900000002</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="9"/>
+        <v>1.0883587749248336</v>
+      </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12031,19 +12727,27 @@
         <v>90720</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27018195</v>
       </c>
       <c r="N89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2701.8195000000001</v>
       </c>
       <c r="O89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>140494.614</v>
       </c>
+      <c r="P89">
+        <f t="shared" si="8"/>
+        <v>29440.960500000001</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="9"/>
+        <v>1.0896716268425777</v>
+      </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12081,19 +12785,27 @@
         <v>94050</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31390673</v>
       </c>
       <c r="N90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3139.0673000000002</v>
       </c>
       <c r="O90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>163231.49960000001</v>
       </c>
+      <c r="P90">
+        <f t="shared" si="8"/>
+        <v>34242.226300000002</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="9"/>
+        <v>1.090840782547096</v>
+      </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12131,19 +12843,27 @@
         <v>97440</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36470767</v>
       </c>
       <c r="N91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3647.0767000000001</v>
       </c>
       <c r="O91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>189647.9884</v>
       </c>
+      <c r="P91">
+        <f t="shared" si="8"/>
+        <v>39821.746699999996</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="9"/>
+        <v>1.0918812510852871</v>
+      </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12181,19 +12901,27 @@
         <v>100890</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42372994</v>
       </c>
       <c r="N92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4237.2993999999999</v>
       </c>
       <c r="O92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>220339.56880000001</v>
       </c>
+      <c r="P92">
+        <f t="shared" si="8"/>
+        <v>46305.491399999999</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="9"/>
+        <v>1.0928066919226902</v>
+      </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12231,19 +12959,27 @@
         <v>104400</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49230404</v>
       </c>
       <c r="N93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4923.0403999999999</v>
       </c>
       <c r="O93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>255998.10079999999</v>
       </c>
+      <c r="P93">
+        <f t="shared" si="8"/>
+        <v>53839.815399999999</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="9"/>
+        <v>1.0936293636753418</v>
+      </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12281,19 +13017,27 @@
         <v>107970</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57197578</v>
       </c>
       <c r="N94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5719.7578000000003</v>
       </c>
       <c r="O94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>297427.4056</v>
       </c>
+      <c r="P94">
+        <f t="shared" si="8"/>
+        <v>62594.757799999999</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="9"/>
+        <v>1.0943602856750332</v>
+      </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12331,19 +13075,27 @@
         <v>111600</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66454113</v>
       </c>
       <c r="N95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6645.4112999999998</v>
       </c>
       <c r="O95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>345561.38760000002</v>
       </c>
+      <c r="P95">
+        <f t="shared" si="8"/>
+        <v>72767.87430000001</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="9"/>
+        <v>1.0950093382481834</v>
+      </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12381,19 +13133,27 @@
         <v>115290</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>77208672</v>
       </c>
       <c r="N96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7720.8671999999997</v>
       </c>
       <c r="O96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>401485.0944</v>
       </c>
+      <c r="P96">
+        <f t="shared" si="8"/>
+        <v>84588.694199999998</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="9"/>
+        <v>1.0955854052249467</v>
+      </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12431,19 +13191,27 @@
         <v>119040</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89703687</v>
       </c>
       <c r="N97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8970.3687000000009</v>
       </c>
       <c r="O97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>466459.17240000004</v>
       </c>
+      <c r="P97">
+        <f t="shared" si="8"/>
+        <v>98323.889700000014</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="9"/>
+        <v>1.0960964146323218</v>
+      </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12481,19 +13249,27 @@
         <v>122850</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>104220824</v>
       </c>
       <c r="N98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10422.082399999999</v>
       </c>
       <c r="O98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>541948.28480000002</v>
       </c>
+      <c r="P98">
+        <f t="shared" si="8"/>
+        <v>114283.2994</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="9"/>
+        <v>1.0965495667161489</v>
+      </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12531,19 +13307,27 @@
         <v>126720</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>121087330</v>
       </c>
       <c r="N99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12108.733</v>
       </c>
       <c r="O99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>629654.11600000004</v>
       </c>
+      <c r="P99">
+        <f t="shared" si="8"/>
+        <v>132826.89000000001</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="9"/>
+        <v>1.0969511839099928</v>
+      </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12581,16 +13365,24 @@
         <v>130650</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140683415</v>
       </c>
       <c r="N100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14068.3415</v>
       </c>
       <c r="O100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>731553.75800000003</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="8"/>
+        <v>154372.89250000002</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="9"/>
+        <v>1.0973069746707527</v>
       </c>
     </row>
   </sheetData>
@@ -13595,7 +14387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9393F496-21DF-4D75-944B-D0E992A731B3}">
   <dimension ref="A1:AH100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S76" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:AH100"/>
     </sheetView>
   </sheetViews>
@@ -13701,8 +14493,7 @@
         <v>132</v>
       </c>
       <c r="U2" s="4">
-        <f>0.001*(D2+P2)</f>
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>31</v>
@@ -13774,18 +14565,17 @@
         <v>132</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" ref="U3:U66" si="1">0.001*(D3+P3)</f>
-        <v>2E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W66" si="2">CONCATENATE("popneed_intoxicants = ",D3)</f>
+        <f t="shared" ref="W3:W66" si="1">CONCATENATE("popneed_intoxicants = ",D3)</f>
         <v>popneed_intoxicants = 2</v>
       </c>
       <c r="X3" t="str">
-        <f t="shared" ref="X3:X66" si="3">CONCATENATE("popneed_heating = ",E3)</f>
+        <f t="shared" ref="X3:X66" si="2">CONCATENATE("popneed_heating = ",E3)</f>
         <v>popneed_heating = 7</v>
       </c>
       <c r="Y3" t="str">
@@ -13853,18 +14643,17 @@
         <v>132</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W4" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 6</v>
+      </c>
+      <c r="X4" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 6</v>
-      </c>
-      <c r="X4" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 11</v>
       </c>
       <c r="Y4" t="str">
@@ -13932,18 +14721,17 @@
         <v>132</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W5" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 12</v>
+      </c>
+      <c r="X5" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 12</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 14</v>
       </c>
       <c r="Y5" t="str">
@@ -14011,18 +14799,17 @@
         <v>132</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W6" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 14</v>
+      </c>
+      <c r="X6" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 14</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 17</v>
       </c>
       <c r="Y6" t="str">
@@ -14090,18 +14877,17 @@
         <v>132</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.9E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W7" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 19</v>
+      </c>
+      <c r="X7" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 19</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 19</v>
       </c>
       <c r="Y7" t="str">
@@ -14109,7 +14895,7 @@
         <v>popneed_basic_food = 15</v>
       </c>
       <c r="Z7" t="str">
-        <f t="shared" ref="Z7:Z10" si="4">CONCATENATE("popneed_simple_clothing = ",H7," popneed_crude_items = ",J7)</f>
+        <f t="shared" ref="Z7:Z10" si="3">CONCATENATE("popneed_simple_clothing = ",H7," popneed_crude_items = ",J7)</f>
         <v>popneed_simple_clothing = 11 popneed_crude_items = 7</v>
       </c>
       <c r="AG7" t="s">
@@ -14169,18 +14955,17 @@
         <v>132</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W8" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 25</v>
+      </c>
+      <c r="X8" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 25</v>
-      </c>
-      <c r="X8" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 21</v>
       </c>
       <c r="Y8" t="str">
@@ -14188,7 +14973,7 @@
         <v>popneed_basic_food = 18</v>
       </c>
       <c r="Z8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>popneed_simple_clothing = 16 popneed_crude_items = 11</v>
       </c>
       <c r="AG8" t="s">
@@ -14248,18 +15033,17 @@
         <v>132</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="1"/>
-        <v>3.3000000000000002E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W9" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 33</v>
+      </c>
+      <c r="X9" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 33</v>
-      </c>
-      <c r="X9" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 23</v>
       </c>
       <c r="Y9" t="str">
@@ -14267,7 +15051,7 @@
         <v>popneed_basic_food = 23</v>
       </c>
       <c r="Z9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>popneed_simple_clothing = 20 popneed_crude_items = 16</v>
       </c>
       <c r="AG9" t="s">
@@ -14330,18 +15114,17 @@
         <v>132</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="1"/>
-        <v>4.1000000000000002E-2</v>
+        <v>1.4100000000000001E-2</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W10" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 41</v>
+      </c>
+      <c r="X10" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 41</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 25</v>
       </c>
       <c r="Y10" t="str">
@@ -14349,7 +15132,7 @@
         <v>popneed_basic_food = 27</v>
       </c>
       <c r="Z10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>popneed_simple_clothing = 26 popneed_crude_items = 22</v>
       </c>
       <c r="AG10" t="s">
@@ -14379,14 +15162,14 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I16" si="5">_xlfn.CEILING.MATH(H11*B4)</f>
+        <f t="shared" ref="I11:I16" si="4">_xlfn.CEILING.MATH(H11*B4)</f>
         <v>6</v>
       </c>
       <c r="J11">
         <v>25</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K16" si="6">_xlfn.CEILING.MATH(J11*B4)</f>
+        <f t="shared" ref="K11:K16" si="5">_xlfn.CEILING.MATH(J11*B4)</f>
         <v>5</v>
       </c>
       <c r="L11">
@@ -14414,18 +15197,17 @@
         <v>132</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W11" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 50</v>
+      </c>
+      <c r="X11" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 50</v>
-      </c>
-      <c r="X11" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 27</v>
       </c>
       <c r="Y11" t="str">
@@ -14467,14 +15249,14 @@
         <v>40</v>
       </c>
       <c r="I12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="J12">
         <v>34</v>
       </c>
       <c r="K12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="L12">
@@ -14502,18 +15284,17 @@
         <v>132</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="1"/>
-        <v>6.0999999999999999E-2</v>
+        <v>2.0900000000000002E-2</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W12" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 61</v>
+      </c>
+      <c r="X12" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 61</v>
-      </c>
-      <c r="X12" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 28</v>
       </c>
       <c r="Y12" t="str">
@@ -14521,11 +15302,11 @@
         <v>popneed_basic_food = 39</v>
       </c>
       <c r="Z12" t="str">
-        <f t="shared" ref="Z12:Z15" si="7">CONCATENATE("popneed_simple_clothing = ",H12-I12,"  popneed_standard_clothing = ",I12," popneed_crude_items = ",J12-K12,"  popneed_household_items = ",K12)</f>
+        <f t="shared" ref="Z12:Z15" si="6">CONCATENATE("popneed_simple_clothing = ",H12-I12,"  popneed_standard_clothing = ",I12," popneed_crude_items = ",J12-K12,"  popneed_household_items = ",K12)</f>
         <v>popneed_simple_clothing = 26  popneed_standard_clothing = 14 popneed_crude_items = 22  popneed_household_items = 12</v>
       </c>
       <c r="AA12" t="str">
-        <f t="shared" ref="AA12:AA75" si="8">CONCATENATE("popneed_health = ",L12)</f>
+        <f t="shared" ref="AA12:AA75" si="7">CONCATENATE("popneed_health = ",L12)</f>
         <v>popneed_health = 7</v>
       </c>
       <c r="AG12" t="s">
@@ -14555,14 +15336,14 @@
         <v>48</v>
       </c>
       <c r="I13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="J13">
         <v>42</v>
       </c>
       <c r="K13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="L13">
@@ -14590,18 +15371,17 @@
         <v>132</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="1"/>
-        <v>7.3999999999999996E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W13" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 74</v>
+      </c>
+      <c r="X13" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 74</v>
-      </c>
-      <c r="X13" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 30</v>
       </c>
       <c r="Y13" t="str">
@@ -14609,11 +15389,11 @@
         <v>popneed_basic_food = 46</v>
       </c>
       <c r="Z13" t="str">
+        <f t="shared" si="6"/>
+        <v>popneed_simple_clothing = 24  popneed_standard_clothing = 24 popneed_crude_items = 21  popneed_household_items = 21</v>
+      </c>
+      <c r="AA13" t="str">
         <f t="shared" si="7"/>
-        <v>popneed_simple_clothing = 24  popneed_standard_clothing = 24 popneed_crude_items = 21  popneed_household_items = 21</v>
-      </c>
-      <c r="AA13" t="str">
-        <f t="shared" si="8"/>
         <v>popneed_health = 11</v>
       </c>
       <c r="AG13" t="s">
@@ -14643,14 +15423,14 @@
         <v>57</v>
       </c>
       <c r="I14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J14">
         <v>54</v>
       </c>
       <c r="K14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="L14">
@@ -14678,18 +15458,17 @@
         <v>132</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="1"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W14" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 89</v>
+      </c>
+      <c r="X14" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 89</v>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 31</v>
       </c>
       <c r="Y14" t="str">
@@ -14697,11 +15476,11 @@
         <v>popneed_basic_food = 53</v>
       </c>
       <c r="Z14" t="str">
+        <f t="shared" si="6"/>
+        <v>popneed_simple_clothing = 19  popneed_standard_clothing = 38 popneed_crude_items = 18  popneed_household_items = 36</v>
+      </c>
+      <c r="AA14" t="str">
         <f t="shared" si="7"/>
-        <v>popneed_simple_clothing = 19  popneed_standard_clothing = 38 popneed_crude_items = 18  popneed_household_items = 36</v>
-      </c>
-      <c r="AA14" t="str">
-        <f t="shared" si="8"/>
         <v>popneed_health = 16</v>
       </c>
       <c r="AG14" t="s">
@@ -14731,14 +15510,14 @@
         <v>67</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="J15">
         <v>68</v>
       </c>
       <c r="K15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="L15">
@@ -14766,18 +15545,17 @@
         <v>132</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.105</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W15" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 105</v>
+      </c>
+      <c r="X15" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 105</v>
-      </c>
-      <c r="X15" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 33</v>
       </c>
       <c r="Y15" t="str">
@@ -14785,15 +15563,15 @@
         <v>popneed_basic_food = 62</v>
       </c>
       <c r="Z15" t="str">
+        <f t="shared" si="6"/>
+        <v>popneed_simple_clothing = 11  popneed_standard_clothing = 56 popneed_crude_items = 11  popneed_household_items = 57</v>
+      </c>
+      <c r="AA15" t="str">
         <f t="shared" si="7"/>
-        <v>popneed_simple_clothing = 11  popneed_standard_clothing = 56 popneed_crude_items = 11  popneed_household_items = 57</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="8"/>
         <v>popneed_health = 18</v>
       </c>
       <c r="AD15" t="str">
-        <f t="shared" ref="AD15:AD30" si="9">CONCATENATE("popneed_services = ",O15)</f>
+        <f t="shared" ref="AD15:AD30" si="8">CONCATENATE("popneed_services = ",O15)</f>
         <v>popneed_services = 4</v>
       </c>
       <c r="AG15" t="s">
@@ -14817,21 +15595,21 @@
         <v>70</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G26" si="10">_xlfn.CEILING.MATH(F16*A4)</f>
+        <f t="shared" ref="G16:G26" si="9">_xlfn.CEILING.MATH(F16*A4)</f>
         <v>7</v>
       </c>
       <c r="H16">
         <v>78</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="J16">
         <v>85</v>
       </c>
       <c r="K16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="L16">
@@ -14859,22 +15637,21 @@
         <v>132</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.124</v>
+        <v>4.2300000000000004E-2</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W16" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 124</v>
+      </c>
+      <c r="X16" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 124</v>
-      </c>
-      <c r="X16" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 34</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" ref="Y16:Y25" si="11">CONCATENATE("popneed_basic_food = ",F16-G16,"  popneed_luxury_food = ",G16)</f>
+        <f t="shared" ref="Y16:Y25" si="10">CONCATENATE("popneed_basic_food = ",F16-G16,"  popneed_luxury_food = ",G16)</f>
         <v>popneed_basic_food = 63  popneed_luxury_food = 7</v>
       </c>
       <c r="Z16" t="str">
@@ -14882,11 +15659,11 @@
         <v>popneed_standard_clothing = 78 popneed_household_items = 85</v>
       </c>
       <c r="AA16" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 26</v>
+      </c>
+      <c r="AD16" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 26</v>
-      </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 6</v>
       </c>
       <c r="AG16" t="s">
@@ -14910,7 +15687,7 @@
         <v>80</v>
       </c>
       <c r="G17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H17">
@@ -14944,34 +15721,33 @@
         <v>132</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14599999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W17" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 146</v>
+      </c>
+      <c r="X17" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 146</v>
-      </c>
-      <c r="X17" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 35</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>popneed_basic_food = 65  popneed_luxury_food = 15</v>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" ref="Z17:Z25" si="12">CONCATENATE("popneed_standard_clothing = ",H17," popneed_household_items = ",J17)</f>
+        <f t="shared" ref="Z17:Z25" si="11">CONCATENATE("popneed_standard_clothing = ",H17," popneed_household_items = ",J17)</f>
         <v>popneed_standard_clothing = 90 popneed_household_items = 105</v>
       </c>
       <c r="AA17" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 34</v>
+      </c>
+      <c r="AD17" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 34</v>
-      </c>
-      <c r="AD17" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 10</v>
       </c>
       <c r="AG17" t="s">
@@ -14995,7 +15771,7 @@
         <v>90</v>
       </c>
       <c r="G18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="H18">
@@ -15029,34 +15805,33 @@
         <v>132</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W18" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 170</v>
+      </c>
+      <c r="X18" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 170</v>
-      </c>
-      <c r="X18" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 36</v>
       </c>
       <c r="Y18" t="str">
+        <f t="shared" si="10"/>
+        <v>popneed_basic_food = 65  popneed_luxury_food = 25</v>
+      </c>
+      <c r="Z18" t="str">
         <f t="shared" si="11"/>
-        <v>popneed_basic_food = 65  popneed_luxury_food = 25</v>
-      </c>
-      <c r="Z18" t="str">
-        <f t="shared" si="12"/>
         <v>popneed_standard_clothing = 103 popneed_household_items = 128</v>
       </c>
       <c r="AA18" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 47</v>
+      </c>
+      <c r="AD18" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 47</v>
-      </c>
-      <c r="AD18" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 15</v>
       </c>
       <c r="AG18" t="s">
@@ -15080,7 +15855,7 @@
         <v>102</v>
       </c>
       <c r="G19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="H19">
@@ -15114,38 +15889,37 @@
         <v>132</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.19600000000000001</v>
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W19" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 196</v>
+      </c>
+      <c r="X19" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 196</v>
-      </c>
-      <c r="X19" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 37</v>
       </c>
       <c r="Y19" t="str">
+        <f t="shared" si="10"/>
+        <v>popneed_basic_food = 64  popneed_luxury_food = 38</v>
+      </c>
+      <c r="Z19" t="str">
         <f t="shared" si="11"/>
-        <v>popneed_basic_food = 64  popneed_luxury_food = 38</v>
-      </c>
-      <c r="Z19" t="str">
-        <f t="shared" si="12"/>
         <v>popneed_standard_clothing = 117 popneed_household_items = 155</v>
       </c>
       <c r="AA19" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 62</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" ref="AB19:AB50" si="12">CONCATENATE("popneed_free_movement = ",M19)</f>
+        <v>popneed_free_movement = 3</v>
+      </c>
+      <c r="AD19" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 62</v>
-      </c>
-      <c r="AB19" t="str">
-        <f t="shared" ref="AB19:AB50" si="13">CONCATENATE("popneed_free_movement = ",M19)</f>
-        <v>popneed_free_movement = 3</v>
-      </c>
-      <c r="AD19" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 20</v>
       </c>
       <c r="AG19" t="s">
@@ -15169,7 +15943,7 @@
         <v>114</v>
       </c>
       <c r="G20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="H20">
@@ -15203,38 +15977,37 @@
         <v>132</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>8.1299999999999997E-2</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W20" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 225</v>
+      </c>
+      <c r="X20" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 225</v>
-      </c>
-      <c r="X20" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 38</v>
       </c>
       <c r="Y20" t="str">
+        <f t="shared" si="10"/>
+        <v>popneed_basic_food = 62  popneed_luxury_food = 52</v>
+      </c>
+      <c r="Z20" t="str">
         <f t="shared" si="11"/>
-        <v>popneed_basic_food = 62  popneed_luxury_food = 52</v>
-      </c>
-      <c r="Z20" t="str">
+        <v>popneed_standard_clothing = 133 popneed_household_items = 187</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 81</v>
+      </c>
+      <c r="AB20" t="str">
         <f t="shared" si="12"/>
-        <v>popneed_standard_clothing = 133 popneed_household_items = 187</v>
-      </c>
-      <c r="AA20" t="str">
+        <v>popneed_free_movement = 8</v>
+      </c>
+      <c r="AD20" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 81</v>
-      </c>
-      <c r="AB20" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 8</v>
-      </c>
-      <c r="AD20" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 27</v>
       </c>
       <c r="AG20" t="s">
@@ -15258,7 +16031,7 @@
         <v>126</v>
       </c>
       <c r="G21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="H21">
@@ -15292,34 +16065,33 @@
         <v>132</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.25800000000000001</v>
+        <v>9.530000000000001E-2</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W21" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 258</v>
+      </c>
+      <c r="X21" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 258</v>
-      </c>
-      <c r="X21" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 39</v>
       </c>
       <c r="Y21" t="str">
+        <f t="shared" si="10"/>
+        <v>popneed_basic_food = 57  popneed_luxury_food = 69</v>
+      </c>
+      <c r="Z21" t="str">
         <f t="shared" si="11"/>
-        <v>popneed_basic_food = 57  popneed_luxury_food = 69</v>
-      </c>
-      <c r="Z21" t="str">
+        <v>popneed_standard_clothing = 149 popneed_household_items = 223</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 105</v>
+      </c>
+      <c r="AB21" t="str">
         <f t="shared" si="12"/>
-        <v>popneed_standard_clothing = 149 popneed_household_items = 223</v>
-      </c>
-      <c r="AA21" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 105</v>
-      </c>
-      <c r="AB21" t="str">
-        <f t="shared" si="13"/>
         <v>popneed_free_movement = 18</v>
       </c>
       <c r="AC21" t="str">
@@ -15327,7 +16099,7 @@
         <v>popneed_communication = 5</v>
       </c>
       <c r="AD21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>popneed_services = 30</v>
       </c>
       <c r="AG21" t="s">
@@ -15351,7 +16123,7 @@
         <v>140</v>
       </c>
       <c r="G22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="H22">
@@ -15385,42 +16157,41 @@
         <v>132</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.29299999999999998</v>
+        <v>0.1115</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W22" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 293</v>
+      </c>
+      <c r="X22" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 293</v>
-      </c>
-      <c r="X22" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 39</v>
       </c>
       <c r="Y22" t="str">
+        <f t="shared" si="10"/>
+        <v>popneed_basic_food = 50  popneed_luxury_food = 90</v>
+      </c>
+      <c r="Z22" t="str">
         <f t="shared" si="11"/>
-        <v>popneed_basic_food = 50  popneed_luxury_food = 90</v>
-      </c>
-      <c r="Z22" t="str">
+        <v>popneed_standard_clothing = 167 popneed_household_items = 264</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 133</v>
+      </c>
+      <c r="AB22" t="str">
         <f t="shared" si="12"/>
-        <v>popneed_standard_clothing = 167 popneed_household_items = 264</v>
-      </c>
-      <c r="AA22" t="str">
+        <v>popneed_free_movement = 33</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" ref="AC22:AC85" si="13">CONCATENATE("popneed_communication = ",N22)</f>
+        <v>popneed_communication = 14</v>
+      </c>
+      <c r="AD22" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 133</v>
-      </c>
-      <c r="AB22" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 33</v>
-      </c>
-      <c r="AC22" t="str">
-        <f t="shared" ref="AC22:AC85" si="14">CONCATENATE("popneed_communication = ",N22)</f>
-        <v>popneed_communication = 14</v>
-      </c>
-      <c r="AD22" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 32</v>
       </c>
       <c r="AG22" t="s">
@@ -15444,7 +16215,7 @@
         <v>154</v>
       </c>
       <c r="G23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="H23">
@@ -15478,42 +16249,41 @@
         <v>132</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.33100000000000002</v>
+        <v>0.13040000000000002</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W23" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 331</v>
+      </c>
+      <c r="X23" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 331</v>
-      </c>
-      <c r="X23" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 40</v>
       </c>
       <c r="Y23" t="str">
+        <f t="shared" si="10"/>
+        <v>popneed_basic_food = 42  popneed_luxury_food = 112</v>
+      </c>
+      <c r="Z23" t="str">
         <f t="shared" si="11"/>
-        <v>popneed_basic_food = 42  popneed_luxury_food = 112</v>
-      </c>
-      <c r="Z23" t="str">
+        <v>popneed_standard_clothing = 186 popneed_household_items = 309</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 167</v>
+      </c>
+      <c r="AB23" t="str">
         <f t="shared" si="12"/>
-        <v>popneed_standard_clothing = 186 popneed_household_items = 309</v>
-      </c>
-      <c r="AA23" t="str">
+        <v>popneed_free_movement = 53</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 29</v>
+      </c>
+      <c r="AD23" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 167</v>
-      </c>
-      <c r="AB23" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 53</v>
-      </c>
-      <c r="AC23" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 29</v>
-      </c>
-      <c r="AD23" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 35</v>
       </c>
       <c r="AG23" t="s">
@@ -15537,7 +16307,7 @@
         <v>170</v>
       </c>
       <c r="G24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="H24">
@@ -15571,42 +16341,41 @@
         <v>132</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.372</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W24" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 372</v>
+      </c>
+      <c r="X24" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 372</v>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 41</v>
       </c>
       <c r="Y24" t="str">
+        <f t="shared" si="10"/>
+        <v>popneed_basic_food = 30  popneed_luxury_food = 140</v>
+      </c>
+      <c r="Z24" t="str">
         <f t="shared" si="11"/>
-        <v>popneed_basic_food = 30  popneed_luxury_food = 140</v>
-      </c>
-      <c r="Z24" t="str">
+        <v>popneed_standard_clothing = 207 popneed_household_items = 360</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 205</v>
+      </c>
+      <c r="AB24" t="str">
         <f t="shared" si="12"/>
-        <v>popneed_standard_clothing = 207 popneed_household_items = 360</v>
-      </c>
-      <c r="AA24" t="str">
+        <v>popneed_free_movement = 78</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 50</v>
+      </c>
+      <c r="AD24" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 205</v>
-      </c>
-      <c r="AB24" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 78</v>
-      </c>
-      <c r="AC24" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 50</v>
-      </c>
-      <c r="AD24" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 41</v>
       </c>
       <c r="AG24" t="s">
@@ -15630,7 +16399,7 @@
         <v>186</v>
       </c>
       <c r="G25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="H25">
@@ -15670,42 +16439,41 @@
         <v>132</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.41600000000000004</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W25" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 416</v>
+      </c>
+      <c r="X25" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 416</v>
-      </c>
-      <c r="X25" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 41</v>
       </c>
       <c r="Y25" t="str">
+        <f t="shared" si="10"/>
+        <v>popneed_basic_food = 16  popneed_luxury_food = 170</v>
+      </c>
+      <c r="Z25" t="str">
         <f t="shared" si="11"/>
-        <v>popneed_basic_food = 16  popneed_luxury_food = 170</v>
-      </c>
-      <c r="Z25" t="str">
+        <v>popneed_standard_clothing = 228 popneed_household_items = 415</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 251</v>
+      </c>
+      <c r="AB25" t="str">
         <f t="shared" si="12"/>
-        <v>popneed_standard_clothing = 228 popneed_household_items = 415</v>
-      </c>
-      <c r="AA25" t="str">
+        <v>popneed_free_movement = 108</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 77</v>
+      </c>
+      <c r="AD25" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 251</v>
-      </c>
-      <c r="AB25" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 108</v>
-      </c>
-      <c r="AC25" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 77</v>
-      </c>
-      <c r="AD25" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 56</v>
       </c>
       <c r="AG25" t="s">
@@ -15729,7 +16497,7 @@
         <v>202</v>
       </c>
       <c r="G26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>202</v>
       </c>
       <c r="H26">
@@ -15771,22 +16539,21 @@
         <v>132</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.46400000000000002</v>
+        <v>0.20750000000000002</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W26" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 464</v>
+      </c>
+      <c r="X26" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 464</v>
-      </c>
-      <c r="X26" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 42</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" ref="Y26:Y57" si="15">CONCATENATE("popneed_luxury_food = ",F26)</f>
+        <f t="shared" ref="Y26:Y57" si="14">CONCATENATE("popneed_luxury_food = ",F26)</f>
         <v>popneed_luxury_food = 202</v>
       </c>
       <c r="Z26" t="str">
@@ -15794,19 +16561,19 @@
         <v>popneed_standard_clothing = 228 popneed_household_items = 432  popneed_luxury_items = 67</v>
       </c>
       <c r="AA26" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 301</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 143</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 110</v>
+      </c>
+      <c r="AD26" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 301</v>
-      </c>
-      <c r="AB26" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 143</v>
-      </c>
-      <c r="AC26" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 110</v>
-      </c>
-      <c r="AD26" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 86</v>
       </c>
       <c r="AG26" t="s">
@@ -15833,14 +16600,14 @@
         <v>275</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I36" si="16">_xlfn.CEILING.MATH(H27*A5)</f>
+        <f t="shared" ref="I27:I36" si="15">_xlfn.CEILING.MATH(H27*A5)</f>
         <v>50</v>
       </c>
       <c r="J27">
         <v>541</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:K36" si="17">_xlfn.CEILING.MATH(J27*A5)</f>
+        <f t="shared" ref="K27:K36" si="16">_xlfn.CEILING.MATH(J27*A5)</f>
         <v>99</v>
       </c>
       <c r="L27">
@@ -15868,42 +16635,41 @@
         <v>132</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.51400000000000001</v>
+        <v>0.2419</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W27" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 514</v>
+      </c>
+      <c r="X27" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 514</v>
-      </c>
-      <c r="X27" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 43</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 220</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" ref="Z27:Z35" si="18">CONCATENATE("popneed_standard_clothing = ",H27-I27," popneed_household_items = ",J27-K27,"  popneed_luxury_items = ",I27+K27)</f>
+        <f t="shared" ref="Z27:Z35" si="17">CONCATENATE("popneed_standard_clothing = ",H27-I27," popneed_household_items = ",J27-K27,"  popneed_luxury_items = ",I27+K27)</f>
         <v>popneed_standard_clothing = 225 popneed_household_items = 442  popneed_luxury_items = 149</v>
       </c>
       <c r="AA27" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 358</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 183</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 149</v>
+      </c>
+      <c r="AD27" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 358</v>
-      </c>
-      <c r="AB27" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 183</v>
-      </c>
-      <c r="AC27" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 149</v>
-      </c>
-      <c r="AD27" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 136</v>
       </c>
       <c r="AG27" t="s">
@@ -15930,14 +16696,14 @@
         <v>300</v>
       </c>
       <c r="I28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>82</v>
       </c>
       <c r="J28">
         <v>611</v>
       </c>
       <c r="K28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>167</v>
       </c>
       <c r="L28">
@@ -15965,42 +16731,41 @@
         <v>132</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="1"/>
-        <v>0.56700000000000006</v>
+        <v>0.28179999999999999</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W28" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 567</v>
+      </c>
+      <c r="X28" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 567</v>
-      </c>
-      <c r="X28" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 43</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 239</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>popneed_standard_clothing = 218 popneed_household_items = 444  popneed_luxury_items = 249</v>
       </c>
       <c r="AA28" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 419</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 228</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 194</v>
+      </c>
+      <c r="AD28" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 419</v>
-      </c>
-      <c r="AB28" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 228</v>
-      </c>
-      <c r="AC28" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 194</v>
-      </c>
-      <c r="AD28" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 217</v>
       </c>
       <c r="AG28" t="s">
@@ -16027,14 +16792,14 @@
         <v>327</v>
       </c>
       <c r="I29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>119</v>
       </c>
       <c r="J29">
         <v>686</v>
       </c>
       <c r="K29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="L29">
@@ -16062,42 +16827,41 @@
         <v>132</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="1"/>
-        <v>0.623</v>
+        <v>0.32830000000000004</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W29" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 623</v>
+      </c>
+      <c r="X29" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 623</v>
-      </c>
-      <c r="X29" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 44</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 258</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>popneed_standard_clothing = 208 popneed_household_items = 436  popneed_luxury_items = 369</v>
       </c>
       <c r="AA29" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 487</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 278</v>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 245</v>
+      </c>
+      <c r="AD29" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 487</v>
-      </c>
-      <c r="AB29" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 278</v>
-      </c>
-      <c r="AC29" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 245</v>
-      </c>
-      <c r="AD29" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 335</v>
       </c>
       <c r="AG29" t="s">
@@ -16124,14 +16888,14 @@
         <v>354</v>
       </c>
       <c r="I30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>161</v>
       </c>
       <c r="J30">
         <v>765</v>
       </c>
       <c r="K30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>348</v>
       </c>
       <c r="L30">
@@ -16159,42 +16923,41 @@
         <v>132</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="1"/>
-        <v>0.68300000000000005</v>
+        <v>0.38220000000000004</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W30" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 683</v>
+      </c>
+      <c r="X30" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 683</v>
-      </c>
-      <c r="X30" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 44</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 278</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>popneed_standard_clothing = 193 popneed_household_items = 417  popneed_luxury_items = 509</v>
       </c>
       <c r="AA30" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 559</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 333</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 302</v>
+      </c>
+      <c r="AD30" t="str">
         <f t="shared" si="8"/>
-        <v>popneed_health = 559</v>
-      </c>
-      <c r="AB30" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 333</v>
-      </c>
-      <c r="AC30" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 302</v>
-      </c>
-      <c r="AD30" t="str">
-        <f t="shared" si="9"/>
         <v>popneed_services = 504</v>
       </c>
       <c r="AG30" t="s">
@@ -16221,14 +16984,14 @@
         <v>383</v>
       </c>
       <c r="I31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>209</v>
       </c>
       <c r="J31">
         <v>848</v>
       </c>
       <c r="K31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>463</v>
       </c>
       <c r="L31">
@@ -16256,42 +17019,41 @@
         <v>132</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="1"/>
-        <v>0.874</v>
+        <v>0.57390000000000008</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W31" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 745</v>
+      </c>
+      <c r="X31" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 745</v>
-      </c>
-      <c r="X31" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 45</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 299</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>popneed_standard_clothing = 174 popneed_household_items = 385  popneed_luxury_items = 672</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>popneed_health = 636</v>
       </c>
       <c r="AB31" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 393</v>
+      </c>
+      <c r="AC31" t="str">
         <f t="shared" si="13"/>
-        <v>popneed_free_movement = 393</v>
-      </c>
-      <c r="AC31" t="str">
-        <f t="shared" si="14"/>
         <v>popneed_communication = 365</v>
       </c>
       <c r="AD31" t="str">
-        <f t="shared" ref="AD31:AD36" si="19">CONCATENATE("popneed_services = ",O31)</f>
+        <f t="shared" ref="AD31:AD36" si="18">CONCATENATE("popneed_services = ",O31)</f>
         <v>popneed_services = 606</v>
       </c>
       <c r="AE31" t="str">
@@ -16322,14 +17084,14 @@
         <v>413</v>
       </c>
       <c r="I32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>263</v>
       </c>
       <c r="J32">
         <v>936</v>
       </c>
       <c r="K32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>596</v>
       </c>
       <c r="L32">
@@ -16357,46 +17119,45 @@
         <v>132</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="1"/>
-        <v>1.014</v>
+        <v>0.72280000000000011</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W32" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 809</v>
+      </c>
+      <c r="X32" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 809</v>
-      </c>
-      <c r="X32" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 45</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 321</v>
       </c>
       <c r="Z32" t="str">
+        <f t="shared" si="17"/>
+        <v>popneed_standard_clothing = 150 popneed_household_items = 340  popneed_luxury_items = 859</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 717</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 458</v>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 434</v>
+      </c>
+      <c r="AD32" t="str">
         <f t="shared" si="18"/>
-        <v>popneed_standard_clothing = 150 popneed_household_items = 340  popneed_luxury_items = 859</v>
-      </c>
-      <c r="AA32" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 717</v>
-      </c>
-      <c r="AB32" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 458</v>
-      </c>
-      <c r="AC32" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 434</v>
-      </c>
-      <c r="AD32" t="str">
-        <f t="shared" si="19"/>
         <v>popneed_services = 840</v>
       </c>
       <c r="AE32" t="str">
-        <f t="shared" ref="AE32:AE95" si="20">CONCATENATE("popneed_influence = ",P32)</f>
+        <f t="shared" ref="AE32:AE95" si="19">CONCATENATE("popneed_influence = ",P32)</f>
         <v>popneed_influence = 205</v>
       </c>
       <c r="AG32" t="s">
@@ -16423,14 +17184,14 @@
         <v>444</v>
       </c>
       <c r="I33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>323</v>
       </c>
       <c r="J33">
         <v>1027</v>
       </c>
       <c r="K33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>747</v>
       </c>
       <c r="L33">
@@ -16458,46 +17219,45 @@
         <v>132</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="1"/>
-        <v>1.194</v>
+        <v>0.9194</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W33" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 877</v>
+      </c>
+      <c r="X33" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 877</v>
-      </c>
-      <c r="X33" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 46</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 343</v>
       </c>
       <c r="Z33" t="str">
+        <f t="shared" si="17"/>
+        <v>popneed_standard_clothing = 121 popneed_household_items = 280  popneed_luxury_items = 1070</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 803</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 528</v>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 509</v>
+      </c>
+      <c r="AD33" t="str">
         <f t="shared" si="18"/>
-        <v>popneed_standard_clothing = 121 popneed_household_items = 280  popneed_luxury_items = 1070</v>
-      </c>
-      <c r="AA33" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 803</v>
-      </c>
-      <c r="AB33" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 528</v>
-      </c>
-      <c r="AC33" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 509</v>
-      </c>
-      <c r="AD33" t="str">
+        <v>popneed_services = 1130</v>
+      </c>
+      <c r="AE33" t="str">
         <f t="shared" si="19"/>
-        <v>popneed_services = 1130</v>
-      </c>
-      <c r="AE33" t="str">
-        <f t="shared" si="20"/>
         <v>popneed_influence = 317</v>
       </c>
       <c r="AG33" t="s">
@@ -16524,14 +17284,14 @@
         <v>477</v>
       </c>
       <c r="I34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>391</v>
       </c>
       <c r="J34">
         <v>1121</v>
       </c>
       <c r="K34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>918</v>
       </c>
       <c r="L34">
@@ -16559,46 +17319,45 @@
         <v>132</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4259999999999999</v>
+        <v>1.1806999999999999</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W34" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 946</v>
+      </c>
+      <c r="X34" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 946</v>
-      </c>
-      <c r="X34" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 46</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 366</v>
       </c>
       <c r="Z34" t="str">
+        <f t="shared" si="17"/>
+        <v>popneed_standard_clothing = 86 popneed_household_items = 203  popneed_luxury_items = 1309</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 892</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 603</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 590</v>
+      </c>
+      <c r="AD34" t="str">
         <f t="shared" si="18"/>
-        <v>popneed_standard_clothing = 86 popneed_household_items = 203  popneed_luxury_items = 1309</v>
-      </c>
-      <c r="AA34" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 892</v>
-      </c>
-      <c r="AB34" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 603</v>
-      </c>
-      <c r="AC34" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 590</v>
-      </c>
-      <c r="AD34" t="str">
+        <v>popneed_services = 1486</v>
+      </c>
+      <c r="AE34" t="str">
         <f t="shared" si="19"/>
-        <v>popneed_services = 1486</v>
-      </c>
-      <c r="AE34" t="str">
-        <f t="shared" si="20"/>
         <v>popneed_influence = 480</v>
       </c>
       <c r="AG34" t="s">
@@ -16632,7 +17391,7 @@
         <v>1219</v>
       </c>
       <c r="K35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1109</v>
       </c>
       <c r="L35">
@@ -16660,46 +17419,45 @@
         <v>132</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7290000000000001</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W35" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1019</v>
+      </c>
+      <c r="X35" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1019</v>
-      </c>
-      <c r="X35" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 46</v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 390</v>
       </c>
       <c r="Z35" t="str">
+        <f t="shared" si="17"/>
+        <v>popneed_standard_clothing = 46 popneed_household_items = 110  popneed_luxury_items = 1573</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 986</v>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 683</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 677</v>
+      </c>
+      <c r="AD35" t="str">
         <f t="shared" si="18"/>
-        <v>popneed_standard_clothing = 46 popneed_household_items = 110  popneed_luxury_items = 1573</v>
-      </c>
-      <c r="AA35" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 986</v>
-      </c>
-      <c r="AB35" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 683</v>
-      </c>
-      <c r="AC35" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 677</v>
-      </c>
-      <c r="AD35" t="str">
+        <v>popneed_services = 1910</v>
+      </c>
+      <c r="AE35" t="str">
         <f t="shared" si="19"/>
-        <v>popneed_services = 1910</v>
-      </c>
-      <c r="AE35" t="str">
-        <f t="shared" si="20"/>
         <v>popneed_influence = 710</v>
       </c>
       <c r="AG35" t="s">
@@ -16726,14 +17484,14 @@
         <v>545</v>
       </c>
       <c r="I36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>545</v>
       </c>
       <c r="J36">
         <v>1320</v>
       </c>
       <c r="K36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1320</v>
       </c>
       <c r="L36">
@@ -16761,22 +17519,21 @@
         <v>132</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="1"/>
-        <v>2.0310000000000001</v>
+        <v>1.8847</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W36" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1094</v>
+      </c>
+      <c r="X36" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1094</v>
-      </c>
-      <c r="X36" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 47</v>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 415</v>
       </c>
       <c r="Z36" t="str">
@@ -16784,23 +17541,23 @@
         <v>popneed_luxury_items = 1865</v>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>popneed_health = 1083</v>
       </c>
       <c r="AB36" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 768</v>
+      </c>
+      <c r="AC36" t="str">
         <f t="shared" si="13"/>
-        <v>popneed_free_movement = 768</v>
-      </c>
-      <c r="AC36" t="str">
-        <f t="shared" si="14"/>
         <v>popneed_communication = 770</v>
       </c>
       <c r="AD36" t="str">
+        <f t="shared" si="18"/>
+        <v>popneed_services = 2408</v>
+      </c>
+      <c r="AE36" t="str">
         <f t="shared" si="19"/>
-        <v>popneed_services = 2408</v>
-      </c>
-      <c r="AE36" t="str">
-        <f t="shared" si="20"/>
         <v>popneed_influence = 937</v>
       </c>
       <c r="AF36" t="str">
@@ -16858,50 +17615,49 @@
         <v>132</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="1"/>
-        <v>2.3879999999999999</v>
+        <v>2.3189000000000002</v>
       </c>
       <c r="V37" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W37" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1171</v>
+      </c>
+      <c r="X37" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1171</v>
-      </c>
-      <c r="X37" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 47</v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 441</v>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" ref="Z37:Z100" si="21">CONCATENATE("popneed_luxury_items = ",H37+J37)</f>
+        <f t="shared" ref="Z37:Z100" si="20">CONCATENATE("popneed_luxury_items = ",H37+J37)</f>
         <v>popneed_luxury_items = 2005</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>popneed_health = 1183</v>
       </c>
       <c r="AB37" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 858</v>
+      </c>
+      <c r="AC37" t="str">
         <f t="shared" si="13"/>
-        <v>popneed_free_movement = 858</v>
-      </c>
-      <c r="AC37" t="str">
-        <f t="shared" si="14"/>
         <v>popneed_communication = 869</v>
       </c>
       <c r="AD37" t="str">
-        <f t="shared" ref="AD37:AD68" si="22">CONCATENATE("popneed_services = ",O37)</f>
+        <f t="shared" ref="AD37:AD68" si="21">CONCATENATE("popneed_services = ",O37)</f>
         <v>popneed_services = 2988</v>
       </c>
       <c r="AE37" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 1217</v>
       </c>
       <c r="AF37" t="str">
-        <f t="shared" ref="AF37:AF100" si="23">CONCATENATE("popneed_art  = ",Q37)</f>
+        <f t="shared" ref="AF37:AF100" si="22">CONCATENATE("popneed_art  = ",Q37)</f>
         <v>popneed_art  = 240</v>
       </c>
       <c r="AG37" t="s">
@@ -16955,50 +17711,49 @@
         <v>132</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="1"/>
-        <v>2.831</v>
+        <v>2.8620000000000001</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W38" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1250</v>
+      </c>
+      <c r="X38" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1250</v>
-      </c>
-      <c r="X38" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 47</v>
       </c>
       <c r="Y38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 467</v>
       </c>
       <c r="Z38" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 2149</v>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 1287</v>
+      </c>
+      <c r="AB38" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 953</v>
+      </c>
+      <c r="AC38" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 974</v>
+      </c>
+      <c r="AD38" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 2149</v>
-      </c>
-      <c r="AA38" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 1287</v>
-      </c>
-      <c r="AB38" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 953</v>
-      </c>
-      <c r="AC38" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 974</v>
-      </c>
-      <c r="AD38" t="str">
+        <v>popneed_services = 3652</v>
+      </c>
+      <c r="AE38" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 1581</v>
+      </c>
+      <c r="AF38" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 3652</v>
-      </c>
-      <c r="AE38" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 1581</v>
-      </c>
-      <c r="AF38" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 450</v>
       </c>
       <c r="AG38" t="s">
@@ -17052,50 +17807,49 @@
         <v>132</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="1"/>
-        <v>3.3980000000000001</v>
+        <v>3.5562000000000005</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W39" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1331</v>
+      </c>
+      <c r="X39" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1331</v>
-      </c>
-      <c r="X39" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 48</v>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 494</v>
       </c>
       <c r="Z39" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 2297</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 1393</v>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 1053</v>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 1085</v>
+      </c>
+      <c r="AD39" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 2297</v>
-      </c>
-      <c r="AA39" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 1393</v>
-      </c>
-      <c r="AB39" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 1053</v>
-      </c>
-      <c r="AC39" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 1085</v>
-      </c>
-      <c r="AD39" t="str">
+        <v>popneed_services = 4404</v>
+      </c>
+      <c r="AE39" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 2067</v>
+      </c>
+      <c r="AF39" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 4404</v>
-      </c>
-      <c r="AE39" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 2067</v>
-      </c>
-      <c r="AF39" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 720</v>
       </c>
       <c r="AG39" t="s">
@@ -17149,50 +17903,49 @@
         <v>132</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="1"/>
-        <v>4.1310000000000002</v>
+        <v>4.4470000000000001</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W40" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1415</v>
+      </c>
+      <c r="X40" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1415</v>
-      </c>
-      <c r="X40" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 48</v>
       </c>
       <c r="Y40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 522</v>
       </c>
       <c r="Z40" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 2448</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 1503</v>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 1158</v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 1202</v>
+      </c>
+      <c r="AD40" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 2448</v>
-      </c>
-      <c r="AA40" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 1503</v>
-      </c>
-      <c r="AB40" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 1158</v>
-      </c>
-      <c r="AC40" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 1202</v>
-      </c>
-      <c r="AD40" t="str">
+        <v>popneed_services = 5248</v>
+      </c>
+      <c r="AE40" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 2716</v>
+      </c>
+      <c r="AF40" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 5248</v>
-      </c>
-      <c r="AE40" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 2716</v>
-      </c>
-      <c r="AF40" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 1050</v>
       </c>
       <c r="AG40" t="s">
@@ -17246,50 +17999,49 @@
         <v>132</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="1"/>
-        <v>5.0840000000000005</v>
+        <v>5.5960000000000001</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W41" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1500</v>
+      </c>
+      <c r="X41" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1500</v>
-      </c>
-      <c r="X41" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 49</v>
       </c>
       <c r="Y41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 550</v>
       </c>
       <c r="Z41" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 2602</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 1616</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 1268</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 1325</v>
+      </c>
+      <c r="AD41" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 2602</v>
-      </c>
-      <c r="AA41" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 1616</v>
-      </c>
-      <c r="AB41" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 1268</v>
-      </c>
-      <c r="AC41" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 1325</v>
-      </c>
-      <c r="AD41" t="str">
+        <v>popneed_services = 6186</v>
+      </c>
+      <c r="AE41" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 3584</v>
+      </c>
+      <c r="AF41" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 6186</v>
-      </c>
-      <c r="AE41" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 3584</v>
-      </c>
-      <c r="AF41" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 1440</v>
       </c>
       <c r="AG41" t="s">
@@ -17343,50 +18095,49 @@
         <v>132</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="1"/>
-        <v>6.3180000000000005</v>
+        <v>7.0684000000000005</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W42" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1588</v>
+      </c>
+      <c r="X42" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1588</v>
-      </c>
-      <c r="X42" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 49</v>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 579</v>
       </c>
       <c r="Z42" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 2761</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 1732</v>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 1383</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 1454</v>
+      </c>
+      <c r="AD42" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 2761</v>
-      </c>
-      <c r="AA42" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 1732</v>
-      </c>
-      <c r="AB42" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 1383</v>
-      </c>
-      <c r="AC42" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 1454</v>
-      </c>
-      <c r="AD42" t="str">
+        <v>popneed_services = 7218</v>
+      </c>
+      <c r="AE42" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 4730</v>
+      </c>
+      <c r="AF42" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 7218</v>
-      </c>
-      <c r="AE42" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 4730</v>
-      </c>
-      <c r="AF42" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 1890</v>
       </c>
       <c r="AG42" t="s">
@@ -17440,50 +18191,49 @@
         <v>132</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="1"/>
-        <v>7.9060000000000006</v>
+        <v>8.9466999999999999</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W43" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1677</v>
+      </c>
+      <c r="X43" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1677</v>
-      </c>
-      <c r="X43" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 49</v>
       </c>
       <c r="Y43" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 609</v>
       </c>
       <c r="Z43" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 2922</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 1851</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 1503</v>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 1589</v>
+      </c>
+      <c r="AD43" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 2922</v>
-      </c>
-      <c r="AA43" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 1851</v>
-      </c>
-      <c r="AB43" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 1503</v>
-      </c>
-      <c r="AC43" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 1589</v>
-      </c>
-      <c r="AD43" t="str">
+        <v>popneed_services = 8348</v>
+      </c>
+      <c r="AE43" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 6229</v>
+      </c>
+      <c r="AF43" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 8348</v>
-      </c>
-      <c r="AE43" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 6229</v>
-      </c>
-      <c r="AF43" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 2400</v>
       </c>
       <c r="AG43" t="s">
@@ -17537,50 +18287,49 @@
         <v>132</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="1"/>
-        <v>9.9350000000000005</v>
+        <v>11.324400000000001</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W44" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1769</v>
+      </c>
+      <c r="X44" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1769</v>
-      </c>
-      <c r="X44" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 49</v>
       </c>
       <c r="Y44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 639</v>
       </c>
       <c r="Z44" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 3088</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 1972</v>
+      </c>
+      <c r="AB44" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 1628</v>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 1730</v>
+      </c>
+      <c r="AD44" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 3088</v>
-      </c>
-      <c r="AA44" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 1972</v>
-      </c>
-      <c r="AB44" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 1628</v>
-      </c>
-      <c r="AC44" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 1730</v>
-      </c>
-      <c r="AD44" t="str">
+        <v>popneed_services = 9573</v>
+      </c>
+      <c r="AE44" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 8166</v>
+      </c>
+      <c r="AF44" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 9573</v>
-      </c>
-      <c r="AE44" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 8166</v>
-      </c>
-      <c r="AF44" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 2970</v>
       </c>
       <c r="AG44" t="s">
@@ -17634,50 +18383,49 @@
         <v>132</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>14.308299999999999</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W45" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1862</v>
+      </c>
+      <c r="X45" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1862</v>
-      </c>
-      <c r="X45" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 50</v>
       </c>
       <c r="Y45" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 671</v>
       </c>
       <c r="Z45" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 3256</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 2097</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 1758</v>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 1877</v>
+      </c>
+      <c r="AD45" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 3256</v>
-      </c>
-      <c r="AA45" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 2097</v>
-      </c>
-      <c r="AB45" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 1758</v>
-      </c>
-      <c r="AC45" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 1877</v>
-      </c>
-      <c r="AD45" t="str">
+        <v>popneed_services = 10894</v>
+      </c>
+      <c r="AE45" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 10638</v>
+      </c>
+      <c r="AF45" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 10894</v>
-      </c>
-      <c r="AE45" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 10638</v>
-      </c>
-      <c r="AF45" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 3600</v>
       </c>
       <c r="AG45" t="s">
@@ -17731,50 +18479,49 @@
         <v>132</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="1"/>
-        <v>15.723000000000001</v>
+        <v>18.031100000000002</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W46" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 1957</v>
+      </c>
+      <c r="X46" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 1957</v>
-      </c>
-      <c r="X46" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 50</v>
       </c>
       <c r="Y46" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 703</v>
       </c>
       <c r="Z46" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 3428</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 2224</v>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 1893</v>
+      </c>
+      <c r="AC46" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 2030</v>
+      </c>
+      <c r="AD46" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 3428</v>
-      </c>
-      <c r="AA46" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 2224</v>
-      </c>
-      <c r="AB46" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 1893</v>
-      </c>
-      <c r="AC46" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 2030</v>
-      </c>
-      <c r="AD46" t="str">
+        <v>popneed_services = 12310</v>
+      </c>
+      <c r="AE46" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 13766</v>
+      </c>
+      <c r="AF46" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 12310</v>
-      </c>
-      <c r="AE46" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 13766</v>
-      </c>
-      <c r="AF46" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 4290</v>
       </c>
       <c r="AG46" t="s">
@@ -17828,50 +18575,49 @@
         <v>132</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="1"/>
-        <v>19.741</v>
+        <v>22.6432</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W47" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 2054</v>
+      </c>
+      <c r="X47" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 2054</v>
-      </c>
-      <c r="X47" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 50</v>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 735</v>
       </c>
       <c r="Z47" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 3602</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 2354</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 2033</v>
+      </c>
+      <c r="AC47" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 2189</v>
+      </c>
+      <c r="AD47" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 3602</v>
-      </c>
-      <c r="AA47" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 2354</v>
-      </c>
-      <c r="AB47" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 2033</v>
-      </c>
-      <c r="AC47" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 2189</v>
-      </c>
-      <c r="AD47" t="str">
+        <v>popneed_services = 13818</v>
+      </c>
+      <c r="AE47" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 17687</v>
+      </c>
+      <c r="AF47" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 13818</v>
-      </c>
-      <c r="AE47" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 17687</v>
-      </c>
-      <c r="AF47" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 5040</v>
       </c>
       <c r="AG47" t="s">
@@ -17925,50 +18671,49 @@
         <v>132</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="1"/>
-        <v>24.708000000000002</v>
+        <v>28.3141</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W48" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 2153</v>
+      </c>
+      <c r="X48" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 2153</v>
-      </c>
-      <c r="X48" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 51</v>
       </c>
       <c r="Y48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 768</v>
       </c>
       <c r="Z48" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 3780</v>
+      </c>
+      <c r="AA48" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 2486</v>
+      </c>
+      <c r="AB48" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 2178</v>
+      </c>
+      <c r="AC48" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 2354</v>
+      </c>
+      <c r="AD48" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 3780</v>
-      </c>
-      <c r="AA48" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 2486</v>
-      </c>
-      <c r="AB48" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 2178</v>
-      </c>
-      <c r="AC48" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 2354</v>
-      </c>
-      <c r="AD48" t="str">
+        <v>popneed_services = 15416</v>
+      </c>
+      <c r="AE48" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 22555</v>
+      </c>
+      <c r="AF48" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 15416</v>
-      </c>
-      <c r="AE48" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 22555</v>
-      </c>
-      <c r="AF48" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 5850</v>
       </c>
       <c r="AG48" t="s">
@@ -18022,50 +18767,49 @@
         <v>132</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="1"/>
-        <v>30.810000000000002</v>
+        <v>35.248000000000005</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W49" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 2254</v>
+      </c>
+      <c r="X49" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 2254</v>
-      </c>
-      <c r="X49" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 51</v>
       </c>
       <c r="Y49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 802</v>
       </c>
       <c r="Z49" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 3961</v>
+      </c>
+      <c r="AA49" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 2621</v>
+      </c>
+      <c r="AB49" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 2328</v>
+      </c>
+      <c r="AC49" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 2525</v>
+      </c>
+      <c r="AD49" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 3961</v>
-      </c>
-      <c r="AA49" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 2621</v>
-      </c>
-      <c r="AB49" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 2328</v>
-      </c>
-      <c r="AC49" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 2525</v>
-      </c>
-      <c r="AD49" t="str">
+        <v>popneed_services = 17102</v>
+      </c>
+      <c r="AE49" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 28556</v>
+      </c>
+      <c r="AF49" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 17102</v>
-      </c>
-      <c r="AE49" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 28556</v>
-      </c>
-      <c r="AF49" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 6720</v>
       </c>
       <c r="AG49" t="s">
@@ -18119,50 +18863,49 @@
         <v>132</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="1"/>
-        <v>38.26</v>
+        <v>43.6798</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W50" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 2356</v>
+      </c>
+      <c r="X50" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 2356</v>
-      </c>
-      <c r="X50" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 51</v>
       </c>
       <c r="Y50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 837</v>
       </c>
       <c r="Z50" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 4144</v>
+      </c>
+      <c r="AA50" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 2759</v>
+      </c>
+      <c r="AB50" t="str">
+        <f t="shared" si="12"/>
+        <v>popneed_free_movement = 2483</v>
+      </c>
+      <c r="AC50" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 2702</v>
+      </c>
+      <c r="AD50" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 4144</v>
-      </c>
-      <c r="AA50" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 2759</v>
-      </c>
-      <c r="AB50" t="str">
-        <f t="shared" si="13"/>
-        <v>popneed_free_movement = 2483</v>
-      </c>
-      <c r="AC50" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 2702</v>
-      </c>
-      <c r="AD50" t="str">
+        <v>popneed_services = 18872</v>
+      </c>
+      <c r="AE50" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 35904</v>
+      </c>
+      <c r="AF50" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 18872</v>
-      </c>
-      <c r="AE50" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 35904</v>
-      </c>
-      <c r="AF50" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 7650</v>
       </c>
       <c r="AG50" t="s">
@@ -18216,50 +18959,49 @@
         <v>132</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="1"/>
-        <v>47.306000000000004</v>
+        <v>53.881100000000004</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W51" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 2460</v>
+      </c>
+      <c r="X51" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 2460</v>
-      </c>
-      <c r="X51" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 51</v>
       </c>
       <c r="Y51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 872</v>
       </c>
       <c r="Z51" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 4332</v>
+      </c>
+      <c r="AA51" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 2900</v>
+      </c>
+      <c r="AB51" t="str">
+        <f t="shared" ref="AB51:AB83" si="23">CONCATENATE("popneed_free_movement = ",M51)</f>
+        <v>popneed_free_movement = 2643</v>
+      </c>
+      <c r="AC51" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 2885</v>
+      </c>
+      <c r="AD51" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 4332</v>
-      </c>
-      <c r="AA51" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 2900</v>
-      </c>
-      <c r="AB51" t="str">
-        <f t="shared" ref="AB51:AB83" si="24">CONCATENATE("popneed_free_movement = ",M51)</f>
-        <v>popneed_free_movement = 2643</v>
-      </c>
-      <c r="AC51" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 2885</v>
-      </c>
-      <c r="AD51" t="str">
+        <v>popneed_services = 20722</v>
+      </c>
+      <c r="AE51" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 44846</v>
+      </c>
+      <c r="AF51" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 20722</v>
-      </c>
-      <c r="AE51" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 44846</v>
-      </c>
-      <c r="AF51" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 8640</v>
       </c>
       <c r="AG51" t="s">
@@ -18313,50 +19055,49 @@
         <v>132</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="1"/>
-        <v>58.234000000000002</v>
+        <v>66.1661</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W52" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 2566</v>
+      </c>
+      <c r="X52" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 2566</v>
-      </c>
-      <c r="X52" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 52</v>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 908</v>
       </c>
       <c r="Z52" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 4522</v>
+      </c>
+      <c r="AA52" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 3043</v>
+      </c>
+      <c r="AB52" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 2808</v>
+      </c>
+      <c r="AC52" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 3074</v>
+      </c>
+      <c r="AD52" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 4522</v>
-      </c>
-      <c r="AA52" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 3043</v>
-      </c>
-      <c r="AB52" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 2808</v>
-      </c>
-      <c r="AC52" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 3074</v>
-      </c>
-      <c r="AD52" t="str">
+        <v>popneed_services = 22650</v>
+      </c>
+      <c r="AE52" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 55668</v>
+      </c>
+      <c r="AF52" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 22650</v>
-      </c>
-      <c r="AE52" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 55668</v>
-      </c>
-      <c r="AF52" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 9690</v>
       </c>
       <c r="AG52" t="s">
@@ -18410,50 +19151,49 @@
         <v>132</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="1"/>
-        <v>71.381</v>
+        <v>80.905900000000003</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W53" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 2673</v>
+      </c>
+      <c r="X53" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 2673</v>
-      </c>
-      <c r="X53" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 52</v>
       </c>
       <c r="Y53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 945</v>
       </c>
       <c r="Z53" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 4715</v>
+      </c>
+      <c r="AA53" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 3189</v>
+      </c>
+      <c r="AB53" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 2978</v>
+      </c>
+      <c r="AC53" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 3269</v>
+      </c>
+      <c r="AD53" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 4715</v>
-      </c>
-      <c r="AA53" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 3189</v>
-      </c>
-      <c r="AB53" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 2978</v>
-      </c>
-      <c r="AC53" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 3269</v>
-      </c>
-      <c r="AD53" t="str">
+        <v>popneed_services = 24650</v>
+      </c>
+      <c r="AE53" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 68708</v>
+      </c>
+      <c r="AF53" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 24650</v>
-      </c>
-      <c r="AE53" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 68708</v>
-      </c>
-      <c r="AF53" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 10800</v>
       </c>
       <c r="AG53" t="s">
@@ -18507,50 +19247,49 @@
         <v>132</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="1"/>
-        <v>87.13</v>
+        <v>98.519700000000014</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W54" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 2783</v>
+      </c>
+      <c r="X54" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 2783</v>
-      </c>
-      <c r="X54" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 52</v>
       </c>
       <c r="Y54" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 982</v>
       </c>
       <c r="Z54" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 4912</v>
+      </c>
+      <c r="AA54" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 3338</v>
+      </c>
+      <c r="AB54" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 3153</v>
+      </c>
+      <c r="AC54" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 3470</v>
+      </c>
+      <c r="AD54" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 4912</v>
-      </c>
-      <c r="AA54" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 3338</v>
-      </c>
-      <c r="AB54" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 3153</v>
-      </c>
-      <c r="AC54" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 3470</v>
-      </c>
-      <c r="AD54" t="str">
+        <v>popneed_services = 26720</v>
+      </c>
+      <c r="AE54" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 84347</v>
+      </c>
+      <c r="AF54" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 26720</v>
-      </c>
-      <c r="AE54" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 84347</v>
-      </c>
-      <c r="AF54" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 11970</v>
       </c>
       <c r="AG54" t="s">
@@ -18604,50 +19343,49 @@
         <v>132</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="1"/>
-        <v>105.93300000000001</v>
+        <v>119.50620000000001</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W55" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 2894</v>
+      </c>
+      <c r="X55" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 2894</v>
-      </c>
-      <c r="X55" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 52</v>
       </c>
       <c r="Y55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 1020</v>
       </c>
       <c r="Z55" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 5112</v>
+      </c>
+      <c r="AA55" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 3489</v>
+      </c>
+      <c r="AB55" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 3333</v>
+      </c>
+      <c r="AC55" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 3677</v>
+      </c>
+      <c r="AD55" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 5112</v>
-      </c>
-      <c r="AA55" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 3489</v>
-      </c>
-      <c r="AB55" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 3333</v>
-      </c>
-      <c r="AC55" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 3677</v>
-      </c>
-      <c r="AD55" t="str">
+        <v>popneed_services = 28856</v>
+      </c>
+      <c r="AE55" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 103039</v>
+      </c>
+      <c r="AF55" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 28856</v>
-      </c>
-      <c r="AE55" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 103039</v>
-      </c>
-      <c r="AF55" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 13200</v>
       </c>
       <c r="AG55" t="s">
@@ -18701,50 +19439,49 @@
         <v>132</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="1"/>
-        <v>128.31</v>
+        <v>144.43600000000001</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W56" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 3007</v>
+      </c>
+      <c r="X56" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 3007</v>
-      </c>
-      <c r="X56" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 53</v>
       </c>
       <c r="Y56" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 1058</v>
       </c>
       <c r="Z56" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 5314</v>
+      </c>
+      <c r="AA56" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 3644</v>
+      </c>
+      <c r="AB56" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 3518</v>
+      </c>
+      <c r="AC56" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 3890</v>
+      </c>
+      <c r="AD56" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 5314</v>
-      </c>
-      <c r="AA56" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 3644</v>
-      </c>
-      <c r="AB56" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 3518</v>
-      </c>
-      <c r="AC56" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 3890</v>
-      </c>
-      <c r="AD56" t="str">
+        <v>popneed_services = 31053</v>
+      </c>
+      <c r="AE56" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 125303</v>
+      </c>
+      <c r="AF56" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 31053</v>
-      </c>
-      <c r="AE56" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 125303</v>
-      </c>
-      <c r="AF56" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 14490</v>
       </c>
       <c r="AG56" t="s">
@@ -18798,50 +19535,49 @@
         <v>132</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="1"/>
-        <v>154.86600000000001</v>
+        <v>173.9742</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W57" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 3122</v>
+      </c>
+      <c r="X57" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 3122</v>
-      </c>
-      <c r="X57" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 53</v>
       </c>
       <c r="Y57" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>popneed_luxury_food = 1098</v>
       </c>
       <c r="Z57" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 5520</v>
+      </c>
+      <c r="AA57" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 3800</v>
+      </c>
+      <c r="AB57" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 3708</v>
+      </c>
+      <c r="AC57" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 4109</v>
+      </c>
+      <c r="AD57" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 5520</v>
-      </c>
-      <c r="AA57" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 3800</v>
-      </c>
-      <c r="AB57" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 3708</v>
-      </c>
-      <c r="AC57" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 4109</v>
-      </c>
-      <c r="AD57" t="str">
+        <v>popneed_services = 33308</v>
+      </c>
+      <c r="AE57" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 151744</v>
+      </c>
+      <c r="AF57" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 33308</v>
-      </c>
-      <c r="AE57" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 151744</v>
-      </c>
-      <c r="AF57" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 15840</v>
       </c>
       <c r="AG57" t="s">
@@ -18895,50 +19631,49 @@
         <v>132</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="1"/>
-        <v>186.3</v>
+        <v>208.89060000000001</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W58" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 3238</v>
+      </c>
+      <c r="X58" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 3238</v>
-      </c>
-      <c r="X58" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 53</v>
       </c>
       <c r="Y58" t="str">
-        <f t="shared" ref="Y58:Y90" si="25">CONCATENATE("popneed_luxury_food = ",F58)</f>
+        <f t="shared" ref="Y58:Y90" si="24">CONCATENATE("popneed_luxury_food = ",F58)</f>
         <v>popneed_luxury_food = 1138</v>
       </c>
       <c r="Z58" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 5729</v>
+      </c>
+      <c r="AA58" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 3960</v>
+      </c>
+      <c r="AB58" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 3903</v>
+      </c>
+      <c r="AC58" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 4334</v>
+      </c>
+      <c r="AD58" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 5729</v>
-      </c>
-      <c r="AA58" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 3960</v>
-      </c>
-      <c r="AB58" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 3903</v>
-      </c>
-      <c r="AC58" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 4334</v>
-      </c>
-      <c r="AD58" t="str">
+        <v>popneed_services = 35619</v>
+      </c>
+      <c r="AE58" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 183062</v>
+      </c>
+      <c r="AF58" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 35619</v>
-      </c>
-      <c r="AE58" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 183062</v>
-      </c>
-      <c r="AF58" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 17250</v>
       </c>
       <c r="AG58" t="s">
@@ -18992,50 +19727,49 @@
         <v>132</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="1"/>
-        <v>223.43</v>
+        <v>250.08340000000001</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W59" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 3356</v>
+      </c>
+      <c r="X59" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 3356</v>
-      </c>
-      <c r="X59" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 53</v>
       </c>
       <c r="Y59" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1178</v>
       </c>
       <c r="Z59" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 5941</v>
+      </c>
+      <c r="AA59" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 4122</v>
+      </c>
+      <c r="AB59" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 4103</v>
+      </c>
+      <c r="AC59" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 4565</v>
+      </c>
+      <c r="AD59" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 5941</v>
-      </c>
-      <c r="AA59" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 4122</v>
-      </c>
-      <c r="AB59" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 4103</v>
-      </c>
-      <c r="AC59" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 4565</v>
-      </c>
-      <c r="AD59" t="str">
+        <v>popneed_services = 37982</v>
+      </c>
+      <c r="AE59" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 220074</v>
+      </c>
+      <c r="AF59" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 37982</v>
-      </c>
-      <c r="AE59" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 220074</v>
-      </c>
-      <c r="AF59" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 18720</v>
       </c>
       <c r="AG59" t="s">
@@ -19089,50 +19823,49 @@
         <v>132</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="1"/>
-        <v>267.19799999999998</v>
+        <v>298.58879999999999</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W60" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 3476</v>
+      </c>
+      <c r="X60" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 3476</v>
-      </c>
-      <c r="X60" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y60" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1220</v>
       </c>
       <c r="Z60" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 6156</v>
+      </c>
+      <c r="AA60" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 4287</v>
+      </c>
+      <c r="AB60" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 4308</v>
+      </c>
+      <c r="AC60" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 4802</v>
+      </c>
+      <c r="AD60" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 6156</v>
-      </c>
-      <c r="AA60" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 4287</v>
-      </c>
-      <c r="AB60" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 4308</v>
-      </c>
-      <c r="AC60" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 4802</v>
-      </c>
-      <c r="AD60" t="str">
+        <v>popneed_services = 40393</v>
+      </c>
+      <c r="AE60" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 263722</v>
+      </c>
+      <c r="AF60" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 40393</v>
-      </c>
-      <c r="AE60" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 263722</v>
-      </c>
-      <c r="AF60" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 20250</v>
       </c>
       <c r="AG60" t="s">
@@ -19186,50 +19919,49 @@
         <v>132</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="1"/>
-        <v>318.702</v>
+        <v>355.61429999999996</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W61" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 3598</v>
+      </c>
+      <c r="X61" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 3598</v>
-      </c>
-      <c r="X61" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1262</v>
       </c>
       <c r="Z61" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 6376</v>
+      </c>
+      <c r="AA61" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 4455</v>
+      </c>
+      <c r="AB61" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 4518</v>
+      </c>
+      <c r="AC61" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 5045</v>
+      </c>
+      <c r="AD61" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 6376</v>
-      </c>
-      <c r="AA61" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 4455</v>
-      </c>
-      <c r="AB61" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 4518</v>
-      </c>
-      <c r="AC61" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 5045</v>
-      </c>
-      <c r="AD61" t="str">
+        <v>popneed_services = 42851</v>
+      </c>
+      <c r="AE61" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 315104</v>
+      </c>
+      <c r="AF61" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 42851</v>
-      </c>
-      <c r="AE61" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 315104</v>
-      </c>
-      <c r="AF61" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 21840</v>
       </c>
       <c r="AG61" t="s">
@@ -19283,50 +20015,49 @@
         <v>132</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="1"/>
-        <v>379.22</v>
+        <v>422.56509999999997</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W62" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 3722</v>
+      </c>
+      <c r="X62" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 3722</v>
-      </c>
-      <c r="X62" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y62" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1304</v>
       </c>
       <c r="Z62" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 6598</v>
+      </c>
+      <c r="AA62" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 4625</v>
+      </c>
+      <c r="AB62" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 4733</v>
+      </c>
+      <c r="AC62" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 5294</v>
+      </c>
+      <c r="AD62" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 6598</v>
-      </c>
-      <c r="AA62" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 4625</v>
-      </c>
-      <c r="AB62" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 4733</v>
-      </c>
-      <c r="AC62" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 5294</v>
-      </c>
-      <c r="AD62" t="str">
+        <v>popneed_services = 45353</v>
+      </c>
+      <c r="AE62" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 375498</v>
+      </c>
+      <c r="AF62" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 45353</v>
-      </c>
-      <c r="AE62" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 375498</v>
-      </c>
-      <c r="AF62" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 23490</v>
       </c>
       <c r="AG62" t="s">
@@ -19380,50 +20111,49 @@
         <v>132</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="1"/>
-        <v>450.226</v>
+        <v>501.06390000000005</v>
       </c>
       <c r="V63" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W63" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 3847</v>
+      </c>
+      <c r="X63" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 3847</v>
-      </c>
-      <c r="X63" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y63" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1348</v>
       </c>
       <c r="Z63" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 6823</v>
+      </c>
+      <c r="AA63" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 4798</v>
+      </c>
+      <c r="AB63" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 4953</v>
+      </c>
+      <c r="AC63" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 5549</v>
+      </c>
+      <c r="AD63" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 6823</v>
-      </c>
-      <c r="AA63" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 4798</v>
-      </c>
-      <c r="AB63" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 4953</v>
-      </c>
-      <c r="AC63" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 5549</v>
-      </c>
-      <c r="AD63" t="str">
+        <v>popneed_services = 47898</v>
+      </c>
+      <c r="AE63" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 446379</v>
+      </c>
+      <c r="AF63" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 47898</v>
-      </c>
-      <c r="AE63" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 446379</v>
-      </c>
-      <c r="AF63" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 25200</v>
       </c>
       <c r="AG63" t="s">
@@ -19477,50 +20207,49 @@
         <v>132</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="1"/>
-        <v>533.44500000000005</v>
+        <v>593.00670000000002</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W64" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 3974</v>
+      </c>
+      <c r="X64" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 3974</v>
-      </c>
-      <c r="X64" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 54</v>
       </c>
       <c r="Y64" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1392</v>
       </c>
       <c r="Z64" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 7051</v>
+      </c>
+      <c r="AA64" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 4974</v>
+      </c>
+      <c r="AB64" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 5178</v>
+      </c>
+      <c r="AC64" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 5810</v>
+      </c>
+      <c r="AD64" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 7051</v>
-      </c>
-      <c r="AA64" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 4974</v>
-      </c>
-      <c r="AB64" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 5178</v>
-      </c>
-      <c r="AC64" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 5810</v>
-      </c>
-      <c r="AD64" t="str">
+        <v>popneed_services = 50483</v>
+      </c>
+      <c r="AE64" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 529471</v>
+      </c>
+      <c r="AF64" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 50483</v>
-      </c>
-      <c r="AE64" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 529471</v>
-      </c>
-      <c r="AF64" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 26970</v>
       </c>
       <c r="AG64" t="s">
@@ -19574,50 +20303,49 @@
         <v>132</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="1"/>
-        <v>630.86900000000003</v>
+        <v>700.58479999999997</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W65" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 4103</v>
+      </c>
+      <c r="X65" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 4103</v>
-      </c>
-      <c r="X65" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y65" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1436</v>
       </c>
       <c r="Z65" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 7283</v>
+      </c>
+      <c r="AA65" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 5153</v>
+      </c>
+      <c r="AB65" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 5408</v>
+      </c>
+      <c r="AC65" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 6077</v>
+      </c>
+      <c r="AD65" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 7283</v>
-      </c>
-      <c r="AA65" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 5153</v>
-      </c>
-      <c r="AB65" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 5408</v>
-      </c>
-      <c r="AC65" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 6077</v>
-      </c>
-      <c r="AD65" t="str">
+        <v>popneed_services = 53107</v>
+      </c>
+      <c r="AE65" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 626766</v>
+      </c>
+      <c r="AF65" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 53107</v>
-      </c>
-      <c r="AE65" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 626766</v>
-      </c>
-      <c r="AF65" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 28800</v>
       </c>
       <c r="AG65" t="s">
@@ -19671,50 +20399,49 @@
         <v>132</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="1"/>
-        <v>744.82</v>
+        <v>826.35199999999998</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W66" t="str">
+        <f t="shared" si="1"/>
+        <v>popneed_intoxicants = 4234</v>
+      </c>
+      <c r="X66" t="str">
         <f t="shared" si="2"/>
-        <v>popneed_intoxicants = 4234</v>
-      </c>
-      <c r="X66" t="str">
-        <f t="shared" si="3"/>
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y66" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1482</v>
       </c>
       <c r="Z66" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 7518</v>
+      </c>
+      <c r="AA66" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 5334</v>
+      </c>
+      <c r="AB66" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 5643</v>
+      </c>
+      <c r="AC66" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 6350</v>
+      </c>
+      <c r="AD66" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 7518</v>
-      </c>
-      <c r="AA66" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 5334</v>
-      </c>
-      <c r="AB66" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 5643</v>
-      </c>
-      <c r="AC66" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 6350</v>
-      </c>
-      <c r="AD66" t="str">
+        <v>popneed_services = 55768</v>
+      </c>
+      <c r="AE66" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 740586</v>
+      </c>
+      <c r="AF66" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 55768</v>
-      </c>
-      <c r="AE66" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 740586</v>
-      </c>
-      <c r="AF66" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 30690</v>
       </c>
       <c r="AG66" t="s">
@@ -19768,50 +20495,49 @@
         <v>132</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" ref="U67:U100" si="26">0.001*(D67+P67)</f>
-        <v>877.99099999999999</v>
+        <v>973.27070000000003</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" ref="W67:W100" si="27">CONCATENATE("popneed_intoxicants = ",D67)</f>
+        <f t="shared" ref="W67:W100" si="25">CONCATENATE("popneed_intoxicants = ",D67)</f>
         <v>popneed_intoxicants = 4367</v>
       </c>
       <c r="X67" t="str">
-        <f t="shared" ref="X67:X100" si="28">CONCATENATE("popneed_heating = ",E67)</f>
+        <f t="shared" ref="X67:X100" si="26">CONCATENATE("popneed_heating = ",E67)</f>
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y67" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1528</v>
       </c>
       <c r="Z67" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 7756</v>
+      </c>
+      <c r="AA67" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 5518</v>
+      </c>
+      <c r="AB67" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 5883</v>
+      </c>
+      <c r="AC67" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 6629</v>
+      </c>
+      <c r="AD67" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 7756</v>
-      </c>
-      <c r="AA67" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 5518</v>
-      </c>
-      <c r="AB67" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 5883</v>
-      </c>
-      <c r="AC67" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 6629</v>
-      </c>
-      <c r="AD67" t="str">
+        <v>popneed_services = 58467</v>
+      </c>
+      <c r="AE67" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 873624</v>
+      </c>
+      <c r="AF67" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 58467</v>
-      </c>
-      <c r="AE67" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 873624</v>
-      </c>
-      <c r="AF67" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 32640</v>
       </c>
       <c r="AG67" t="s">
@@ -19865,50 +20591,49 @@
         <v>132</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="26"/>
-        <v>1033.5129999999999</v>
+        <v>1144.7847999999999</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 4502</v>
       </c>
       <c r="X68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y68" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1575</v>
       </c>
       <c r="Z68" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 7997</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 5705</v>
+      </c>
+      <c r="AB68" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 6128</v>
+      </c>
+      <c r="AC68" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 6914</v>
+      </c>
+      <c r="AD68" t="str">
         <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 7997</v>
-      </c>
-      <c r="AA68" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 5705</v>
-      </c>
-      <c r="AB68" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 6128</v>
-      </c>
-      <c r="AC68" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 6914</v>
-      </c>
-      <c r="AD68" t="str">
+        <v>popneed_services = 61201</v>
+      </c>
+      <c r="AE68" t="str">
+        <f t="shared" si="19"/>
+        <v>popneed_influence = 1029011</v>
+      </c>
+      <c r="AF68" t="str">
         <f t="shared" si="22"/>
-        <v>popneed_services = 61201</v>
-      </c>
-      <c r="AE68" t="str">
-        <f t="shared" si="20"/>
-        <v>popneed_influence = 1029011</v>
-      </c>
-      <c r="AF68" t="str">
-        <f t="shared" si="23"/>
         <v>popneed_art  = 34650</v>
       </c>
       <c r="AG68" t="s">
@@ -19962,50 +20687,49 @@
         <v>132</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="26"/>
-        <v>1215.02</v>
+        <v>1344.8928000000001</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 4638</v>
       </c>
       <c r="X69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>popneed_heating = 55</v>
       </c>
       <c r="Y69" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>popneed_luxury_food = 1622</v>
       </c>
       <c r="Z69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>popneed_luxury_items = 8242</v>
       </c>
       <c r="AA69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>popneed_health = 5895</v>
       </c>
       <c r="AB69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>popneed_free_movement = 6378</v>
       </c>
       <c r="AC69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>popneed_communication = 7205</v>
       </c>
       <c r="AD69" t="str">
-        <f t="shared" ref="AD69:AD85" si="29">CONCATENATE("popneed_services = ",O69)</f>
+        <f t="shared" ref="AD69:AD85" si="27">CONCATENATE("popneed_services = ",O69)</f>
         <v>popneed_services = 63971</v>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 1210382</v>
       </c>
       <c r="AF69" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 36720</v>
       </c>
       <c r="AG69" t="s">
@@ -20059,50 +20783,49 @@
         <v>132</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="26"/>
-        <v>1426.7360000000001</v>
+        <v>1578.2391</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W70" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 4777</v>
+      </c>
+      <c r="X70" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 56</v>
+      </c>
+      <c r="Y70" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 1670</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 8490</v>
+      </c>
+      <c r="AA70" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 6088</v>
+      </c>
+      <c r="AB70" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 6633</v>
+      </c>
+      <c r="AC70" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 7502</v>
+      </c>
+      <c r="AD70" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 4777</v>
-      </c>
-      <c r="X70" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 56</v>
-      </c>
-      <c r="Y70" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 1670</v>
-      </c>
-      <c r="Z70" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 8490</v>
-      </c>
-      <c r="AA70" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 6088</v>
-      </c>
-      <c r="AB70" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 6633</v>
-      </c>
-      <c r="AC70" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 7502</v>
-      </c>
-      <c r="AD70" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 66776</v>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 1421959</v>
       </c>
       <c r="AF70" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 38850</v>
       </c>
       <c r="AG70" t="s">
@@ -20156,50 +20879,49 @@
         <v>132</v>
       </c>
       <c r="U71" s="4">
-        <f t="shared" si="26"/>
-        <v>1673.57</v>
+        <v>1850.2254</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W71" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 4917</v>
+      </c>
+      <c r="X71" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 56</v>
+      </c>
+      <c r="Y71" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 1719</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 8742</v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 6283</v>
+      </c>
+      <c r="AB71" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 6893</v>
+      </c>
+      <c r="AC71" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 7805</v>
+      </c>
+      <c r="AD71" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 4917</v>
-      </c>
-      <c r="X71" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 56</v>
-      </c>
-      <c r="Y71" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 1719</v>
-      </c>
-      <c r="Z71" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 8742</v>
-      </c>
-      <c r="AA71" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 6283</v>
-      </c>
-      <c r="AB71" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 6893</v>
-      </c>
-      <c r="AC71" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 7805</v>
-      </c>
-      <c r="AD71" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 69616</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 1668653</v>
       </c>
       <c r="AF71" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 41040</v>
       </c>
       <c r="AG71" t="s">
@@ -20253,50 +20975,49 @@
         <v>132</v>
       </c>
       <c r="U72" s="4">
-        <f t="shared" si="26"/>
-        <v>1961.223</v>
+        <v>2167.1217999999999</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W72" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 5059</v>
+      </c>
+      <c r="X72" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 56</v>
+      </c>
+      <c r="Y72" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 1768</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 8997</v>
+      </c>
+      <c r="AA72" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 6482</v>
+      </c>
+      <c r="AB72" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 7158</v>
+      </c>
+      <c r="AC72" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 8114</v>
+      </c>
+      <c r="AD72" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 5059</v>
-      </c>
-      <c r="X72" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 56</v>
-      </c>
-      <c r="Y72" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 1768</v>
-      </c>
-      <c r="Z72" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 8997</v>
-      </c>
-      <c r="AA72" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 6482</v>
-      </c>
-      <c r="AB72" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 7158</v>
-      </c>
-      <c r="AC72" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 8114</v>
-      </c>
-      <c r="AD72" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 72490</v>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 1956164</v>
       </c>
       <c r="AF72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 43290</v>
       </c>
       <c r="AG72" t="s">
@@ -20350,50 +21071,49 @@
         <v>132</v>
       </c>
       <c r="U73" s="4">
-        <f t="shared" si="26"/>
-        <v>2296.319</v>
+        <v>2536.2148999999999</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W73" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 5203</v>
+      </c>
+      <c r="X73" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 56</v>
+      </c>
+      <c r="Y73" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 1819</v>
+      </c>
+      <c r="Z73" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 9255</v>
+      </c>
+      <c r="AA73" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 6683</v>
+      </c>
+      <c r="AB73" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 7428</v>
+      </c>
+      <c r="AC73" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 8429</v>
+      </c>
+      <c r="AD73" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 5203</v>
-      </c>
-      <c r="X73" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 56</v>
-      </c>
-      <c r="Y73" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 1819</v>
-      </c>
-      <c r="Z73" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 9255</v>
-      </c>
-      <c r="AA73" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 6683</v>
-      </c>
-      <c r="AB73" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 7428</v>
-      </c>
-      <c r="AC73" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 8429</v>
-      </c>
-      <c r="AD73" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 75400</v>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 2291116</v>
       </c>
       <c r="AF73" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 45600</v>
       </c>
       <c r="AG73" t="s">
@@ -20447,50 +21167,49 @@
         <v>132</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="26"/>
-        <v>2686.5549999999998</v>
+        <v>2965.9711000000002</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W74" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 5349</v>
+      </c>
+      <c r="X74" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 56</v>
+      </c>
+      <c r="Y74" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 1869</v>
+      </c>
+      <c r="Z74" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 9517</v>
+      </c>
+      <c r="AA74" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 6887</v>
+      </c>
+      <c r="AB74" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 7703</v>
+      </c>
+      <c r="AC74" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 8750</v>
+      </c>
+      <c r="AD74" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 5349</v>
-      </c>
-      <c r="X74" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 56</v>
-      </c>
-      <c r="Y74" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 1869</v>
-      </c>
-      <c r="Z74" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 9517</v>
-      </c>
-      <c r="AA74" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 6887</v>
-      </c>
-      <c r="AB74" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 7703</v>
-      </c>
-      <c r="AC74" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 8750</v>
-      </c>
-      <c r="AD74" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 78344</v>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 2681206</v>
       </c>
       <c r="AF74" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 47970</v>
       </c>
       <c r="AG74" t="s">
@@ -20544,50 +21263,49 @@
         <v>132</v>
       </c>
       <c r="U75" s="4">
-        <f t="shared" si="26"/>
-        <v>3140.8690000000001</v>
+        <v>3466.2226999999998</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W75" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 5497</v>
+      </c>
+      <c r="X75" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 57</v>
+      </c>
+      <c r="Y75" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 1921</v>
+      </c>
+      <c r="Z75" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 9783</v>
+      </c>
+      <c r="AA75" t="str">
+        <f t="shared" si="7"/>
+        <v>popneed_health = 7094</v>
+      </c>
+      <c r="AB75" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 7983</v>
+      </c>
+      <c r="AC75" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 9077</v>
+      </c>
+      <c r="AD75" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 5497</v>
-      </c>
-      <c r="X75" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 57</v>
-      </c>
-      <c r="Y75" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 1921</v>
-      </c>
-      <c r="Z75" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 9783</v>
-      </c>
-      <c r="AA75" t="str">
-        <f t="shared" si="8"/>
-        <v>popneed_health = 7094</v>
-      </c>
-      <c r="AB75" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 7983</v>
-      </c>
-      <c r="AC75" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 9077</v>
-      </c>
-      <c r="AD75" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 81323</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 3135372</v>
       </c>
       <c r="AF75" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 50400</v>
       </c>
       <c r="AG75" t="s">
@@ -20641,50 +21359,49 @@
         <v>132</v>
       </c>
       <c r="U76" s="4">
-        <f t="shared" si="26"/>
-        <v>3669.6530000000002</v>
+        <v>4048.4004</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W76" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 5647</v>
+      </c>
+      <c r="X76" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 57</v>
+      </c>
+      <c r="Y76" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 1973</v>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 10052</v>
+      </c>
+      <c r="AA76" t="str">
+        <f t="shared" ref="AA76:AA100" si="28">CONCATENATE("popneed_health = ",L76)</f>
+        <v>popneed_health = 7304</v>
+      </c>
+      <c r="AB76" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 8268</v>
+      </c>
+      <c r="AC76" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 9410</v>
+      </c>
+      <c r="AD76" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 5647</v>
-      </c>
-      <c r="X76" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 57</v>
-      </c>
-      <c r="Y76" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 1973</v>
-      </c>
-      <c r="Z76" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 10052</v>
-      </c>
-      <c r="AA76" t="str">
-        <f t="shared" ref="AA76:AA100" si="30">CONCATENATE("popneed_health = ",L76)</f>
-        <v>popneed_health = 7304</v>
-      </c>
-      <c r="AB76" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 8268</v>
-      </c>
-      <c r="AC76" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 9410</v>
-      </c>
-      <c r="AD76" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 84337</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 3664006</v>
       </c>
       <c r="AF76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 52890</v>
       </c>
       <c r="AG76" t="s">
@@ -20738,50 +21455,49 @@
         <v>132</v>
       </c>
       <c r="U77" s="4">
-        <f t="shared" si="26"/>
-        <v>4284.9769999999999</v>
+        <v>4725.7815000000001</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W77" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 5799</v>
+      </c>
+      <c r="X77" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 57</v>
+      </c>
+      <c r="Y77" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2026</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 10324</v>
+      </c>
+      <c r="AA77" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_health = 7517</v>
+      </c>
+      <c r="AB77" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 8558</v>
+      </c>
+      <c r="AC77" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 9749</v>
+      </c>
+      <c r="AD77" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 5799</v>
-      </c>
-      <c r="X77" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 57</v>
-      </c>
-      <c r="Y77" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2026</v>
-      </c>
-      <c r="Z77" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 10324</v>
-      </c>
-      <c r="AA77" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_health = 7517</v>
-      </c>
-      <c r="AB77" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 8558</v>
-      </c>
-      <c r="AC77" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 9749</v>
-      </c>
-      <c r="AD77" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 87387</v>
       </c>
       <c r="AE77" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 4279178</v>
       </c>
       <c r="AF77" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 55440</v>
       </c>
       <c r="AG77" t="s">
@@ -20835,50 +21551,49 @@
         <v>132</v>
       </c>
       <c r="U78" s="4">
-        <f t="shared" si="26"/>
-        <v>5000.8609999999999</v>
+        <v>5513.7880000000005</v>
       </c>
       <c r="V78" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W78" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 5953</v>
+      </c>
+      <c r="X78" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 57</v>
+      </c>
+      <c r="Y78" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2080</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 10600</v>
+      </c>
+      <c r="AA78" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_health = 7732</v>
+      </c>
+      <c r="AB78" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 8853</v>
+      </c>
+      <c r="AC78" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 10094</v>
+      </c>
+      <c r="AD78" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 5953</v>
-      </c>
-      <c r="X78" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 57</v>
-      </c>
-      <c r="Y78" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2080</v>
-      </c>
-      <c r="Z78" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 10600</v>
-      </c>
-      <c r="AA78" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_health = 7732</v>
-      </c>
-      <c r="AB78" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 8853</v>
-      </c>
-      <c r="AC78" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 10094</v>
-      </c>
-      <c r="AD78" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 90473</v>
       </c>
       <c r="AE78" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 4994908</v>
       </c>
       <c r="AF78" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 58050</v>
       </c>
       <c r="AG78" t="s">
@@ -20932,50 +21647,49 @@
         <v>132</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="26"/>
-        <v>5833.6</v>
+        <v>6430.3454000000002</v>
       </c>
       <c r="V79" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W79" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 6108</v>
+      </c>
+      <c r="X79" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 57</v>
+      </c>
+      <c r="Y79" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2134</v>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 10879</v>
+      </c>
+      <c r="AA79" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_health = 7951</v>
+      </c>
+      <c r="AB79" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 9153</v>
+      </c>
+      <c r="AC79" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 10445</v>
+      </c>
+      <c r="AD79" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 6108</v>
-      </c>
-      <c r="X79" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 57</v>
-      </c>
-      <c r="Y79" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2134</v>
-      </c>
-      <c r="Z79" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 10879</v>
-      </c>
-      <c r="AA79" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_health = 7951</v>
-      </c>
-      <c r="AB79" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 9153</v>
-      </c>
-      <c r="AC79" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 10445</v>
-      </c>
-      <c r="AD79" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 93595</v>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 5827492</v>
       </c>
       <c r="AF79" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 60720</v>
       </c>
       <c r="AG79" t="s">
@@ -21029,50 +21743,49 @@
         <v>132</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="26"/>
-        <v>6802.1230000000005</v>
+        <v>7496.2736000000004</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W80" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 6266</v>
+      </c>
+      <c r="X80" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 57</v>
+      </c>
+      <c r="Y80" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2189</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 11161</v>
+      </c>
+      <c r="AA80" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_health = 8172</v>
+      </c>
+      <c r="AB80" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 9458</v>
+      </c>
+      <c r="AC80" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 10802</v>
+      </c>
+      <c r="AD80" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 6266</v>
-      </c>
-      <c r="X80" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 57</v>
-      </c>
-      <c r="Y80" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2189</v>
-      </c>
-      <c r="Z80" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 11161</v>
-      </c>
-      <c r="AA80" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_health = 8172</v>
-      </c>
-      <c r="AB80" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 9458</v>
-      </c>
-      <c r="AC80" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 10802</v>
-      </c>
-      <c r="AD80" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 96754</v>
       </c>
       <c r="AE80" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 6795857</v>
       </c>
       <c r="AF80" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 63450</v>
       </c>
       <c r="AG80" t="s">
@@ -21126,50 +21839,49 @@
         <v>132</v>
       </c>
       <c r="U81" s="4">
-        <f t="shared" si="26"/>
-        <v>7928.4170000000004</v>
+        <v>8735.7608</v>
       </c>
       <c r="V81" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W81" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 6425</v>
+      </c>
+      <c r="X81" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 58</v>
+      </c>
+      <c r="Y81" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2245</v>
+      </c>
+      <c r="Z81" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 11448</v>
+      </c>
+      <c r="AA81" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_health = 8397</v>
+      </c>
+      <c r="AB81" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 9768</v>
+      </c>
+      <c r="AC81" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 11165</v>
+      </c>
+      <c r="AD81" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 6425</v>
-      </c>
-      <c r="X81" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 58</v>
-      </c>
-      <c r="Y81" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2245</v>
-      </c>
-      <c r="Z81" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 11448</v>
-      </c>
-      <c r="AA81" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_health = 8397</v>
-      </c>
-      <c r="AB81" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 9768</v>
-      </c>
-      <c r="AC81" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 11165</v>
-      </c>
-      <c r="AD81" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 99950</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 7921992</v>
       </c>
       <c r="AF81" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 66240</v>
       </c>
       <c r="AG81" t="s">
@@ -21223,50 +21935,49 @@
         <v>132</v>
       </c>
       <c r="U82" s="4">
-        <f t="shared" si="26"/>
-        <v>9238.0419999999995</v>
+        <v>10176.9203</v>
       </c>
       <c r="V82" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W82" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 6587</v>
+      </c>
+      <c r="X82" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 58</v>
+      </c>
+      <c r="Y82" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2301</v>
+      </c>
+      <c r="Z82" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 11737</v>
+      </c>
+      <c r="AA82" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_health = 8624</v>
+      </c>
+      <c r="AB82" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 10083</v>
+      </c>
+      <c r="AC82" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 11534</v>
+      </c>
+      <c r="AD82" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 6587</v>
-      </c>
-      <c r="X82" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 58</v>
-      </c>
-      <c r="Y82" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2301</v>
-      </c>
-      <c r="Z82" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 11737</v>
-      </c>
-      <c r="AA82" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_health = 8624</v>
-      </c>
-      <c r="AB82" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 10083</v>
-      </c>
-      <c r="AC82" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 11534</v>
-      </c>
-      <c r="AD82" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 103184</v>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 9231455</v>
       </c>
       <c r="AF82" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 69090</v>
       </c>
       <c r="AG82" t="s">
@@ -21320,50 +22031,49 @@
         <v>132</v>
       </c>
       <c r="U83" s="4">
-        <f t="shared" si="26"/>
-        <v>10760.679</v>
+        <v>11852.4038</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W83" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 6750</v>
+      </c>
+      <c r="X83" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 58</v>
+      </c>
+      <c r="Y83" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2358</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 12031</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_health = 8854</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="23"/>
+        <v>popneed_free_movement = 10403</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 11909</v>
+      </c>
+      <c r="AD83" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 6750</v>
-      </c>
-      <c r="X83" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 58</v>
-      </c>
-      <c r="Y83" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2358</v>
-      </c>
-      <c r="Z83" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 12031</v>
-      </c>
-      <c r="AA83" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_health = 8854</v>
-      </c>
-      <c r="AB83" t="str">
-        <f t="shared" si="24"/>
-        <v>popneed_free_movement = 10403</v>
-      </c>
-      <c r="AC83" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 11909</v>
-      </c>
-      <c r="AD83" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 106456</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 10753929</v>
       </c>
       <c r="AF83" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 72000</v>
       </c>
       <c r="AG83" t="s">
@@ -21417,50 +22127,49 @@
         <v>132</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="26"/>
-        <v>12530.821</v>
+        <v>13800.1515</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W84" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 6916</v>
+      </c>
+      <c r="X84" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 58</v>
+      </c>
+      <c r="Y84" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2416</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 12328</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_health = 9088</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" ref="AB84:AB100" si="29">CONCATENATE("popneed_free_movement = ",M84)</f>
+        <v>popneed_free_movement = 10728</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 12290</v>
+      </c>
+      <c r="AD84" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 6916</v>
-      </c>
-      <c r="X84" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 58</v>
-      </c>
-      <c r="Y84" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2416</v>
-      </c>
-      <c r="Z84" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 12328</v>
-      </c>
-      <c r="AA84" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_health = 9088</v>
-      </c>
-      <c r="AB84" t="str">
-        <f t="shared" ref="AB84:AB100" si="31">CONCATENATE("popneed_free_movement = ",M84)</f>
-        <v>popneed_free_movement = 10728</v>
-      </c>
-      <c r="AC84" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 12290</v>
-      </c>
-      <c r="AD84" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 109766</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 12523905</v>
       </c>
       <c r="AF84" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 74970</v>
       </c>
       <c r="AG84" t="s">
@@ -21514,50 +22223,49 @@
         <v>132</v>
       </c>
       <c r="U85" s="4">
-        <f t="shared" si="26"/>
-        <v>14588.541000000001</v>
+        <v>16064.245700000001</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W85" t="str">
+        <f t="shared" si="25"/>
+        <v>popneed_intoxicants = 7083</v>
+      </c>
+      <c r="X85" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 58</v>
+      </c>
+      <c r="Y85" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2475</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 12628</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="28"/>
+        <v>popneed_health = 9324</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 11058</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="13"/>
+        <v>popneed_communication = 12677</v>
+      </c>
+      <c r="AD85" t="str">
         <f t="shared" si="27"/>
-        <v>popneed_intoxicants = 7083</v>
-      </c>
-      <c r="X85" t="str">
-        <f t="shared" si="28"/>
-        <v>popneed_heating = 58</v>
-      </c>
-      <c r="Y85" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2475</v>
-      </c>
-      <c r="Z85" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 12628</v>
-      </c>
-      <c r="AA85" t="str">
-        <f t="shared" si="30"/>
-        <v>popneed_health = 9324</v>
-      </c>
-      <c r="AB85" t="str">
-        <f t="shared" si="31"/>
-        <v>popneed_free_movement = 11058</v>
-      </c>
-      <c r="AC85" t="str">
-        <f t="shared" si="14"/>
-        <v>popneed_communication = 12677</v>
-      </c>
-      <c r="AD85" t="str">
-        <f t="shared" si="29"/>
         <v>popneed_services = 113116</v>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 14581458</v>
       </c>
       <c r="AF85" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 78000</v>
       </c>
       <c r="AG85" t="s">
@@ -21611,50 +22319,49 @@
         <v>132</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="26"/>
-        <v>16980.398000000001</v>
+        <v>18695.900300000001</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W86" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 7252</v>
       </c>
       <c r="X86" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 58</v>
+      </c>
+      <c r="Y86" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2534</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 12932</v>
+      </c>
+      <c r="AA86" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 58</v>
-      </c>
-      <c r="Y86" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2534</v>
-      </c>
-      <c r="Z86" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 12932</v>
-      </c>
-      <c r="AA86" t="str">
-        <f t="shared" si="30"/>
         <v>popneed_health = 9563</v>
       </c>
       <c r="AB86" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>popneed_free_movement = 11393</v>
       </c>
       <c r="AC86" t="str">
-        <f t="shared" ref="AC86:AC100" si="32">CONCATENATE("popneed_communication = ",N86)</f>
+        <f t="shared" ref="AC86:AC100" si="30">CONCATENATE("popneed_communication = ",N86)</f>
         <v>popneed_communication = 13070</v>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" ref="AD86:AD100" si="33">CONCATENATE("popneed_services = ",O86)</f>
+        <f t="shared" ref="AD86:AD100" si="31">CONCATENATE("popneed_services = ",O86)</f>
         <v>popneed_services = 116505</v>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 16973146</v>
       </c>
       <c r="AF86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 81090</v>
       </c>
       <c r="AG86" t="s">
@@ -21708,50 +22415,49 @@
         <v>132</v>
       </c>
       <c r="U87" s="4">
-        <f t="shared" si="26"/>
-        <v>19760.486000000001</v>
+        <v>21754.6178</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W87" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 7424</v>
       </c>
       <c r="X87" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 59</v>
+      </c>
+      <c r="Y87" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2594</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 13239</v>
+      </c>
+      <c r="AA87" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 59</v>
-      </c>
-      <c r="Y87" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2594</v>
-      </c>
-      <c r="Z87" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 13239</v>
-      </c>
-      <c r="AA87" t="str">
+        <v>popneed_health = 9805</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 11733</v>
+      </c>
+      <c r="AC87" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 9805</v>
-      </c>
-      <c r="AB87" t="str">
+        <v>popneed_communication = 13469</v>
+      </c>
+      <c r="AD87" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 11733</v>
-      </c>
-      <c r="AC87" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 13469</v>
-      </c>
-      <c r="AD87" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 119933</v>
       </c>
       <c r="AE87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 19753062</v>
       </c>
       <c r="AF87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 84240</v>
       </c>
       <c r="AG87" t="s">
@@ -21805,50 +22511,49 @@
         <v>132</v>
       </c>
       <c r="U88" s="4">
-        <f t="shared" si="26"/>
-        <v>22991.652000000002</v>
+        <v>25309.531900000002</v>
       </c>
       <c r="V88" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W88" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 7597</v>
       </c>
       <c r="X88" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 59</v>
+      </c>
+      <c r="Y88" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2654</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 13550</v>
+      </c>
+      <c r="AA88" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 59</v>
-      </c>
-      <c r="Y88" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2654</v>
-      </c>
-      <c r="Z88" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 13550</v>
-      </c>
-      <c r="AA88" t="str">
+        <v>popneed_health = 10050</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 12078</v>
+      </c>
+      <c r="AC88" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 10050</v>
-      </c>
-      <c r="AB88" t="str">
+        <v>popneed_communication = 13874</v>
+      </c>
+      <c r="AD88" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 12078</v>
-      </c>
-      <c r="AC88" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 13874</v>
-      </c>
-      <c r="AD88" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 123402</v>
       </c>
       <c r="AE88" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 22984055</v>
       </c>
       <c r="AF88" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 87450</v>
       </c>
       <c r="AG88" t="s">
@@ -21902,50 +22607,49 @@
         <v>132</v>
       </c>
       <c r="U89" s="4">
-        <f t="shared" si="26"/>
-        <v>26746.913</v>
+        <v>29440.960500000001</v>
       </c>
       <c r="V89" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W89" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 7772</v>
       </c>
       <c r="X89" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 59</v>
+      </c>
+      <c r="Y89" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2716</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 13864</v>
+      </c>
+      <c r="AA89" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 59</v>
-      </c>
-      <c r="Y89" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2716</v>
-      </c>
-      <c r="Z89" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 13864</v>
-      </c>
-      <c r="AA89" t="str">
+        <v>popneed_health = 10298</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 12428</v>
+      </c>
+      <c r="AC89" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 10298</v>
-      </c>
-      <c r="AB89" t="str">
+        <v>popneed_communication = 14285</v>
+      </c>
+      <c r="AD89" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 12428</v>
-      </c>
-      <c r="AC89" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 14285</v>
-      </c>
-      <c r="AD89" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 126912</v>
       </c>
       <c r="AE89" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 26739141</v>
       </c>
       <c r="AF89" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 90720</v>
       </c>
       <c r="AG89" t="s">
@@ -21999,50 +22703,49 @@
         <v>132</v>
       </c>
       <c r="U90" s="4">
-        <f t="shared" si="26"/>
-        <v>31111.108</v>
+        <v>34242.226300000002</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W90" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 7949</v>
       </c>
       <c r="X90" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 59</v>
+      </c>
+      <c r="Y90" t="str">
+        <f t="shared" si="24"/>
+        <v>popneed_luxury_food = 2778</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 14182</v>
+      </c>
+      <c r="AA90" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 59</v>
-      </c>
-      <c r="Y90" t="str">
-        <f t="shared" si="25"/>
-        <v>popneed_luxury_food = 2778</v>
-      </c>
-      <c r="Z90" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 14182</v>
-      </c>
-      <c r="AA90" t="str">
+        <v>popneed_health = 10548</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 12783</v>
+      </c>
+      <c r="AC90" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 10548</v>
-      </c>
-      <c r="AB90" t="str">
+        <v>popneed_communication = 14702</v>
+      </c>
+      <c r="AD90" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 12783</v>
-      </c>
-      <c r="AC90" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 14702</v>
-      </c>
-      <c r="AD90" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 130463</v>
       </c>
       <c r="AE90" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 31103159</v>
       </c>
       <c r="AF90" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 94050</v>
       </c>
       <c r="AG90" t="s">
@@ -22096,50 +22799,49 @@
         <v>132</v>
       </c>
       <c r="U91" s="4">
-        <f t="shared" si="26"/>
-        <v>36182.798999999999</v>
+        <v>39821.746699999996</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W91" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 8129</v>
       </c>
       <c r="X91" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 59</v>
+      </c>
+      <c r="Y91" t="str">
+        <f t="shared" ref="Y91:Y100" si="32">CONCATENATE("popneed_luxury_food = ",F91)</f>
+        <v>popneed_luxury_food = 2840</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 14504</v>
+      </c>
+      <c r="AA91" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 59</v>
-      </c>
-      <c r="Y91" t="str">
-        <f t="shared" ref="Y91:Y100" si="34">CONCATENATE("popneed_luxury_food = ",F91)</f>
-        <v>popneed_luxury_food = 2840</v>
-      </c>
-      <c r="Z91" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 14504</v>
-      </c>
-      <c r="AA91" t="str">
+        <v>popneed_health = 10802</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 13143</v>
+      </c>
+      <c r="AC91" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 10802</v>
-      </c>
-      <c r="AB91" t="str">
+        <v>popneed_communication = 15125</v>
+      </c>
+      <c r="AD91" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 13143</v>
-      </c>
-      <c r="AC91" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 15125</v>
-      </c>
-      <c r="AD91" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 134055</v>
       </c>
       <c r="AE91" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 36174670</v>
       </c>
       <c r="AF91" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 97440</v>
       </c>
       <c r="AG91" t="s">
@@ -22193,50 +22895,49 @@
         <v>132</v>
       </c>
       <c r="U92" s="4">
-        <f t="shared" si="26"/>
-        <v>42076.502</v>
+        <v>46305.491399999999</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W92" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 8310</v>
       </c>
       <c r="X92" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 59</v>
+      </c>
+      <c r="Y92" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_luxury_food = 2904</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 14829</v>
+      </c>
+      <c r="AA92" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 59</v>
-      </c>
-      <c r="Y92" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_luxury_food = 2904</v>
-      </c>
-      <c r="Z92" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 14829</v>
-      </c>
-      <c r="AA92" t="str">
+        <v>popneed_health = 11059</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 13508</v>
+      </c>
+      <c r="AC92" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 11059</v>
-      </c>
-      <c r="AB92" t="str">
+        <v>popneed_communication = 15554</v>
+      </c>
+      <c r="AD92" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 13508</v>
-      </c>
-      <c r="AC92" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 15554</v>
-      </c>
-      <c r="AD92" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 137689</v>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 42068192</v>
       </c>
       <c r="AF92" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 100890</v>
       </c>
       <c r="AG92" t="s">
@@ -22290,50 +22991,49 @@
         <v>132</v>
       </c>
       <c r="U93" s="4">
-        <f t="shared" si="26"/>
-        <v>48925.268000000004</v>
+        <v>53839.815399999999</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W93" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 8493</v>
       </c>
       <c r="X93" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 59</v>
+      </c>
+      <c r="Y93" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_luxury_food = 2968</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 15158</v>
+      </c>
+      <c r="AA93" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 59</v>
-      </c>
-      <c r="Y93" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_luxury_food = 2968</v>
-      </c>
-      <c r="Z93" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 15158</v>
-      </c>
-      <c r="AA93" t="str">
+        <v>popneed_health = 11319</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 13878</v>
+      </c>
+      <c r="AC93" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 11319</v>
-      </c>
-      <c r="AB93" t="str">
+        <v>popneed_communication = 15989</v>
+      </c>
+      <c r="AD93" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 13878</v>
-      </c>
-      <c r="AC93" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 15989</v>
-      </c>
-      <c r="AD93" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 141365</v>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 48916775</v>
       </c>
       <c r="AF93" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 104400</v>
       </c>
       <c r="AG93" t="s">
@@ -22387,50 +23087,49 @@
         <v>132</v>
       </c>
       <c r="U94" s="4">
-        <f t="shared" si="26"/>
-        <v>56883.678</v>
+        <v>62594.757799999999</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W94" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 8678</v>
       </c>
       <c r="X94" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 60</v>
+      </c>
+      <c r="Y94" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_luxury_food = 3032</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 15490</v>
+      </c>
+      <c r="AA94" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 60</v>
-      </c>
-      <c r="Y94" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_luxury_food = 3032</v>
-      </c>
-      <c r="Z94" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 15490</v>
-      </c>
-      <c r="AA94" t="str">
+        <v>popneed_health = 11582</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 14253</v>
+      </c>
+      <c r="AC94" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 11582</v>
-      </c>
-      <c r="AB94" t="str">
+        <v>popneed_communication = 16430</v>
+      </c>
+      <c r="AD94" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 14253</v>
-      </c>
-      <c r="AC94" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 16430</v>
-      </c>
-      <c r="AD94" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 145083</v>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 56875000</v>
       </c>
       <c r="AF94" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 107970</v>
       </c>
       <c r="AG94" t="s">
@@ -22484,50 +23183,49 @@
         <v>132</v>
       </c>
       <c r="U95" s="4">
-        <f t="shared" si="26"/>
-        <v>66131.328000000009</v>
+        <v>72767.87430000001</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W95" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 8865</v>
       </c>
       <c r="X95" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 60</v>
+      </c>
+      <c r="Y95" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_luxury_food = 3098</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 15826</v>
+      </c>
+      <c r="AA95" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 60</v>
-      </c>
-      <c r="Y95" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_luxury_food = 3098</v>
-      </c>
-      <c r="Z95" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 15826</v>
-      </c>
-      <c r="AA95" t="str">
+        <v>popneed_health = 11847</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 14633</v>
+      </c>
+      <c r="AC95" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 11847</v>
-      </c>
-      <c r="AB95" t="str">
+        <v>popneed_communication = 16877</v>
+      </c>
+      <c r="AD95" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 14633</v>
-      </c>
-      <c r="AC95" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 16877</v>
-      </c>
-      <c r="AD95" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 148844</v>
       </c>
       <c r="AE95" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>popneed_influence = 66122463</v>
       </c>
       <c r="AF95" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 111600</v>
       </c>
       <c r="AG95" t="s">
@@ -22581,50 +23279,49 @@
         <v>132</v>
       </c>
       <c r="U96" s="4">
-        <f t="shared" si="26"/>
-        <v>76876.881000000008</v>
+        <v>84588.694199999998</v>
       </c>
       <c r="V96" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W96" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 9054</v>
       </c>
       <c r="X96" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 60</v>
+      </c>
+      <c r="Y96" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_luxury_food = 3164</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 16165</v>
+      </c>
+      <c r="AA96" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 60</v>
-      </c>
-      <c r="Y96" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_luxury_food = 3164</v>
-      </c>
-      <c r="Z96" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 16165</v>
-      </c>
-      <c r="AA96" t="str">
+        <v>popneed_health = 12116</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 15018</v>
+      </c>
+      <c r="AC96" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 12116</v>
-      </c>
-      <c r="AB96" t="str">
+        <v>popneed_communication = 17330</v>
+      </c>
+      <c r="AD96" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 15018</v>
-      </c>
-      <c r="AC96" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 17330</v>
-      </c>
-      <c r="AD96" t="str">
-        <f t="shared" si="33"/>
         <v>popneed_services = 152648</v>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" ref="AE96:AE100" si="35">CONCATENATE("popneed_influence = ",P96)</f>
+        <f t="shared" ref="AE96:AE100" si="33">CONCATENATE("popneed_influence = ",P96)</f>
         <v>popneed_influence = 76867827</v>
       </c>
       <c r="AF96" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 115290</v>
       </c>
       <c r="AG96" t="s">
@@ -22678,50 +23375,49 @@
         <v>132</v>
       </c>
       <c r="U97" s="4">
-        <f t="shared" si="26"/>
-        <v>89362.767000000007</v>
+        <v>98323.889700000014</v>
       </c>
       <c r="V97" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W97" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 9246</v>
       </c>
       <c r="X97" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 60</v>
+      </c>
+      <c r="Y97" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_luxury_food = 3231</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 16509</v>
+      </c>
+      <c r="AA97" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 60</v>
-      </c>
-      <c r="Y97" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_luxury_food = 3231</v>
-      </c>
-      <c r="Z97" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 16509</v>
-      </c>
-      <c r="AA97" t="str">
+        <v>popneed_health = 12388</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 15408</v>
+      </c>
+      <c r="AC97" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 12388</v>
-      </c>
-      <c r="AB97" t="str">
+        <v>popneed_communication = 17789</v>
+      </c>
+      <c r="AD97" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 15408</v>
-      </c>
-      <c r="AC97" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 17789</v>
-      </c>
-      <c r="AD97" t="str">
+        <v>popneed_services = 156495</v>
+      </c>
+      <c r="AE97" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_services = 156495</v>
-      </c>
-      <c r="AE97" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_influence = 89353521</v>
       </c>
       <c r="AF97" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 119040</v>
       </c>
       <c r="AG97" t="s">
@@ -22775,50 +23471,49 @@
         <v>132</v>
       </c>
       <c r="U98" s="4">
-        <f t="shared" si="26"/>
-        <v>103870.656</v>
+        <v>114283.2994</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W98" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 9439</v>
       </c>
       <c r="X98" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 60</v>
+      </c>
+      <c r="Y98" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_luxury_food = 3299</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 16855</v>
+      </c>
+      <c r="AA98" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 60</v>
-      </c>
-      <c r="Y98" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_luxury_food = 3299</v>
-      </c>
-      <c r="Z98" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 16855</v>
-      </c>
-      <c r="AA98" t="str">
+        <v>popneed_health = 12662</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 15803</v>
+      </c>
+      <c r="AC98" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 12662</v>
-      </c>
-      <c r="AB98" t="str">
+        <v>popneed_communication = 18254</v>
+      </c>
+      <c r="AD98" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 15803</v>
-      </c>
-      <c r="AC98" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 18254</v>
-      </c>
-      <c r="AD98" t="str">
+        <v>popneed_services = 160385</v>
+      </c>
+      <c r="AE98" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_services = 160385</v>
-      </c>
-      <c r="AE98" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_influence = 103861217</v>
       </c>
       <c r="AF98" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 122850</v>
       </c>
       <c r="AG98" t="s">
@@ -22872,50 +23567,49 @@
         <v>132</v>
       </c>
       <c r="U99" s="4">
-        <f t="shared" si="26"/>
-        <v>120727.791</v>
+        <v>132826.89000000001</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W99" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 9634</v>
       </c>
       <c r="X99" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 60</v>
+      </c>
+      <c r="Y99" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_luxury_food = 3367</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 17205</v>
+      </c>
+      <c r="AA99" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 60</v>
-      </c>
-      <c r="Y99" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_luxury_food = 3367</v>
-      </c>
-      <c r="Z99" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 17205</v>
-      </c>
-      <c r="AA99" t="str">
+        <v>popneed_health = 12940</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 16203</v>
+      </c>
+      <c r="AC99" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 12940</v>
-      </c>
-      <c r="AB99" t="str">
+        <v>popneed_communication = 18725</v>
+      </c>
+      <c r="AD99" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 16203</v>
-      </c>
-      <c r="AC99" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 18725</v>
-      </c>
-      <c r="AD99" t="str">
+        <v>popneed_services = 164319</v>
+      </c>
+      <c r="AE99" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_services = 164319</v>
-      </c>
-      <c r="AE99" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_influence = 120718157</v>
       </c>
       <c r="AF99" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 126720</v>
       </c>
       <c r="AG99" t="s">
@@ -22969,50 +23663,49 @@
         <v>132</v>
       </c>
       <c r="U100" s="4">
-        <f t="shared" si="26"/>
-        <v>140314.38200000001</v>
+        <v>154372.89250000002</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W100" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>popneed_intoxicants = 9831</v>
       </c>
       <c r="X100" t="str">
+        <f t="shared" si="26"/>
+        <v>popneed_heating = 60</v>
+      </c>
+      <c r="Y100" t="str">
+        <f t="shared" si="32"/>
+        <v>popneed_luxury_food = 3436</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="20"/>
+        <v>popneed_luxury_items = 17559</v>
+      </c>
+      <c r="AA100" t="str">
         <f t="shared" si="28"/>
-        <v>popneed_heating = 60</v>
-      </c>
-      <c r="Y100" t="str">
-        <f t="shared" si="34"/>
-        <v>popneed_luxury_food = 3436</v>
-      </c>
-      <c r="Z100" t="str">
-        <f t="shared" si="21"/>
-        <v>popneed_luxury_items = 17559</v>
-      </c>
-      <c r="AA100" t="str">
+        <v>popneed_health = 13221</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="29"/>
+        <v>popneed_free_movement = 16608</v>
+      </c>
+      <c r="AC100" t="str">
         <f t="shared" si="30"/>
-        <v>popneed_health = 13221</v>
-      </c>
-      <c r="AB100" t="str">
+        <v>popneed_communication = 19202</v>
+      </c>
+      <c r="AD100" t="str">
         <f t="shared" si="31"/>
-        <v>popneed_free_movement = 16608</v>
-      </c>
-      <c r="AC100" t="str">
-        <f t="shared" si="32"/>
-        <v>popneed_communication = 19202</v>
-      </c>
-      <c r="AD100" t="str">
+        <v>popneed_services = 168297</v>
+      </c>
+      <c r="AE100" t="str">
         <f t="shared" si="33"/>
-        <v>popneed_services = 168297</v>
-      </c>
-      <c r="AE100" t="str">
-        <f t="shared" si="35"/>
         <v>popneed_influence = 140304551</v>
       </c>
       <c r="AF100" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>popneed_art  = 130650</v>
       </c>
       <c r="AG100" t="s">
@@ -23033,7 +23726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDDD610-E2E9-4695-8E9E-49B0B0E299D5}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
